--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52856C3E-75AB-4EFC-B1E2-388BF5C8D0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B17534-3724-4638-BF8E-3F4D69343EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$309</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="584">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1038,9 +1038,6 @@
     <t>Deposits</t>
   </si>
   <si>
-    <t>right_of_use+right_of_use_assets+other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits</t>
-  </si>
-  <si>
     <t>investments</t>
   </si>
   <si>
@@ -1110,9 +1107,6 @@
     <t>Amount owing by ultimate holding company</t>
   </si>
   <si>
-    <t>amount_due_from_related_companies+amounts_due_by_a_related_party+amounts_due_from_director+amounts_due_from_subsidiary_companies+amount_owing_by_related_companies+amount_owing_by_a_director+other_receivables_and_prepaid_expenses+amount_owing_by_ultimate_holding_company</t>
-  </si>
-  <si>
     <t>cash_at_banks_and_on_hand</t>
   </si>
   <si>
@@ -1197,9 +1191,6 @@
     <t>other non-financial asset</t>
   </si>
   <si>
-    <t>derivative_financial_instruments+others_current+other_current+other_assets+Other_current_assets+contract_assets+advance_payments_to_subsidiary_companies+other_non_financial_asset</t>
-  </si>
-  <si>
     <t>Total equity or Capital deficiency</t>
   </si>
   <si>
@@ -1230,9 +1221,6 @@
     <t>borrowing</t>
   </si>
   <si>
-    <t>loans_and_borrowings+term_loans+finance_lease_payables+bank_borrowings+borrowings+borrowing</t>
-  </si>
-  <si>
     <t>Deferred income tax liabilities</t>
   </si>
   <si>
@@ -1254,18 +1242,12 @@
     <t>Lease liabilities, non-current</t>
   </si>
   <si>
-    <t>lease_liabilities+employee_benefits+derivative_financial_instruments+other_non_current_liabilities+finance_lease_liabilities+lease_liabilities_non_current</t>
-  </si>
-  <si>
     <t>Short-term borrowings</t>
   </si>
   <si>
     <t>Short_term_borrowings</t>
   </si>
   <si>
-    <t>loans_and_borrowings+bank_borrowings+Short_term_borrowings+term_loans+borrowings+borrowing</t>
-  </si>
-  <si>
     <t>Trade payables and accruals</t>
   </si>
   <si>
@@ -1359,9 +1341,6 @@
     <t>Other_payables</t>
   </si>
   <si>
-    <t>Other_payables+other_payables_and_accruals+amount_owing_to_immediate_holding_company+other_payables_deposits_and_accruals+amount_owing_to_a_director+amount_due_to_a_director+other_payables_and_accrued_expenses+amount_due_to_shareholder</t>
-  </si>
-  <si>
     <t>Accural</t>
   </si>
   <si>
@@ -1413,9 +1392,6 @@
     <t>Margin accounts with brokers</t>
   </si>
   <si>
-    <t>derivative_financial_instruments+lease_liabilities+Other_current_liabilities+other_liabilities+contract_liabilities+finance_lease_payables+finance_lease_liabilities+hire_purchase_creditor+lease_liabilities_current+margin_accounts_with_brokers</t>
-  </si>
-  <si>
     <t>Total Equity and Liabilities or Total Liabilities</t>
   </si>
   <si>
@@ -1557,9 +1533,6 @@
     <t>Other income and gains</t>
   </si>
   <si>
-    <t>other_income+other_income_gains_and_losses+other_gains_net+other_income_and_gains</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other operating income </t>
   </si>
   <si>
@@ -1756,6 +1729,57 @@
   </si>
   <si>
     <t>goodwill_and_intangible_assets+Intangible_assets+intangible_asset+goodwill</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>right_of_use+right_of_use_assets+other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives</t>
+  </si>
+  <si>
+    <t>Amount due from brokers</t>
+  </si>
+  <si>
+    <t>amount_due_from_brokers</t>
+  </si>
+  <si>
+    <t>amount_due_from_related_companies+amounts_due_by_a_related_party+amounts_due_from_director+amounts_due_from_subsidiary_companies+amount_owing_by_related_companies+amount_owing_by_a_director+other_receivables_and_prepaid_expenses+amount_owing_by_ultimate_holding_company+amount_due_from_brokers</t>
+  </si>
+  <si>
+    <t>derivative_financial_instruments+others_current+other_current+other_assets+Other_current_assets+contract_assets+advance_payments_to_subsidiary_companies+other_non_financial_asset+Derivatives</t>
+  </si>
+  <si>
+    <t>lease_liabilities+employee_benefits+derivative_financial_instruments+other_non_current_liabilities+finance_lease_liabilities+lease_liabilities_non_current+Derivatives</t>
+  </si>
+  <si>
+    <t>Other_payables+other_payables_and_accruals+amount_owing_to_immediate_holding_company+other_payables_deposits_and_accruals+amount_owing_to_a_director+amount_due_to_a_director+other_payables_and_accrued_expenses+amount_due_to_shareholder+amount_due_from_brokers</t>
+  </si>
+  <si>
+    <t>derivative_financial_instruments+lease_liabilities+Other_current_liabilities+other_liabilities+contract_liabilities+finance_lease_payables+finance_lease_liabilities+hire_purchase_creditor+lease_liabilities_current+margin_accounts_with_brokers+Derivatives</t>
+  </si>
+  <si>
+    <t>Loan Payable</t>
+  </si>
+  <si>
+    <t>Loan_Payable</t>
+  </si>
+  <si>
+    <t>loans_and_borrowings+bank_borrowings+Short_term_borrowings+term_loans+borrowings+borrowing+Loan_Payable</t>
+  </si>
+  <si>
+    <t>loans_and_borrowings+term_loans+finance_lease_payables+bank_borrowings+borrowings+borrowing+Loan_Payable</t>
+  </si>
+  <si>
+    <t>Other income, net</t>
+  </si>
+  <si>
+    <t>Other_income_net</t>
+  </si>
+  <si>
+    <t>Other_income</t>
+  </si>
+  <si>
+    <t>Other_income+other_income_gains_and_losses+other_gains_net+other_income_and_gains+Other_income_net</t>
   </si>
 </sst>
 </file>
@@ -2195,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H332"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,7 +2598,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>135</v>
@@ -2649,7 +2673,7 @@
         <v>136</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D23" t="s">
         <v>134</v>
@@ -3607,15 +3631,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>32</v>
+        <v>567</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>336</v>
+        <v>567</v>
       </c>
       <c r="D65" t="s">
         <v>134</v>
@@ -3630,15 +3654,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>163</v>
+        <v>568</v>
       </c>
       <c r="D66" t="s">
         <v>134</v>
@@ -3647,7 +3671,7 @@
         <v>144</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H66" t="s">
         <v>151</v>
@@ -3655,13 +3679,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>337</v>
+        <v>188</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
         <v>134</v>
@@ -3678,13 +3702,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D68" t="s">
         <v>134</v>
@@ -3701,13 +3725,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D69" t="s">
         <v>134</v>
@@ -3724,13 +3748,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>137</v>
+        <v>340</v>
       </c>
       <c r="D70" t="s">
         <v>134</v>
@@ -3747,13 +3771,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
         <v>134</v>
@@ -3770,13 +3794,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D72" t="s">
         <v>134</v>
@@ -3793,13 +3817,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>34</v>
+        <v>342</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D73" t="s">
         <v>134</v>
@@ -3816,13 +3840,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="D74" t="s">
         <v>134</v>
@@ -3839,13 +3863,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
         <v>134</v>
@@ -3862,13 +3886,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
         <v>134</v>
@@ -3883,15 +3907,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
         <v>134</v>
@@ -3906,15 +3930,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
         <v>134</v>
@@ -3929,15 +3953,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>345</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
         <v>134</v>
@@ -3952,15 +3976,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D80" t="s">
         <v>134</v>
@@ -3977,13 +4001,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D81" t="s">
         <v>134</v>
@@ -3998,15 +4022,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D82" t="s">
         <v>134</v>
@@ -4023,13 +4047,13 @@
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
         <v>134</v>
@@ -4044,15 +4068,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D84" t="s">
         <v>134</v>
@@ -4067,15 +4091,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D85" t="s">
         <v>134</v>
@@ -4092,13 +4116,13 @@
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D86" t="s">
         <v>134</v>
@@ -4113,15 +4137,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>136</v>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
@@ -4138,13 +4162,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>361</v>
+        <v>570</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>362</v>
+        <v>569</v>
       </c>
       <c r="D88" t="s">
         <v>134</v>
@@ -4159,15 +4183,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>135</v>
+    <row r="89" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>363</v>
+        <v>571</v>
       </c>
       <c r="D89" t="s">
         <v>134</v>
@@ -4184,13 +4208,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
@@ -4207,13 +4231,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D91" t="s">
         <v>134</v>
@@ -4230,13 +4254,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D92" t="s">
         <v>134</v>
@@ -4251,15 +4275,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D93" t="s">
         <v>134</v>
@@ -4276,13 +4300,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>181</v>
+        <v>366</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>31</v>
+        <v>367</v>
       </c>
       <c r="D94" t="s">
         <v>134</v>
@@ -4297,15 +4321,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="D95" t="s">
         <v>134</v>
@@ -4322,13 +4346,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="D96" t="s">
         <v>134</v>
@@ -4345,13 +4369,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>373</v>
+        <v>165</v>
       </c>
       <c r="D97" t="s">
         <v>134</v>
@@ -4368,13 +4392,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>29</v>
+        <v>370</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
@@ -4391,13 +4415,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="D99" t="s">
         <v>134</v>
@@ -4414,7 +4438,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>135</v>
@@ -4437,13 +4461,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>
@@ -4460,13 +4484,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
@@ -4483,13 +4507,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D103" t="s">
         <v>134</v>
@@ -4506,13 +4530,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
@@ -4529,13 +4553,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="D105" t="s">
         <v>134</v>
@@ -4550,15 +4574,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D106" t="s">
         <v>134</v>
@@ -4575,13 +4599,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>43</v>
+        <v>375</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D107" t="s">
         <v>134</v>
@@ -4596,15 +4620,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>169</v>
+        <v>376</v>
       </c>
       <c r="D108" t="s">
         <v>134</v>
@@ -4621,13 +4645,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D109" t="s">
         <v>134</v>
@@ -4644,13 +4668,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>382</v>
+        <v>169</v>
       </c>
       <c r="D110" t="s">
         <v>134</v>
@@ -4667,13 +4691,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>197</v>
+        <v>378</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="D111" t="s">
         <v>134</v>
@@ -4690,13 +4714,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="D112" t="s">
         <v>134</v>
@@ -4713,13 +4737,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D113" t="s">
         <v>134</v>
@@ -4736,13 +4760,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D114" t="s">
         <v>134</v>
@@ -4759,13 +4783,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D115" t="s">
         <v>134</v>
@@ -4782,13 +4806,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>383</v>
+        <v>198</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>384</v>
+        <v>172</v>
       </c>
       <c r="D116" t="s">
         <v>134</v>
@@ -4803,15 +4827,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>385</v>
+        <v>243</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>386</v>
+        <v>170</v>
       </c>
       <c r="D117" t="s">
         <v>134</v>
@@ -4828,13 +4852,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
@@ -4849,15 +4873,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
@@ -4874,13 +4898,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="D120" t="s">
         <v>134</v>
@@ -4888,101 +4912,101 @@
       <c r="E120" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="5"/>
+      <c r="F120" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="H120" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="A121" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D121" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D122" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" t="s">
+        <v>144</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H122" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="D123" t="s">
         <v>134</v>
       </c>
       <c r="E123" t="s">
-        <v>145</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>237</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="H123" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D124" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124" t="s">
-        <v>145</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H124" t="s">
-        <v>151</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D125" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" t="s">
-        <v>145</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H125" t="s">
-        <v>151</v>
-      </c>
+      <c r="A125" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="D126" t="s">
         <v>134</v>
@@ -4997,15 +5021,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>391</v>
+        <v>240</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D127" t="s">
         <v>134</v>
@@ -5022,13 +5046,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D128" t="s">
         <v>134</v>
@@ -5045,13 +5069,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="D129" t="s">
         <v>134</v>
@@ -5068,13 +5092,13 @@
     </row>
     <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="D130" t="s">
         <v>134</v>
@@ -5089,15 +5113,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>29</v>
+        <v>389</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
@@ -5114,7 +5138,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>135</v>
@@ -5135,9 +5159,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>135</v>
@@ -5158,15 +5182,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
         <v>134</v>
@@ -5175,7 +5199,7 @@
         <v>145</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H134" t="s">
         <v>151</v>
@@ -5183,13 +5207,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>393</v>
+        <v>54</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>394</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -5198,7 +5222,7 @@
         <v>145</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H135" t="s">
         <v>151</v>
@@ -5206,13 +5230,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>395</v>
+        <v>55</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>396</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -5221,7 +5245,7 @@
         <v>145</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H136" t="s">
         <v>151</v>
@@ -5229,13 +5253,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>397</v>
+        <v>192</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>398</v>
+        <v>211</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
@@ -5252,13 +5276,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>191</v>
+        <v>390</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="D138" t="s">
         <v>134</v>
@@ -5275,13 +5299,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D139" t="s">
         <v>134</v>
@@ -5296,15 +5320,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>56</v>
+        <v>394</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
@@ -5321,13 +5345,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D141" t="s">
         <v>134</v>
@@ -5344,13 +5368,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>214</v>
+        <v>396</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>215</v>
+        <v>396</v>
       </c>
       <c r="D142" t="s">
         <v>134</v>
@@ -5367,13 +5391,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>402</v>
+        <v>577</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>401</v>
+        <v>576</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
@@ -5388,15 +5412,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>403</v>
+        <v>579</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
@@ -5411,15 +5435,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="D145" t="s">
         <v>134</v>
@@ -5436,13 +5460,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="D146" t="s">
         <v>134</v>
@@ -5459,13 +5483,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>199</v>
+        <v>398</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="D147" t="s">
         <v>134</v>
@@ -5480,15 +5504,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>216</v>
+        <v>399</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -5503,15 +5527,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
@@ -5528,13 +5552,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>404</v>
+        <v>217</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>405</v>
+        <v>139</v>
       </c>
       <c r="D150" t="s">
         <v>134</v>
@@ -5551,13 +5575,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>406</v>
+        <v>199</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>407</v>
+        <v>220</v>
       </c>
       <c r="D151" t="s">
         <v>134</v>
@@ -5572,15 +5596,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
       <c r="D152" t="s">
         <v>134</v>
@@ -5597,13 +5621,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D153" t="s">
         <v>134</v>
@@ -5620,13 +5644,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="D154" t="s">
         <v>134</v>
@@ -5635,7 +5659,7 @@
         <v>145</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H154" t="s">
         <v>151</v>
@@ -5643,13 +5667,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D155" t="s">
         <v>134</v>
@@ -5658,7 +5682,7 @@
         <v>145</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H155" t="s">
         <v>151</v>
@@ -5666,36 +5690,36 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>410</v>
+        <v>567</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>409</v>
+        <v>567</v>
       </c>
       <c r="D156" t="s">
         <v>134</v>
       </c>
       <c r="E156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H156" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>393</v>
+        <v>59</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>394</v>
+        <v>573</v>
       </c>
       <c r="D157" t="s">
         <v>134</v>
@@ -5704,7 +5728,7 @@
         <v>145</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H157" t="s">
         <v>151</v>
@@ -5712,13 +5736,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D158" t="s">
         <v>134</v>
@@ -5727,7 +5751,7 @@
         <v>145</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H158" t="s">
         <v>151</v>
@@ -5735,13 +5759,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>399</v>
+        <v>192</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="D159" t="s">
         <v>134</v>
@@ -5756,15 +5780,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>61</v>
+        <v>394</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D160" t="s">
         <v>134</v>
@@ -5781,13 +5805,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>222</v>
+        <v>405</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>223</v>
+        <v>404</v>
       </c>
       <c r="D161" t="s">
         <v>134</v>
@@ -5804,13 +5828,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>224</v>
+        <v>390</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>225</v>
+        <v>391</v>
       </c>
       <c r="D162" t="s">
         <v>134</v>
@@ -5827,13 +5851,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="D163" t="s">
         <v>134</v>
@@ -5850,13 +5874,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D164" t="s">
         <v>134</v>
@@ -5871,15 +5895,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>62</v>
+        <v>577</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>414</v>
+        <v>576</v>
       </c>
       <c r="D165" t="s">
         <v>134</v>
@@ -5896,13 +5920,13 @@
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>415</v>
+        <v>61</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>416</v>
+        <v>578</v>
       </c>
       <c r="D166" t="s">
         <v>134</v>
@@ -5917,15 +5941,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>417</v>
+        <v>222</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>418</v>
+        <v>223</v>
       </c>
       <c r="D167" t="s">
         <v>134</v>
@@ -5940,15 +5964,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>419</v>
+        <v>224</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>420</v>
+        <v>225</v>
       </c>
       <c r="D168" t="s">
         <v>134</v>
@@ -5963,15 +5987,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>421</v>
+        <v>242</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="D169" t="s">
         <v>134</v>
@@ -5988,13 +6012,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D170" t="s">
         <v>134</v>
@@ -6011,13 +6035,13 @@
     </row>
     <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D171" t="s">
         <v>134</v>
@@ -6032,15 +6056,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="D172" t="s">
         <v>134</v>
@@ -6055,15 +6079,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>64</v>
+        <v>411</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="D173" t="s">
         <v>134</v>
@@ -6078,15 +6102,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
@@ -6101,15 +6125,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="D175" t="s">
         <v>134</v>
@@ -6124,15 +6148,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="D176" t="s">
         <v>134</v>
@@ -6147,15 +6171,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D177" t="s">
         <v>134</v>
@@ -6170,15 +6194,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>436</v>
+        <v>63</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D178" t="s">
         <v>134</v>
@@ -6193,15 +6217,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>438</v>
+        <v>64</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="D179" t="s">
         <v>134</v>
@@ -6218,13 +6242,13 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D180" t="s">
         <v>134</v>
@@ -6239,15 +6263,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>65</v>
+        <v>424</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D181" t="s">
         <v>134</v>
@@ -6262,15 +6286,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>66</v>
+        <v>426</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>29</v>
+        <v>427</v>
       </c>
       <c r="D182" t="s">
         <v>134</v>
@@ -6287,13 +6311,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>67</v>
+        <v>428</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>29</v>
+        <v>429</v>
       </c>
       <c r="D183" t="s">
         <v>134</v>
@@ -6310,13 +6334,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>68</v>
+        <v>430</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D184" t="s">
         <v>134</v>
@@ -6331,15 +6355,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>69</v>
+        <v>432</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>29</v>
+        <v>433</v>
       </c>
       <c r="D185" t="s">
         <v>134</v>
@@ -6356,13 +6380,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>227</v>
+        <v>434</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>228</v>
+        <v>435</v>
       </c>
       <c r="D186" t="s">
         <v>134</v>
@@ -6379,19 +6403,19 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>229</v>
+        <v>570</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>230</v>
+        <v>569</v>
       </c>
       <c r="D187" t="s">
         <v>134</v>
       </c>
       <c r="E187" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>239</v>
@@ -6400,15 +6424,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>445</v>
+        <v>65</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>446</v>
+        <v>574</v>
       </c>
       <c r="D188" t="s">
         <v>134</v>
@@ -6425,13 +6449,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>447</v>
+        <v>66</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>448</v>
+        <v>29</v>
       </c>
       <c r="D189" t="s">
         <v>134</v>
@@ -6448,13 +6472,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>449</v>
+        <v>67</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>450</v>
+        <v>29</v>
       </c>
       <c r="D190" t="s">
         <v>134</v>
@@ -6471,13 +6495,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>451</v>
+        <v>68</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D191" t="s">
         <v>134</v>
@@ -6492,15 +6516,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>453</v>
+        <v>29</v>
       </c>
       <c r="D192" t="s">
         <v>134</v>
@@ -6517,13 +6541,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -6540,13 +6564,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -6563,13 +6587,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>73</v>
+        <v>438</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>29</v>
+        <v>439</v>
       </c>
       <c r="D195" t="s">
         <v>134</v>
@@ -6586,13 +6610,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>197</v>
+        <v>440</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>216</v>
+        <v>441</v>
       </c>
       <c r="D196" t="s">
         <v>134</v>
@@ -6609,13 +6633,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>217</v>
+        <v>442</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>139</v>
+        <v>443</v>
       </c>
       <c r="D197" t="s">
         <v>134</v>
@@ -6632,13 +6656,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>236</v>
+        <v>444</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>231</v>
+        <v>445</v>
       </c>
       <c r="D198" t="s">
         <v>134</v>
@@ -6653,21 +6677,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>233</v>
+        <v>446</v>
       </c>
       <c r="D199" t="s">
         <v>134</v>
       </c>
       <c r="E199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>239</v>
@@ -6678,19 +6702,19 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D200" t="s">
         <v>134</v>
       </c>
       <c r="E200" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>239</v>
@@ -6701,13 +6725,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>395</v>
+        <v>72</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>396</v>
+        <v>29</v>
       </c>
       <c r="D201" t="s">
         <v>134</v>
@@ -6724,13 +6748,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="D202" t="s">
         <v>134</v>
@@ -6747,13 +6771,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>455</v>
+        <v>197</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>456</v>
+        <v>216</v>
       </c>
       <c r="D203" t="s">
         <v>134</v>
@@ -6770,13 +6794,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>457</v>
+        <v>217</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
       <c r="D204" t="s">
         <v>134</v>
@@ -6793,13 +6817,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>459</v>
+        <v>236</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>460</v>
+        <v>231</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
@@ -6814,21 +6838,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="D206" t="s">
         <v>134</v>
       </c>
       <c r="E206" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>239</v>
@@ -6839,19 +6863,19 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D207" t="s">
         <v>134</v>
       </c>
       <c r="E207" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>239</v>
@@ -6862,13 +6886,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>463</v>
+        <v>392</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>462</v>
+        <v>393</v>
       </c>
       <c r="D208" t="s">
         <v>134</v>
@@ -6876,20 +6900,22 @@
       <c r="E208" t="s">
         <v>145</v>
       </c>
-      <c r="F208" s="5"/>
+      <c r="F208" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="H208" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D209" t="s">
         <v>134</v>
@@ -6897,20 +6923,22 @@
       <c r="E209" t="s">
         <v>145</v>
       </c>
-      <c r="F209" s="5"/>
+      <c r="F209" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="H209" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D210" t="s">
         <v>134</v>
@@ -6918,314 +6946,334 @@
       <c r="E210" t="s">
         <v>145</v>
       </c>
-      <c r="F210" s="5"/>
+      <c r="F210" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="H210" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
+      <c r="A211" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D211" t="s">
+        <v>134</v>
+      </c>
+      <c r="E211" t="s">
+        <v>145</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H211" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-    </row>
-    <row r="213" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
-        <v>79</v>
+      <c r="A212" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D212" t="s">
+        <v>134</v>
+      </c>
+      <c r="E212" t="s">
+        <v>145</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H212" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>294</v>
+        <v>135</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="D213" t="s">
         <v>134</v>
       </c>
       <c r="E213" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="H213" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="8" t="s">
-        <v>80</v>
+    <row r="214" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D214" t="s">
+        <v>134</v>
+      </c>
+      <c r="E214" t="s">
+        <v>145</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H214" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D215" t="s">
+        <v>134</v>
+      </c>
+      <c r="E215" t="s">
+        <v>145</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H215" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D216" t="s">
+        <v>134</v>
+      </c>
+      <c r="E216" t="s">
+        <v>145</v>
+      </c>
+      <c r="F216" s="5"/>
+      <c r="H216" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D217" t="s">
+        <v>134</v>
+      </c>
+      <c r="E217" t="s">
+        <v>145</v>
+      </c>
+      <c r="F217" s="5"/>
+      <c r="H217" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D218" t="s">
+        <v>134</v>
+      </c>
+      <c r="E218" t="s">
+        <v>145</v>
+      </c>
+      <c r="F218" s="5"/>
+      <c r="H218" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+    </row>
+    <row r="221" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A221" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D221" t="s">
+        <v>134</v>
+      </c>
+      <c r="E221" t="s">
+        <v>146</v>
+      </c>
+      <c r="H221" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D214" t="s">
-        <v>134</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="D222" t="s">
+        <v>134</v>
+      </c>
+      <c r="E222" t="s">
         <v>146</v>
       </c>
-      <c r="H214" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A215" s="8" t="s">
+      <c r="H222" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A223" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B223" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C223" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D215" t="s">
-        <v>134</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="D223" t="s">
+        <v>134</v>
+      </c>
+      <c r="E223" t="s">
         <v>146</v>
       </c>
-      <c r="H215" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="8" t="s">
+      <c r="H223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B224" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C224" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D216" t="s">
-        <v>134</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="D224" t="s">
+        <v>134</v>
+      </c>
+      <c r="E224" t="s">
         <v>146</v>
       </c>
-      <c r="H216" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+      <c r="H224" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B218" s="4"/>
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="B226" s="4"/>
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B219" s="4"/>
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
+      <c r="B227" s="4"/>
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C220" s="6" t="s">
+      <c r="B228" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D220" t="s">
-        <v>134</v>
-      </c>
-      <c r="E220" t="s">
-        <v>147</v>
-      </c>
-      <c r="H220" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="D228" t="s">
+        <v>134</v>
+      </c>
+      <c r="E228" t="s">
+        <v>147</v>
+      </c>
+      <c r="H228" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C221" s="6" t="s">
+      <c r="B229" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="D221" t="s">
-        <v>134</v>
-      </c>
-      <c r="E221" t="s">
-        <v>147</v>
-      </c>
-      <c r="H221" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D222" t="s">
-        <v>134</v>
-      </c>
-      <c r="E222" t="s">
-        <v>147</v>
-      </c>
-      <c r="H222" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D223" t="s">
-        <v>134</v>
-      </c>
-      <c r="E223" t="s">
-        <v>147</v>
-      </c>
-      <c r="H223" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="D224" t="s">
-        <v>134</v>
-      </c>
-      <c r="E224" t="s">
-        <v>147</v>
-      </c>
-      <c r="H224" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="D225" t="s">
-        <v>134</v>
-      </c>
-      <c r="E225" t="s">
-        <v>147</v>
-      </c>
-      <c r="H225" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D226" t="s">
-        <v>134</v>
-      </c>
-      <c r="E226" t="s">
-        <v>147</v>
-      </c>
-      <c r="H226" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D227" t="s">
-        <v>134</v>
-      </c>
-      <c r="E227" t="s">
-        <v>147</v>
-      </c>
-      <c r="H227" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D228" t="s">
-        <v>134</v>
-      </c>
-      <c r="E228" t="s">
-        <v>147</v>
-      </c>
-      <c r="H228" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="D229" t="s">
         <v>134</v>
@@ -7239,13 +7287,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="D230" t="s">
         <v>134</v>
@@ -7259,13 +7307,13 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>259</v>
+        <v>460</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>260</v>
+        <v>461</v>
       </c>
       <c r="D231" t="s">
         <v>134</v>
@@ -7279,13 +7327,13 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="D232" t="s">
         <v>134</v>
@@ -7299,13 +7347,13 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="D233" t="s">
         <v>134</v>
@@ -7317,15 +7365,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="D234" t="s">
         <v>134</v>
@@ -7339,13 +7387,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
@@ -7359,13 +7407,13 @@
     </row>
     <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>89</v>
+        <v>467</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="D236" t="s">
         <v>134</v>
@@ -7377,15 +7425,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="D237" t="s">
         <v>134</v>
@@ -7399,13 +7447,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D238" t="s">
         <v>134</v>
@@ -7417,15 +7465,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>490</v>
+        <v>260</v>
       </c>
       <c r="D239" t="s">
         <v>134</v>
@@ -7439,13 +7487,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>261</v>
+        <v>473</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>262</v>
+        <v>474</v>
       </c>
       <c r="D240" t="s">
         <v>134</v>
@@ -7459,13 +7507,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>263</v>
+        <v>475</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>264</v>
+        <v>476</v>
       </c>
       <c r="D241" t="s">
         <v>134</v>
@@ -7477,15 +7525,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>491</v>
+        <v>87</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D242" t="s">
         <v>134</v>
@@ -7499,13 +7547,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>493</v>
+        <v>88</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>494</v>
+        <v>29</v>
       </c>
       <c r="D243" t="s">
         <v>134</v>
@@ -7519,13 +7567,13 @@
     </row>
     <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>495</v>
+        <v>29</v>
       </c>
       <c r="D244" t="s">
         <v>134</v>
@@ -7539,13 +7587,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>265</v>
+        <v>478</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>266</v>
+        <v>479</v>
       </c>
       <c r="D245" t="s">
         <v>134</v>
@@ -7559,13 +7607,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>267</v>
+        <v>480</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>268</v>
+        <v>481</v>
       </c>
       <c r="D246" t="s">
         <v>134</v>
@@ -7577,15 +7625,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>496</v>
+        <v>90</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D247" t="s">
         <v>134</v>
@@ -7599,13 +7647,13 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>497</v>
+        <v>261</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>497</v>
+        <v>262</v>
       </c>
       <c r="D248" t="s">
         <v>134</v>
@@ -7619,13 +7667,13 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>498</v>
+        <v>263</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>499</v>
+        <v>264</v>
       </c>
       <c r="D249" t="s">
         <v>134</v>
@@ -7639,13 +7687,13 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="D250" t="s">
         <v>134</v>
@@ -7657,15 +7705,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>92</v>
+        <v>485</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D251" t="s">
         <v>134</v>
@@ -7677,15 +7725,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>269</v>
+        <v>487</v>
       </c>
       <c r="D252" t="s">
         <v>134</v>
@@ -7699,13 +7747,13 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="D253" t="s">
         <v>134</v>
@@ -7719,13 +7767,13 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>503</v>
+        <v>267</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>504</v>
+        <v>268</v>
       </c>
       <c r="D254" t="s">
         <v>134</v>
@@ -7739,13 +7787,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D255" t="s">
         <v>134</v>
@@ -7759,13 +7807,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="D256" t="s">
         <v>134</v>
@@ -7777,55 +7825,55 @@
         <v>150</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>94</v>
+        <v>490</v>
       </c>
       <c r="B257" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D257" t="s">
+        <v>134</v>
+      </c>
+      <c r="E257" t="s">
+        <v>147</v>
+      </c>
+      <c r="H257" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D258" t="s">
+        <v>134</v>
+      </c>
+      <c r="E258" t="s">
+        <v>147</v>
+      </c>
+      <c r="H258" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D257" t="s">
-        <v>134</v>
-      </c>
-      <c r="E257" t="s">
-        <v>147</v>
-      </c>
-      <c r="H257" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D258" t="s">
-        <v>134</v>
-      </c>
-      <c r="E258" t="s">
-        <v>147</v>
-      </c>
-      <c r="H258" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>510</v>
+      <c r="C259" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="D259" t="s">
         <v>134</v>
@@ -7837,15 +7885,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="12" t="s">
-        <v>98</v>
+    <row r="260" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>29</v>
+        <v>136</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="D260" t="s">
         <v>134</v>
@@ -7859,13 +7907,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>99</v>
+        <v>582</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>511</v>
+        <v>95</v>
       </c>
       <c r="D261" t="s">
         <v>134</v>
@@ -7877,15 +7925,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="D262" t="s">
         <v>134</v>
@@ -7897,15 +7945,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D263" t="s">
         <v>134</v>
@@ -7917,115 +7965,115 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>100</v>
+        <v>499</v>
       </c>
       <c r="B264" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D264" t="s">
+        <v>134</v>
+      </c>
+      <c r="E264" t="s">
+        <v>147</v>
+      </c>
+      <c r="H264" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D265" t="s">
+        <v>134</v>
+      </c>
+      <c r="E265" t="s">
+        <v>147</v>
+      </c>
+      <c r="H265" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D264" t="s">
-        <v>134</v>
-      </c>
-      <c r="E264" t="s">
-        <v>147</v>
-      </c>
-      <c r="H264" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C265" s="6" t="s">
+      <c r="C266" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D266" t="s">
+        <v>134</v>
+      </c>
+      <c r="E266" t="s">
+        <v>147</v>
+      </c>
+      <c r="H266" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C267" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D265" t="s">
-        <v>134</v>
-      </c>
-      <c r="E265" t="s">
-        <v>147</v>
-      </c>
-      <c r="H265" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C266" s="6" t="s">
+      <c r="D267" t="s">
+        <v>134</v>
+      </c>
+      <c r="E267" t="s">
+        <v>147</v>
+      </c>
+      <c r="H267" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="D268" t="s">
+        <v>134</v>
+      </c>
+      <c r="E268" t="s">
+        <v>147</v>
+      </c>
+      <c r="H268" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C269" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D266" t="s">
-        <v>134</v>
-      </c>
-      <c r="E266" t="s">
-        <v>147</v>
-      </c>
-      <c r="H266" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D267" t="s">
-        <v>134</v>
-      </c>
-      <c r="E267" t="s">
-        <v>147</v>
-      </c>
-      <c r="H267" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D268" t="s">
-        <v>134</v>
-      </c>
-      <c r="E268" t="s">
-        <v>147</v>
-      </c>
-      <c r="H268" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A269" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="D269" t="s">
         <v>134</v>
@@ -8039,13 +8087,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="D270" t="s">
         <v>134</v>
@@ -8057,15 +8105,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="D271" t="s">
         <v>134</v>
@@ -8079,13 +8127,13 @@
     </row>
     <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="D272" t="s">
         <v>134</v>
@@ -8097,15 +8145,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>271</v>
+        <v>507</v>
       </c>
       <c r="D273" t="s">
         <v>134</v>
@@ -8117,15 +8165,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>527</v>
+        <v>101</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>528</v>
+        <v>29</v>
       </c>
       <c r="D274" t="s">
         <v>134</v>
@@ -8139,13 +8187,13 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>529</v>
+        <v>102</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>530</v>
+        <v>29</v>
       </c>
       <c r="D275" t="s">
         <v>134</v>
@@ -8157,15 +8205,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="D276" t="s">
         <v>134</v>
@@ -8179,13 +8227,13 @@
     </row>
     <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="D277" t="s">
         <v>134</v>
@@ -8197,15 +8245,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="D278" t="s">
         <v>134</v>
@@ -8219,13 +8267,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>536</v>
+        <v>104</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="D279" t="s">
         <v>134</v>
@@ -8239,13 +8287,13 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>272</v>
+        <v>514</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="D280" t="s">
         <v>134</v>
@@ -8257,15 +8305,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="D281" t="s">
         <v>134</v>
@@ -8277,15 +8325,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>541</v>
+        <v>271</v>
       </c>
       <c r="D282" t="s">
         <v>134</v>
@@ -8297,15 +8345,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>105</v>
+        <v>518</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="D283" t="s">
         <v>134</v>
@@ -8319,13 +8367,13 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>274</v>
+        <v>520</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>275</v>
+        <v>521</v>
       </c>
       <c r="D284" t="s">
         <v>134</v>
@@ -8339,13 +8387,13 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>276</v>
+        <v>522</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>277</v>
+        <v>523</v>
       </c>
       <c r="D285" t="s">
         <v>134</v>
@@ -8357,35 +8405,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>106</v>
+        <v>524</v>
       </c>
       <c r="B286" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D286" t="s">
+        <v>134</v>
+      </c>
+      <c r="E286" t="s">
+        <v>147</v>
+      </c>
+      <c r="H286" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A287" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C286" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="D286" t="s">
-        <v>134</v>
-      </c>
-      <c r="E286" t="s">
-        <v>147</v>
-      </c>
-      <c r="H286" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C287" s="6" t="s">
-        <v>29</v>
+        <v>526</v>
       </c>
       <c r="D287" t="s">
         <v>134</v>
@@ -8399,13 +8447,13 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>108</v>
+        <v>527</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>29</v>
+        <v>528</v>
       </c>
       <c r="D288" t="s">
         <v>134</v>
@@ -8419,13 +8467,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="D289" t="s">
         <v>134</v>
@@ -8439,13 +8487,13 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>110</v>
+        <v>529</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>29</v>
+        <v>530</v>
       </c>
       <c r="D290" t="s">
         <v>134</v>
@@ -8457,15 +8505,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>111</v>
+        <v>531</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>29</v>
+        <v>532</v>
       </c>
       <c r="D291" t="s">
         <v>134</v>
@@ -8477,15 +8525,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>29</v>
+        <v>533</v>
       </c>
       <c r="D292" t="s">
         <v>134</v>
@@ -8497,15 +8545,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D293" t="s">
         <v>134</v>
@@ -8519,13 +8567,13 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>544</v>
+        <v>276</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>545</v>
+        <v>277</v>
       </c>
       <c r="D294" t="s">
         <v>134</v>
@@ -8537,15 +8585,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>546</v>
+        <v>106</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="D295" t="s">
         <v>134</v>
@@ -8557,15 +8605,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>548</v>
+        <v>107</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>549</v>
+        <v>29</v>
       </c>
       <c r="D296" t="s">
         <v>134</v>
@@ -8579,13 +8627,13 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>550</v>
+        <v>29</v>
       </c>
       <c r="D297" t="s">
         <v>134</v>
@@ -8597,15 +8645,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="D298" t="s">
         <v>134</v>
@@ -8617,15 +8665,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>551</v>
+        <v>29</v>
       </c>
       <c r="D299" t="s">
         <v>134</v>
@@ -8639,7 +8687,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>135</v>
@@ -8659,7 +8707,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>135</v>
@@ -8677,15 +8725,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="D302" t="s">
         <v>134</v>
@@ -8697,15 +8745,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>117</v>
+        <v>535</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="D303" t="s">
         <v>134</v>
@@ -8717,15 +8765,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>118</v>
+        <v>537</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>282</v>
+        <v>538</v>
       </c>
       <c r="D304" t="s">
         <v>134</v>
@@ -8737,15 +8785,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D305" t="s">
         <v>134</v>
@@ -8759,13 +8807,13 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>149</v>
+        <v>541</v>
       </c>
       <c r="D306" t="s">
         <v>134</v>
@@ -8777,15 +8825,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D307" t="s">
         <v>134</v>
@@ -8797,15 +8845,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>555</v>
+        <v>113</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D308" t="s">
         <v>134</v>
@@ -8819,13 +8867,13 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>557</v>
+        <v>114</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>558</v>
+        <v>29</v>
       </c>
       <c r="D309" t="s">
         <v>134</v>
@@ -8837,15 +8885,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>559</v>
+        <v>29</v>
       </c>
       <c r="D310" t="s">
         <v>134</v>
@@ -8859,7 +8907,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>135</v>
@@ -8879,33 +8927,33 @@
     </row>
     <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B312" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D312" t="s">
+        <v>134</v>
+      </c>
+      <c r="E312" t="s">
+        <v>147</v>
+      </c>
+      <c r="H312" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A313" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B313" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C312" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D312" t="s">
-        <v>134</v>
-      </c>
-      <c r="E312" t="s">
-        <v>147</v>
-      </c>
-      <c r="H312" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C313" s="6" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="D313" t="s">
         <v>134</v>
@@ -8917,15 +8965,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>124</v>
+        <v>544</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>285</v>
+        <v>545</v>
       </c>
       <c r="D314" t="s">
         <v>134</v>
@@ -8939,13 +8987,13 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="D315" t="s">
         <v>134</v>
@@ -8959,13 +9007,13 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D316" t="s">
         <v>134</v>
@@ -8979,13 +9027,13 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>125</v>
+        <v>546</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="D317" t="s">
         <v>134</v>
@@ -8999,13 +9047,13 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D318" t="s">
         <v>134</v>
@@ -9017,15 +9065,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>563</v>
+        <v>119</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="D319" t="s">
         <v>134</v>
@@ -9039,13 +9087,13 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>565</v>
+        <v>120</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>566</v>
+        <v>29</v>
       </c>
       <c r="D320" t="s">
         <v>134</v>
@@ -9057,15 +9105,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>567</v>
+        <v>121</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>568</v>
+        <v>122</v>
       </c>
       <c r="D321" t="s">
         <v>134</v>
@@ -9079,13 +9127,13 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>569</v>
+        <v>123</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>570</v>
+        <v>29</v>
       </c>
       <c r="D322" t="s">
         <v>134</v>
@@ -9097,15 +9145,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>571</v>
+        <v>285</v>
       </c>
       <c r="D323" t="s">
         <v>134</v>
@@ -9117,15 +9165,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="D324" t="s">
         <v>134</v>
@@ -9137,15 +9185,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="D325" t="s">
         <v>134</v>
@@ -9159,13 +9207,13 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>29</v>
+        <v>551</v>
       </c>
       <c r="D326" t="s">
         <v>134</v>
@@ -9179,13 +9227,13 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>127</v>
+        <v>552</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>29</v>
+        <v>553</v>
       </c>
       <c r="D327" t="s">
         <v>134</v>
@@ -9199,13 +9247,13 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>128</v>
+        <v>554</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>29</v>
+        <v>555</v>
       </c>
       <c r="D328" t="s">
         <v>134</v>
@@ -9219,13 +9267,13 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>129</v>
+        <v>556</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
       <c r="D329" t="s">
         <v>134</v>
@@ -9237,15 +9285,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>29</v>
+        <v>559</v>
       </c>
       <c r="D330" t="s">
         <v>134</v>
@@ -9257,15 +9305,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>132</v>
+        <v>560</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>290</v>
+        <v>561</v>
       </c>
       <c r="D331" t="s">
         <v>134</v>
@@ -9277,15 +9325,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>133</v>
+    <row r="332" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A332" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C332" s="11" t="s">
-        <v>573</v>
+      <c r="C332" s="6" t="s">
+        <v>562</v>
       </c>
       <c r="D332" t="s">
         <v>134</v>
@@ -9294,6 +9342,186 @@
         <v>147</v>
       </c>
       <c r="H332" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D333" t="s">
+        <v>134</v>
+      </c>
+      <c r="E333" t="s">
+        <v>147</v>
+      </c>
+      <c r="H333" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D334" t="s">
+        <v>134</v>
+      </c>
+      <c r="E334" t="s">
+        <v>147</v>
+      </c>
+      <c r="H334" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D335" t="s">
+        <v>134</v>
+      </c>
+      <c r="E335" t="s">
+        <v>147</v>
+      </c>
+      <c r="H335" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D336" t="s">
+        <v>134</v>
+      </c>
+      <c r="E336" t="s">
+        <v>147</v>
+      </c>
+      <c r="H336" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D337" t="s">
+        <v>134</v>
+      </c>
+      <c r="E337" t="s">
+        <v>147</v>
+      </c>
+      <c r="H337" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D338" t="s">
+        <v>134</v>
+      </c>
+      <c r="E338" t="s">
+        <v>147</v>
+      </c>
+      <c r="H338" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A339" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D339" t="s">
+        <v>134</v>
+      </c>
+      <c r="E339" t="s">
+        <v>147</v>
+      </c>
+      <c r="H339" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A340" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D340" t="s">
+        <v>134</v>
+      </c>
+      <c r="E340" t="s">
+        <v>147</v>
+      </c>
+      <c r="H340" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C341" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D341" t="s">
+        <v>134</v>
+      </c>
+      <c r="E341" t="s">
+        <v>147</v>
+      </c>
+      <c r="H341" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B17534-3724-4638-BF8E-3F4D69343EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617B072-D062-4DBF-9376-11511C5AFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2221,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5702,7 +5702,7 @@
         <v>134</v>
       </c>
       <c r="E156" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>238</v>
@@ -6415,7 +6415,7 @@
         <v>134</v>
       </c>
       <c r="E187" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>239</v>
@@ -6429,7 +6429,7 @@
         <v>65</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>574</v>
@@ -7013,7 +7013,7 @@
         <v>134</v>
       </c>
       <c r="E213" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>239</v>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617B072-D062-4DBF-9376-11511C5AFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16705375-3B40-4842-91CC-936F2EDA3F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$315</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="598">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1191,15 +1191,6 @@
     <t>other non-financial asset</t>
   </si>
   <si>
-    <t>Total equity or Capital deficiency</t>
-  </si>
-  <si>
-    <t>Total_equity_or_Capital_deficiency</t>
-  </si>
-  <si>
-    <t>Total_equity_or_Capital_deficiency-share_capital</t>
-  </si>
-  <si>
     <t>term_loans</t>
   </si>
   <si>
@@ -1368,9 +1359,6 @@
     <t>Income tax payables</t>
   </si>
   <si>
-    <t>current_tax_liabilities+current_tax_payable+tax_liabilities+current_income_tax_liabilities+provision_for_taxation+income_tax_payables</t>
-  </si>
-  <si>
     <t>Finance lease liabilities</t>
   </si>
   <si>
@@ -1780,6 +1768,60 @@
   </si>
   <si>
     <t>Other_income+other_income_gains_and_losses+other_gains_net+other_income_and_gains+Other_income_net</t>
+  </si>
+  <si>
+    <t>financial_assets_at_fvoci</t>
+  </si>
+  <si>
+    <t>Financial assets at FVOCI</t>
+  </si>
+  <si>
+    <t>financial_assets_at_fvtpl</t>
+  </si>
+  <si>
+    <t>Financial assets at FVTPL</t>
+  </si>
+  <si>
+    <t>financial_assets_at_fvoci+financial_assets_at_fvtpl</t>
+  </si>
+  <si>
+    <t>loans_to_subsidaries</t>
+  </si>
+  <si>
+    <t>Loans to subsidiaries</t>
+  </si>
+  <si>
+    <t>loans_to_equity_accounted_investees</t>
+  </si>
+  <si>
+    <t>Loans to equity-accounted investees</t>
+  </si>
+  <si>
+    <t>loans_and_advances+loans_to_subsidaries+loans_to_equity_accounted_investees</t>
+  </si>
+  <si>
+    <t>Total_Equity</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>Capital deficiency</t>
+  </si>
+  <si>
+    <t>Capital_deficiency</t>
+  </si>
+  <si>
+    <t>Total_Equity+Capital_deficiency-share_capital</t>
+  </si>
+  <si>
+    <t>Tax payable</t>
+  </si>
+  <si>
+    <t>Tax_payable</t>
+  </si>
+  <si>
+    <t>current_tax_liabilities+current_tax_payable+tax_liabilities+current_income_tax_liabilities+provision_for_taxation+income_tax_payables+Tax_payable</t>
   </si>
 </sst>
 </file>
@@ -2219,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2640,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>135</v>
@@ -2673,7 +2715,7 @@
         <v>136</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D23" t="s">
         <v>134</v>
@@ -2759,13 +2801,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>580</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>29</v>
+        <v>581</v>
       </c>
       <c r="D27" t="s">
         <v>134</v>
@@ -2782,13 +2824,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>582</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>29</v>
+        <v>583</v>
       </c>
       <c r="D28" t="s">
         <v>134</v>
@@ -2805,13 +2847,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>29</v>
+        <v>584</v>
       </c>
       <c r="D29" t="s">
         <v>134</v>
@@ -2828,13 +2870,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>134</v>
@@ -2851,13 +2893,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>134</v>
@@ -2874,13 +2916,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
         <v>134</v>
@@ -2897,13 +2939,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
         <v>134</v>
@@ -2920,13 +2962,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>307</v>
+        <v>178</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
         <v>134</v>
@@ -2943,13 +2985,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D35" t="s">
         <v>134</v>
@@ -2966,13 +3008,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D36" t="s">
         <v>134</v>
@@ -2989,13 +3031,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D37" t="s">
         <v>134</v>
@@ -3012,13 +3054,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D38" t="s">
         <v>134</v>
@@ -3033,15 +3075,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D39" t="s">
         <v>134</v>
@@ -3058,13 +3100,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D40" t="s">
         <v>134</v>
@@ -3079,15 +3121,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D41" t="s">
         <v>134</v>
@@ -3104,13 +3146,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>216</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
         <v>134</v>
@@ -3127,13 +3169,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D43" t="s">
         <v>134</v>
@@ -3150,13 +3192,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
         <v>134</v>
@@ -3171,15 +3213,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D45" t="s">
         <v>134</v>
@@ -3196,13 +3238,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -3219,13 +3261,13 @@
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D47" t="s">
         <v>134</v>
@@ -3240,15 +3282,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>25</v>
+        <v>327</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D48" t="s">
         <v>134</v>
@@ -3263,15 +3305,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="D49" t="s">
         <v>134</v>
@@ -3286,15 +3328,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D50" t="s">
         <v>134</v>
@@ -3311,13 +3353,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
         <v>134</v>
@@ -3332,15 +3374,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="D52" t="s">
         <v>134</v>
@@ -3355,15 +3397,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
         <v>134</v>
@@ -3378,15 +3420,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
         <v>134</v>
@@ -3401,15 +3443,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
         <v>134</v>
@@ -3426,13 +3468,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
         <v>134</v>
@@ -3449,13 +3491,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>183</v>
+        <v>585</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>160</v>
+        <v>586</v>
       </c>
       <c r="D57" t="s">
         <v>134</v>
@@ -3470,15 +3512,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>37</v>
+        <v>587</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>138</v>
+        <v>588</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -3493,15 +3535,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>161</v>
+        <v>589</v>
       </c>
       <c r="D59" t="s">
         <v>134</v>
@@ -3518,13 +3560,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
         <v>134</v>
@@ -3541,13 +3583,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
         <v>134</v>
@@ -3564,13 +3606,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>134</v>
@@ -3587,13 +3629,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>333</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
         <v>134</v>
@@ -3610,13 +3652,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>134</v>
@@ -3633,13 +3675,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>567</v>
+        <v>248</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>567</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
         <v>134</v>
@@ -3654,15 +3696,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>568</v>
+        <v>187</v>
       </c>
       <c r="D66" t="s">
         <v>134</v>
@@ -3679,13 +3721,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>188</v>
+        <v>334</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="D67" t="s">
         <v>134</v>
@@ -3694,7 +3736,7 @@
         <v>144</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H67" t="s">
         <v>151</v>
@@ -3702,13 +3744,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D68" t="s">
         <v>134</v>
@@ -3717,7 +3759,7 @@
         <v>144</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H68" t="s">
         <v>151</v>
@@ -3725,13 +3767,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>338</v>
+        <v>563</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>339</v>
+        <v>563</v>
       </c>
       <c r="D69" t="s">
         <v>134</v>
@@ -3740,21 +3782,21 @@
         <v>144</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H69" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>340</v>
+        <v>564</v>
       </c>
       <c r="D70" t="s">
         <v>134</v>
@@ -3763,7 +3805,7 @@
         <v>144</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H70" t="s">
         <v>151</v>
@@ -3771,13 +3813,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
         <v>134</v>
@@ -3794,13 +3836,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D72" t="s">
         <v>134</v>
@@ -3817,13 +3859,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D73" t="s">
         <v>134</v>
@@ -3840,13 +3882,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D74" t="s">
         <v>134</v>
@@ -3863,13 +3905,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="D75" t="s">
         <v>134</v>
@@ -3886,13 +3928,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>164</v>
+        <v>341</v>
       </c>
       <c r="D76" t="s">
         <v>134</v>
@@ -3909,13 +3951,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>203</v>
+        <v>342</v>
       </c>
       <c r="D77" t="s">
         <v>134</v>
@@ -3930,15 +3972,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="D78" t="s">
         <v>134</v>
@@ -3955,13 +3997,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
         <v>134</v>
@@ -3976,15 +4018,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>344</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
         <v>134</v>
@@ -4001,13 +4043,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="D81" t="s">
         <v>134</v>
@@ -4022,15 +4064,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
         <v>134</v>
@@ -4045,15 +4087,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>349</v>
+        <v>36</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
         <v>134</v>
@@ -4070,13 +4112,13 @@
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s">
         <v>134</v>
@@ -4093,13 +4135,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D85" t="s">
         <v>134</v>
@@ -4114,15 +4156,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D86" t="s">
         <v>134</v>
@@ -4139,13 +4181,13 @@
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
@@ -4160,15 +4202,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>570</v>
+        <v>351</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>569</v>
+        <v>352</v>
       </c>
       <c r="D88" t="s">
         <v>134</v>
@@ -4183,15 +4225,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>136</v>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>571</v>
+        <v>354</v>
       </c>
       <c r="D89" t="s">
         <v>134</v>
@@ -4206,15 +4248,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
@@ -4229,15 +4271,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D91" t="s">
         <v>134</v>
@@ -4254,13 +4296,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>362</v>
+        <v>566</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>363</v>
+        <v>565</v>
       </c>
       <c r="D92" t="s">
         <v>134</v>
@@ -4275,15 +4317,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>135</v>
+    <row r="93" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>365</v>
+        <v>567</v>
       </c>
       <c r="D93" t="s">
         <v>134</v>
@@ -4300,13 +4342,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D94" t="s">
         <v>134</v>
@@ -4321,15 +4363,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D95" t="s">
         <v>134</v>
@@ -4346,13 +4388,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>181</v>
+        <v>362</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>31</v>
+        <v>363</v>
       </c>
       <c r="D96" t="s">
         <v>134</v>
@@ -4369,13 +4411,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="D97" t="s">
         <v>134</v>
@@ -4392,13 +4434,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
@@ -4413,15 +4455,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D99" t="s">
         <v>134</v>
@@ -4438,13 +4480,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
         <v>134</v>
@@ -4461,13 +4503,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>
@@ -4484,13 +4526,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>29</v>
+        <v>370</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
@@ -4507,13 +4549,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="D103" t="s">
         <v>134</v>
@@ -4530,13 +4572,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
@@ -4553,13 +4595,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
         <v>134</v>
@@ -4576,13 +4618,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
         <v>134</v>
@@ -4599,13 +4641,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>374</v>
+        <v>166</v>
       </c>
       <c r="D107" t="s">
         <v>134</v>
@@ -4620,15 +4662,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>376</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
         <v>134</v>
@@ -4645,13 +4687,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>377</v>
+        <v>168</v>
       </c>
       <c r="D109" t="s">
         <v>134</v>
@@ -4668,13 +4710,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>196</v>
+        <v>373</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="D110" t="s">
         <v>134</v>
@@ -4691,13 +4733,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D111" t="s">
         <v>134</v>
@@ -4712,15 +4754,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D112" t="s">
         <v>134</v>
@@ -4737,13 +4779,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="D113" t="s">
         <v>134</v>
@@ -4760,13 +4802,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D114" t="s">
         <v>134</v>
@@ -4783,13 +4825,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="D115" t="s">
         <v>134</v>
@@ -4806,13 +4848,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="D116" t="s">
         <v>134</v>
@@ -4829,13 +4871,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D117" t="s">
         <v>134</v>
@@ -4852,13 +4894,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>382</v>
+        <v>186</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
@@ -4873,15 +4915,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>384</v>
+        <v>187</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
@@ -4898,13 +4940,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>385</v>
+        <v>198</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>386</v>
+        <v>172</v>
       </c>
       <c r="D120" t="s">
         <v>134</v>
@@ -4921,13 +4963,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>567</v>
+        <v>243</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>567</v>
+        <v>170</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
@@ -4942,15 +4984,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>572</v>
+        <v>382</v>
       </c>
       <c r="D122" t="s">
         <v>134</v>
@@ -4965,15 +5007,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>46</v>
+        <v>383</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>47</v>
+        <v>384</v>
       </c>
       <c r="D123" t="s">
         <v>134</v>
@@ -4981,41 +5023,77 @@
       <c r="E123" t="s">
         <v>144</v>
       </c>
-      <c r="F123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="H123" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="A124" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D124" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" t="s">
+        <v>144</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H124" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D125" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" t="s">
+        <v>144</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>207</v>
+        <v>568</v>
       </c>
       <c r="D126" t="s">
         <v>134</v>
       </c>
       <c r="E126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="H126" t="s">
         <v>151</v>
@@ -5023,82 +5101,46 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="D127" t="s">
         <v>134</v>
       </c>
       <c r="E127" t="s">
-        <v>145</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>237</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F127" s="5"/>
       <c r="H127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D128" t="s">
-        <v>134</v>
-      </c>
-      <c r="E128" t="s">
-        <v>145</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H128" t="s">
-        <v>151</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D129" t="s">
-        <v>134</v>
-      </c>
-      <c r="E129" t="s">
-        <v>145</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="D130" t="s">
         <v>134</v>
@@ -5115,13 +5157,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>389</v>
+        <v>208</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
@@ -5138,13 +5180,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="D132" t="s">
         <v>134</v>
@@ -5159,15 +5201,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="D133" t="s">
         <v>134</v>
@@ -5182,15 +5224,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>53</v>
+        <v>590</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>29</v>
+        <v>591</v>
       </c>
       <c r="D134" t="s">
         <v>134</v>
@@ -5207,13 +5249,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>54</v>
+        <v>593</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -5230,13 +5272,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -5253,13 +5295,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
@@ -5268,21 +5310,21 @@
         <v>145</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H137" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>390</v>
+        <v>52</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>391</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
         <v>134</v>
@@ -5291,21 +5333,21 @@
         <v>145</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H138" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>392</v>
+        <v>53</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>393</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
         <v>134</v>
@@ -5314,7 +5356,7 @@
         <v>145</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H139" t="s">
         <v>151</v>
@@ -5322,13 +5364,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>394</v>
+        <v>54</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>395</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
@@ -5337,7 +5379,7 @@
         <v>145</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H140" t="s">
         <v>151</v>
@@ -5345,13 +5387,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
         <v>134</v>
@@ -5360,7 +5402,7 @@
         <v>145</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H141" t="s">
         <v>151</v>
@@ -5368,13 +5410,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>396</v>
+        <v>192</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>396</v>
+        <v>211</v>
       </c>
       <c r="D142" t="s">
         <v>134</v>
@@ -5391,13 +5433,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>577</v>
+        <v>387</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>576</v>
+        <v>388</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
@@ -5412,15 +5454,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>579</v>
+        <v>390</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
@@ -5437,13 +5479,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>212</v>
+        <v>391</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>213</v>
+        <v>392</v>
       </c>
       <c r="D145" t="s">
         <v>134</v>
@@ -5460,13 +5502,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D146" t="s">
         <v>134</v>
@@ -5483,13 +5525,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D147" t="s">
         <v>134</v>
@@ -5504,15 +5546,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>57</v>
+        <v>573</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>399</v>
+        <v>572</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -5527,15 +5569,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>29</v>
+        <v>575</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
@@ -5552,13 +5594,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="D150" t="s">
         <v>134</v>
@@ -5575,13 +5617,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D151" t="s">
         <v>134</v>
@@ -5598,13 +5640,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>216</v>
+        <v>394</v>
       </c>
       <c r="D152" t="s">
         <v>134</v>
@@ -5619,15 +5661,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>219</v>
+        <v>396</v>
       </c>
       <c r="D153" t="s">
         <v>134</v>
@@ -5642,15 +5684,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>400</v>
+        <v>58</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
         <v>134</v>
@@ -5667,13 +5709,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>402</v>
+        <v>217</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>403</v>
+        <v>139</v>
       </c>
       <c r="D155" t="s">
         <v>134</v>
@@ -5690,13 +5732,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>567</v>
+        <v>199</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>567</v>
+        <v>220</v>
       </c>
       <c r="D156" t="s">
         <v>134</v>
@@ -5711,15 +5753,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>573</v>
+        <v>216</v>
       </c>
       <c r="D157" t="s">
         <v>134</v>
@@ -5736,13 +5778,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D158" t="s">
         <v>134</v>
@@ -5759,13 +5801,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>192</v>
+        <v>397</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>211</v>
+        <v>398</v>
       </c>
       <c r="D159" t="s">
         <v>134</v>
@@ -5774,7 +5816,7 @@
         <v>145</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H159" t="s">
         <v>151</v>
@@ -5782,13 +5824,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D160" t="s">
         <v>134</v>
@@ -5797,7 +5839,7 @@
         <v>145</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H160" t="s">
         <v>151</v>
@@ -5805,13 +5847,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>405</v>
+        <v>563</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>404</v>
+        <v>563</v>
       </c>
       <c r="D161" t="s">
         <v>134</v>
@@ -5820,21 +5862,21 @@
         <v>145</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H161" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>390</v>
+        <v>59</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>391</v>
+        <v>569</v>
       </c>
       <c r="D162" t="s">
         <v>134</v>
@@ -5843,7 +5885,7 @@
         <v>145</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H162" t="s">
         <v>151</v>
@@ -5851,13 +5893,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D163" t="s">
         <v>134</v>
@@ -5866,7 +5908,7 @@
         <v>145</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H163" t="s">
         <v>151</v>
@@ -5874,13 +5916,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>396</v>
+        <v>192</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>396</v>
+        <v>211</v>
       </c>
       <c r="D164" t="s">
         <v>134</v>
@@ -5897,13 +5939,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>577</v>
+        <v>391</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>576</v>
+        <v>392</v>
       </c>
       <c r="D165" t="s">
         <v>134</v>
@@ -5918,15 +5960,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>61</v>
+        <v>402</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>578</v>
+        <v>401</v>
       </c>
       <c r="D166" t="s">
         <v>134</v>
@@ -5943,13 +5985,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="D167" t="s">
         <v>134</v>
@@ -5966,13 +6008,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D168" t="s">
         <v>134</v>
@@ -5989,13 +6031,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>242</v>
+        <v>393</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
       <c r="D169" t="s">
         <v>134</v>
@@ -6012,13 +6054,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>407</v>
+        <v>573</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>406</v>
+        <v>572</v>
       </c>
       <c r="D170" t="s">
         <v>134</v>
@@ -6035,13 +6077,13 @@
     </row>
     <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>408</v>
+        <v>574</v>
       </c>
       <c r="D171" t="s">
         <v>134</v>
@@ -6056,15 +6098,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>409</v>
+        <v>222</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>410</v>
+        <v>223</v>
       </c>
       <c r="D172" t="s">
         <v>134</v>
@@ -6079,15 +6121,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>411</v>
+        <v>224</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>412</v>
+        <v>225</v>
       </c>
       <c r="D173" t="s">
         <v>134</v>
@@ -6102,15 +6144,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>413</v>
+        <v>242</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>414</v>
+        <v>226</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
@@ -6125,15 +6167,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D175" t="s">
         <v>134</v>
@@ -6148,15 +6190,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>417</v>
+        <v>62</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D176" t="s">
         <v>134</v>
@@ -6173,13 +6215,13 @@
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D177" t="s">
         <v>134</v>
@@ -6194,15 +6236,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>63</v>
+        <v>408</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D178" t="s">
         <v>134</v>
@@ -6217,15 +6259,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>64</v>
+        <v>410</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D179" t="s">
         <v>134</v>
@@ -6240,15 +6282,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D180" t="s">
         <v>134</v>
@@ -6265,13 +6307,13 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D181" t="s">
         <v>134</v>
@@ -6288,13 +6330,13 @@
     </row>
     <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D182" t="s">
         <v>134</v>
@@ -6309,15 +6351,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>428</v>
+        <v>63</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D183" t="s">
         <v>134</v>
@@ -6334,13 +6376,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D184" t="s">
         <v>134</v>
@@ -6355,15 +6397,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D185" t="s">
         <v>134</v>
@@ -6380,13 +6422,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D186" t="s">
         <v>134</v>
@@ -6401,15 +6443,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>570</v>
+        <v>423</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>569</v>
+        <v>424</v>
       </c>
       <c r="D187" t="s">
         <v>134</v>
@@ -6424,15 +6466,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>574</v>
+        <v>426</v>
       </c>
       <c r="D188" t="s">
         <v>134</v>
@@ -6449,13 +6491,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>29</v>
+        <v>428</v>
       </c>
       <c r="D189" t="s">
         <v>134</v>
@@ -6470,15 +6512,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>67</v>
+        <v>429</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>29</v>
+        <v>430</v>
       </c>
       <c r="D190" t="s">
         <v>134</v>
@@ -6495,13 +6537,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D191" t="s">
         <v>134</v>
@@ -6518,13 +6560,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>69</v>
+        <v>566</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>29</v>
+        <v>565</v>
       </c>
       <c r="D192" t="s">
         <v>134</v>
@@ -6539,15 +6581,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>228</v>
+        <v>570</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -6564,13 +6606,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -6587,13 +6629,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>438</v>
+        <v>67</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>439</v>
+        <v>29</v>
       </c>
       <c r="D195" t="s">
         <v>134</v>
@@ -6610,13 +6652,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>440</v>
+        <v>68</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D196" t="s">
         <v>134</v>
@@ -6633,13 +6675,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>442</v>
+        <v>69</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>443</v>
+        <v>29</v>
       </c>
       <c r="D197" t="s">
         <v>134</v>
@@ -6656,13 +6698,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>444</v>
+        <v>227</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>445</v>
+        <v>228</v>
       </c>
       <c r="D198" t="s">
         <v>134</v>
@@ -6677,15 +6719,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>446</v>
+        <v>230</v>
       </c>
       <c r="D199" t="s">
         <v>134</v>
@@ -6702,13 +6744,13 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>71</v>
+        <v>435</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>29</v>
+        <v>436</v>
       </c>
       <c r="D200" t="s">
         <v>134</v>
@@ -6725,13 +6767,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>72</v>
+        <v>437</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>29</v>
+        <v>438</v>
       </c>
       <c r="D201" t="s">
         <v>134</v>
@@ -6748,13 +6790,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>73</v>
+        <v>439</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="D202" t="s">
         <v>134</v>
@@ -6771,13 +6813,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>197</v>
+        <v>441</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>216</v>
+        <v>442</v>
       </c>
       <c r="D203" t="s">
         <v>134</v>
@@ -6794,13 +6836,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>217</v>
+        <v>596</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>139</v>
+        <v>595</v>
       </c>
       <c r="D204" t="s">
         <v>134</v>
@@ -6815,15 +6857,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>231</v>
+        <v>597</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
@@ -6840,19 +6882,19 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="D206" t="s">
         <v>134</v>
       </c>
       <c r="E206" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>239</v>
@@ -6863,19 +6905,19 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D207" t="s">
         <v>134</v>
       </c>
       <c r="E207" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>239</v>
@@ -6886,13 +6928,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>392</v>
+        <v>73</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>393</v>
+        <v>29</v>
       </c>
       <c r="D208" t="s">
         <v>134</v>
@@ -6909,13 +6951,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>447</v>
+        <v>216</v>
       </c>
       <c r="D209" t="s">
         <v>134</v>
@@ -6932,13 +6974,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>448</v>
+        <v>217</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>449</v>
+        <v>139</v>
       </c>
       <c r="D210" t="s">
         <v>134</v>
@@ -6955,13 +6997,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>451</v>
+        <v>231</v>
       </c>
       <c r="D211" t="s">
         <v>134</v>
@@ -6978,19 +7020,19 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>453</v>
+        <v>233</v>
       </c>
       <c r="D212" t="s">
         <v>134</v>
       </c>
       <c r="E212" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>239</v>
@@ -7001,19 +7043,19 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>567</v>
+        <v>234</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>567</v>
+        <v>235</v>
       </c>
       <c r="D213" t="s">
         <v>134</v>
       </c>
       <c r="E213" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>239</v>
@@ -7022,15 +7064,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>575</v>
+        <v>390</v>
       </c>
       <c r="D214" t="s">
         <v>134</v>
@@ -7047,13 +7089,13 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>75</v>
+        <v>397</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>221</v>
+        <v>443</v>
       </c>
       <c r="D215" t="s">
         <v>134</v>
@@ -7070,13 +7112,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D216" t="s">
         <v>134</v>
@@ -7084,20 +7126,22 @@
       <c r="E216" t="s">
         <v>145</v>
       </c>
-      <c r="F216" s="5"/>
+      <c r="F216" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="H216" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D217" t="s">
         <v>134</v>
@@ -7105,20 +7149,22 @@
       <c r="E217" t="s">
         <v>145</v>
       </c>
-      <c r="F217" s="5"/>
+      <c r="F217" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="H217" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D218" t="s">
         <v>134</v>
@@ -7126,254 +7172,268 @@
       <c r="E218" t="s">
         <v>145</v>
       </c>
-      <c r="F218" s="5"/>
+      <c r="F218" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="H218" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-    </row>
-    <row r="221" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A221" s="8" t="s">
-        <v>79</v>
+      <c r="A219" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D219" t="s">
+        <v>134</v>
+      </c>
+      <c r="E219" t="s">
+        <v>145</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H219" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D220" t="s">
+        <v>134</v>
+      </c>
+      <c r="E220" t="s">
+        <v>145</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H220" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>294</v>
+        <v>135</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="D221" t="s">
         <v>134</v>
       </c>
       <c r="E221" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="H221" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="8" t="s">
-        <v>80</v>
+      <c r="A222" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="D222" t="s">
         <v>134</v>
       </c>
       <c r="E222" t="s">
-        <v>146</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F222" s="5"/>
       <c r="H222" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A223" s="8" t="s">
-        <v>81</v>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>251</v>
+        <v>135</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="D223" t="s">
         <v>134</v>
       </c>
       <c r="E223" t="s">
-        <v>146</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F223" s="5"/>
       <c r="H223" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="8" t="s">
-        <v>82</v>
+      <c r="A224" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D224" t="s">
+        <v>134</v>
+      </c>
+      <c r="E224" t="s">
+        <v>145</v>
+      </c>
+      <c r="F224" s="5"/>
+      <c r="H224" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D227" t="s">
+        <v>134</v>
+      </c>
+      <c r="E227" t="s">
+        <v>146</v>
+      </c>
+      <c r="H227" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D228" t="s">
+        <v>134</v>
+      </c>
+      <c r="E228" t="s">
+        <v>146</v>
+      </c>
+      <c r="H228" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D229" t="s">
+        <v>134</v>
+      </c>
+      <c r="E229" t="s">
+        <v>146</v>
+      </c>
+      <c r="H229" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D224" t="s">
-        <v>134</v>
-      </c>
-      <c r="E224" t="s">
+      <c r="D230" t="s">
+        <v>134</v>
+      </c>
+      <c r="E230" t="s">
         <v>146</v>
       </c>
-      <c r="H224" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="H230" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B226" s="4"/>
-      <c r="C226" s="2"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="B232" s="4"/>
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="2"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
+      <c r="B233" s="4"/>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C228" s="6" t="s">
+      <c r="B234" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D228" t="s">
-        <v>134</v>
-      </c>
-      <c r="E228" t="s">
-        <v>147</v>
-      </c>
-      <c r="H228" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D229" t="s">
-        <v>134</v>
-      </c>
-      <c r="E229" t="s">
-        <v>147</v>
-      </c>
-      <c r="H229" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D230" t="s">
-        <v>134</v>
-      </c>
-      <c r="E230" t="s">
-        <v>147</v>
-      </c>
-      <c r="H230" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D231" t="s">
-        <v>134</v>
-      </c>
-      <c r="E231" t="s">
-        <v>147</v>
-      </c>
-      <c r="H231" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D232" t="s">
-        <v>134</v>
-      </c>
-      <c r="E232" t="s">
-        <v>147</v>
-      </c>
-      <c r="H232" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D233" t="s">
-        <v>134</v>
-      </c>
-      <c r="E233" t="s">
-        <v>147</v>
-      </c>
-      <c r="H233" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="D234" t="s">
         <v>134</v>
@@ -7387,13 +7447,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
@@ -7405,15 +7465,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D236" t="s">
         <v>134</v>
@@ -7425,15 +7485,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D237" t="s">
         <v>134</v>
@@ -7447,13 +7507,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D238" t="s">
         <v>134</v>
@@ -7467,13 +7527,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>259</v>
+        <v>460</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>260</v>
+        <v>461</v>
       </c>
       <c r="D239" t="s">
         <v>134</v>
@@ -7485,15 +7545,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>473</v>
+        <v>85</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D240" t="s">
         <v>134</v>
@@ -7507,13 +7567,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>475</v>
+        <v>257</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>476</v>
+        <v>258</v>
       </c>
       <c r="D241" t="s">
         <v>134</v>
@@ -7525,15 +7585,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>87</v>
+        <v>463</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D242" t="s">
         <v>134</v>
@@ -7545,15 +7605,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>29</v>
+        <v>466</v>
       </c>
       <c r="D243" t="s">
         <v>134</v>
@@ -7565,15 +7625,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>89</v>
+        <v>467</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="D244" t="s">
         <v>134</v>
@@ -7587,13 +7647,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>478</v>
+        <v>259</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>479</v>
+        <v>260</v>
       </c>
       <c r="D245" t="s">
         <v>134</v>
@@ -7607,13 +7667,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D246" t="s">
         <v>134</v>
@@ -7625,35 +7685,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>90</v>
+        <v>471</v>
       </c>
       <c r="B247" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D247" t="s">
+        <v>134</v>
+      </c>
+      <c r="E247" t="s">
+        <v>147</v>
+      </c>
+      <c r="H247" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C247" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="D247" t="s">
-        <v>134</v>
-      </c>
-      <c r="E247" t="s">
-        <v>147</v>
-      </c>
-      <c r="H247" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C248" s="6" t="s">
-        <v>262</v>
+        <v>473</v>
       </c>
       <c r="D248" t="s">
         <v>134</v>
@@ -7667,13 +7727,13 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="D249" t="s">
         <v>134</v>
@@ -7685,15 +7745,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>483</v>
+        <v>89</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>484</v>
+        <v>29</v>
       </c>
       <c r="D250" t="s">
         <v>134</v>
@@ -7707,13 +7767,13 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D251" t="s">
         <v>134</v>
@@ -7725,35 +7785,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>91</v>
+        <v>476</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D252" t="s">
+        <v>134</v>
+      </c>
+      <c r="E252" t="s">
+        <v>147</v>
+      </c>
+      <c r="H252" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D252" t="s">
-        <v>134</v>
-      </c>
-      <c r="E252" t="s">
-        <v>147</v>
-      </c>
-      <c r="H252" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C253" s="6" t="s">
-        <v>266</v>
+        <v>478</v>
       </c>
       <c r="D253" t="s">
         <v>134</v>
@@ -7767,13 +7827,13 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D254" t="s">
         <v>134</v>
@@ -7787,13 +7847,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>488</v>
+        <v>263</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>488</v>
+        <v>264</v>
       </c>
       <c r="D255" t="s">
         <v>134</v>
@@ -7807,13 +7867,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D256" t="s">
         <v>134</v>
@@ -7827,13 +7887,13 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D257" t="s">
         <v>134</v>
@@ -7845,15 +7905,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>492</v>
+        <v>91</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D258" t="s">
         <v>134</v>
@@ -7865,15 +7925,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>494</v>
+        <v>266</v>
       </c>
       <c r="D259" t="s">
         <v>134</v>
@@ -7885,15 +7945,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D260" t="s">
         <v>134</v>
@@ -7907,13 +7967,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="D261" t="s">
         <v>134</v>
@@ -7927,13 +7987,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D262" t="s">
         <v>134</v>
@@ -7947,13 +8007,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D263" t="s">
         <v>134</v>
@@ -7967,13 +8027,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D264" t="s">
         <v>134</v>
@@ -7985,15 +8045,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>581</v>
+        <v>92</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="D265" t="s">
         <v>134</v>
@@ -8005,15 +8065,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>583</v>
+        <v>269</v>
       </c>
       <c r="D266" t="s">
         <v>134</v>
@@ -8026,14 +8086,14 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="12" t="s">
-        <v>96</v>
+      <c r="A267" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C267" s="13" t="s">
-        <v>29</v>
+      <c r="C267" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="D267" t="s">
         <v>134</v>
@@ -8046,14 +8106,14 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="12" t="s">
-        <v>97</v>
+      <c r="A268" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C268" s="13" t="s">
-        <v>501</v>
+      <c r="C268" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="D268" t="s">
         <v>134</v>
@@ -8066,14 +8126,14 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="12" t="s">
-        <v>98</v>
+      <c r="A269" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C269" s="13" t="s">
-        <v>29</v>
+      <c r="C269" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="D269" t="s">
         <v>134</v>
@@ -8087,13 +8147,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>99</v>
+        <v>495</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D270" t="s">
         <v>134</v>
@@ -8105,15 +8165,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="D271" t="s">
         <v>134</v>
@@ -8127,13 +8187,13 @@
     </row>
     <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>505</v>
+        <v>94</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="D272" t="s">
         <v>134</v>
@@ -8145,15 +8205,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="6" t="s">
-        <v>100</v>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>507</v>
+        <v>135</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D273" t="s">
         <v>134</v>
@@ -8165,36 +8225,36 @@
         <v>150</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="6" t="s">
-        <v>101</v>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C274" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D274" t="s">
+        <v>134</v>
+      </c>
+      <c r="E274" t="s">
+        <v>147</v>
+      </c>
+      <c r="H274" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C275" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D274" t="s">
-        <v>134</v>
-      </c>
-      <c r="E274" t="s">
-        <v>147</v>
-      </c>
-      <c r="H274" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D275" t="s">
         <v>134</v>
       </c>
@@ -8205,15 +8265,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>508</v>
+        <v>99</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D276" t="s">
         <v>134</v>
@@ -8227,13 +8287,13 @@
     </row>
     <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D277" t="s">
         <v>134</v>
@@ -8245,135 +8305,135 @@
         <v>150</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D278" t="s">
+        <v>134</v>
+      </c>
+      <c r="E278" t="s">
+        <v>147</v>
+      </c>
+      <c r="H278" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D279" t="s">
+        <v>134</v>
+      </c>
+      <c r="E279" t="s">
+        <v>147</v>
+      </c>
+      <c r="H279" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D280" t="s">
+        <v>134</v>
+      </c>
+      <c r="E280" t="s">
+        <v>147</v>
+      </c>
+      <c r="H280" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D281" t="s">
+        <v>134</v>
+      </c>
+      <c r="E281" t="s">
+        <v>147</v>
+      </c>
+      <c r="H281" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D282" t="s">
+        <v>134</v>
+      </c>
+      <c r="E282" t="s">
+        <v>147</v>
+      </c>
+      <c r="H282" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D283" t="s">
+        <v>134</v>
+      </c>
+      <c r="E283" t="s">
+        <v>147</v>
+      </c>
+      <c r="H283" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B284" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C278" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D278" t="s">
-        <v>134</v>
-      </c>
-      <c r="E278" t="s">
-        <v>147</v>
-      </c>
-      <c r="H278" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D279" t="s">
-        <v>134</v>
-      </c>
-      <c r="E279" t="s">
-        <v>147</v>
-      </c>
-      <c r="H279" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D280" t="s">
-        <v>134</v>
-      </c>
-      <c r="E280" t="s">
-        <v>147</v>
-      </c>
-      <c r="H280" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="D281" t="s">
-        <v>134</v>
-      </c>
-      <c r="E281" t="s">
-        <v>147</v>
-      </c>
-      <c r="H281" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D282" t="s">
-        <v>134</v>
-      </c>
-      <c r="E282" t="s">
-        <v>147</v>
-      </c>
-      <c r="H282" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D283" t="s">
-        <v>134</v>
-      </c>
-      <c r="E283" t="s">
-        <v>147</v>
-      </c>
-      <c r="H283" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C284" s="6" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D284" t="s">
         <v>134</v>
@@ -8387,13 +8447,13 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>522</v>
+        <v>104</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D285" t="s">
         <v>134</v>
@@ -8405,15 +8465,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D286" t="s">
         <v>134</v>
@@ -8425,15 +8485,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="D287" t="s">
         <v>134</v>
@@ -8447,13 +8507,13 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>527</v>
+        <v>270</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>528</v>
+        <v>271</v>
       </c>
       <c r="D288" t="s">
         <v>134</v>
@@ -8467,13 +8527,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>272</v>
+        <v>514</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="D289" t="s">
         <v>134</v>
@@ -8487,13 +8547,13 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="D290" t="s">
         <v>134</v>
@@ -8505,15 +8565,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D291" t="s">
         <v>134</v>
@@ -8527,33 +8587,33 @@
     </row>
     <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>105</v>
+        <v>520</v>
       </c>
       <c r="B292" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D292" t="s">
+        <v>134</v>
+      </c>
+      <c r="E292" t="s">
+        <v>147</v>
+      </c>
+      <c r="H292" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A293" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="D292" t="s">
-        <v>134</v>
-      </c>
-      <c r="E292" t="s">
-        <v>147</v>
-      </c>
-      <c r="H292" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C293" s="6" t="s">
-        <v>275</v>
+        <v>522</v>
       </c>
       <c r="D293" t="s">
         <v>134</v>
@@ -8567,13 +8627,13 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>276</v>
+        <v>523</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>277</v>
+        <v>524</v>
       </c>
       <c r="D294" t="s">
         <v>134</v>
@@ -8587,13 +8647,13 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>534</v>
+        <v>273</v>
       </c>
       <c r="D295" t="s">
         <v>134</v>
@@ -8607,13 +8667,13 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>107</v>
+        <v>525</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>29</v>
+        <v>526</v>
       </c>
       <c r="D296" t="s">
         <v>134</v>
@@ -8625,15 +8685,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>108</v>
+        <v>527</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>29</v>
+        <v>528</v>
       </c>
       <c r="D297" t="s">
         <v>134</v>
@@ -8645,15 +8705,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="D298" t="s">
         <v>134</v>
@@ -8667,13 +8727,13 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="D299" t="s">
         <v>134</v>
@@ -8687,13 +8747,13 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="D300" t="s">
         <v>134</v>
@@ -8707,33 +8767,33 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C301" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D301" t="s">
+        <v>134</v>
+      </c>
+      <c r="E301" t="s">
+        <v>147</v>
+      </c>
+      <c r="H301" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D301" t="s">
-        <v>134</v>
-      </c>
-      <c r="E301" t="s">
-        <v>147</v>
-      </c>
-      <c r="H301" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="D302" t="s">
         <v>134</v>
@@ -8747,13 +8807,13 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>535</v>
+        <v>108</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>536</v>
+        <v>29</v>
       </c>
       <c r="D303" t="s">
         <v>134</v>
@@ -8765,15 +8825,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>537</v>
+        <v>109</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>538</v>
+        <v>29</v>
       </c>
       <c r="D304" t="s">
         <v>134</v>
@@ -8785,15 +8845,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>539</v>
+        <v>110</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>540</v>
+        <v>29</v>
       </c>
       <c r="D305" t="s">
         <v>134</v>
@@ -8807,13 +8867,13 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>541</v>
+        <v>29</v>
       </c>
       <c r="D306" t="s">
         <v>134</v>
@@ -8825,15 +8885,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="D307" t="s">
         <v>134</v>
@@ -8845,15 +8905,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>542</v>
+        <v>279</v>
       </c>
       <c r="D308" t="s">
         <v>134</v>
@@ -8867,13 +8927,13 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>114</v>
+        <v>531</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>29</v>
+        <v>532</v>
       </c>
       <c r="D309" t="s">
         <v>134</v>
@@ -8885,15 +8945,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>115</v>
+        <v>533</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>29</v>
+        <v>534</v>
       </c>
       <c r="D310" t="s">
         <v>134</v>
@@ -8905,15 +8965,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>116</v>
+        <v>535</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>29</v>
+        <v>536</v>
       </c>
       <c r="D311" t="s">
         <v>134</v>
@@ -8925,15 +8985,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D312" t="s">
         <v>134</v>
@@ -8945,35 +9005,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="B313" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D313" t="s">
+        <v>134</v>
+      </c>
+      <c r="E313" t="s">
+        <v>147</v>
+      </c>
+      <c r="H313" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C313" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D313" t="s">
-        <v>134</v>
-      </c>
-      <c r="E313" t="s">
-        <v>147</v>
-      </c>
-      <c r="H313" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C314" s="6" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D314" t="s">
         <v>134</v>
@@ -8987,13 +9047,13 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>284</v>
+        <v>114</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D315" t="s">
         <v>134</v>
@@ -9007,13 +9067,13 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>283</v>
+        <v>29</v>
       </c>
       <c r="D316" t="s">
         <v>134</v>
@@ -9027,13 +9087,13 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>546</v>
+        <v>116</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>547</v>
+        <v>29</v>
       </c>
       <c r="D317" t="s">
         <v>134</v>
@@ -9045,15 +9105,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>548</v>
+        <v>117</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D318" t="s">
         <v>134</v>
@@ -9065,15 +9125,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>550</v>
+        <v>282</v>
       </c>
       <c r="D319" t="s">
         <v>134</v>
@@ -9087,13 +9147,13 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>29</v>
+        <v>541</v>
       </c>
       <c r="D320" t="s">
         <v>134</v>
@@ -9105,15 +9165,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D321" t="s">
         <v>134</v>
@@ -9127,13 +9187,13 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="D322" t="s">
         <v>134</v>
@@ -9145,15 +9205,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>124</v>
+        <v>542</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>285</v>
+        <v>543</v>
       </c>
       <c r="D323" t="s">
         <v>134</v>
@@ -9167,13 +9227,13 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>286</v>
+        <v>544</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>287</v>
+        <v>545</v>
       </c>
       <c r="D324" t="s">
         <v>134</v>
@@ -9185,15 +9245,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>289</v>
+        <v>546</v>
       </c>
       <c r="D325" t="s">
         <v>134</v>
@@ -9207,13 +9267,13 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>551</v>
+        <v>29</v>
       </c>
       <c r="D326" t="s">
         <v>134</v>
@@ -9225,15 +9285,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>552</v>
+        <v>121</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>553</v>
+        <v>122</v>
       </c>
       <c r="D327" t="s">
         <v>134</v>
@@ -9247,13 +9307,13 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>555</v>
+        <v>29</v>
       </c>
       <c r="D328" t="s">
         <v>134</v>
@@ -9265,15 +9325,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>556</v>
+        <v>124</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>557</v>
+        <v>285</v>
       </c>
       <c r="D329" t="s">
         <v>134</v>
@@ -9287,13 +9347,13 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>558</v>
+        <v>286</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>559</v>
+        <v>287</v>
       </c>
       <c r="D330" t="s">
         <v>134</v>
@@ -9307,13 +9367,13 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>560</v>
+        <v>288</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="D331" t="s">
         <v>134</v>
@@ -9325,15 +9385,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D332" t="s">
         <v>134</v>
@@ -9345,15 +9405,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>130</v>
+        <v>548</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>29</v>
+        <v>549</v>
       </c>
       <c r="D333" t="s">
         <v>134</v>
@@ -9365,15 +9425,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>131</v>
+        <v>550</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>29</v>
+        <v>551</v>
       </c>
       <c r="D334" t="s">
         <v>134</v>
@@ -9387,13 +9447,13 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>126</v>
+        <v>552</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>29</v>
+        <v>553</v>
       </c>
       <c r="D335" t="s">
         <v>134</v>
@@ -9407,13 +9467,13 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>127</v>
+        <v>554</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>29</v>
+        <v>555</v>
       </c>
       <c r="D336" t="s">
         <v>134</v>
@@ -9427,13 +9487,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>128</v>
+        <v>556</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
       <c r="D337" t="s">
         <v>134</v>
@@ -9445,15 +9505,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>29</v>
+        <v>558</v>
       </c>
       <c r="D338" t="s">
         <v>134</v>
@@ -9467,7 +9527,7 @@
     </row>
     <row r="339" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>563</v>
+        <v>130</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>135</v>
@@ -9485,43 +9545,163 @@
         <v>150</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D340" t="s">
+        <v>134</v>
+      </c>
+      <c r="E340" t="s">
+        <v>147</v>
+      </c>
+      <c r="H340" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D341" t="s">
+        <v>134</v>
+      </c>
+      <c r="E341" t="s">
+        <v>147</v>
+      </c>
+      <c r="H341" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342" t="s">
+        <v>134</v>
+      </c>
+      <c r="E342" t="s">
+        <v>147</v>
+      </c>
+      <c r="H342" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D343" t="s">
+        <v>134</v>
+      </c>
+      <c r="E343" t="s">
+        <v>147</v>
+      </c>
+      <c r="H343" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D344" t="s">
+        <v>134</v>
+      </c>
+      <c r="E344" t="s">
+        <v>147</v>
+      </c>
+      <c r="H344" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D345" t="s">
+        <v>134</v>
+      </c>
+      <c r="E345" t="s">
+        <v>147</v>
+      </c>
+      <c r="H345" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A346" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B340" s="6" t="s">
+      <c r="B346" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C340" s="6" t="s">
+      <c r="C346" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D340" t="s">
-        <v>134</v>
-      </c>
-      <c r="E340" t="s">
-        <v>147</v>
-      </c>
-      <c r="H340" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="D346" t="s">
+        <v>134</v>
+      </c>
+      <c r="E346" t="s">
+        <v>147</v>
+      </c>
+      <c r="H346" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B341" s="6" t="s">
+      <c r="B347" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C341" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="D341" t="s">
-        <v>134</v>
-      </c>
-      <c r="E341" t="s">
-        <v>147</v>
-      </c>
-      <c r="H341" t="s">
+      <c r="C347" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D347" t="s">
+        <v>134</v>
+      </c>
+      <c r="E347" t="s">
+        <v>147</v>
+      </c>
+      <c r="H347" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16705375-3B40-4842-91CC-936F2EDA3F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE6F092-264E-47FB-BB45-B37CCADEE6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$319</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="608">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1596,9 +1596,6 @@
     <t>Marketing and distribution expenses</t>
   </si>
   <si>
-    <t>selling_expenses+selling_expense+selling_and_distribution_expenses+distribution_expenses+distribution_costs+selling_and_marketing_expenses+distribution_and_marketing+marketing_and_distribution_expenses</t>
-  </si>
-  <si>
     <t>administrative_expenses</t>
   </si>
   <si>
@@ -1704,9 +1701,6 @@
     <t>Income tax credit/(expense)</t>
   </si>
   <si>
-    <t>income_tax_expense+income_tax_expenses+income_tax+tax_benefit_expense+income_tax_benefit_expense+tax_expense+taxation+income_tax_credit_expense</t>
-  </si>
-  <si>
     <t>minority_interest_and_profit_from_associates_and_joint_ventures</t>
   </si>
   <si>
@@ -1767,9 +1761,6 @@
     <t>Other_income</t>
   </si>
   <si>
-    <t>Other_income+other_income_gains_and_losses+other_gains_net+other_income_and_gains+Other_income_net</t>
-  </si>
-  <si>
     <t>financial_assets_at_fvoci</t>
   </si>
   <si>
@@ -1822,6 +1813,45 @@
   </si>
   <si>
     <t>current_tax_liabilities+current_tax_payable+tax_liabilities+current_income_tax_liabilities+provision_for_taxation+income_tax_payables+Tax_payable</t>
+  </si>
+  <si>
+    <t>Share of results of equity-accounted investees, net of tax</t>
+  </si>
+  <si>
+    <t>Share_of_results_of_equity_accounted_investees_net_of_tax</t>
+  </si>
+  <si>
+    <t>Other_income+other_income_gains_and_losses+other_gains_net+other_income_and_gains+Other_income_net+Share_of_results_of_equity_accounted_investees_net_of_tax</t>
+  </si>
+  <si>
+    <t>financial_income</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Interest_income</t>
+  </si>
+  <si>
+    <t>Finance income+Interest_income</t>
+  </si>
+  <si>
+    <t>Selling_expenses</t>
+  </si>
+  <si>
+    <t>Selling, distribution and outlet expenses</t>
+  </si>
+  <si>
+    <t>Selling_distribution_and_outlet_expenses</t>
+  </si>
+  <si>
+    <t>Selling_expenses+selling_expense+selling_and_distribution_expenses+distribution_expenses+distribution_costs+selling_and_marketing_expenses+distribution_and_marketing+marketing_and_distribution_expenses+Selling_distribution_and_outlet_expenses</t>
+  </si>
+  <si>
+    <t>Income_tax</t>
+  </si>
+  <si>
+    <t>income_tax_expense+income_tax_expenses+Income_tax+tax_benefit_expense+income_tax_benefit_expense+tax_expense+taxation+income_tax_credit_expense</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1979,6 +2009,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2261,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H347"/>
+  <dimension ref="A1:H351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2676,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>135</v>
@@ -2715,7 +2751,7 @@
         <v>136</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D23" t="s">
         <v>134</v>
@@ -2801,13 +2837,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D27" t="s">
         <v>134</v>
@@ -2824,13 +2860,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D28" t="s">
         <v>134</v>
@@ -2853,7 +2889,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D29" t="s">
         <v>134</v>
@@ -3491,13 +3527,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D57" t="s">
         <v>134</v>
@@ -3514,13 +3550,13 @@
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -3543,7 +3579,7 @@
         <v>136</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D59" t="s">
         <v>134</v>
@@ -3767,13 +3803,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D69" t="s">
         <v>134</v>
@@ -3796,7 +3832,7 @@
         <v>136</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D70" t="s">
         <v>134</v>
@@ -4296,13 +4332,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D92" t="s">
         <v>134</v>
@@ -4325,7 +4361,7 @@
         <v>136</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D93" t="s">
         <v>134</v>
@@ -5055,13 +5091,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
@@ -5084,7 +5120,7 @@
         <v>136</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D126" t="s">
         <v>134</v>
@@ -5226,13 +5262,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D134" t="s">
         <v>134</v>
@@ -5249,13 +5285,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -5278,7 +5314,7 @@
         <v>136</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -5548,13 +5584,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -5577,7 +5613,7 @@
         <v>136</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
@@ -5847,13 +5883,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D161" t="s">
         <v>134</v>
@@ -5876,7 +5912,7 @@
         <v>136</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D162" t="s">
         <v>134</v>
@@ -6054,13 +6090,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D170" t="s">
         <v>134</v>
@@ -6083,7 +6119,7 @@
         <v>136</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D171" t="s">
         <v>134</v>
@@ -6560,13 +6596,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D192" t="s">
         <v>134</v>
@@ -6589,7 +6625,7 @@
         <v>136</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -6836,13 +6872,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D204" t="s">
         <v>134</v>
@@ -6865,7 +6901,7 @@
         <v>136</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
@@ -7181,13 +7217,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D219" t="s">
         <v>134</v>
@@ -7210,7 +7246,7 @@
         <v>136</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D220" t="s">
         <v>134</v>
@@ -8087,7 +8123,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>135</v>
@@ -8167,13 +8203,13 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D271" t="s">
         <v>134</v>
@@ -8187,33 +8223,33 @@
     </row>
     <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D272" t="s">
+        <v>134</v>
+      </c>
+      <c r="E272" t="s">
+        <v>147</v>
+      </c>
+      <c r="H272" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B273" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D272" t="s">
-        <v>134</v>
-      </c>
-      <c r="E272" t="s">
-        <v>147</v>
-      </c>
-      <c r="H272" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>29</v>
+      <c r="C273" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="D273" t="s">
         <v>134</v>
@@ -8227,13 +8263,13 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>497</v>
+        <v>29</v>
       </c>
       <c r="D274" t="s">
         <v>134</v>
@@ -8247,93 +8283,93 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D275" t="s">
+        <v>134</v>
+      </c>
+      <c r="E275" t="s">
+        <v>147</v>
+      </c>
+      <c r="H275" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C275" s="13" t="s">
+      <c r="B276" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C276" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D275" t="s">
-        <v>134</v>
-      </c>
-      <c r="E275" t="s">
-        <v>147</v>
-      </c>
-      <c r="H275" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
+      <c r="D276" t="s">
+        <v>134</v>
+      </c>
+      <c r="E276" t="s">
+        <v>147</v>
+      </c>
+      <c r="H276" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D277" t="s">
+        <v>134</v>
+      </c>
+      <c r="E277" t="s">
+        <v>147</v>
+      </c>
+      <c r="H277" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="D278" t="s">
+        <v>134</v>
+      </c>
+      <c r="E278" t="s">
+        <v>147</v>
+      </c>
+      <c r="H278" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D276" t="s">
-        <v>134</v>
-      </c>
-      <c r="E276" t="s">
-        <v>147</v>
-      </c>
-      <c r="H276" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D277" t="s">
-        <v>134</v>
-      </c>
-      <c r="E277" t="s">
-        <v>147</v>
-      </c>
-      <c r="H277" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D278" t="s">
-        <v>134</v>
-      </c>
-      <c r="E278" t="s">
-        <v>147</v>
-      </c>
-      <c r="H278" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
       <c r="D279" t="s">
         <v>134</v>
@@ -8347,13 +8383,13 @@
     </row>
     <row r="280" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>101</v>
+        <v>499</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="D280" t="s">
         <v>134</v>
@@ -8365,15 +8401,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>102</v>
+        <v>501</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>29</v>
+        <v>502</v>
       </c>
       <c r="D281" t="s">
         <v>134</v>
@@ -8387,13 +8423,13 @@
     </row>
     <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D282" t="s">
         <v>134</v>
@@ -8407,93 +8443,93 @@
     </row>
     <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D283" t="s">
+        <v>134</v>
+      </c>
+      <c r="E283" t="s">
+        <v>147</v>
+      </c>
+      <c r="H283" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D284" t="s">
+        <v>134</v>
+      </c>
+      <c r="E284" t="s">
+        <v>147</v>
+      </c>
+      <c r="H284" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D285" t="s">
+        <v>134</v>
+      </c>
+      <c r="E285" t="s">
+        <v>147</v>
+      </c>
+      <c r="H285" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C283" s="6" t="s">
+      <c r="B286" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C286" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D283" t="s">
-        <v>134</v>
-      </c>
-      <c r="E283" t="s">
-        <v>147</v>
-      </c>
-      <c r="H283" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
+      <c r="D286" t="s">
+        <v>134</v>
+      </c>
+      <c r="E286" t="s">
+        <v>147</v>
+      </c>
+      <c r="H286" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A287" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B287" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="C287" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="D284" t="s">
-        <v>134</v>
-      </c>
-      <c r="E284" t="s">
-        <v>147</v>
-      </c>
-      <c r="H284" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D285" t="s">
-        <v>134</v>
-      </c>
-      <c r="E285" t="s">
-        <v>147</v>
-      </c>
-      <c r="H285" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="D286" t="s">
-        <v>134</v>
-      </c>
-      <c r="E286" t="s">
-        <v>147</v>
-      </c>
-      <c r="H286" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="D287" t="s">
         <v>134</v>
@@ -8507,13 +8543,13 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>270</v>
+        <v>602</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>271</v>
+        <v>509</v>
       </c>
       <c r="D288" t="s">
         <v>134</v>
@@ -8527,13 +8563,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D289" t="s">
         <v>134</v>
@@ -8545,15 +8581,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D290" t="s">
         <v>134</v>
@@ -8567,13 +8603,13 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>519</v>
+        <v>271</v>
       </c>
       <c r="D291" t="s">
         <v>134</v>
@@ -8585,15 +8621,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D292" t="s">
         <v>134</v>
@@ -8605,15 +8641,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>104</v>
+        <v>516</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D293" t="s">
         <v>134</v>
@@ -8627,93 +8663,93 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D294" t="s">
+        <v>134</v>
+      </c>
+      <c r="E294" t="s">
+        <v>147</v>
+      </c>
+      <c r="H294" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D295" t="s">
+        <v>134</v>
+      </c>
+      <c r="E295" t="s">
+        <v>147</v>
+      </c>
+      <c r="H295" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D296" t="s">
+        <v>134</v>
+      </c>
+      <c r="E296" t="s">
+        <v>147</v>
+      </c>
+      <c r="H296" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D297" t="s">
+        <v>134</v>
+      </c>
+      <c r="E297" t="s">
+        <v>147</v>
+      </c>
+      <c r="H297" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="D294" t="s">
-        <v>134</v>
-      </c>
-      <c r="E294" t="s">
-        <v>147</v>
-      </c>
-      <c r="H294" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D295" t="s">
-        <v>134</v>
-      </c>
-      <c r="E295" t="s">
-        <v>147</v>
-      </c>
-      <c r="H295" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="D296" t="s">
-        <v>134</v>
-      </c>
-      <c r="E296" t="s">
-        <v>147</v>
-      </c>
-      <c r="H296" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D297" t="s">
-        <v>134</v>
-      </c>
-      <c r="E297" t="s">
-        <v>147</v>
-      </c>
-      <c r="H297" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="D298" t="s">
         <v>134</v>
@@ -8727,13 +8763,13 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D299" t="s">
         <v>134</v>
@@ -8747,13 +8783,13 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>276</v>
+        <v>524</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>277</v>
+        <v>525</v>
       </c>
       <c r="D300" t="s">
         <v>134</v>
@@ -8765,35 +8801,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="B301" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D301" t="s">
+        <v>134</v>
+      </c>
+      <c r="E301" t="s">
+        <v>147</v>
+      </c>
+      <c r="H301" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C301" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="D301" t="s">
-        <v>134</v>
-      </c>
-      <c r="E301" t="s">
-        <v>147</v>
-      </c>
-      <c r="H301" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C302" s="6" t="s">
-        <v>29</v>
+        <v>528</v>
       </c>
       <c r="D302" t="s">
         <v>134</v>
@@ -8807,13 +8843,13 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="D303" t="s">
         <v>134</v>
@@ -8827,13 +8863,13 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="D304" t="s">
         <v>134</v>
@@ -8847,13 +8883,13 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="D305" t="s">
         <v>134</v>
@@ -8867,7 +8903,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>135</v>
@@ -8887,7 +8923,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>135</v>
@@ -8905,15 +8941,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="D308" t="s">
         <v>134</v>
@@ -8927,133 +8963,133 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D309" t="s">
+        <v>134</v>
+      </c>
+      <c r="E309" t="s">
+        <v>147</v>
+      </c>
+      <c r="H309" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D310" t="s">
+        <v>134</v>
+      </c>
+      <c r="E310" t="s">
+        <v>147</v>
+      </c>
+      <c r="H310" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D311" t="s">
+        <v>134</v>
+      </c>
+      <c r="E311" t="s">
+        <v>147</v>
+      </c>
+      <c r="H311" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D312" t="s">
+        <v>134</v>
+      </c>
+      <c r="E312" t="s">
+        <v>147</v>
+      </c>
+      <c r="H312" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C313" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C309" s="6" t="s">
+      <c r="D313" t="s">
+        <v>134</v>
+      </c>
+      <c r="E313" t="s">
+        <v>147</v>
+      </c>
+      <c r="H313" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D309" t="s">
-        <v>134</v>
-      </c>
-      <c r="E309" t="s">
-        <v>147</v>
-      </c>
-      <c r="H309" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
+      <c r="B314" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C314" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B310" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C310" s="6" t="s">
+      <c r="D314" t="s">
+        <v>134</v>
+      </c>
+      <c r="E314" t="s">
+        <v>147</v>
+      </c>
+      <c r="H314" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="D310" t="s">
-        <v>134</v>
-      </c>
-      <c r="E310" t="s">
-        <v>147</v>
-      </c>
-      <c r="H310" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="6" t="s">
+      <c r="B315" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C315" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D311" t="s">
-        <v>134</v>
-      </c>
-      <c r="E311" t="s">
-        <v>147</v>
-      </c>
-      <c r="H311" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D312" t="s">
-        <v>134</v>
-      </c>
-      <c r="E312" t="s">
-        <v>147</v>
-      </c>
-      <c r="H312" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D313" t="s">
-        <v>134</v>
-      </c>
-      <c r="E313" t="s">
-        <v>147</v>
-      </c>
-      <c r="H313" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D314" t="s">
-        <v>134</v>
-      </c>
-      <c r="E314" t="s">
-        <v>147</v>
-      </c>
-      <c r="H314" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D315" t="s">
         <v>134</v>
@@ -9067,73 +9103,73 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C316" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D316" t="s">
+        <v>134</v>
+      </c>
+      <c r="E316" t="s">
+        <v>147</v>
+      </c>
+      <c r="H316" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D317" t="s">
+        <v>134</v>
+      </c>
+      <c r="E317" t="s">
+        <v>147</v>
+      </c>
+      <c r="H317" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A318" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D318" t="s">
+        <v>134</v>
+      </c>
+      <c r="E318" t="s">
+        <v>147</v>
+      </c>
+      <c r="H318" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C319" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D316" t="s">
-        <v>134</v>
-      </c>
-      <c r="E316" t="s">
-        <v>147</v>
-      </c>
-      <c r="H316" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C317" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D317" t="s">
-        <v>134</v>
-      </c>
-      <c r="E317" t="s">
-        <v>147</v>
-      </c>
-      <c r="H317" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D318" t="s">
-        <v>134</v>
-      </c>
-      <c r="E318" t="s">
-        <v>147</v>
-      </c>
-      <c r="H318" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="D319" t="s">
         <v>134</v>
@@ -9147,13 +9183,13 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>540</v>
+        <v>115</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>541</v>
+        <v>29</v>
       </c>
       <c r="D320" t="s">
         <v>134</v>
@@ -9167,13 +9203,13 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="D321" t="s">
         <v>134</v>
@@ -9185,15 +9221,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>283</v>
+        <v>538</v>
       </c>
       <c r="D322" t="s">
         <v>134</v>
@@ -9205,15 +9241,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>542</v>
+        <v>118</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>543</v>
+        <v>282</v>
       </c>
       <c r="D323" t="s">
         <v>134</v>
@@ -9227,13 +9263,13 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D324" t="s">
         <v>134</v>
@@ -9245,15 +9281,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>546</v>
+        <v>149</v>
       </c>
       <c r="D325" t="s">
         <v>134</v>
@@ -9267,13 +9303,13 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="D326" t="s">
         <v>134</v>
@@ -9285,15 +9321,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>121</v>
+        <v>541</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>122</v>
+        <v>542</v>
       </c>
       <c r="D327" t="s">
         <v>134</v>
@@ -9307,13 +9343,13 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>123</v>
+        <v>543</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>29</v>
+        <v>544</v>
       </c>
       <c r="D328" t="s">
         <v>134</v>
@@ -9327,13 +9363,13 @@
     </row>
     <row r="329" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>285</v>
+        <v>545</v>
       </c>
       <c r="D329" t="s">
         <v>134</v>
@@ -9347,13 +9383,13 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="D330" t="s">
         <v>134</v>
@@ -9365,15 +9401,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="D331" t="s">
         <v>134</v>
@@ -9387,13 +9423,13 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>547</v>
+        <v>29</v>
       </c>
       <c r="D332" t="s">
         <v>134</v>
@@ -9405,15 +9441,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>548</v>
+        <v>124</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>549</v>
+        <v>285</v>
       </c>
       <c r="D333" t="s">
         <v>134</v>
@@ -9427,13 +9463,13 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>550</v>
+        <v>286</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>551</v>
+        <v>287</v>
       </c>
       <c r="D334" t="s">
         <v>134</v>
@@ -9447,13 +9483,13 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>552</v>
+        <v>288</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>553</v>
+        <v>289</v>
       </c>
       <c r="D335" t="s">
         <v>134</v>
@@ -9467,13 +9503,13 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D336" t="s">
         <v>134</v>
@@ -9487,13 +9523,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D337" t="s">
         <v>134</v>
@@ -9505,15 +9541,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>125</v>
+        <v>549</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D338" t="s">
         <v>134</v>
@@ -9525,15 +9561,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>130</v>
+        <v>551</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>29</v>
+        <v>552</v>
       </c>
       <c r="D339" t="s">
         <v>134</v>
@@ -9545,15 +9581,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>131</v>
+        <v>553</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>29</v>
+        <v>554</v>
       </c>
       <c r="D340" t="s">
         <v>134</v>
@@ -9567,13 +9603,13 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>126</v>
+        <v>555</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>29</v>
+        <v>556</v>
       </c>
       <c r="D341" t="s">
         <v>134</v>
@@ -9585,15 +9621,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>29</v>
+        <v>607</v>
       </c>
       <c r="D342" t="s">
         <v>134</v>
@@ -9605,9 +9641,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B343" s="6" t="s">
         <v>135</v>
@@ -9625,9 +9661,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>135</v>
@@ -9645,9 +9681,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>559</v>
+        <v>126</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>135</v>
@@ -9665,43 +9701,123 @@
         <v>150</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D346" t="s">
+        <v>134</v>
+      </c>
+      <c r="E346" t="s">
+        <v>147</v>
+      </c>
+      <c r="H346" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D347" t="s">
+        <v>134</v>
+      </c>
+      <c r="E347" t="s">
+        <v>147</v>
+      </c>
+      <c r="H347" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D348" t="s">
+        <v>134</v>
+      </c>
+      <c r="E348" t="s">
+        <v>147</v>
+      </c>
+      <c r="H348" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A349" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D349" t="s">
+        <v>134</v>
+      </c>
+      <c r="E349" t="s">
+        <v>147</v>
+      </c>
+      <c r="H349" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A350" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B346" s="6" t="s">
+      <c r="B350" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C346" s="6" t="s">
+      <c r="C350" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D346" t="s">
-        <v>134</v>
-      </c>
-      <c r="E346" t="s">
-        <v>147</v>
-      </c>
-      <c r="H346" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="D350" t="s">
+        <v>134</v>
+      </c>
+      <c r="E350" t="s">
+        <v>147</v>
+      </c>
+      <c r="H350" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B347" s="6" t="s">
+      <c r="B351" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C347" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="D347" t="s">
-        <v>134</v>
-      </c>
-      <c r="E347" t="s">
-        <v>147</v>
-      </c>
-      <c r="H347" t="s">
+      <c r="C351" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D351" t="s">
+        <v>134</v>
+      </c>
+      <c r="E351" t="s">
+        <v>147</v>
+      </c>
+      <c r="H351" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE6F092-264E-47FB-BB45-B37CCADEE6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F00BAF-8DCB-4B2F-A16B-63365F766979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$320</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="610">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1725,9 +1725,6 @@
     <t>amount_due_from_brokers</t>
   </si>
   <si>
-    <t>amount_due_from_related_companies+amounts_due_by_a_related_party+amounts_due_from_director+amounts_due_from_subsidiary_companies+amount_owing_by_related_companies+amount_owing_by_a_director+other_receivables_and_prepaid_expenses+amount_owing_by_ultimate_holding_company+amount_due_from_brokers</t>
-  </si>
-  <si>
     <t>derivative_financial_instruments+others_current+other_current+other_assets+Other_current_assets+contract_assets+advance_payments_to_subsidiary_companies+other_non_financial_asset+Derivatives</t>
   </si>
   <si>
@@ -1852,6 +1849,15 @@
   </si>
   <si>
     <t>income_tax_expense+income_tax_expenses+Income_tax+tax_benefit_expense+income_tax_benefit_expense+tax_expense+taxation+income_tax_credit_expense</t>
+  </si>
+  <si>
+    <t>amount_due_from_director</t>
+  </si>
+  <si>
+    <t>Amount Due From director</t>
+  </si>
+  <si>
+    <t>amount_due_from_related_companies+amounts_due_by_a_related_party+amounts_due_from_director+amounts_due_from_subsidiary_companies+amount_owing_by_related_companies+amount_owing_by_a_director+other_receivables_and_prepaid_expenses+amount_owing_by_ultimate_holding_company+amount_due_from_brokers+amount_due_from_director</t>
   </si>
 </sst>
 </file>
@@ -2011,10 +2017,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2297,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,13 +2843,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="D27" t="s">
         <v>134</v>
@@ -2860,13 +2866,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="D28" t="s">
         <v>134</v>
@@ -2889,7 +2895,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D29" t="s">
         <v>134</v>
@@ -3527,13 +3533,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="D57" t="s">
         <v>134</v>
@@ -3550,13 +3556,13 @@
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -3579,7 +3585,7 @@
         <v>136</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D59" t="s">
         <v>134</v>
@@ -4215,15 +4221,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>349</v>
+        <v>607</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>350</v>
+        <v>608</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
@@ -4240,13 +4246,13 @@
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D88" t="s">
         <v>134</v>
@@ -4261,15 +4267,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D89" t="s">
         <v>134</v>
@@ -4284,15 +4290,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
@@ -4309,13 +4315,13 @@
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D91" t="s">
         <v>134</v>
@@ -4330,15 +4336,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>564</v>
+        <v>357</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>563</v>
+        <v>358</v>
       </c>
       <c r="D92" t="s">
         <v>134</v>
@@ -4353,15 +4359,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>136</v>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D93" t="s">
         <v>134</v>
@@ -4376,15 +4382,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>135</v>
+    <row r="94" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>360</v>
+        <v>609</v>
       </c>
       <c r="D94" t="s">
         <v>134</v>
@@ -4401,13 +4407,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
         <v>134</v>
@@ -4424,13 +4430,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D96" t="s">
         <v>134</v>
@@ -4447,13 +4453,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D97" t="s">
         <v>134</v>
@@ -4470,13 +4476,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
@@ -4491,15 +4497,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D99" t="s">
         <v>134</v>
@@ -4514,15 +4520,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>31</v>
+        <v>369</v>
       </c>
       <c r="D100" t="s">
         <v>134</v>
@@ -4539,13 +4545,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>
@@ -4562,13 +4568,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
@@ -4585,13 +4591,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D103" t="s">
         <v>134</v>
@@ -4608,13 +4614,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
@@ -4631,7 +4637,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>135</v>
@@ -4654,7 +4660,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>135</v>
@@ -4677,13 +4683,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
         <v>134</v>
@@ -4700,13 +4706,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D108" t="s">
         <v>134</v>
@@ -4723,13 +4729,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D109" t="s">
         <v>134</v>
@@ -4746,13 +4752,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>373</v>
+        <v>195</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>372</v>
+        <v>168</v>
       </c>
       <c r="D110" t="s">
         <v>134</v>
@@ -4769,13 +4775,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D111" t="s">
         <v>134</v>
@@ -4790,15 +4796,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D112" t="s">
         <v>134</v>
@@ -4813,15 +4819,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D113" t="s">
         <v>134</v>
@@ -4838,13 +4844,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="D114" t="s">
         <v>134</v>
@@ -4861,13 +4867,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>378</v>
+        <v>196</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="D115" t="s">
         <v>134</v>
@@ -4884,13 +4890,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D116" t="s">
         <v>134</v>
@@ -4907,13 +4913,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="D117" t="s">
         <v>134</v>
@@ -4930,13 +4936,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
@@ -4953,13 +4959,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
@@ -4976,13 +4982,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D120" t="s">
         <v>134</v>
@@ -4999,13 +5005,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
@@ -5022,13 +5028,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>381</v>
+        <v>243</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>382</v>
+        <v>170</v>
       </c>
       <c r="D122" t="s">
         <v>134</v>
@@ -5043,15 +5049,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D123" t="s">
         <v>134</v>
@@ -5066,15 +5072,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D124" t="s">
         <v>134</v>
@@ -5091,13 +5097,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>561</v>
+        <v>385</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>561</v>
+        <v>386</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
@@ -5112,15 +5118,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>45</v>
+        <v>561</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D126" t="s">
         <v>134</v>
@@ -5135,71 +5141,71 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D127" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" t="s">
+        <v>144</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="6" t="s">
+      <c r="B128" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D127" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" t="s">
-        <v>144</v>
-      </c>
-      <c r="F127" s="5"/>
-      <c r="H127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="D128" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" t="s">
+        <v>144</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="H128" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D130" t="s">
-        <v>134</v>
-      </c>
-      <c r="E130" t="s">
-        <v>145</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H130" t="s">
-        <v>151</v>
-      </c>
+      <c r="A130" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
@@ -5216,13 +5222,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D132" t="s">
         <v>134</v>
@@ -5239,13 +5245,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D133" t="s">
         <v>134</v>
@@ -5262,13 +5268,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>587</v>
+        <v>49</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>588</v>
+        <v>241</v>
       </c>
       <c r="D134" t="s">
         <v>134</v>
@@ -5285,13 +5291,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -5308,13 +5314,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>50</v>
+        <v>589</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -5331,13 +5337,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>29</v>
+        <v>590</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
@@ -5352,9 +5358,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>135</v>
@@ -5377,7 +5383,7 @@
     </row>
     <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>135</v>
@@ -5398,9 +5404,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>135</v>
@@ -5423,7 +5429,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>135</v>
@@ -5446,13 +5452,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
         <v>134</v>
@@ -5461,7 +5467,7 @@
         <v>145</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H142" t="s">
         <v>151</v>
@@ -5469,13 +5475,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>387</v>
+        <v>192</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>388</v>
+        <v>211</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
@@ -5492,13 +5498,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
@@ -5515,13 +5521,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D145" t="s">
         <v>134</v>
@@ -5538,13 +5544,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>191</v>
+        <v>392</v>
       </c>
       <c r="D146" t="s">
         <v>134</v>
@@ -5561,13 +5567,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="D147" t="s">
         <v>134</v>
@@ -5584,13 +5590,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>571</v>
+        <v>393</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>570</v>
+        <v>393</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -5605,15 +5611,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>56</v>
+        <v>570</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
@@ -5628,15 +5634,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>213</v>
+        <v>572</v>
       </c>
       <c r="D150" t="s">
         <v>134</v>
@@ -5653,13 +5659,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D151" t="s">
         <v>134</v>
@@ -5676,13 +5682,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>395</v>
+        <v>214</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>394</v>
+        <v>215</v>
       </c>
       <c r="D152" t="s">
         <v>134</v>
@@ -5697,15 +5703,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>57</v>
+        <v>395</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D153" t="s">
         <v>134</v>
@@ -5722,13 +5728,13 @@
     </row>
     <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>29</v>
+        <v>396</v>
       </c>
       <c r="D154" t="s">
         <v>134</v>
@@ -5743,15 +5749,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
         <v>134</v>
@@ -5768,13 +5774,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="D156" t="s">
         <v>134</v>
@@ -5791,13 +5797,13 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D157" t="s">
         <v>134</v>
@@ -5814,13 +5820,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D158" t="s">
         <v>134</v>
@@ -5837,13 +5843,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>398</v>
+        <v>219</v>
       </c>
       <c r="D159" t="s">
         <v>134</v>
@@ -5860,13 +5866,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D160" t="s">
         <v>134</v>
@@ -5883,13 +5889,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>561</v>
+        <v>399</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="D161" t="s">
         <v>134</v>
@@ -5904,15 +5910,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D162" t="s">
         <v>134</v>
@@ -5927,15 +5933,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>221</v>
+        <v>566</v>
       </c>
       <c r="D163" t="s">
         <v>134</v>
@@ -5952,13 +5958,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D164" t="s">
         <v>134</v>
@@ -5967,7 +5973,7 @@
         <v>145</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H164" t="s">
         <v>151</v>
@@ -5975,13 +5981,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>391</v>
+        <v>192</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>392</v>
+        <v>211</v>
       </c>
       <c r="D165" t="s">
         <v>134</v>
@@ -5998,13 +6004,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D166" t="s">
         <v>134</v>
@@ -6021,13 +6027,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="D167" t="s">
         <v>134</v>
@@ -6044,13 +6050,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>191</v>
+        <v>387</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="D168" t="s">
         <v>134</v>
@@ -6067,13 +6073,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="D169" t="s">
         <v>134</v>
@@ -6090,13 +6096,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>571</v>
+        <v>393</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>570</v>
+        <v>393</v>
       </c>
       <c r="D170" t="s">
         <v>134</v>
@@ -6111,15 +6117,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>61</v>
+        <v>570</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D171" t="s">
         <v>134</v>
@@ -6134,15 +6140,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>223</v>
+        <v>571</v>
       </c>
       <c r="D172" t="s">
         <v>134</v>
@@ -6159,13 +6165,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D173" t="s">
         <v>134</v>
@@ -6182,13 +6188,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
@@ -6205,13 +6211,13 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>404</v>
+        <v>242</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>403</v>
+        <v>226</v>
       </c>
       <c r="D175" t="s">
         <v>134</v>
@@ -6226,15 +6232,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D176" t="s">
         <v>134</v>
@@ -6251,13 +6257,13 @@
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>406</v>
+        <v>62</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D177" t="s">
         <v>134</v>
@@ -6274,13 +6280,13 @@
     </row>
     <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D178" t="s">
         <v>134</v>
@@ -6297,13 +6303,13 @@
     </row>
     <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D179" t="s">
         <v>134</v>
@@ -6320,13 +6326,13 @@
     </row>
     <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D180" t="s">
         <v>134</v>
@@ -6341,15 +6347,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D181" t="s">
         <v>134</v>
@@ -6364,15 +6370,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D182" t="s">
         <v>134</v>
@@ -6387,15 +6393,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>63</v>
+        <v>416</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D183" t="s">
         <v>134</v>
@@ -6410,15 +6416,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D184" t="s">
         <v>134</v>
@@ -6435,13 +6441,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>433</v>
+        <v>64</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D185" t="s">
         <v>134</v>
@@ -6458,13 +6464,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D186" t="s">
         <v>134</v>
@@ -6479,15 +6485,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D187" t="s">
         <v>134</v>
@@ -6502,15 +6508,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D188" t="s">
         <v>134</v>
@@ -6527,13 +6533,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D189" t="s">
         <v>134</v>
@@ -6548,15 +6554,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D190" t="s">
         <v>134</v>
@@ -6571,15 +6577,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D191" t="s">
         <v>134</v>
@@ -6596,13 +6602,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>564</v>
+        <v>431</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>563</v>
+        <v>432</v>
       </c>
       <c r="D192" t="s">
         <v>134</v>
@@ -6617,15 +6623,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>65</v>
+        <v>564</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -6640,15 +6646,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>29</v>
+        <v>567</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -6665,7 +6671,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>135</v>
@@ -6688,13 +6694,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>434</v>
+        <v>29</v>
       </c>
       <c r="D196" t="s">
         <v>134</v>
@@ -6711,13 +6717,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>29</v>
+        <v>434</v>
       </c>
       <c r="D197" t="s">
         <v>134</v>
@@ -6734,13 +6740,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="D198" t="s">
         <v>134</v>
@@ -6757,13 +6763,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D199" t="s">
         <v>134</v>
@@ -6780,13 +6786,13 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>435</v>
+        <v>229</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>436</v>
+        <v>230</v>
       </c>
       <c r="D200" t="s">
         <v>134</v>
@@ -6803,13 +6809,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D201" t="s">
         <v>134</v>
@@ -6826,13 +6832,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D202" t="s">
         <v>134</v>
@@ -6849,13 +6855,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D203" t="s">
         <v>134</v>
@@ -6872,13 +6878,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>593</v>
+        <v>441</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>592</v>
+        <v>442</v>
       </c>
       <c r="D204" t="s">
         <v>134</v>
@@ -6893,15 +6899,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>70</v>
+        <v>592</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
@@ -6916,15 +6922,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>29</v>
+        <v>593</v>
       </c>
       <c r="D206" t="s">
         <v>134</v>
@@ -6941,7 +6947,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>135</v>
@@ -6964,7 +6970,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>135</v>
@@ -6987,13 +6993,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="D209" t="s">
         <v>134</v>
@@ -7010,13 +7016,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="D210" t="s">
         <v>134</v>
@@ -7033,13 +7039,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="D211" t="s">
         <v>134</v>
@@ -7056,19 +7062,19 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D212" t="s">
         <v>134</v>
       </c>
       <c r="E212" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>239</v>
@@ -7079,13 +7085,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D213" t="s">
         <v>134</v>
@@ -7102,19 +7108,19 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="D214" t="s">
         <v>134</v>
       </c>
       <c r="E214" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>239</v>
@@ -7125,13 +7131,13 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="D215" t="s">
         <v>134</v>
@@ -7148,13 +7154,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D216" t="s">
         <v>134</v>
@@ -7171,13 +7177,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D217" t="s">
         <v>134</v>
@@ -7194,13 +7200,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D218" t="s">
         <v>134</v>
@@ -7217,13 +7223,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>561</v>
+        <v>448</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>561</v>
+        <v>449</v>
       </c>
       <c r="D219" t="s">
         <v>134</v>
@@ -7238,15 +7244,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>74</v>
+        <v>561</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D220" t="s">
         <v>134</v>
@@ -7261,15 +7267,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>221</v>
+        <v>568</v>
       </c>
       <c r="D221" t="s">
         <v>134</v>
@@ -7286,13 +7292,13 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>451</v>
+        <v>75</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>450</v>
+        <v>221</v>
       </c>
       <c r="D222" t="s">
         <v>134</v>
@@ -7300,20 +7306,22 @@
       <c r="E222" t="s">
         <v>145</v>
       </c>
-      <c r="F222" s="5"/>
+      <c r="F222" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="H222" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D223" t="s">
         <v>134</v>
@@ -7328,13 +7336,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D224" t="s">
         <v>134</v>
@@ -7348,46 +7356,47 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
+      <c r="A225" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D225" t="s">
+        <v>134</v>
+      </c>
+      <c r="E225" t="s">
+        <v>145</v>
+      </c>
+      <c r="F225" s="5"/>
+      <c r="H225" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
-    </row>
-    <row r="227" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="s">
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D227" t="s">
-        <v>134</v>
-      </c>
-      <c r="E227" t="s">
-        <v>146</v>
-      </c>
-      <c r="H227" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="D228" t="s">
         <v>134</v>
@@ -7399,15 +7408,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="D229" t="s">
         <v>134</v>
@@ -7419,15 +7428,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="D230" t="s">
         <v>134</v>
@@ -7440,56 +7449,56 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
+      <c r="A231" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="D231" t="s">
         <v>134</v>
       </c>
+      <c r="E231" t="s">
+        <v>146</v>
+      </c>
+      <c r="H231" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B232" s="4"/>
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
       <c r="C232" s="2"/>
+      <c r="D232" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="2"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D234" t="s">
-        <v>134</v>
-      </c>
-      <c r="E234" t="s">
-        <v>147</v>
-      </c>
-      <c r="H234" t="s">
-        <v>150</v>
-      </c>
+      <c r="A234" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B234" s="4"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
@@ -7503,13 +7512,13 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>454</v>
+        <v>255</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>455</v>
+        <v>256</v>
       </c>
       <c r="D236" t="s">
         <v>134</v>
@@ -7523,13 +7532,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D237" t="s">
         <v>134</v>
@@ -7543,13 +7552,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D238" t="s">
         <v>134</v>
@@ -7563,73 +7572,73 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D239" t="s">
+        <v>134</v>
+      </c>
+      <c r="E239" t="s">
+        <v>147</v>
+      </c>
+      <c r="H239" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C239" s="6" t="s">
+      <c r="B240" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C240" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D239" t="s">
-        <v>134</v>
-      </c>
-      <c r="E239" t="s">
-        <v>147</v>
-      </c>
-      <c r="H239" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="6" t="s">
+      <c r="D240" t="s">
+        <v>134</v>
+      </c>
+      <c r="E240" t="s">
+        <v>147</v>
+      </c>
+      <c r="H240" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B241" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C241" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D240" t="s">
-        <v>134</v>
-      </c>
-      <c r="E240" t="s">
-        <v>147</v>
-      </c>
-      <c r="H240" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
+      <c r="D241" t="s">
+        <v>134</v>
+      </c>
+      <c r="E241" t="s">
+        <v>147</v>
+      </c>
+      <c r="H241" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C241" s="6" t="s">
+      <c r="B242" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="D241" t="s">
-        <v>134</v>
-      </c>
-      <c r="E241" t="s">
-        <v>147</v>
-      </c>
-      <c r="H241" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="D242" t="s">
         <v>134</v>
@@ -7643,33 +7652,33 @@
     </row>
     <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D243" t="s">
+        <v>134</v>
+      </c>
+      <c r="E243" t="s">
+        <v>147</v>
+      </c>
+      <c r="H243" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C243" s="6" t="s">
+      <c r="B244" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C244" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="D243" t="s">
-        <v>134</v>
-      </c>
-      <c r="E243" t="s">
-        <v>147</v>
-      </c>
-      <c r="H243" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="D244" t="s">
         <v>134</v>
@@ -7683,13 +7692,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>259</v>
+        <v>467</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>260</v>
+        <v>468</v>
       </c>
       <c r="D245" t="s">
         <v>134</v>
@@ -7703,13 +7712,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>469</v>
+        <v>259</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="D246" t="s">
         <v>134</v>
@@ -7723,67 +7732,67 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D247" t="s">
+        <v>134</v>
+      </c>
+      <c r="E247" t="s">
+        <v>147</v>
+      </c>
+      <c r="H247" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C247" s="6" t="s">
+      <c r="B248" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="D247" t="s">
-        <v>134</v>
-      </c>
-      <c r="E247" t="s">
-        <v>147</v>
-      </c>
-      <c r="H247" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
+      <c r="D248" t="s">
+        <v>134</v>
+      </c>
+      <c r="E248" t="s">
+        <v>147</v>
+      </c>
+      <c r="H248" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B249" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C249" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D248" t="s">
-        <v>134</v>
-      </c>
-      <c r="E248" t="s">
-        <v>147</v>
-      </c>
-      <c r="H248" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
+      <c r="D249" t="s">
+        <v>134</v>
+      </c>
+      <c r="E249" t="s">
+        <v>147</v>
+      </c>
+      <c r="H249" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D249" t="s">
-        <v>134</v>
-      </c>
-      <c r="E249" t="s">
-        <v>147</v>
-      </c>
-      <c r="H249" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>135</v>
@@ -7801,15 +7810,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>474</v>
+        <v>89</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>475</v>
+        <v>29</v>
       </c>
       <c r="D251" t="s">
         <v>134</v>
@@ -7823,53 +7832,53 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D252" t="s">
+        <v>134</v>
+      </c>
+      <c r="E252" t="s">
+        <v>147</v>
+      </c>
+      <c r="H252" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C252" s="6" t="s">
+      <c r="B253" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D252" t="s">
-        <v>134</v>
-      </c>
-      <c r="E252" t="s">
-        <v>147</v>
-      </c>
-      <c r="H252" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
+      <c r="D253" t="s">
+        <v>134</v>
+      </c>
+      <c r="E253" t="s">
+        <v>147</v>
+      </c>
+      <c r="H253" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B254" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C253" s="6" t="s">
+      <c r="C254" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="D253" t="s">
-        <v>134</v>
-      </c>
-      <c r="E253" t="s">
-        <v>147</v>
-      </c>
-      <c r="H253" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="D254" t="s">
         <v>134</v>
@@ -7883,13 +7892,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D255" t="s">
         <v>134</v>
@@ -7903,13 +7912,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>479</v>
+        <v>263</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>480</v>
+        <v>264</v>
       </c>
       <c r="D256" t="s">
         <v>134</v>
@@ -7923,53 +7932,53 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D257" t="s">
+        <v>134</v>
+      </c>
+      <c r="E257" t="s">
+        <v>147</v>
+      </c>
+      <c r="H257" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B257" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C257" s="6" t="s">
+      <c r="B258" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D257" t="s">
-        <v>134</v>
-      </c>
-      <c r="E257" t="s">
-        <v>147</v>
-      </c>
-      <c r="H257" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
+      <c r="D258" t="s">
+        <v>134</v>
+      </c>
+      <c r="E258" t="s">
+        <v>147</v>
+      </c>
+      <c r="H258" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B259" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C259" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="D258" t="s">
-        <v>134</v>
-      </c>
-      <c r="E258" t="s">
-        <v>147</v>
-      </c>
-      <c r="H258" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D259" t="s">
         <v>134</v>
@@ -7983,13 +7992,13 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D260" t="s">
         <v>134</v>
@@ -8003,13 +8012,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>484</v>
+        <v>267</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>484</v>
+        <v>268</v>
       </c>
       <c r="D261" t="s">
         <v>134</v>
@@ -8023,13 +8032,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D262" t="s">
         <v>134</v>
@@ -8043,13 +8052,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D263" t="s">
         <v>134</v>
@@ -8063,73 +8072,73 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D264" t="s">
+        <v>134</v>
+      </c>
+      <c r="E264" t="s">
+        <v>147</v>
+      </c>
+      <c r="H264" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B264" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C264" s="6" t="s">
+      <c r="B265" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D264" t="s">
-        <v>134</v>
-      </c>
-      <c r="E264" t="s">
-        <v>147</v>
-      </c>
-      <c r="H264" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="s">
+      <c r="D265" t="s">
+        <v>134</v>
+      </c>
+      <c r="E265" t="s">
+        <v>147</v>
+      </c>
+      <c r="H265" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D265" t="s">
-        <v>134</v>
-      </c>
-      <c r="E265" t="s">
-        <v>147</v>
-      </c>
-      <c r="H265" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C266" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D266" t="s">
+        <v>134</v>
+      </c>
+      <c r="E266" t="s">
+        <v>147</v>
+      </c>
+      <c r="H266" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="D266" t="s">
-        <v>134</v>
-      </c>
-      <c r="E266" t="s">
-        <v>147</v>
-      </c>
-      <c r="H266" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D267" t="s">
         <v>134</v>
@@ -8143,13 +8152,13 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>492</v>
+        <v>95</v>
       </c>
       <c r="D268" t="s">
         <v>134</v>
@@ -8163,13 +8172,13 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D269" t="s">
         <v>134</v>
@@ -8183,13 +8192,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D270" t="s">
         <v>134</v>
@@ -8203,73 +8212,73 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C271" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D271" t="s">
+        <v>134</v>
+      </c>
+      <c r="E271" t="s">
+        <v>147</v>
+      </c>
+      <c r="H271" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="D271" t="s">
-        <v>134</v>
-      </c>
-      <c r="E271" t="s">
-        <v>147</v>
-      </c>
-      <c r="H271" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="6" t="s">
+      <c r="B272" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D272" t="s">
+        <v>134</v>
+      </c>
+      <c r="E272" t="s">
+        <v>147</v>
+      </c>
+      <c r="H272" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D273" t="s">
+        <v>134</v>
+      </c>
+      <c r="E273" t="s">
+        <v>147</v>
+      </c>
+      <c r="H273" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C274" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="D272" t="s">
-        <v>134</v>
-      </c>
-      <c r="E272" t="s">
-        <v>147</v>
-      </c>
-      <c r="H272" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A273" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="D273" t="s">
-        <v>134</v>
-      </c>
-      <c r="E273" t="s">
-        <v>147</v>
-      </c>
-      <c r="H273" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="D274" t="s">
         <v>134</v>
@@ -8283,13 +8292,13 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>497</v>
+        <v>29</v>
       </c>
       <c r="D275" t="s">
         <v>134</v>
@@ -8303,33 +8312,33 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D276" t="s">
+        <v>134</v>
+      </c>
+      <c r="E276" t="s">
+        <v>147</v>
+      </c>
+      <c r="H276" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C276" s="13" t="s">
+      <c r="B277" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C277" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D276" t="s">
-        <v>134</v>
-      </c>
-      <c r="E276" t="s">
-        <v>147</v>
-      </c>
-      <c r="H276" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>498</v>
       </c>
       <c r="D277" t="s">
         <v>134</v>
@@ -8343,53 +8352,53 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D278" t="s">
+        <v>134</v>
+      </c>
+      <c r="E278" t="s">
+        <v>147</v>
+      </c>
+      <c r="H278" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="D279" t="s">
+        <v>134</v>
+      </c>
+      <c r="E279" t="s">
+        <v>147</v>
+      </c>
+      <c r="H279" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C280" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="D278" t="s">
-        <v>134</v>
-      </c>
-      <c r="E278" t="s">
-        <v>147</v>
-      </c>
-      <c r="H278" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="D279" t="s">
-        <v>134</v>
-      </c>
-      <c r="E279" t="s">
-        <v>147</v>
-      </c>
-      <c r="H279" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="D280" t="s">
         <v>134</v>
@@ -8403,13 +8412,13 @@
     </row>
     <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D281" t="s">
         <v>134</v>
@@ -8423,13 +8432,13 @@
     </row>
     <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>100</v>
+        <v>501</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D282" t="s">
         <v>134</v>
@@ -8443,27 +8452,27 @@
     </row>
     <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D283" t="s">
+        <v>134</v>
+      </c>
+      <c r="E283" t="s">
+        <v>147</v>
+      </c>
+      <c r="H283" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D283" t="s">
-        <v>134</v>
-      </c>
-      <c r="E283" t="s">
-        <v>147</v>
-      </c>
-      <c r="H283" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>135</v>
@@ -8481,15 +8490,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>504</v>
+        <v>102</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>505</v>
+        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>134</v>
@@ -8503,53 +8512,53 @@
     </row>
     <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D286" t="s">
+        <v>134</v>
+      </c>
+      <c r="E286" t="s">
+        <v>147</v>
+      </c>
+      <c r="H286" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B286" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C286" s="6" t="s">
+      <c r="B287" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C287" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D286" t="s">
-        <v>134</v>
-      </c>
-      <c r="E286" t="s">
-        <v>147</v>
-      </c>
-      <c r="H286" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A287" s="6" t="s">
+      <c r="D287" t="s">
+        <v>134</v>
+      </c>
+      <c r="E287" t="s">
+        <v>147</v>
+      </c>
+      <c r="H287" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A288" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B288" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C287" s="6" t="s">
+      <c r="C288" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="D287" t="s">
-        <v>134</v>
-      </c>
-      <c r="E287" t="s">
-        <v>147</v>
-      </c>
-      <c r="H287" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="D288" t="s">
         <v>134</v>
@@ -8563,53 +8572,53 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D289" t="s">
+        <v>134</v>
+      </c>
+      <c r="E289" t="s">
+        <v>147</v>
+      </c>
+      <c r="H289" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B289" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C289" s="6" t="s">
+      <c r="B290" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C290" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D289" t="s">
-        <v>134</v>
-      </c>
-      <c r="E289" t="s">
-        <v>147</v>
-      </c>
-      <c r="H289" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
+      <c r="D290" t="s">
+        <v>134</v>
+      </c>
+      <c r="E290" t="s">
+        <v>147</v>
+      </c>
+      <c r="H290" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C290" s="6" t="s">
+      <c r="B291" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="D290" t="s">
-        <v>134</v>
-      </c>
-      <c r="E290" t="s">
-        <v>147</v>
-      </c>
-      <c r="H290" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="D291" t="s">
         <v>134</v>
@@ -8623,13 +8632,13 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>514</v>
+        <v>270</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>515</v>
+        <v>271</v>
       </c>
       <c r="D292" t="s">
         <v>134</v>
@@ -8643,13 +8652,13 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D293" t="s">
         <v>134</v>
@@ -8663,33 +8672,33 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D294" t="s">
+        <v>134</v>
+      </c>
+      <c r="E294" t="s">
+        <v>147</v>
+      </c>
+      <c r="H294" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B294" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C294" s="6" t="s">
+      <c r="B295" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C295" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="D294" t="s">
-        <v>134</v>
-      </c>
-      <c r="E294" t="s">
-        <v>147</v>
-      </c>
-      <c r="H294" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="D295" t="s">
         <v>134</v>
@@ -8703,53 +8712,53 @@
     </row>
     <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D296" t="s">
+        <v>134</v>
+      </c>
+      <c r="E296" t="s">
+        <v>147</v>
+      </c>
+      <c r="H296" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D297" t="s">
+        <v>134</v>
+      </c>
+      <c r="E297" t="s">
+        <v>147</v>
+      </c>
+      <c r="H297" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="D296" t="s">
-        <v>134</v>
-      </c>
-      <c r="E296" t="s">
-        <v>147</v>
-      </c>
-      <c r="H296" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A297" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D297" t="s">
-        <v>134</v>
-      </c>
-      <c r="E297" t="s">
-        <v>147</v>
-      </c>
-      <c r="H297" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="D298" t="s">
         <v>134</v>
@@ -8763,13 +8772,13 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>272</v>
+        <v>522</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>273</v>
+        <v>523</v>
       </c>
       <c r="D299" t="s">
         <v>134</v>
@@ -8783,33 +8792,33 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D300" t="s">
+        <v>134</v>
+      </c>
+      <c r="E300" t="s">
+        <v>147</v>
+      </c>
+      <c r="H300" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C300" s="6" t="s">
+      <c r="B301" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C301" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="D300" t="s">
-        <v>134</v>
-      </c>
-      <c r="E300" t="s">
-        <v>147</v>
-      </c>
-      <c r="H300" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="D301" t="s">
         <v>134</v>
@@ -8823,33 +8832,33 @@
     </row>
     <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D302" t="s">
+        <v>134</v>
+      </c>
+      <c r="E302" t="s">
+        <v>147</v>
+      </c>
+      <c r="H302" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B303" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C303" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="D302" t="s">
-        <v>134</v>
-      </c>
-      <c r="E302" t="s">
-        <v>147</v>
-      </c>
-      <c r="H302" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="D303" t="s">
         <v>134</v>
@@ -8863,13 +8872,13 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D304" t="s">
         <v>134</v>
@@ -8883,13 +8892,13 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>529</v>
+        <v>277</v>
       </c>
       <c r="D305" t="s">
         <v>134</v>
@@ -8903,13 +8912,13 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="D306" t="s">
         <v>134</v>
@@ -8923,7 +8932,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>135</v>
@@ -8943,7 +8952,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>135</v>
@@ -8963,7 +8972,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>135</v>
@@ -8983,7 +8992,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>135</v>
@@ -9003,7 +9012,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>135</v>
@@ -9021,55 +9030,55 @@
         <v>150</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D312" t="s">
+        <v>134</v>
+      </c>
+      <c r="E312" t="s">
+        <v>147</v>
+      </c>
+      <c r="H312" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B312" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C312" s="6" t="s">
+      <c r="B313" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C313" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D312" t="s">
-        <v>134</v>
-      </c>
-      <c r="E312" t="s">
-        <v>147</v>
-      </c>
-      <c r="H312" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
+      <c r="D313" t="s">
+        <v>134</v>
+      </c>
+      <c r="E313" t="s">
+        <v>147</v>
+      </c>
+      <c r="H313" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B313" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C313" s="6" t="s">
+      <c r="B314" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C314" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="D313" t="s">
-        <v>134</v>
-      </c>
-      <c r="E313" t="s">
-        <v>147</v>
-      </c>
-      <c r="H313" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="D314" t="s">
         <v>134</v>
@@ -9083,93 +9092,93 @@
     </row>
     <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D315" t="s">
+        <v>134</v>
+      </c>
+      <c r="E315" t="s">
+        <v>147</v>
+      </c>
+      <c r="H315" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B315" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C315" s="6" t="s">
+      <c r="B316" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C316" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D315" t="s">
-        <v>134</v>
-      </c>
-      <c r="E315" t="s">
-        <v>147</v>
-      </c>
-      <c r="H315" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="6" t="s">
+      <c r="D316" t="s">
+        <v>134</v>
+      </c>
+      <c r="E316" t="s">
+        <v>147</v>
+      </c>
+      <c r="H316" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B316" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C316" s="6" t="s">
+      <c r="B317" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C317" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="D316" t="s">
-        <v>134</v>
-      </c>
-      <c r="E316" t="s">
-        <v>147</v>
-      </c>
-      <c r="H316" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
+      <c r="D317" t="s">
+        <v>134</v>
+      </c>
+      <c r="E317" t="s">
+        <v>147</v>
+      </c>
+      <c r="H317" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C317" s="6" t="s">
+      <c r="B318" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C318" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D317" t="s">
-        <v>134</v>
-      </c>
-      <c r="E317" t="s">
-        <v>147</v>
-      </c>
-      <c r="H317" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="s">
+      <c r="D318" t="s">
+        <v>134</v>
+      </c>
+      <c r="E318" t="s">
+        <v>147</v>
+      </c>
+      <c r="H318" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A319" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B319" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C319" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="D318" t="s">
-        <v>134</v>
-      </c>
-      <c r="E318" t="s">
-        <v>147</v>
-      </c>
-      <c r="H318" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D319" t="s">
         <v>134</v>
@@ -9183,7 +9192,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>135</v>
@@ -9203,7 +9212,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>135</v>
@@ -9221,55 +9230,55 @@
         <v>150</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322" t="s">
+        <v>134</v>
+      </c>
+      <c r="E322" t="s">
+        <v>147</v>
+      </c>
+      <c r="H322" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B322" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C322" s="6" t="s">
+      <c r="B323" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C323" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D322" t="s">
-        <v>134</v>
-      </c>
-      <c r="E322" t="s">
-        <v>147</v>
-      </c>
-      <c r="H322" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A323" s="6" t="s">
+      <c r="D323" t="s">
+        <v>134</v>
+      </c>
+      <c r="E323" t="s">
+        <v>147</v>
+      </c>
+      <c r="H323" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="B324" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C323" s="6" t="s">
+      <c r="C324" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="D323" t="s">
-        <v>134</v>
-      </c>
-      <c r="E323" t="s">
-        <v>147</v>
-      </c>
-      <c r="H323" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="D324" t="s">
         <v>134</v>
@@ -9283,13 +9292,13 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>284</v>
+        <v>539</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>149</v>
+        <v>540</v>
       </c>
       <c r="D325" t="s">
         <v>134</v>
@@ -9303,13 +9312,13 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="D326" t="s">
         <v>134</v>
@@ -9323,13 +9332,13 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>541</v>
+        <v>148</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>542</v>
+        <v>283</v>
       </c>
       <c r="D327" t="s">
         <v>134</v>
@@ -9343,133 +9352,133 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D328" t="s">
+        <v>134</v>
+      </c>
+      <c r="E328" t="s">
+        <v>147</v>
+      </c>
+      <c r="H328" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B328" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C328" s="6" t="s">
+      <c r="B329" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="D328" t="s">
-        <v>134</v>
-      </c>
-      <c r="E328" t="s">
-        <v>147</v>
-      </c>
-      <c r="H328" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
+      <c r="D329" t="s">
+        <v>134</v>
+      </c>
+      <c r="E329" t="s">
+        <v>147</v>
+      </c>
+      <c r="H329" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B330" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C330" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="D329" t="s">
-        <v>134</v>
-      </c>
-      <c r="E329" t="s">
-        <v>147</v>
-      </c>
-      <c r="H329" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
+      <c r="D330" t="s">
+        <v>134</v>
+      </c>
+      <c r="E330" t="s">
+        <v>147</v>
+      </c>
+      <c r="H330" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B330" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C330" s="6" t="s">
+      <c r="B331" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C331" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D330" t="s">
-        <v>134</v>
-      </c>
-      <c r="E330" t="s">
-        <v>147</v>
-      </c>
-      <c r="H330" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A331" s="6" t="s">
+      <c r="D331" t="s">
+        <v>134</v>
+      </c>
+      <c r="E331" t="s">
+        <v>147</v>
+      </c>
+      <c r="H331" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B332" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C332" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D331" t="s">
-        <v>134</v>
-      </c>
-      <c r="E331" t="s">
-        <v>147</v>
-      </c>
-      <c r="H331" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="6" t="s">
+      <c r="D332" t="s">
+        <v>134</v>
+      </c>
+      <c r="E332" t="s">
+        <v>147</v>
+      </c>
+      <c r="H332" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B332" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C332" s="6" t="s">
+      <c r="B333" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C333" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D332" t="s">
-        <v>134</v>
-      </c>
-      <c r="E332" t="s">
-        <v>147</v>
-      </c>
-      <c r="H332" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
+      <c r="D333" t="s">
+        <v>134</v>
+      </c>
+      <c r="E333" t="s">
+        <v>147</v>
+      </c>
+      <c r="H333" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B334" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C334" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="D333" t="s">
-        <v>134</v>
-      </c>
-      <c r="E333" t="s">
-        <v>147</v>
-      </c>
-      <c r="H333" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="D334" t="s">
         <v>134</v>
@@ -9483,13 +9492,13 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D335" t="s">
         <v>134</v>
@@ -9503,13 +9512,13 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>606</v>
+        <v>288</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>546</v>
+        <v>289</v>
       </c>
       <c r="D336" t="s">
         <v>134</v>
@@ -9523,13 +9532,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D337" t="s">
         <v>134</v>
@@ -9543,13 +9552,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D338" t="s">
         <v>134</v>
@@ -9563,13 +9572,13 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D339" t="s">
         <v>134</v>
@@ -9583,13 +9592,13 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D340" t="s">
         <v>134</v>
@@ -9603,53 +9612,53 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D341" t="s">
+        <v>134</v>
+      </c>
+      <c r="E341" t="s">
+        <v>147</v>
+      </c>
+      <c r="H341" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B341" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C341" s="6" t="s">
+      <c r="B342" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C342" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D341" t="s">
-        <v>134</v>
-      </c>
-      <c r="E341" t="s">
-        <v>147</v>
-      </c>
-      <c r="H341" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
+      <c r="D342" t="s">
+        <v>134</v>
+      </c>
+      <c r="E342" t="s">
+        <v>147</v>
+      </c>
+      <c r="H342" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B342" s="6" t="s">
+      <c r="B343" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C342" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D342" t="s">
-        <v>134</v>
-      </c>
-      <c r="E342" t="s">
-        <v>147</v>
-      </c>
-      <c r="H342" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C343" s="6" t="s">
-        <v>29</v>
+        <v>606</v>
       </c>
       <c r="D343" t="s">
         <v>134</v>
@@ -9663,7 +9672,7 @@
     </row>
     <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>135</v>
@@ -9681,9 +9690,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>135</v>
@@ -9703,7 +9712,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>135</v>
@@ -9723,7 +9732,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>135</v>
@@ -9743,7 +9752,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>135</v>
@@ -9761,9 +9770,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>557</v>
+        <v>129</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>135</v>
@@ -9781,43 +9790,63 @@
         <v>150</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D350" t="s">
+        <v>134</v>
+      </c>
+      <c r="E350" t="s">
+        <v>147</v>
+      </c>
+      <c r="H350" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A351" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D350" t="s">
-        <v>134</v>
-      </c>
-      <c r="E350" t="s">
-        <v>147</v>
-      </c>
-      <c r="H350" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C351" s="11" t="s">
+      <c r="C351" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D351" t="s">
+        <v>134</v>
+      </c>
+      <c r="E351" t="s">
+        <v>147</v>
+      </c>
+      <c r="H351" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C352" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="D351" t="s">
-        <v>134</v>
-      </c>
-      <c r="E351" t="s">
-        <v>147</v>
-      </c>
-      <c r="H351" t="s">
+      <c r="D352" t="s">
+        <v>134</v>
+      </c>
+      <c r="E352" t="s">
+        <v>147</v>
+      </c>
+      <c r="H352" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F00BAF-8DCB-4B2F-A16B-63365F766979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B68F458-B19F-47CF-9F66-6075D5088560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="611">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1716,9 +1716,6 @@
     <t>Derivatives</t>
   </si>
   <si>
-    <t>right_of_use+right_of_use_assets+other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives</t>
-  </si>
-  <si>
     <t>Amount due from brokers</t>
   </si>
   <si>
@@ -1858,6 +1855,12 @@
   </si>
   <si>
     <t>amount_due_from_related_companies+amounts_due_by_a_related_party+amounts_due_from_director+amounts_due_from_subsidiary_companies+amount_owing_by_related_companies+amount_owing_by_a_director+other_receivables_and_prepaid_expenses+amount_owing_by_ultimate_holding_company+amount_due_from_brokers+amount_due_from_director</t>
+  </si>
+  <si>
+    <t>Other_receivables</t>
+  </si>
+  <si>
+    <t>right_of_use+right_of_use_assets+Other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives</t>
   </si>
 </sst>
 </file>
@@ -2305,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,13 +2846,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="D27" t="s">
         <v>134</v>
@@ -2866,13 +2869,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="D28" t="s">
         <v>134</v>
@@ -2895,7 +2898,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
         <v>134</v>
@@ -3533,13 +3536,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="D57" t="s">
         <v>134</v>
@@ -3556,13 +3559,13 @@
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -3585,7 +3588,7 @@
         <v>136</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D59" t="s">
         <v>134</v>
@@ -3648,7 +3651,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>135</v>
@@ -3838,7 +3841,7 @@
         <v>136</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
       <c r="D70" t="s">
         <v>134</v>
@@ -4223,13 +4226,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
@@ -4361,13 +4364,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D93" t="s">
         <v>134</v>
@@ -4390,7 +4393,7 @@
         <v>136</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D94" t="s">
         <v>134</v>
@@ -5149,7 +5152,7 @@
         <v>136</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D127" t="s">
         <v>134</v>
@@ -5291,13 +5294,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -5314,13 +5317,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -5343,7 +5346,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
@@ -5613,13 +5616,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
@@ -5642,7 +5645,7 @@
         <v>136</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D150" t="s">
         <v>134</v>
@@ -5941,7 +5944,7 @@
         <v>136</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D163" t="s">
         <v>134</v>
@@ -6119,13 +6122,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D171" t="s">
         <v>134</v>
@@ -6148,7 +6151,7 @@
         <v>136</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D172" t="s">
         <v>134</v>
@@ -6625,13 +6628,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -6654,7 +6657,7 @@
         <v>136</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -6901,13 +6904,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
@@ -6930,7 +6933,7 @@
         <v>136</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D206" t="s">
         <v>134</v>
@@ -7275,7 +7278,7 @@
         <v>136</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D221" t="s">
         <v>134</v>
@@ -8152,7 +8155,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>135</v>
@@ -8232,13 +8235,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D272" t="s">
         <v>134</v>
@@ -8252,13 +8255,13 @@
     </row>
     <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D273" t="s">
         <v>134</v>
@@ -8278,7 +8281,7 @@
         <v>136</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D274" t="s">
         <v>134</v>
@@ -8352,7 +8355,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>135</v>
@@ -8372,13 +8375,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D279" t="s">
         <v>134</v>
@@ -8398,7 +8401,7 @@
         <v>136</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D280" t="s">
         <v>134</v>
@@ -8572,7 +8575,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>135</v>
@@ -8732,13 +8735,13 @@
     </row>
     <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D297" t="s">
         <v>134</v>
@@ -8758,7 +8761,7 @@
         <v>136</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D298" t="s">
         <v>134</v>
@@ -9532,7 +9535,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>135</v>
@@ -9658,7 +9661,7 @@
         <v>136</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D343" t="s">
         <v>134</v>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B68F458-B19F-47CF-9F66-6075D5088560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18E8C9-99B1-4089-92B5-70103F91D201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$320</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$321</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="629">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1665,9 +1665,6 @@
     <t>Net Finance cost</t>
   </si>
   <si>
-    <t>finance_cost+finance_expenses+finance_costs+financial_costs+net_finance_cost</t>
-  </si>
-  <si>
     <t>Income tax</t>
   </si>
   <si>
@@ -1704,9 +1701,6 @@
     <t>minority_interest_and_profit_from_associates_and_joint_ventures</t>
   </si>
   <si>
-    <t xml:space="preserve">net_revenue +other_income+Revenue_from_Service+Other_Operating_Revenue+ Subsidy_Income+ Financial_Income+ Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+ Income_Loss_from_Discontinued_Operations+ Group_Contribution_Received+ Non_Operating_Income- total_cost_of_materials_consumed - Power_Fuel-total_purchases_of_stock_in_trade - total_changes_in_inventories_or_finished_goods - total_employee_benefit_expense - total_other_expenses - depreciation- selling_expenses - administration_costs - Advertising_expense- Services- Auditors_Fee- Management_Expenses- Legal_Professional_Charges - Other_General_Expense- Repair_of_Machinery- depreciation- Personal_costs - Group_Contribution_Paid- Suppliers_And_External_Services- Impairment_Of_Investments_Not_Depreciable_Amortizable- interest - Other_Financial_Expenses + exceptional_items_before_tax  - income_tax - Current_Tax-Deferred_Tax -Advance_Tax-Other_Tax_Expenses+ profit_for_period_from_continuing_operations + profit_from_discontinuing_operation_after_tax - profit_after_tax </t>
-  </si>
-  <si>
     <t>Intangible_assets</t>
   </si>
   <si>
@@ -1815,9 +1809,6 @@
     <t>Share_of_results_of_equity_accounted_investees_net_of_tax</t>
   </si>
   <si>
-    <t>Other_income+other_income_gains_and_losses+other_gains_net+other_income_and_gains+Other_income_net+Share_of_results_of_equity_accounted_investees_net_of_tax</t>
-  </si>
-  <si>
     <t>financial_income</t>
   </si>
   <si>
@@ -1827,9 +1818,6 @@
     <t>Interest_income</t>
   </si>
   <si>
-    <t>Finance income+Interest_income</t>
-  </si>
-  <si>
     <t>Selling_expenses</t>
   </si>
   <si>
@@ -1861,6 +1849,72 @@
   </si>
   <si>
     <t>right_of_use+right_of_use_assets+Other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives</t>
+  </si>
+  <si>
+    <t>Other gains</t>
+  </si>
+  <si>
+    <t>Other_gains</t>
+  </si>
+  <si>
+    <t>Other_income+other_income_gains_and_losses+other_gains_net+other_income_and_gains+Other_income_net+Share_of_results_of_equity_accounted_investees_net_of_tax+Other_gains</t>
+  </si>
+  <si>
+    <t>financial_income+Interest_income</t>
+  </si>
+  <si>
+    <t>finance_expense</t>
+  </si>
+  <si>
+    <t>Finance expense</t>
+  </si>
+  <si>
+    <t>finance_cost+finance_expenses+finance_costs+financial_costs+net_finance_cost+finance_expense</t>
+  </si>
+  <si>
+    <t>profit_for_the_period</t>
+  </si>
+  <si>
+    <t>Profit for the period</t>
+  </si>
+  <si>
+    <t>profit_for_the_year</t>
+  </si>
+  <si>
+    <t>Profit for the year</t>
+  </si>
+  <si>
+    <t>profit_for_the_year_representing_total_comprehensive_income_for_the_year</t>
+  </si>
+  <si>
+    <t>Profit For The Year, Representing Total Comprehensive Income For The Year</t>
+  </si>
+  <si>
+    <t>profit_for_the_year_representing_total_comprehensive_income</t>
+  </si>
+  <si>
+    <t>Profit for the year, representing total comprehensive income for the year</t>
+  </si>
+  <si>
+    <t>loss_from_ordinary_activities_after_income_tax_and_total_comprehensive_loss_for_the_year</t>
+  </si>
+  <si>
+    <t>(Loss) from ordinary activities after income tax and total comprehensive (loss) for the year</t>
+  </si>
+  <si>
+    <t>net_profit_representing_total_comprehensive_income_for_the_year</t>
+  </si>
+  <si>
+    <t>Net profit, representing total comprehensive income for the year</t>
+  </si>
+  <si>
+    <t>profit_loss_for_the_year_representing_total_comprehensive_income_for_the_year</t>
+  </si>
+  <si>
+    <t>Profit/(Loss) for the year, representing total comprehensive income for the year</t>
+  </si>
+  <si>
+    <t>profit_after_tax-profit_for_the_period-profit_for_the_year-profit_for_the_year_representing_total_comprehensive_income_for_the_year-profit_for_the_year_representing_total_comprehensive_income-loss_from_ordinary_activities_after_income_tax_and_total_comprehensive_loss_for_the_year-net_profit_representing_total_comprehensive_income_for_the_year-profit_loss_for_the_year_representing_total_comprehensive_income_for_the_year</t>
   </si>
 </sst>
 </file>
@@ -2306,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H352"/>
+  <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="F356" sqref="F356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2739,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>135</v>
@@ -2760,7 +2814,7 @@
         <v>136</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D23" t="s">
         <v>134</v>
@@ -2846,13 +2900,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D27" t="s">
         <v>134</v>
@@ -2869,13 +2923,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D28" t="s">
         <v>134</v>
@@ -2898,7 +2952,7 @@
         <v>136</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D29" t="s">
         <v>134</v>
@@ -3536,13 +3590,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D57" t="s">
         <v>134</v>
@@ -3559,13 +3613,13 @@
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -3588,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D59" t="s">
         <v>134</v>
@@ -3651,7 +3705,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>135</v>
@@ -3812,13 +3866,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D69" t="s">
         <v>134</v>
@@ -3841,7 +3895,7 @@
         <v>136</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D70" t="s">
         <v>134</v>
@@ -4226,13 +4280,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
@@ -4364,13 +4418,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D93" t="s">
         <v>134</v>
@@ -4393,7 +4447,7 @@
         <v>136</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D94" t="s">
         <v>134</v>
@@ -5123,13 +5177,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D126" t="s">
         <v>134</v>
@@ -5152,7 +5206,7 @@
         <v>136</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D127" t="s">
         <v>134</v>
@@ -5294,13 +5348,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -5317,13 +5371,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -5346,7 +5400,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
@@ -5616,13 +5670,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
@@ -5645,7 +5699,7 @@
         <v>136</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D150" t="s">
         <v>134</v>
@@ -5915,13 +5969,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D162" t="s">
         <v>134</v>
@@ -5944,7 +5998,7 @@
         <v>136</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D163" t="s">
         <v>134</v>
@@ -6122,13 +6176,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D171" t="s">
         <v>134</v>
@@ -6151,7 +6205,7 @@
         <v>136</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D172" t="s">
         <v>134</v>
@@ -6628,13 +6682,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -6657,7 +6711,7 @@
         <v>136</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -6904,13 +6958,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
@@ -6933,7 +6987,7 @@
         <v>136</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D206" t="s">
         <v>134</v>
@@ -7249,13 +7303,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D220" t="s">
         <v>134</v>
@@ -7278,7 +7332,7 @@
         <v>136</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D221" t="s">
         <v>134</v>
@@ -8155,7 +8209,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>135</v>
@@ -8235,13 +8289,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D272" t="s">
         <v>134</v>
@@ -8255,13 +8309,13 @@
     </row>
     <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D273" t="s">
         <v>134</v>
@@ -8273,35 +8327,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D274" t="s">
+        <v>134</v>
+      </c>
+      <c r="E274" t="s">
+        <v>147</v>
+      </c>
+      <c r="H274" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B275" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C274" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="D274" t="s">
-        <v>134</v>
-      </c>
-      <c r="E274" t="s">
-        <v>147</v>
-      </c>
-      <c r="H274" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C275" s="13" t="s">
-        <v>29</v>
+      <c r="C275" s="6" t="s">
+        <v>609</v>
       </c>
       <c r="D275" t="s">
         <v>134</v>
@@ -8315,13 +8369,13 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>497</v>
+        <v>29</v>
       </c>
       <c r="D276" t="s">
         <v>134</v>
@@ -8335,33 +8389,33 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D277" t="s">
+        <v>134</v>
+      </c>
+      <c r="E277" t="s">
+        <v>147</v>
+      </c>
+      <c r="H277" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B277" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C277" s="13" t="s">
+      <c r="B278" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C278" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D277" t="s">
-        <v>134</v>
-      </c>
-      <c r="E277" t="s">
-        <v>147</v>
-      </c>
-      <c r="H277" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>498</v>
       </c>
       <c r="D278" t="s">
         <v>134</v>
@@ -8375,13 +8429,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>597</v>
+        <v>498</v>
       </c>
       <c r="D279" t="s">
         <v>134</v>
@@ -8394,34 +8448,34 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D280" t="s">
+        <v>134</v>
+      </c>
+      <c r="E280" t="s">
+        <v>147</v>
+      </c>
+      <c r="H280" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B281" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C280" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D280" t="s">
-        <v>134</v>
-      </c>
-      <c r="E280" t="s">
-        <v>147</v>
-      </c>
-      <c r="H280" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C281" s="6" t="s">
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="D281" t="s">
         <v>134</v>
@@ -8435,13 +8489,13 @@
     </row>
     <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D282" t="s">
         <v>134</v>
@@ -8455,13 +8509,13 @@
     </row>
     <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>100</v>
+        <v>501</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D283" t="s">
         <v>134</v>
@@ -8475,27 +8529,27 @@
     </row>
     <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D284" t="s">
+        <v>134</v>
+      </c>
+      <c r="E284" t="s">
+        <v>147</v>
+      </c>
+      <c r="H284" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D284" t="s">
-        <v>134</v>
-      </c>
-      <c r="E284" t="s">
-        <v>147</v>
-      </c>
-      <c r="H284" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>135</v>
@@ -8513,15 +8567,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>504</v>
+        <v>102</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>505</v>
+        <v>29</v>
       </c>
       <c r="D286" t="s">
         <v>134</v>
@@ -8535,53 +8589,53 @@
     </row>
     <row r="287" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D287" t="s">
+        <v>134</v>
+      </c>
+      <c r="E287" t="s">
+        <v>147</v>
+      </c>
+      <c r="H287" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C287" s="6" t="s">
+      <c r="B288" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C288" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D287" t="s">
-        <v>134</v>
-      </c>
-      <c r="E287" t="s">
-        <v>147</v>
-      </c>
-      <c r="H287" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="s">
+      <c r="D288" t="s">
+        <v>134</v>
+      </c>
+      <c r="E288" t="s">
+        <v>147</v>
+      </c>
+      <c r="H288" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A289" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B289" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="C289" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="D288" t="s">
-        <v>134</v>
-      </c>
-      <c r="E288" t="s">
-        <v>147</v>
-      </c>
-      <c r="H288" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="D289" t="s">
         <v>134</v>
@@ -8595,53 +8649,53 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D290" t="s">
+        <v>134</v>
+      </c>
+      <c r="E290" t="s">
+        <v>147</v>
+      </c>
+      <c r="H290" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C290" s="6" t="s">
+      <c r="B291" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D290" t="s">
-        <v>134</v>
-      </c>
-      <c r="E290" t="s">
-        <v>147</v>
-      </c>
-      <c r="H290" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
+      <c r="D291" t="s">
+        <v>134</v>
+      </c>
+      <c r="E291" t="s">
+        <v>147</v>
+      </c>
+      <c r="H291" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B291" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C291" s="6" t="s">
+      <c r="B292" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C292" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="D291" t="s">
-        <v>134</v>
-      </c>
-      <c r="E291" t="s">
-        <v>147</v>
-      </c>
-      <c r="H291" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="D292" t="s">
         <v>134</v>
@@ -8655,13 +8709,13 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>514</v>
+        <v>270</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>515</v>
+        <v>271</v>
       </c>
       <c r="D293" t="s">
         <v>134</v>
@@ -8675,13 +8729,13 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D294" t="s">
         <v>134</v>
@@ -8695,33 +8749,33 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D295" t="s">
+        <v>134</v>
+      </c>
+      <c r="E295" t="s">
+        <v>147</v>
+      </c>
+      <c r="H295" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B295" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C295" s="6" t="s">
+      <c r="B296" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C296" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="D295" t="s">
-        <v>134</v>
-      </c>
-      <c r="E295" t="s">
-        <v>147</v>
-      </c>
-      <c r="H295" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="D296" t="s">
         <v>134</v>
@@ -8735,13 +8789,13 @@
     </row>
     <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>602</v>
+        <v>520</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>601</v>
+        <v>521</v>
       </c>
       <c r="D297" t="s">
         <v>134</v>
@@ -8753,35 +8807,35 @@
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D298" t="s">
+        <v>134</v>
+      </c>
+      <c r="E298" t="s">
+        <v>147</v>
+      </c>
+      <c r="H298" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B299" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C298" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="D298" t="s">
-        <v>134</v>
-      </c>
-      <c r="E298" t="s">
-        <v>147</v>
-      </c>
-      <c r="H298" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C299" s="6" t="s">
-        <v>523</v>
+        <v>599</v>
       </c>
       <c r="D299" t="s">
         <v>134</v>
@@ -8795,13 +8849,13 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>272</v>
+        <v>522</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>273</v>
+        <v>523</v>
       </c>
       <c r="D300" t="s">
         <v>134</v>
@@ -8815,33 +8869,33 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D301" t="s">
+        <v>134</v>
+      </c>
+      <c r="E301" t="s">
+        <v>147</v>
+      </c>
+      <c r="H301" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B301" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C301" s="6" t="s">
+      <c r="B302" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="D301" t="s">
-        <v>134</v>
-      </c>
-      <c r="E301" t="s">
-        <v>147</v>
-      </c>
-      <c r="H301" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="D302" t="s">
         <v>134</v>
@@ -8855,33 +8909,33 @@
     </row>
     <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D303" t="s">
+        <v>134</v>
+      </c>
+      <c r="E303" t="s">
+        <v>147</v>
+      </c>
+      <c r="H303" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B304" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C303" s="6" t="s">
+      <c r="C304" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="D303" t="s">
-        <v>134</v>
-      </c>
-      <c r="E303" t="s">
-        <v>147</v>
-      </c>
-      <c r="H303" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="D304" t="s">
         <v>134</v>
@@ -8895,13 +8949,13 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D305" t="s">
         <v>134</v>
@@ -8915,13 +8969,13 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>529</v>
+        <v>277</v>
       </c>
       <c r="D306" t="s">
         <v>134</v>
@@ -8935,13 +8989,13 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="D307" t="s">
         <v>134</v>
@@ -8955,7 +9009,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>135</v>
@@ -8975,7 +9029,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>135</v>
@@ -8995,7 +9049,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>135</v>
@@ -9015,7 +9069,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>135</v>
@@ -9035,7 +9089,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>135</v>
@@ -9053,55 +9107,55 @@
         <v>150</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D313" t="s">
+        <v>134</v>
+      </c>
+      <c r="E313" t="s">
+        <v>147</v>
+      </c>
+      <c r="H313" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B313" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C313" s="6" t="s">
+      <c r="B314" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C314" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D313" t="s">
-        <v>134</v>
-      </c>
-      <c r="E313" t="s">
-        <v>147</v>
-      </c>
-      <c r="H313" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
+      <c r="D314" t="s">
+        <v>134</v>
+      </c>
+      <c r="E314" t="s">
+        <v>147</v>
+      </c>
+      <c r="H314" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B314" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C314" s="6" t="s">
+      <c r="B315" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C315" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="D314" t="s">
-        <v>134</v>
-      </c>
-      <c r="E314" t="s">
-        <v>147</v>
-      </c>
-      <c r="H314" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="D315" t="s">
         <v>134</v>
@@ -9115,93 +9169,93 @@
     </row>
     <row r="316" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D316" t="s">
+        <v>134</v>
+      </c>
+      <c r="E316" t="s">
+        <v>147</v>
+      </c>
+      <c r="H316" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B316" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C316" s="6" t="s">
+      <c r="B317" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C317" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D316" t="s">
-        <v>134</v>
-      </c>
-      <c r="E316" t="s">
-        <v>147</v>
-      </c>
-      <c r="H316" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
+      <c r="D317" t="s">
+        <v>134</v>
+      </c>
+      <c r="E317" t="s">
+        <v>147</v>
+      </c>
+      <c r="H317" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C317" s="6" t="s">
+      <c r="B318" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C318" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="D317" t="s">
-        <v>134</v>
-      </c>
-      <c r="E317" t="s">
-        <v>147</v>
-      </c>
-      <c r="H317" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="s">
+      <c r="D318" t="s">
+        <v>134</v>
+      </c>
+      <c r="E318" t="s">
+        <v>147</v>
+      </c>
+      <c r="H318" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B318" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C318" s="6" t="s">
+      <c r="B319" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C319" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D318" t="s">
-        <v>134</v>
-      </c>
-      <c r="E318" t="s">
-        <v>147</v>
-      </c>
-      <c r="H318" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
+      <c r="D319" t="s">
+        <v>134</v>
+      </c>
+      <c r="E319" t="s">
+        <v>147</v>
+      </c>
+      <c r="H319" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A320" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B319" s="6" t="s">
+      <c r="B320" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C319" s="6" t="s">
+      <c r="C320" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="D319" t="s">
-        <v>134</v>
-      </c>
-      <c r="E319" t="s">
-        <v>147</v>
-      </c>
-      <c r="H319" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D320" t="s">
         <v>134</v>
@@ -9215,7 +9269,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>135</v>
@@ -9235,7 +9289,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>135</v>
@@ -9253,55 +9307,55 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D323" t="s">
+        <v>134</v>
+      </c>
+      <c r="E323" t="s">
+        <v>147</v>
+      </c>
+      <c r="H323" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C323" s="6" t="s">
+      <c r="B324" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D323" t="s">
-        <v>134</v>
-      </c>
-      <c r="E323" t="s">
-        <v>147</v>
-      </c>
-      <c r="H323" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
+      <c r="D324" t="s">
+        <v>134</v>
+      </c>
+      <c r="E324" t="s">
+        <v>147</v>
+      </c>
+      <c r="H324" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B325" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C324" s="6" t="s">
+      <c r="C325" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="D324" t="s">
-        <v>134</v>
-      </c>
-      <c r="E324" t="s">
-        <v>147</v>
-      </c>
-      <c r="H324" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="D325" t="s">
         <v>134</v>
@@ -9315,13 +9369,13 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>284</v>
+        <v>539</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>149</v>
+        <v>540</v>
       </c>
       <c r="D326" t="s">
         <v>134</v>
@@ -9335,13 +9389,13 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="D327" t="s">
         <v>134</v>
@@ -9355,13 +9409,13 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>541</v>
+        <v>148</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>542</v>
+        <v>283</v>
       </c>
       <c r="D328" t="s">
         <v>134</v>
@@ -9375,33 +9429,33 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D329" t="s">
+        <v>134</v>
+      </c>
+      <c r="E329" t="s">
+        <v>147</v>
+      </c>
+      <c r="H329" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B329" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C329" s="6" t="s">
+      <c r="B330" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="D329" t="s">
-        <v>134</v>
-      </c>
-      <c r="E329" t="s">
-        <v>147</v>
-      </c>
-      <c r="H329" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="D330" t="s">
         <v>134</v>
@@ -9415,13 +9469,13 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>120</v>
+        <v>611</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>29</v>
+        <v>612</v>
       </c>
       <c r="D331" t="s">
         <v>134</v>
@@ -9435,13 +9489,13 @@
     </row>
     <row r="332" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>122</v>
+        <v>613</v>
       </c>
       <c r="D332" t="s">
         <v>134</v>
@@ -9455,7 +9509,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>135</v>
@@ -9475,13 +9529,13 @@
     </row>
     <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="D334" t="s">
         <v>134</v>
@@ -9495,13 +9549,13 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="D335" t="s">
         <v>134</v>
@@ -9513,15 +9567,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D336" t="s">
         <v>134</v>
@@ -9535,13 +9589,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>604</v>
+        <v>286</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>546</v>
+        <v>287</v>
       </c>
       <c r="D337" t="s">
         <v>134</v>
@@ -9555,13 +9609,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>547</v>
+        <v>288</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>548</v>
+        <v>289</v>
       </c>
       <c r="D338" t="s">
         <v>134</v>
@@ -9575,13 +9629,13 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D339" t="s">
         <v>134</v>
@@ -9595,13 +9649,13 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D340" t="s">
         <v>134</v>
@@ -9615,13 +9669,13 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D341" t="s">
         <v>134</v>
@@ -9635,87 +9689,87 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D342" t="s">
+        <v>134</v>
+      </c>
+      <c r="E342" t="s">
+        <v>147</v>
+      </c>
+      <c r="H342" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D343" t="s">
+        <v>134</v>
+      </c>
+      <c r="E343" t="s">
+        <v>147</v>
+      </c>
+      <c r="H343" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B342" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="D342" t="s">
-        <v>134</v>
-      </c>
-      <c r="E342" t="s">
-        <v>147</v>
-      </c>
-      <c r="H342" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
+      <c r="D344" t="s">
+        <v>134</v>
+      </c>
+      <c r="E344" t="s">
+        <v>147</v>
+      </c>
+      <c r="H344" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B343" s="6" t="s">
+      <c r="B345" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C343" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D343" t="s">
-        <v>134</v>
-      </c>
-      <c r="E343" t="s">
-        <v>147</v>
-      </c>
-      <c r="H343" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
+      <c r="C345" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D345" t="s">
+        <v>134</v>
+      </c>
+      <c r="E345" t="s">
+        <v>147</v>
+      </c>
+      <c r="H345" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D344" t="s">
-        <v>134</v>
-      </c>
-      <c r="E344" t="s">
-        <v>147</v>
-      </c>
-      <c r="H344" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D345" t="s">
-        <v>134</v>
-      </c>
-      <c r="E345" t="s">
-        <v>147</v>
-      </c>
-      <c r="H345" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>135</v>
@@ -9733,9 +9787,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>135</v>
@@ -9755,7 +9809,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>135</v>
@@ -9775,7 +9829,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>135</v>
@@ -9793,9 +9847,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>557</v>
+        <v>128</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>135</v>
@@ -9813,43 +9867,223 @@
         <v>150</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D351" t="s">
+        <v>134</v>
+      </c>
+      <c r="E351" t="s">
+        <v>147</v>
+      </c>
+      <c r="H351" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A352" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D352" t="s">
+        <v>134</v>
+      </c>
+      <c r="E352" t="s">
+        <v>147</v>
+      </c>
+      <c r="H352" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A353" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B351" s="6" t="s">
+      <c r="B353" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C353" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D351" t="s">
-        <v>134</v>
-      </c>
-      <c r="E351" t="s">
-        <v>147</v>
-      </c>
-      <c r="H351" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="D353" t="s">
+        <v>134</v>
+      </c>
+      <c r="E353" t="s">
+        <v>147</v>
+      </c>
+      <c r="H353" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D354" t="s">
+        <v>134</v>
+      </c>
+      <c r="E354" t="s">
+        <v>147</v>
+      </c>
+      <c r="H354" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D355" t="s">
+        <v>134</v>
+      </c>
+      <c r="E355" t="s">
+        <v>147</v>
+      </c>
+      <c r="H355" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A356" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D356" t="s">
+        <v>134</v>
+      </c>
+      <c r="E356" t="s">
+        <v>147</v>
+      </c>
+      <c r="H356" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D357" t="s">
+        <v>134</v>
+      </c>
+      <c r="E357" t="s">
+        <v>147</v>
+      </c>
+      <c r="H357" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A358" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D358" t="s">
+        <v>134</v>
+      </c>
+      <c r="E358" t="s">
+        <v>147</v>
+      </c>
+      <c r="H358" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A359" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D359" t="s">
+        <v>134</v>
+      </c>
+      <c r="E359" t="s">
+        <v>147</v>
+      </c>
+      <c r="H359" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A360" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D360" t="s">
+        <v>134</v>
+      </c>
+      <c r="E360" t="s">
+        <v>147</v>
+      </c>
+      <c r="H360" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B352" s="6" t="s">
+      <c r="B361" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C352" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D352" t="s">
-        <v>134</v>
-      </c>
-      <c r="E352" t="s">
-        <v>147</v>
-      </c>
-      <c r="H352" t="s">
+      <c r="C361" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="D361" t="s">
+        <v>134</v>
+      </c>
+      <c r="E361" t="s">
+        <v>147</v>
+      </c>
+      <c r="H361" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90589E1A-B386-4DAE-BEE9-05ACD07D3BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ECD3E2-FB55-45B2-AE30-E6FAD057A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$330</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="641">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1362,9 +1362,6 @@
     <t>Margin accounts with brokers</t>
   </si>
   <si>
-    <t>Total Equity and Liabilities or Total Liabilities</t>
-  </si>
-  <si>
     <t>total_liabilities</t>
   </si>
   <si>
@@ -1494,9 +1491,6 @@
     <t>Other income and gains</t>
   </si>
   <si>
-    <t xml:space="preserve">Other operating income </t>
-  </si>
-  <si>
     <t>Finance income</t>
   </si>
   <si>
@@ -1884,9 +1878,6 @@
     <t>Others_receivables</t>
   </si>
   <si>
-    <t>Long_term_receivable+trade_and_other_receivables+Others_receivables+Trade_receivables</t>
-  </si>
-  <si>
     <t>Investment in life insurance</t>
   </si>
   <si>
@@ -1951,6 +1942,15 @@
   </si>
   <si>
     <t>right_of_use+right_of_use_assets+Other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives+Right_Of_Use_Assets</t>
+  </si>
+  <si>
+    <t>Long_term_receivable+trade_and_other_receivables+Others_receivables+Trade_receivables+Other_receivables</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Other operating income</t>
   </si>
 </sst>
 </file>
@@ -2396,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H369"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
@@ -2735,7 +2735,7 @@
         <v>135</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>134</v>
@@ -2873,7 +2873,7 @@
         <v>135</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D24" t="s">
         <v>133</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D28" t="s">
         <v>133</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D29" t="s">
         <v>133</v>
@@ -3011,7 +3011,7 @@
         <v>135</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D30" t="s">
         <v>133</v>
@@ -3143,13 +3143,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D36" t="s">
         <v>133</v>
@@ -3166,13 +3166,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>200</v>
+        <v>591</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>201</v>
+        <v>619</v>
       </c>
       <c r="D37" t="s">
         <v>133</v>
@@ -3187,15 +3187,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>618</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
@@ -3210,15 +3210,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>304</v>
+        <v>638</v>
       </c>
       <c r="D39" t="s">
         <v>133</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D40" t="s">
         <v>133</v>
@@ -3258,13 +3258,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
         <v>133</v>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
         <v>133</v>
@@ -3304,13 +3304,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D43" t="s">
         <v>133</v>
@@ -3325,15 +3325,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D44" t="s">
         <v>133</v>
@@ -3348,15 +3348,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D46" t="s">
         <v>133</v>
@@ -3396,13 +3396,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="D47" t="s">
         <v>133</v>
@@ -3419,13 +3419,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="D48" t="s">
         <v>133</v>
@@ -3442,13 +3442,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>187</v>
+        <v>319</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="D49" t="s">
         <v>133</v>
@@ -3463,15 +3463,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
@@ -3486,15 +3486,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
         <v>133</v>
@@ -3509,15 +3509,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D52" t="s">
         <v>133</v>
@@ -3532,15 +3532,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>620</v>
+        <v>325</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>619</v>
+        <v>326</v>
       </c>
       <c r="D53" t="s">
         <v>133</v>
@@ -3555,15 +3555,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>25</v>
+        <v>617</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D54" t="s">
         <v>133</v>
@@ -3578,15 +3578,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>27</v>
+        <v>618</v>
       </c>
       <c r="D55" t="s">
         <v>133</v>
@@ -3603,13 +3603,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
         <v>133</v>
@@ -3626,13 +3626,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="D57" t="s">
         <v>133</v>
@@ -3647,15 +3647,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
         <v>133</v>
@@ -3672,13 +3672,13 @@
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
         <v>133</v>
@@ -3693,15 +3693,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
         <v>133</v>
@@ -3718,13 +3718,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>567</v>
+        <v>180</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>568</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
         <v>133</v>
@@ -3739,15 +3739,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D62" t="s">
         <v>133</v>
@@ -3764,13 +3764,13 @@
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>30</v>
+        <v>567</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D63" t="s">
         <v>133</v>
@@ -3785,15 +3785,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>158</v>
+        <v>569</v>
       </c>
       <c r="D64" t="s">
         <v>133</v>
@@ -3810,13 +3810,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
         <v>133</v>
@@ -3833,13 +3833,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>638</v>
+        <v>182</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>639</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
         <v>133</v>
@@ -3856,13 +3856,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>137</v>
+        <v>636</v>
       </c>
       <c r="D67" t="s">
         <v>133</v>
@@ -3879,13 +3879,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>183</v>
+        <v>591</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
         <v>133</v>
@@ -3902,13 +3902,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
         <v>133</v>
@@ -3925,13 +3925,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
         <v>133</v>
@@ -3948,13 +3948,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
         <v>133</v>
@@ -3971,13 +3971,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
         <v>133</v>
@@ -3994,13 +3994,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D73" t="s">
         <v>133</v>
@@ -4017,13 +4017,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="D74" t="s">
         <v>133</v>
@@ -4038,15 +4038,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>32</v>
+        <v>548</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>640</v>
+        <v>548</v>
       </c>
       <c r="D75" t="s">
         <v>133</v>
@@ -4061,15 +4061,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>162</v>
+        <v>637</v>
       </c>
       <c r="D76" t="s">
         <v>133</v>
@@ -4078,7 +4078,7 @@
         <v>143</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H76" t="s">
         <v>150</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>331</v>
+        <v>187</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
         <v>133</v>
@@ -4109,13 +4109,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D78" t="s">
         <v>133</v>
@@ -4132,13 +4132,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D79" t="s">
         <v>133</v>
@@ -4155,13 +4155,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="D80" t="s">
         <v>133</v>
@@ -4178,13 +4178,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
         <v>133</v>
@@ -4201,13 +4201,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D82" t="s">
         <v>133</v>
@@ -4224,13 +4224,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D83" t="s">
         <v>133</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>201</v>
+        <v>338</v>
       </c>
       <c r="D84" t="s">
         <v>133</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D85" t="s">
         <v>133</v>
@@ -4293,13 +4293,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
         <v>133</v>
@@ -4314,15 +4314,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
         <v>133</v>
@@ -4337,15 +4337,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
         <v>133</v>
@@ -4360,15 +4360,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>339</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
         <v>133</v>
@@ -4383,15 +4383,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D90" t="s">
         <v>133</v>
@@ -4408,13 +4408,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D91" t="s">
         <v>133</v>
@@ -4431,13 +4431,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>591</v>
+        <v>342</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>592</v>
+        <v>343</v>
       </c>
       <c r="D92" t="s">
         <v>133</v>
@@ -4452,15 +4452,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>344</v>
+        <v>589</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>345</v>
+        <v>590</v>
       </c>
       <c r="D93" t="s">
         <v>133</v>
@@ -4477,13 +4477,13 @@
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D94" t="s">
         <v>133</v>
@@ -4498,15 +4498,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D95" t="s">
         <v>133</v>
@@ -4521,15 +4521,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D96" t="s">
         <v>133</v>
@@ -4546,13 +4546,13 @@
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D97" t="s">
         <v>133</v>
@@ -4567,15 +4567,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>552</v>
+        <v>352</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>551</v>
+        <v>353</v>
       </c>
       <c r="D98" t="s">
         <v>133</v>
@@ -4592,13 +4592,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>622</v>
+        <v>549</v>
       </c>
       <c r="D99" t="s">
         <v>133</v>
@@ -4613,15 +4613,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>135</v>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D100" t="s">
         <v>133</v>
@@ -4636,15 +4636,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>134</v>
+    <row r="101" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>355</v>
+        <v>620</v>
       </c>
       <c r="D101" t="s">
         <v>133</v>
@@ -4661,13 +4661,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D102" t="s">
         <v>133</v>
@@ -4684,13 +4684,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>630</v>
+        <v>356</v>
       </c>
       <c r="D103" t="s">
         <v>133</v>
@@ -4707,13 +4707,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>359</v>
+        <v>627</v>
       </c>
       <c r="D104" t="s">
         <v>133</v>
@@ -4730,13 +4730,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D105" t="s">
         <v>133</v>
@@ -4751,15 +4751,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D106" t="s">
         <v>133</v>
@@ -4774,15 +4774,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>31</v>
+        <v>363</v>
       </c>
       <c r="D107" t="s">
         <v>133</v>
@@ -4799,13 +4799,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
@@ -4822,13 +4822,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>364</v>
+        <v>164</v>
       </c>
       <c r="D109" t="s">
         <v>133</v>
@@ -4845,13 +4845,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D110" t="s">
         <v>133</v>
@@ -4868,13 +4868,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D111" t="s">
         <v>133</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>134</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>134</v>
@@ -4937,13 +4937,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>192</v>
+        <v>290</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
         <v>133</v>
@@ -4960,13 +4960,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" t="s">
         <v>133</v>
@@ -4983,13 +4983,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D116" t="s">
         <v>133</v>
@@ -5006,13 +5006,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>366</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
@@ -5029,13 +5029,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D118" t="s">
         <v>133</v>
@@ -5050,15 +5050,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
         <v>133</v>
@@ -5073,15 +5073,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D120" t="s">
         <v>133</v>
@@ -5098,13 +5098,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
@@ -5121,13 +5121,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>372</v>
+        <v>195</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>373</v>
+        <v>168</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
@@ -5144,13 +5144,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D123" t="s">
         <v>133</v>
@@ -5167,13 +5167,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
@@ -5190,13 +5190,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D125" t="s">
         <v>133</v>
@@ -5213,13 +5213,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D126" t="s">
         <v>133</v>
@@ -5236,13 +5236,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D127" t="s">
         <v>133</v>
@@ -5259,13 +5259,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D128" t="s">
         <v>133</v>
@@ -5282,13 +5282,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>375</v>
+        <v>241</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>376</v>
+        <v>169</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
@@ -5303,15 +5303,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D130" t="s">
         <v>133</v>
@@ -5326,15 +5326,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D131" t="s">
         <v>133</v>
@@ -5351,13 +5351,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>550</v>
+        <v>379</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="D132" t="s">
         <v>133</v>
@@ -5374,13 +5374,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>624</v>
+        <v>548</v>
       </c>
       <c r="D133" t="s">
         <v>133</v>
@@ -5395,15 +5395,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>45</v>
+        <v>622</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -5418,69 +5418,71 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D135" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" t="s">
+        <v>143</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H135" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" s="6" t="s">
+      <c r="B136" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D135" t="s">
-        <v>133</v>
-      </c>
-      <c r="E135" t="s">
-        <v>143</v>
-      </c>
-      <c r="F135" s="5"/>
-      <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="D136" t="s">
+        <v>133</v>
+      </c>
+      <c r="E136" t="s">
+        <v>143</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="H136" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D138" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" t="s">
-        <v>144</v>
-      </c>
-      <c r="F138" s="5"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
+      <c r="A138" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D139" t="s">
         <v>133</v>
@@ -5495,13 +5497,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D140" t="s">
         <v>133</v>
@@ -5516,13 +5518,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D141" t="s">
         <v>133</v>
@@ -5537,13 +5539,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>572</v>
+        <v>49</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>573</v>
+        <v>239</v>
       </c>
       <c r="D142" t="s">
         <v>133</v>
@@ -5558,13 +5560,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D143" t="s">
         <v>133</v>
@@ -5579,13 +5581,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>50</v>
+        <v>573</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D144" t="s">
         <v>133</v>
@@ -5600,13 +5602,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>29</v>
+        <v>574</v>
       </c>
       <c r="D145" t="s">
         <v>133</v>
@@ -5619,9 +5621,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>134</v>
@@ -5642,7 +5644,7 @@
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>134</v>
@@ -5661,9 +5663,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>134</v>
@@ -5684,7 +5686,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>134</v>
@@ -5705,13 +5707,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
         <v>133</v>
@@ -5719,22 +5721,20 @@
       <c r="E150" t="s">
         <v>144</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>236</v>
-      </c>
+      <c r="F150" s="5"/>
       <c r="H150" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>382</v>
+        <v>210</v>
       </c>
       <c r="D151" t="s">
         <v>133</v>
@@ -5751,13 +5751,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D152" t="s">
         <v>133</v>
@@ -5774,13 +5774,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D153" t="s">
         <v>133</v>
@@ -5797,13 +5797,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>190</v>
+        <v>385</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="D154" t="s">
         <v>133</v>
@@ -5820,13 +5820,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>387</v>
+        <v>190</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>387</v>
+        <v>190</v>
       </c>
       <c r="D155" t="s">
         <v>133</v>
@@ -5843,13 +5843,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>556</v>
+        <v>387</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>555</v>
+        <v>387</v>
       </c>
       <c r="D156" t="s">
         <v>133</v>
@@ -5864,15 +5864,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>56</v>
+        <v>554</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D157" t="s">
         <v>133</v>
@@ -5887,15 +5887,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>212</v>
+        <v>556</v>
       </c>
       <c r="D158" t="s">
         <v>133</v>
@@ -5912,13 +5912,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D159" t="s">
         <v>133</v>
@@ -5935,13 +5935,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>389</v>
+        <v>213</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>388</v>
+        <v>214</v>
       </c>
       <c r="D160" t="s">
         <v>133</v>
@@ -5956,15 +5956,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>57</v>
+        <v>389</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D161" t="s">
         <v>133</v>
@@ -5981,13 +5981,13 @@
     </row>
     <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="D162" t="s">
         <v>133</v>
@@ -6002,15 +6002,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="D163" t="s">
         <v>133</v>
@@ -6027,13 +6027,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="D164" t="s">
         <v>133</v>
@@ -6050,13 +6050,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D165" t="s">
         <v>133</v>
@@ -6073,13 +6073,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D166" t="s">
         <v>133</v>
@@ -6096,13 +6096,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>391</v>
+        <v>217</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>392</v>
+        <v>218</v>
       </c>
       <c r="D167" t="s">
         <v>133</v>
@@ -6119,13 +6119,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D168" t="s">
         <v>133</v>
@@ -6142,13 +6142,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>550</v>
+        <v>393</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>550</v>
+        <v>394</v>
       </c>
       <c r="D169" t="s">
         <v>133</v>
@@ -6163,15 +6163,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>59</v>
+        <v>548</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D170" t="s">
         <v>133</v>
@@ -6186,15 +6186,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>220</v>
+        <v>551</v>
       </c>
       <c r="D171" t="s">
         <v>133</v>
@@ -6211,13 +6211,13 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D172" t="s">
         <v>133</v>
@@ -6226,7 +6226,7 @@
         <v>144</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H172" t="s">
         <v>150</v>
@@ -6234,13 +6234,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>386</v>
+        <v>210</v>
       </c>
       <c r="D173" t="s">
         <v>133</v>
@@ -6257,13 +6257,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D174" t="s">
         <v>133</v>
@@ -6280,13 +6280,13 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D175" t="s">
         <v>133</v>
@@ -6303,13 +6303,13 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>190</v>
+        <v>382</v>
       </c>
       <c r="D176" t="s">
         <v>133</v>
@@ -6326,13 +6326,13 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>387</v>
+        <v>190</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>387</v>
+        <v>190</v>
       </c>
       <c r="D177" t="s">
         <v>133</v>
@@ -6349,13 +6349,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>556</v>
+        <v>387</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>555</v>
+        <v>387</v>
       </c>
       <c r="D178" t="s">
         <v>133</v>
@@ -6370,15 +6370,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>61</v>
+        <v>554</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D179" t="s">
         <v>133</v>
@@ -6393,15 +6393,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>222</v>
+        <v>555</v>
       </c>
       <c r="D180" t="s">
         <v>133</v>
@@ -6418,13 +6418,13 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D181" t="s">
         <v>133</v>
@@ -6441,13 +6441,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D182" t="s">
         <v>133</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>398</v>
+        <v>240</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="D183" t="s">
         <v>133</v>
@@ -6485,15 +6485,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>62</v>
+        <v>398</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D184" t="s">
         <v>133</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>400</v>
+        <v>62</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D185" t="s">
         <v>133</v>
@@ -6533,13 +6533,13 @@
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D186" t="s">
         <v>133</v>
@@ -6556,13 +6556,13 @@
     </row>
     <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D187" t="s">
         <v>133</v>
@@ -6579,13 +6579,13 @@
     </row>
     <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D188" t="s">
         <v>133</v>
@@ -6600,15 +6600,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D189" t="s">
         <v>133</v>
@@ -6623,15 +6623,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D190" t="s">
         <v>133</v>
@@ -6646,15 +6646,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>63</v>
+        <v>410</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D191" t="s">
         <v>133</v>
@@ -6669,15 +6669,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D192" t="s">
         <v>133</v>
@@ -6694,13 +6694,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>427</v>
+        <v>64</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D193" t="s">
         <v>133</v>
@@ -6717,13 +6717,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D194" t="s">
         <v>133</v>
@@ -6738,15 +6738,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D195" t="s">
         <v>133</v>
@@ -6761,15 +6761,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D196" t="s">
         <v>133</v>
@@ -6786,13 +6786,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D197" t="s">
         <v>133</v>
@@ -6807,15 +6807,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D198" t="s">
         <v>133</v>
@@ -6830,15 +6830,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D199" t="s">
         <v>133</v>
@@ -6855,13 +6855,13 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>552</v>
+        <v>425</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>551</v>
+        <v>426</v>
       </c>
       <c r="D200" t="s">
         <v>133</v>
@@ -6876,15 +6876,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>65</v>
+        <v>550</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D201" t="s">
         <v>133</v>
@@ -6899,15 +6899,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>29</v>
+        <v>552</v>
       </c>
       <c r="D202" t="s">
         <v>133</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>134</v>
@@ -6947,13 +6947,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="D204" t="s">
         <v>133</v>
@@ -6970,13 +6970,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>29</v>
+        <v>428</v>
       </c>
       <c r="D205" t="s">
         <v>133</v>
@@ -6993,13 +6993,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="D206" t="s">
         <v>133</v>
@@ -7016,13 +7016,13 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D207" t="s">
         <v>133</v>
@@ -7039,13 +7039,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>429</v>
+        <v>228</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>430</v>
+        <v>229</v>
       </c>
       <c r="D208" t="s">
         <v>133</v>
@@ -7062,13 +7062,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D209" t="s">
         <v>133</v>
@@ -7085,13 +7085,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D210" t="s">
         <v>133</v>
@@ -7108,13 +7108,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D211" t="s">
         <v>133</v>
@@ -7131,13 +7131,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>578</v>
+        <v>435</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="D212" t="s">
         <v>133</v>
@@ -7152,15 +7152,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>70</v>
+        <v>576</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D213" t="s">
         <v>133</v>
@@ -7175,15 +7175,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>29</v>
+        <v>577</v>
       </c>
       <c r="D214" t="s">
         <v>133</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>134</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>134</v>
@@ -7246,13 +7246,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="D217" t="s">
         <v>133</v>
@@ -7269,13 +7269,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="D218" t="s">
         <v>133</v>
@@ -7292,13 +7292,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="D219" t="s">
         <v>133</v>
@@ -7315,19 +7315,19 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D220" t="s">
         <v>133</v>
       </c>
       <c r="E220" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>237</v>
@@ -7338,13 +7338,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D221" t="s">
         <v>133</v>
@@ -7361,19 +7361,19 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>383</v>
+        <v>233</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="D222" t="s">
         <v>133</v>
       </c>
       <c r="E222" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>237</v>
@@ -7384,13 +7384,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="D223" t="s">
         <v>133</v>
@@ -7407,13 +7407,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D224" t="s">
         <v>133</v>
@@ -7430,13 +7430,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D225" t="s">
         <v>133</v>
@@ -7453,13 +7453,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D226" t="s">
         <v>133</v>
@@ -7476,13 +7476,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>550</v>
+        <v>442</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>550</v>
+        <v>443</v>
       </c>
       <c r="D227" t="s">
         <v>133</v>
@@ -7499,13 +7499,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>627</v>
+        <v>548</v>
       </c>
       <c r="D228" t="s">
         <v>133</v>
@@ -7520,15 +7520,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>74</v>
+        <v>625</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D229" t="s">
         <v>133</v>
@@ -7543,15 +7543,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>220</v>
+        <v>626</v>
       </c>
       <c r="D230" t="s">
         <v>133</v>
@@ -7568,13 +7568,13 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>445</v>
+        <v>75</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="D231" t="s">
         <v>133</v>
@@ -7582,20 +7582,22 @@
       <c r="E231" t="s">
         <v>144</v>
       </c>
-      <c r="F231" s="5"/>
+      <c r="F231" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="H231" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D232" t="s">
         <v>133</v>
@@ -7609,46 +7611,47 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
+      <c r="A233" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D233" t="s">
+        <v>133</v>
+      </c>
+      <c r="E233" t="s">
+        <v>144</v>
+      </c>
+      <c r="F233" s="5"/>
+      <c r="H233" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
-    </row>
-    <row r="235" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A235" s="8" t="s">
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D235" t="s">
-        <v>133</v>
-      </c>
-      <c r="E235" t="s">
-        <v>145</v>
-      </c>
-      <c r="H235" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="D236" t="s">
         <v>133</v>
@@ -7660,15 +7663,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D237" t="s">
         <v>133</v>
@@ -7680,15 +7683,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="D238" t="s">
         <v>133</v>
@@ -7701,56 +7704,56 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+      <c r="A239" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="D239" t="s">
         <v>133</v>
       </c>
+      <c r="E239" t="s">
+        <v>145</v>
+      </c>
+      <c r="H239" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B240" s="4"/>
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
       <c r="C240" s="2"/>
+      <c r="D240" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="2"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D242" t="s">
-        <v>133</v>
-      </c>
-      <c r="E242" t="s">
-        <v>146</v>
-      </c>
-      <c r="H242" t="s">
-        <v>149</v>
-      </c>
+      <c r="A242" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B242" s="4"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="D243" t="s">
         <v>133</v>
@@ -7764,13 +7767,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>447</v>
+        <v>254</v>
       </c>
       <c r="D244" t="s">
         <v>133</v>
@@ -7784,13 +7787,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D245" t="s">
         <v>133</v>
@@ -7804,13 +7807,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D246" t="s">
         <v>133</v>
@@ -7824,73 +7827,73 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D247" t="s">
+        <v>133</v>
+      </c>
+      <c r="E247" t="s">
+        <v>146</v>
+      </c>
+      <c r="H247" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C247" s="6" t="s">
+      <c r="D248" t="s">
+        <v>133</v>
+      </c>
+      <c r="E248" t="s">
+        <v>146</v>
+      </c>
+      <c r="H248" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D247" t="s">
-        <v>133</v>
-      </c>
-      <c r="E247" t="s">
-        <v>146</v>
-      </c>
-      <c r="H247" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D248" t="s">
-        <v>133</v>
-      </c>
-      <c r="E248" t="s">
-        <v>146</v>
-      </c>
-      <c r="H248" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
+      <c r="D249" t="s">
+        <v>133</v>
+      </c>
+      <c r="E249" t="s">
+        <v>146</v>
+      </c>
+      <c r="H249" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C249" s="6" t="s">
+      <c r="B250" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="D249" t="s">
-        <v>133</v>
-      </c>
-      <c r="E249" t="s">
-        <v>146</v>
-      </c>
-      <c r="H249" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="D250" t="s">
         <v>133</v>
@@ -7904,33 +7907,33 @@
     </row>
     <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D251" t="s">
+        <v>133</v>
+      </c>
+      <c r="E251" t="s">
+        <v>146</v>
+      </c>
+      <c r="H251" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="D251" t="s">
-        <v>133</v>
-      </c>
-      <c r="E251" t="s">
-        <v>146</v>
-      </c>
-      <c r="H251" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="D252" t="s">
         <v>133</v>
@@ -7944,13 +7947,13 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>257</v>
+        <v>458</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>258</v>
+        <v>459</v>
       </c>
       <c r="D253" t="s">
         <v>133</v>
@@ -7964,13 +7967,13 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>461</v>
+        <v>257</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>462</v>
+        <v>258</v>
       </c>
       <c r="D254" t="s">
         <v>133</v>
@@ -7984,67 +7987,67 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D255" t="s">
+        <v>133</v>
+      </c>
+      <c r="E255" t="s">
+        <v>146</v>
+      </c>
+      <c r="H255" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C255" s="6" t="s">
+      <c r="D256" t="s">
+        <v>133</v>
+      </c>
+      <c r="E256" t="s">
+        <v>146</v>
+      </c>
+      <c r="H256" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D255" t="s">
-        <v>133</v>
-      </c>
-      <c r="E255" t="s">
-        <v>146</v>
-      </c>
-      <c r="H255" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D256" t="s">
-        <v>133</v>
-      </c>
-      <c r="E256" t="s">
-        <v>146</v>
-      </c>
-      <c r="H256" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
+      <c r="D257" t="s">
+        <v>133</v>
+      </c>
+      <c r="E257" t="s">
+        <v>146</v>
+      </c>
+      <c r="H257" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D257" t="s">
-        <v>133</v>
-      </c>
-      <c r="E257" t="s">
-        <v>146</v>
-      </c>
-      <c r="H257" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>134</v>
@@ -8062,15 +8065,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>466</v>
+        <v>88</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>467</v>
+        <v>29</v>
       </c>
       <c r="D259" t="s">
         <v>133</v>
@@ -8084,53 +8087,53 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D260" t="s">
+        <v>133</v>
+      </c>
+      <c r="E260" t="s">
+        <v>146</v>
+      </c>
+      <c r="H260" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C260" s="6" t="s">
+      <c r="D261" t="s">
+        <v>133</v>
+      </c>
+      <c r="E261" t="s">
+        <v>146</v>
+      </c>
+      <c r="H261" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="D260" t="s">
-        <v>133</v>
-      </c>
-      <c r="E260" t="s">
-        <v>146</v>
-      </c>
-      <c r="H260" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D261" t="s">
-        <v>133</v>
-      </c>
-      <c r="E261" t="s">
-        <v>146</v>
-      </c>
-      <c r="H261" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="D262" t="s">
         <v>133</v>
@@ -8144,13 +8147,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D263" t="s">
         <v>133</v>
@@ -8164,13 +8167,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>471</v>
+        <v>261</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>472</v>
+        <v>262</v>
       </c>
       <c r="D264" t="s">
         <v>133</v>
@@ -8184,53 +8187,53 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D265" t="s">
+        <v>133</v>
+      </c>
+      <c r="E265" t="s">
+        <v>146</v>
+      </c>
+      <c r="H265" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C266" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B265" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C265" s="6" t="s">
+      <c r="D266" t="s">
+        <v>133</v>
+      </c>
+      <c r="E266" t="s">
+        <v>146</v>
+      </c>
+      <c r="H266" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="D265" t="s">
-        <v>133</v>
-      </c>
-      <c r="E265" t="s">
-        <v>146</v>
-      </c>
-      <c r="H265" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D266" t="s">
-        <v>133</v>
-      </c>
-      <c r="E266" t="s">
-        <v>146</v>
-      </c>
-      <c r="H266" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="D267" t="s">
         <v>133</v>
@@ -8244,13 +8247,13 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D268" t="s">
         <v>133</v>
@@ -8264,13 +8267,13 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>476</v>
+        <v>265</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>476</v>
+        <v>266</v>
       </c>
       <c r="D269" t="s">
         <v>133</v>
@@ -8284,13 +8287,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D270" t="s">
         <v>133</v>
@@ -8304,13 +8307,13 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D271" t="s">
         <v>133</v>
@@ -8324,13 +8327,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D272" t="s">
         <v>133</v>
@@ -8344,13 +8347,13 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>633</v>
+        <v>479</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>632</v>
+        <v>480</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
@@ -8362,55 +8365,55 @@
         <v>149</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D274" t="s">
+        <v>133</v>
+      </c>
+      <c r="E274" t="s">
+        <v>146</v>
+      </c>
+      <c r="H274" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="D274" t="s">
-        <v>133</v>
-      </c>
-      <c r="E274" t="s">
-        <v>146</v>
-      </c>
-      <c r="H274" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C275" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D275" t="s">
+        <v>133</v>
+      </c>
+      <c r="E275" t="s">
+        <v>146</v>
+      </c>
+      <c r="H275" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="D275" t="s">
-        <v>133</v>
-      </c>
-      <c r="E275" t="s">
-        <v>146</v>
-      </c>
-      <c r="H275" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D276" t="s">
         <v>133</v>
@@ -8424,13 +8427,13 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>482</v>
+        <v>559</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="D277" t="s">
         <v>133</v>
@@ -8444,13 +8447,13 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D278" t="s">
         <v>133</v>
@@ -8464,13 +8467,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D279" t="s">
         <v>133</v>
@@ -8484,13 +8487,13 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>560</v>
+        <v>485</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>559</v>
+        <v>486</v>
       </c>
       <c r="D280" t="s">
         <v>133</v>
@@ -8502,15 +8505,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D281" t="s">
         <v>133</v>
@@ -8522,55 +8525,55 @@
         <v>149</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C282" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D282" t="s">
+        <v>133</v>
+      </c>
+      <c r="E282" t="s">
+        <v>146</v>
+      </c>
+      <c r="H282" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D283" t="s">
+        <v>133</v>
+      </c>
+      <c r="E283" t="s">
+        <v>146</v>
+      </c>
+      <c r="H283" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C284" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="D282" t="s">
-        <v>133</v>
-      </c>
-      <c r="E282" t="s">
-        <v>146</v>
-      </c>
-      <c r="H282" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="D283" t="s">
-        <v>133</v>
-      </c>
-      <c r="E283" t="s">
-        <v>146</v>
-      </c>
-      <c r="H283" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="D284" t="s">
         <v>133</v>
@@ -8584,13 +8587,13 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>488</v>
+        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>133</v>
@@ -8604,33 +8607,33 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D286" t="s">
+        <v>133</v>
+      </c>
+      <c r="E286" t="s">
+        <v>146</v>
+      </c>
+      <c r="H286" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B286" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C286" s="13" t="s">
+      <c r="B287" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C287" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D286" t="s">
-        <v>133</v>
-      </c>
-      <c r="E286" t="s">
-        <v>146</v>
-      </c>
-      <c r="H286" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C287" s="15" t="s">
-        <v>489</v>
       </c>
       <c r="D287" t="s">
         <v>133</v>
@@ -8644,13 +8647,13 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>583</v>
+        <v>487</v>
       </c>
       <c r="D288" t="s">
         <v>133</v>
@@ -8663,34 +8666,34 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="D289" t="s">
+        <v>133</v>
+      </c>
+      <c r="E289" t="s">
+        <v>146</v>
+      </c>
+      <c r="H289" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B290" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C289" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="D289" t="s">
-        <v>133</v>
-      </c>
-      <c r="E289" t="s">
-        <v>146</v>
-      </c>
-      <c r="H289" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C290" s="6" t="s">
-        <v>491</v>
+        <v>595</v>
       </c>
       <c r="D290" t="s">
         <v>133</v>
@@ -8704,13 +8707,13 @@
     </row>
     <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D291" t="s">
         <v>133</v>
@@ -8724,13 +8727,13 @@
     </row>
     <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>99</v>
+        <v>490</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D292" t="s">
         <v>133</v>
@@ -8744,27 +8747,27 @@
     </row>
     <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D293" t="s">
+        <v>133</v>
+      </c>
+      <c r="E293" t="s">
+        <v>146</v>
+      </c>
+      <c r="H293" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D293" t="s">
-        <v>133</v>
-      </c>
-      <c r="E293" t="s">
-        <v>146</v>
-      </c>
-      <c r="H293" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>134</v>
@@ -8782,15 +8785,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>495</v>
+        <v>101</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>496</v>
+        <v>29</v>
       </c>
       <c r="D295" t="s">
         <v>133</v>
@@ -8804,53 +8807,53 @@
     </row>
     <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D296" t="s">
+        <v>133</v>
+      </c>
+      <c r="E296" t="s">
+        <v>146</v>
+      </c>
+      <c r="H296" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D297" t="s">
+        <v>133</v>
+      </c>
+      <c r="E297" t="s">
+        <v>146</v>
+      </c>
+      <c r="H297" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D296" t="s">
-        <v>133</v>
-      </c>
-      <c r="E296" t="s">
-        <v>146</v>
-      </c>
-      <c r="H296" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A297" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D297" t="s">
-        <v>133</v>
-      </c>
-      <c r="E297" t="s">
-        <v>146</v>
-      </c>
-      <c r="H297" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="D298" t="s">
         <v>133</v>
@@ -8864,53 +8867,53 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D299" t="s">
+        <v>133</v>
+      </c>
+      <c r="E299" t="s">
+        <v>146</v>
+      </c>
+      <c r="H299" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D300" t="s">
+        <v>133</v>
+      </c>
+      <c r="E300" t="s">
+        <v>146</v>
+      </c>
+      <c r="H300" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B299" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C299" s="6" t="s">
+      <c r="B301" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C301" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="D299" t="s">
-        <v>133</v>
-      </c>
-      <c r="E299" t="s">
-        <v>146</v>
-      </c>
-      <c r="H299" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A300" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D300" t="s">
-        <v>133</v>
-      </c>
-      <c r="E300" t="s">
-        <v>146</v>
-      </c>
-      <c r="H300" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="D301" t="s">
         <v>133</v>
@@ -8924,13 +8927,13 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>505</v>
+        <v>268</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>506</v>
+        <v>269</v>
       </c>
       <c r="D302" t="s">
         <v>133</v>
@@ -8944,13 +8947,13 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D303" t="s">
         <v>133</v>
@@ -8964,13 +8967,13 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D304" t="s">
         <v>133</v>
@@ -8982,15 +8985,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D305" t="s">
         <v>133</v>
@@ -9004,53 +9007,53 @@
     </row>
     <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>587</v>
+        <v>509</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C306" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D306" t="s">
+        <v>133</v>
+      </c>
+      <c r="E306" t="s">
+        <v>146</v>
+      </c>
+      <c r="H306" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D307" t="s">
+        <v>133</v>
+      </c>
+      <c r="E307" t="s">
+        <v>146</v>
+      </c>
+      <c r="H307" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A308" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C308" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="D306" t="s">
-        <v>133</v>
-      </c>
-      <c r="E306" t="s">
-        <v>146</v>
-      </c>
-      <c r="H306" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A307" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D307" t="s">
-        <v>133</v>
-      </c>
-      <c r="E307" t="s">
-        <v>146</v>
-      </c>
-      <c r="H307" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="D308" t="s">
         <v>133</v>
@@ -9064,13 +9067,13 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>270</v>
+        <v>511</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>271</v>
+        <v>512</v>
       </c>
       <c r="D309" t="s">
         <v>133</v>
@@ -9084,13 +9087,13 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>515</v>
+        <v>270</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="D310" t="s">
         <v>133</v>
@@ -9102,15 +9105,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D311" t="s">
         <v>133</v>
@@ -9124,33 +9127,33 @@
     </row>
     <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D312" t="s">
+        <v>133</v>
+      </c>
+      <c r="E312" t="s">
+        <v>146</v>
+      </c>
+      <c r="H312" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B313" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C312" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D312" t="s">
-        <v>133</v>
-      </c>
-      <c r="E312" t="s">
-        <v>146</v>
-      </c>
-      <c r="H312" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C313" s="6" t="s">
-        <v>273</v>
+        <v>517</v>
       </c>
       <c r="D313" t="s">
         <v>133</v>
@@ -9164,13 +9167,13 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D314" t="s">
         <v>133</v>
@@ -9184,13 +9187,13 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>520</v>
+        <v>275</v>
       </c>
       <c r="D315" t="s">
         <v>133</v>
@@ -9204,13 +9207,13 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="D316" t="s">
         <v>133</v>
@@ -9224,7 +9227,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>134</v>
@@ -9244,7 +9247,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>134</v>
@@ -9264,7 +9267,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>134</v>
@@ -9284,7 +9287,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>134</v>
@@ -9304,7 +9307,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>134</v>
@@ -9322,36 +9325,36 @@
         <v>149</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322" t="s">
+        <v>133</v>
+      </c>
+      <c r="E322" t="s">
+        <v>146</v>
+      </c>
+      <c r="H322" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B322" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C322" s="6" t="s">
+      <c r="B323" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C323" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D322" t="s">
-        <v>133</v>
-      </c>
-      <c r="E322" t="s">
-        <v>146</v>
-      </c>
-      <c r="H322" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="D323" t="s">
         <v>133</v>
       </c>
@@ -9362,15 +9365,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D324" t="s">
         <v>133</v>
@@ -9384,93 +9387,93 @@
     </row>
     <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D325" t="s">
+        <v>133</v>
+      </c>
+      <c r="E325" t="s">
+        <v>146</v>
+      </c>
+      <c r="H325" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D326" t="s">
+        <v>133</v>
+      </c>
+      <c r="E326" t="s">
+        <v>146</v>
+      </c>
+      <c r="H326" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C327" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B325" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C325" s="6" t="s">
+      <c r="D327" t="s">
+        <v>133</v>
+      </c>
+      <c r="E327" t="s">
+        <v>146</v>
+      </c>
+      <c r="H327" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D328" t="s">
+        <v>133</v>
+      </c>
+      <c r="E328" t="s">
+        <v>146</v>
+      </c>
+      <c r="H328" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A329" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="D325" t="s">
-        <v>133</v>
-      </c>
-      <c r="E325" t="s">
-        <v>146</v>
-      </c>
-      <c r="H325" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D326" t="s">
-        <v>133</v>
-      </c>
-      <c r="E326" t="s">
-        <v>146</v>
-      </c>
-      <c r="H326" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A327" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D327" t="s">
-        <v>133</v>
-      </c>
-      <c r="E327" t="s">
-        <v>146</v>
-      </c>
-      <c r="H327" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B328" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D328" t="s">
-        <v>133</v>
-      </c>
-      <c r="E328" t="s">
-        <v>146</v>
-      </c>
-      <c r="H328" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D329" t="s">
         <v>133</v>
@@ -9484,7 +9487,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>134</v>
@@ -9504,7 +9507,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>134</v>
@@ -9522,55 +9525,55 @@
         <v>149</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D332" t="s">
+        <v>133</v>
+      </c>
+      <c r="E332" t="s">
+        <v>146</v>
+      </c>
+      <c r="H332" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B332" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D332" t="s">
-        <v>133</v>
-      </c>
-      <c r="E332" t="s">
-        <v>146</v>
-      </c>
-      <c r="H332" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
+      <c r="B333" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D333" t="s">
+        <v>133</v>
+      </c>
+      <c r="E333" t="s">
+        <v>146</v>
+      </c>
+      <c r="H333" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A334" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B334" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C334" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="D333" t="s">
-        <v>133</v>
-      </c>
-      <c r="E333" t="s">
-        <v>146</v>
-      </c>
-      <c r="H333" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="D334" t="s">
         <v>133</v>
@@ -9584,13 +9587,13 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>282</v>
+        <v>528</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>148</v>
+        <v>529</v>
       </c>
       <c r="D335" t="s">
         <v>133</v>
@@ -9604,13 +9607,13 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="D336" t="s">
         <v>133</v>
@@ -9624,13 +9627,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>532</v>
+        <v>147</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>533</v>
+        <v>281</v>
       </c>
       <c r="D337" t="s">
         <v>133</v>
@@ -9644,13 +9647,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D338" t="s">
         <v>133</v>
@@ -9664,133 +9667,133 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D339" t="s">
+        <v>133</v>
+      </c>
+      <c r="E339" t="s">
+        <v>146</v>
+      </c>
+      <c r="H339" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D340" t="s">
+        <v>133</v>
+      </c>
+      <c r="E340" t="s">
+        <v>146</v>
+      </c>
+      <c r="H340" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A341" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C341" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B339" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D339" t="s">
-        <v>133</v>
-      </c>
-      <c r="E339" t="s">
-        <v>146</v>
-      </c>
-      <c r="H339" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A340" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B340" s="6" t="s">
+      <c r="D341" t="s">
+        <v>133</v>
+      </c>
+      <c r="E341" t="s">
+        <v>146</v>
+      </c>
+      <c r="H341" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342" t="s">
+        <v>133</v>
+      </c>
+      <c r="E342" t="s">
+        <v>146</v>
+      </c>
+      <c r="H342" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B343" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C340" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D340" t="s">
-        <v>133</v>
-      </c>
-      <c r="E340" t="s">
-        <v>146</v>
-      </c>
-      <c r="H340" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C341" s="6" t="s">
+      <c r="C343" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D343" t="s">
+        <v>133</v>
+      </c>
+      <c r="E343" t="s">
+        <v>146</v>
+      </c>
+      <c r="H343" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D341" t="s">
-        <v>133</v>
-      </c>
-      <c r="E341" t="s">
-        <v>146</v>
-      </c>
-      <c r="H341" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B342" s="6" t="s">
+      <c r="D344" t="s">
+        <v>133</v>
+      </c>
+      <c r="E344" t="s">
+        <v>146</v>
+      </c>
+      <c r="H344" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B345" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C342" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D342" t="s">
-        <v>133</v>
-      </c>
-      <c r="E342" t="s">
-        <v>146</v>
-      </c>
-      <c r="H342" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D343" t="s">
-        <v>133</v>
-      </c>
-      <c r="E343" t="s">
-        <v>146</v>
-      </c>
-      <c r="H343" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C344" s="6" t="s">
+      <c r="C345" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="D344" t="s">
-        <v>133</v>
-      </c>
-      <c r="E344" t="s">
-        <v>146</v>
-      </c>
-      <c r="H344" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="D345" t="s">
         <v>133</v>
@@ -9804,13 +9807,13 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D346" t="s">
         <v>133</v>
@@ -9824,13 +9827,13 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>589</v>
+        <v>286</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>536</v>
+        <v>287</v>
       </c>
       <c r="D347" t="s">
         <v>133</v>
@@ -9844,13 +9847,13 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D348" t="s">
         <v>133</v>
@@ -9864,13 +9867,13 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D349" t="s">
         <v>133</v>
@@ -9884,13 +9887,13 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D350" t="s">
         <v>133</v>
@@ -9904,13 +9907,13 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D351" t="s">
         <v>133</v>
@@ -9924,13 +9927,13 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D352" t="s">
         <v>133</v>
@@ -9942,35 +9945,35 @@
         <v>149</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D353" t="s">
+        <v>133</v>
+      </c>
+      <c r="E353" t="s">
+        <v>146</v>
+      </c>
+      <c r="H353" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B353" s="6" t="s">
+      <c r="B354" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C353" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D353" t="s">
-        <v>133</v>
-      </c>
-      <c r="E353" t="s">
-        <v>146</v>
-      </c>
-      <c r="H353" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A354" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B354" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C354" s="6" t="s">
-        <v>29</v>
+        <v>588</v>
       </c>
       <c r="D354" t="s">
         <v>133</v>
@@ -9984,7 +9987,7 @@
     </row>
     <row r="355" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>134</v>
@@ -10002,9 +10005,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>134</v>
@@ -10024,7 +10027,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>134</v>
@@ -10044,7 +10047,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>134</v>
@@ -10064,7 +10067,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>134</v>
@@ -10082,9 +10085,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>547</v>
+        <v>128</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>134</v>
@@ -10102,35 +10105,35 @@
         <v>149</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D361" t="s">
+        <v>133</v>
+      </c>
+      <c r="E361" t="s">
+        <v>146</v>
+      </c>
+      <c r="H361" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A362" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B361" s="6" t="s">
+      <c r="B362" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C361" s="6" t="s">
+      <c r="C362" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="D361" t="s">
-        <v>133</v>
-      </c>
-      <c r="E361" t="s">
-        <v>146</v>
-      </c>
-      <c r="H361" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="D362" t="s">
         <v>133</v>
@@ -10144,73 +10147,73 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D363" t="s">
+        <v>133</v>
+      </c>
+      <c r="E363" t="s">
+        <v>146</v>
+      </c>
+      <c r="H363" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D364" t="s">
+        <v>133</v>
+      </c>
+      <c r="E364" t="s">
+        <v>146</v>
+      </c>
+      <c r="H364" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A365" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B363" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C363" s="6" t="s">
+      <c r="B365" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C365" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="D363" t="s">
-        <v>133</v>
-      </c>
-      <c r="E363" t="s">
-        <v>146</v>
-      </c>
-      <c r="H363" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A364" s="6" t="s">
+      <c r="D365" t="s">
+        <v>133</v>
+      </c>
+      <c r="E365" t="s">
+        <v>146</v>
+      </c>
+      <c r="H365" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A366" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B364" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C364" s="6" t="s">
+      <c r="B366" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C366" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D364" t="s">
-        <v>133</v>
-      </c>
-      <c r="E364" t="s">
-        <v>146</v>
-      </c>
-      <c r="H364" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A365" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D365" t="s">
-        <v>133</v>
-      </c>
-      <c r="E365" t="s">
-        <v>146</v>
-      </c>
-      <c r="H365" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A366" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="D366" t="s">
         <v>133</v>
@@ -10224,13 +10227,13 @@
     </row>
     <row r="367" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D367" t="s">
         <v>133</v>
@@ -10244,41 +10247,61 @@
     </row>
     <row r="368" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D368" t="s">
+        <v>133</v>
+      </c>
+      <c r="E368" t="s">
+        <v>146</v>
+      </c>
+      <c r="H368" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A369" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D369" t="s">
+        <v>133</v>
+      </c>
+      <c r="E369" t="s">
+        <v>146</v>
+      </c>
+      <c r="H369" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C370" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B368" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="D368" t="s">
-        <v>133</v>
-      </c>
-      <c r="E368" t="s">
-        <v>146</v>
-      </c>
-      <c r="H368" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C369" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="D369" t="s">
-        <v>133</v>
-      </c>
-      <c r="E369" t="s">
-        <v>146</v>
-      </c>
-      <c r="H369" t="s">
+      <c r="D370" t="s">
+        <v>133</v>
+      </c>
+      <c r="E370" t="s">
+        <v>146</v>
+      </c>
+      <c r="H370" t="s">
         <v>149</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ECD3E2-FB55-45B2-AE30-E6FAD057A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206359C-0FEC-413D-9D99-9EF7B24FE2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$330</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$331</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="643">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1761,9 +1761,6 @@
     <t>Tax_payable</t>
   </si>
   <si>
-    <t>current_tax_liabilities+current_tax_payable+tax_liabilities+current_income_tax_liabilities+provision_for_taxation+income_tax_payables+Tax_payable</t>
-  </si>
-  <si>
     <t>Share of results of equity-accounted investees, net of tax</t>
   </si>
   <si>
@@ -1951,6 +1948,15 @@
   </si>
   <si>
     <t>Other operating income</t>
+  </si>
+  <si>
+    <t>Income tax payable</t>
+  </si>
+  <si>
+    <t>Income_tax_payable</t>
+  </si>
+  <si>
+    <t>current_tax_liabilities+current_tax_payable+tax_liabilities+current_income_tax_liabilities+provision_for_taxation+income_tax_payables+Tax_payable+Income_tax_payable</t>
   </si>
 </sst>
 </file>
@@ -2396,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,13 +2620,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
@@ -2735,7 +2741,7 @@
         <v>135</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -3143,13 +3149,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D36" t="s">
         <v>133</v>
@@ -3166,13 +3172,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D37" t="s">
         <v>133</v>
@@ -3218,7 +3224,7 @@
         <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D39" t="s">
         <v>133</v>
@@ -3557,13 +3563,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D54" t="s">
         <v>133</v>
@@ -3586,7 +3592,7 @@
         <v>135</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D55" t="s">
         <v>133</v>
@@ -3856,13 +3862,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>636</v>
       </c>
       <c r="D67" t="s">
         <v>133</v>
@@ -3879,7 +3885,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>134</v>
@@ -4069,7 +4075,7 @@
         <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D76" t="s">
         <v>133</v>
@@ -4454,13 +4460,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="D93" t="s">
         <v>133</v>
@@ -4615,13 +4621,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D100" t="s">
         <v>133</v>
@@ -4644,7 +4650,7 @@
         <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D101" t="s">
         <v>133</v>
@@ -4713,7 +4719,7 @@
         <v>134</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D104" t="s">
         <v>133</v>
@@ -5397,13 +5403,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -5426,7 +5432,7 @@
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D135" t="s">
         <v>133</v>
@@ -7175,15 +7181,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>70</v>
+        <v>641</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="D214" t="s">
         <v>133</v>
@@ -7198,15 +7204,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>29</v>
+        <v>642</v>
       </c>
       <c r="D215" t="s">
         <v>133</v>
@@ -7223,7 +7229,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>134</v>
@@ -7246,7 +7252,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>134</v>
@@ -7269,13 +7275,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="D218" t="s">
         <v>133</v>
@@ -7292,13 +7298,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="D219" t="s">
         <v>133</v>
@@ -7315,13 +7321,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="D220" t="s">
         <v>133</v>
@@ -7338,19 +7344,19 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D221" t="s">
         <v>133</v>
       </c>
       <c r="E221" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>237</v>
@@ -7361,13 +7367,13 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D222" t="s">
         <v>133</v>
@@ -7384,19 +7390,19 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>383</v>
+        <v>233</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="D223" t="s">
         <v>133</v>
       </c>
       <c r="E223" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>237</v>
@@ -7407,13 +7413,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="D224" t="s">
         <v>133</v>
@@ -7430,13 +7436,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D225" t="s">
         <v>133</v>
@@ -7453,13 +7459,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D226" t="s">
         <v>133</v>
@@ -7476,13 +7482,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D227" t="s">
         <v>133</v>
@@ -7499,13 +7505,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>548</v>
+        <v>442</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>548</v>
+        <v>443</v>
       </c>
       <c r="D228" t="s">
         <v>133</v>
@@ -7522,13 +7528,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>624</v>
+        <v>548</v>
       </c>
       <c r="D229" t="s">
         <v>133</v>
@@ -7543,15 +7549,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>74</v>
+        <v>624</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D230" t="s">
         <v>133</v>
@@ -7566,15 +7572,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>220</v>
+        <v>625</v>
       </c>
       <c r="D231" t="s">
         <v>133</v>
@@ -7591,13 +7597,13 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>639</v>
+        <v>220</v>
       </c>
       <c r="D232" t="s">
         <v>133</v>
@@ -7605,20 +7611,22 @@
       <c r="E232" t="s">
         <v>144</v>
       </c>
-      <c r="F232" s="5"/>
+      <c r="F232" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="H232" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D233" t="s">
         <v>133</v>
@@ -7632,46 +7640,47 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
+      <c r="A234" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D234" t="s">
+        <v>133</v>
+      </c>
+      <c r="E234" t="s">
+        <v>144</v>
+      </c>
+      <c r="F234" s="5"/>
+      <c r="H234" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-    </row>
-    <row r="236" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A236" s="8" t="s">
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D236" t="s">
-        <v>133</v>
-      </c>
-      <c r="E236" t="s">
-        <v>145</v>
-      </c>
-      <c r="H236" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="D237" t="s">
         <v>133</v>
@@ -7683,15 +7692,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D238" t="s">
         <v>133</v>
@@ -7703,15 +7712,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="D239" t="s">
         <v>133</v>
@@ -7724,56 +7733,56 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
+      <c r="A240" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="D240" t="s">
         <v>133</v>
       </c>
+      <c r="E240" t="s">
+        <v>145</v>
+      </c>
+      <c r="H240" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B241" s="4"/>
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
       <c r="C241" s="2"/>
+      <c r="D241" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D243" t="s">
-        <v>133</v>
-      </c>
-      <c r="E243" t="s">
-        <v>146</v>
-      </c>
-      <c r="H243" t="s">
-        <v>149</v>
-      </c>
+      <c r="A243" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B243" s="4"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="D244" t="s">
         <v>133</v>
@@ -7787,13 +7796,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>446</v>
+        <v>254</v>
       </c>
       <c r="D245" t="s">
         <v>133</v>
@@ -7807,13 +7816,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D246" t="s">
         <v>133</v>
@@ -7827,13 +7836,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D247" t="s">
         <v>133</v>
@@ -7847,73 +7856,73 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D248" t="s">
+        <v>133</v>
+      </c>
+      <c r="E248" t="s">
+        <v>146</v>
+      </c>
+      <c r="H248" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C248" s="6" t="s">
+      <c r="B249" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D248" t="s">
-        <v>133</v>
-      </c>
-      <c r="E248" t="s">
-        <v>146</v>
-      </c>
-      <c r="H248" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
+      <c r="D249" t="s">
+        <v>133</v>
+      </c>
+      <c r="E249" t="s">
+        <v>146</v>
+      </c>
+      <c r="H249" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B250" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C249" s="6" t="s">
+      <c r="C250" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D249" t="s">
-        <v>133</v>
-      </c>
-      <c r="E249" t="s">
-        <v>146</v>
-      </c>
-      <c r="H249" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
+      <c r="D250" t="s">
+        <v>133</v>
+      </c>
+      <c r="E250" t="s">
+        <v>146</v>
+      </c>
+      <c r="H250" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C250" s="6" t="s">
+      <c r="B251" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="D250" t="s">
-        <v>133</v>
-      </c>
-      <c r="E250" t="s">
-        <v>146</v>
-      </c>
-      <c r="H250" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="D251" t="s">
         <v>133</v>
@@ -7927,33 +7936,33 @@
     </row>
     <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D252" t="s">
+        <v>133</v>
+      </c>
+      <c r="E252" t="s">
+        <v>146</v>
+      </c>
+      <c r="H252" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C252" s="6" t="s">
+      <c r="B253" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="D252" t="s">
-        <v>133</v>
-      </c>
-      <c r="E252" t="s">
-        <v>146</v>
-      </c>
-      <c r="H252" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="D253" t="s">
         <v>133</v>
@@ -7967,13 +7976,13 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>257</v>
+        <v>458</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>258</v>
+        <v>459</v>
       </c>
       <c r="D254" t="s">
         <v>133</v>
@@ -7987,13 +7996,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>460</v>
+        <v>257</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>461</v>
+        <v>258</v>
       </c>
       <c r="D255" t="s">
         <v>133</v>
@@ -8007,67 +8016,67 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D256" t="s">
+        <v>133</v>
+      </c>
+      <c r="E256" t="s">
+        <v>146</v>
+      </c>
+      <c r="H256" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C256" s="6" t="s">
+      <c r="B257" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D256" t="s">
-        <v>133</v>
-      </c>
-      <c r="E256" t="s">
-        <v>146</v>
-      </c>
-      <c r="H256" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
+      <c r="D257" t="s">
+        <v>133</v>
+      </c>
+      <c r="E257" t="s">
+        <v>146</v>
+      </c>
+      <c r="H257" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B258" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C257" s="6" t="s">
+      <c r="C258" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D257" t="s">
-        <v>133</v>
-      </c>
-      <c r="E257" t="s">
-        <v>146</v>
-      </c>
-      <c r="H257" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
+      <c r="D258" t="s">
+        <v>133</v>
+      </c>
+      <c r="E258" t="s">
+        <v>146</v>
+      </c>
+      <c r="H258" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D258" t="s">
-        <v>133</v>
-      </c>
-      <c r="E258" t="s">
-        <v>146</v>
-      </c>
-      <c r="H258" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>134</v>
@@ -8085,15 +8094,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>465</v>
+        <v>88</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>466</v>
+        <v>29</v>
       </c>
       <c r="D260" t="s">
         <v>133</v>
@@ -8107,53 +8116,53 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D261" t="s">
+        <v>133</v>
+      </c>
+      <c r="E261" t="s">
+        <v>146</v>
+      </c>
+      <c r="H261" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C261" s="6" t="s">
+      <c r="B262" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D261" t="s">
-        <v>133</v>
-      </c>
-      <c r="E261" t="s">
-        <v>146</v>
-      </c>
-      <c r="H261" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="6" t="s">
+      <c r="D262" t="s">
+        <v>133</v>
+      </c>
+      <c r="E262" t="s">
+        <v>146</v>
+      </c>
+      <c r="H262" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B263" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C262" s="6" t="s">
+      <c r="C263" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="D262" t="s">
-        <v>133</v>
-      </c>
-      <c r="E262" t="s">
-        <v>146</v>
-      </c>
-      <c r="H262" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="D263" t="s">
         <v>133</v>
@@ -8167,13 +8176,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D264" t="s">
         <v>133</v>
@@ -8187,13 +8196,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>470</v>
+        <v>261</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>471</v>
+        <v>262</v>
       </c>
       <c r="D265" t="s">
         <v>133</v>
@@ -8207,53 +8216,53 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D266" t="s">
+        <v>133</v>
+      </c>
+      <c r="E266" t="s">
+        <v>146</v>
+      </c>
+      <c r="H266" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C266" s="6" t="s">
+      <c r="B267" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D266" t="s">
-        <v>133</v>
-      </c>
-      <c r="E266" t="s">
-        <v>146</v>
-      </c>
-      <c r="H266" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
+      <c r="D267" t="s">
+        <v>133</v>
+      </c>
+      <c r="E267" t="s">
+        <v>146</v>
+      </c>
+      <c r="H267" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B268" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C268" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="D267" t="s">
-        <v>133</v>
-      </c>
-      <c r="E267" t="s">
-        <v>146</v>
-      </c>
-      <c r="H267" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="D268" t="s">
         <v>133</v>
@@ -8267,13 +8276,13 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D269" t="s">
         <v>133</v>
@@ -8287,13 +8296,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>475</v>
+        <v>265</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>475</v>
+        <v>266</v>
       </c>
       <c r="D270" t="s">
         <v>133</v>
@@ -8307,13 +8316,13 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D271" t="s">
         <v>133</v>
@@ -8327,13 +8336,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D272" t="s">
         <v>133</v>
@@ -8347,13 +8356,13 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
@@ -8367,73 +8376,73 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>630</v>
+        <v>479</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C274" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D274" t="s">
+        <v>133</v>
+      </c>
+      <c r="E274" t="s">
+        <v>146</v>
+      </c>
+      <c r="H274" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="D274" t="s">
-        <v>133</v>
-      </c>
-      <c r="E274" t="s">
-        <v>146</v>
-      </c>
-      <c r="H274" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
+      <c r="B275" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D275" t="s">
+        <v>133</v>
+      </c>
+      <c r="E275" t="s">
+        <v>146</v>
+      </c>
+      <c r="H275" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="D275" t="s">
-        <v>133</v>
-      </c>
-      <c r="E275" t="s">
-        <v>146</v>
-      </c>
-      <c r="H275" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C276" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D276" t="s">
+        <v>133</v>
+      </c>
+      <c r="E276" t="s">
+        <v>146</v>
+      </c>
+      <c r="H276" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="D276" t="s">
-        <v>133</v>
-      </c>
-      <c r="E276" t="s">
-        <v>146</v>
-      </c>
-      <c r="H276" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D277" t="s">
         <v>133</v>
@@ -8447,13 +8456,13 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>482</v>
+        <v>94</v>
       </c>
       <c r="D278" t="s">
         <v>133</v>
@@ -8467,13 +8476,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D279" t="s">
         <v>133</v>
@@ -8487,13 +8496,13 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D280" t="s">
         <v>133</v>
@@ -8507,93 +8516,93 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D281" t="s">
+        <v>133</v>
+      </c>
+      <c r="E281" t="s">
+        <v>146</v>
+      </c>
+      <c r="H281" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C281" s="6" t="s">
+      <c r="B282" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C282" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D281" t="s">
-        <v>133</v>
-      </c>
-      <c r="E281" t="s">
-        <v>146</v>
-      </c>
-      <c r="H281" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C282" s="6" t="s">
+      <c r="D282" t="s">
+        <v>133</v>
+      </c>
+      <c r="E282" t="s">
+        <v>146</v>
+      </c>
+      <c r="H282" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="D282" t="s">
-        <v>133</v>
-      </c>
-      <c r="E282" t="s">
-        <v>146</v>
-      </c>
-      <c r="H282" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
+      <c r="B283" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D283" t="s">
+        <v>133</v>
+      </c>
+      <c r="E283" t="s">
+        <v>146</v>
+      </c>
+      <c r="H283" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D284" t="s">
+        <v>133</v>
+      </c>
+      <c r="E284" t="s">
+        <v>146</v>
+      </c>
+      <c r="H284" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D283" t="s">
-        <v>133</v>
-      </c>
-      <c r="E283" t="s">
-        <v>146</v>
-      </c>
-      <c r="H283" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="D284" t="s">
-        <v>133</v>
-      </c>
-      <c r="E284" t="s">
-        <v>146</v>
-      </c>
-      <c r="H284" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C285" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>133</v>
@@ -8607,13 +8616,13 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>640</v>
+        <v>29</v>
       </c>
       <c r="D286" t="s">
         <v>133</v>
@@ -8627,33 +8636,33 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="D287" t="s">
+        <v>133</v>
+      </c>
+      <c r="E287" t="s">
+        <v>146</v>
+      </c>
+      <c r="H287" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C287" s="13" t="s">
+      <c r="B288" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C288" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D287" t="s">
-        <v>133</v>
-      </c>
-      <c r="E287" t="s">
-        <v>146</v>
-      </c>
-      <c r="H287" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C288" s="15" t="s">
-        <v>487</v>
       </c>
       <c r="D288" t="s">
         <v>133</v>
@@ -8667,53 +8676,53 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C289" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="D289" t="s">
+        <v>133</v>
+      </c>
+      <c r="E289" t="s">
+        <v>146</v>
+      </c>
+      <c r="H289" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="D289" t="s">
-        <v>133</v>
-      </c>
-      <c r="E289" t="s">
-        <v>146</v>
-      </c>
-      <c r="H289" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
+      <c r="B290" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="D290" t="s">
+        <v>133</v>
+      </c>
+      <c r="E290" t="s">
+        <v>146</v>
+      </c>
+      <c r="H290" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B291" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C290" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="D290" t="s">
-        <v>133</v>
-      </c>
-      <c r="E290" t="s">
-        <v>146</v>
-      </c>
-      <c r="H290" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C291" s="6" t="s">
-        <v>489</v>
+        <v>594</v>
       </c>
       <c r="D291" t="s">
         <v>133</v>
@@ -8727,13 +8736,13 @@
     </row>
     <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D292" t="s">
         <v>133</v>
@@ -8747,13 +8756,13 @@
     </row>
     <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>99</v>
+        <v>490</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D293" t="s">
         <v>133</v>
@@ -8767,27 +8776,27 @@
     </row>
     <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D294" t="s">
+        <v>133</v>
+      </c>
+      <c r="E294" t="s">
+        <v>146</v>
+      </c>
+      <c r="H294" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D294" t="s">
-        <v>133</v>
-      </c>
-      <c r="E294" t="s">
-        <v>146</v>
-      </c>
-      <c r="H294" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>134</v>
@@ -8805,15 +8814,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>493</v>
+        <v>101</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>494</v>
+        <v>29</v>
       </c>
       <c r="D296" t="s">
         <v>133</v>
@@ -8827,53 +8836,53 @@
     </row>
     <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D297" t="s">
+        <v>133</v>
+      </c>
+      <c r="E297" t="s">
+        <v>146</v>
+      </c>
+      <c r="H297" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B297" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C297" s="6" t="s">
+      <c r="B298" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D297" t="s">
-        <v>133</v>
-      </c>
-      <c r="E297" t="s">
-        <v>146</v>
-      </c>
-      <c r="H297" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
+      <c r="D298" t="s">
+        <v>133</v>
+      </c>
+      <c r="E298" t="s">
+        <v>146</v>
+      </c>
+      <c r="H298" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B299" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C298" s="6" t="s">
+      <c r="C299" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="D298" t="s">
-        <v>133</v>
-      </c>
-      <c r="E298" t="s">
-        <v>146</v>
-      </c>
-      <c r="H298" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>498</v>
       </c>
       <c r="D299" t="s">
         <v>133</v>
@@ -8887,53 +8896,53 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D300" t="s">
+        <v>133</v>
+      </c>
+      <c r="E300" t="s">
+        <v>146</v>
+      </c>
+      <c r="H300" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C300" s="6" t="s">
+      <c r="B301" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C301" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D300" t="s">
-        <v>133</v>
-      </c>
-      <c r="E300" t="s">
-        <v>146</v>
-      </c>
-      <c r="H300" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
+      <c r="D301" t="s">
+        <v>133</v>
+      </c>
+      <c r="E301" t="s">
+        <v>146</v>
+      </c>
+      <c r="H301" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B301" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C301" s="6" t="s">
+      <c r="B302" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="D301" t="s">
-        <v>133</v>
-      </c>
-      <c r="E301" t="s">
-        <v>146</v>
-      </c>
-      <c r="H301" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="D302" t="s">
         <v>133</v>
@@ -8947,13 +8956,13 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>503</v>
+        <v>268</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>504</v>
+        <v>269</v>
       </c>
       <c r="D303" t="s">
         <v>133</v>
@@ -8967,13 +8976,13 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D304" t="s">
         <v>133</v>
@@ -8987,33 +8996,33 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D305" t="s">
+        <v>133</v>
+      </c>
+      <c r="E305" t="s">
+        <v>146</v>
+      </c>
+      <c r="H305" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B305" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C305" s="6" t="s">
+      <c r="B306" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C306" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="D305" t="s">
-        <v>133</v>
-      </c>
-      <c r="E305" t="s">
-        <v>146</v>
-      </c>
-      <c r="H305" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="D306" t="s">
         <v>133</v>
@@ -9027,53 +9036,53 @@
     </row>
     <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D307" t="s">
+        <v>133</v>
+      </c>
+      <c r="E307" t="s">
+        <v>146</v>
+      </c>
+      <c r="H307" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D308" t="s">
+        <v>133</v>
+      </c>
+      <c r="E308" t="s">
+        <v>146</v>
+      </c>
+      <c r="H308" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A309" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C309" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D307" t="s">
-        <v>133</v>
-      </c>
-      <c r="E307" t="s">
-        <v>146</v>
-      </c>
-      <c r="H307" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D308" t="s">
-        <v>133</v>
-      </c>
-      <c r="E308" t="s">
-        <v>146</v>
-      </c>
-      <c r="H308" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="D309" t="s">
         <v>133</v>
@@ -9087,13 +9096,13 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>270</v>
+        <v>511</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>271</v>
+        <v>512</v>
       </c>
       <c r="D310" t="s">
         <v>133</v>
@@ -9107,33 +9116,33 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D311" t="s">
+        <v>133</v>
+      </c>
+      <c r="E311" t="s">
+        <v>146</v>
+      </c>
+      <c r="H311" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C311" s="6" t="s">
+      <c r="B312" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C312" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="D311" t="s">
-        <v>133</v>
-      </c>
-      <c r="E311" t="s">
-        <v>146</v>
-      </c>
-      <c r="H311" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="D312" t="s">
         <v>133</v>
@@ -9147,33 +9156,33 @@
     </row>
     <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D313" t="s">
+        <v>133</v>
+      </c>
+      <c r="E313" t="s">
+        <v>146</v>
+      </c>
+      <c r="H313" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B314" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C313" s="6" t="s">
+      <c r="C314" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="D313" t="s">
-        <v>133</v>
-      </c>
-      <c r="E313" t="s">
-        <v>146</v>
-      </c>
-      <c r="H313" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="D314" t="s">
         <v>133</v>
@@ -9187,13 +9196,13 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D315" t="s">
         <v>133</v>
@@ -9207,13 +9216,13 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>518</v>
+        <v>275</v>
       </c>
       <c r="D316" t="s">
         <v>133</v>
@@ -9227,13 +9236,13 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="D317" t="s">
         <v>133</v>
@@ -9247,7 +9256,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>134</v>
@@ -9267,7 +9276,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>134</v>
@@ -9287,7 +9296,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>134</v>
@@ -9307,7 +9316,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>134</v>
@@ -9327,7 +9336,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>134</v>
@@ -9345,55 +9354,55 @@
         <v>149</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D323" t="s">
+        <v>133</v>
+      </c>
+      <c r="E323" t="s">
+        <v>146</v>
+      </c>
+      <c r="H323" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C323" s="6" t="s">
+      <c r="B324" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D323" t="s">
-        <v>133</v>
-      </c>
-      <c r="E323" t="s">
-        <v>146</v>
-      </c>
-      <c r="H323" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
+      <c r="D324" t="s">
+        <v>133</v>
+      </c>
+      <c r="E324" t="s">
+        <v>146</v>
+      </c>
+      <c r="H324" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="B324" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C324" s="6" t="s">
+      <c r="B325" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C325" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="D324" t="s">
-        <v>133</v>
-      </c>
-      <c r="E324" t="s">
-        <v>146</v>
-      </c>
-      <c r="H324" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="D325" t="s">
         <v>133</v>
@@ -9407,93 +9416,93 @@
     </row>
     <row r="326" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D326" t="s">
+        <v>133</v>
+      </c>
+      <c r="E326" t="s">
+        <v>146</v>
+      </c>
+      <c r="H326" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B326" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C326" s="6" t="s">
+      <c r="B327" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C327" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D326" t="s">
-        <v>133</v>
-      </c>
-      <c r="E326" t="s">
-        <v>146</v>
-      </c>
-      <c r="H326" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="6" t="s">
+      <c r="D327" t="s">
+        <v>133</v>
+      </c>
+      <c r="E327" t="s">
+        <v>146</v>
+      </c>
+      <c r="H327" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B327" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C327" s="6" t="s">
+      <c r="B328" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C328" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D327" t="s">
-        <v>133</v>
-      </c>
-      <c r="E327" t="s">
-        <v>146</v>
-      </c>
-      <c r="H327" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
+      <c r="D328" t="s">
+        <v>133</v>
+      </c>
+      <c r="E328" t="s">
+        <v>146</v>
+      </c>
+      <c r="H328" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B328" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C328" s="6" t="s">
+      <c r="B329" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D328" t="s">
-        <v>133</v>
-      </c>
-      <c r="E328" t="s">
-        <v>146</v>
-      </c>
-      <c r="H328" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
+      <c r="D329" t="s">
+        <v>133</v>
+      </c>
+      <c r="E329" t="s">
+        <v>146</v>
+      </c>
+      <c r="H329" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B330" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C330" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="D329" t="s">
-        <v>133</v>
-      </c>
-      <c r="E329" t="s">
-        <v>146</v>
-      </c>
-      <c r="H329" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D330" t="s">
         <v>133</v>
@@ -9507,7 +9516,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>134</v>
@@ -9527,7 +9536,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>134</v>
@@ -9545,55 +9554,55 @@
         <v>149</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D333" t="s">
+        <v>133</v>
+      </c>
+      <c r="E333" t="s">
+        <v>146</v>
+      </c>
+      <c r="H333" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B333" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C333" s="6" t="s">
+      <c r="B334" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C334" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="D333" t="s">
-        <v>133</v>
-      </c>
-      <c r="E333" t="s">
-        <v>146</v>
-      </c>
-      <c r="H333" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
+      <c r="D334" t="s">
+        <v>133</v>
+      </c>
+      <c r="E334" t="s">
+        <v>146</v>
+      </c>
+      <c r="H334" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A335" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B334" s="6" t="s">
+      <c r="B335" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C335" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="D334" t="s">
-        <v>133</v>
-      </c>
-      <c r="E334" t="s">
-        <v>146</v>
-      </c>
-      <c r="H334" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="D335" t="s">
         <v>133</v>
@@ -9607,13 +9616,13 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>282</v>
+        <v>528</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>148</v>
+        <v>529</v>
       </c>
       <c r="D336" t="s">
         <v>133</v>
@@ -9627,13 +9636,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="D337" t="s">
         <v>133</v>
@@ -9647,13 +9656,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>530</v>
+        <v>147</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>531</v>
+        <v>281</v>
       </c>
       <c r="D338" t="s">
         <v>133</v>
@@ -9667,13 +9676,13 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D339" t="s">
         <v>133</v>
@@ -9687,133 +9696,133 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D340" t="s">
+        <v>133</v>
+      </c>
+      <c r="E340" t="s">
+        <v>146</v>
+      </c>
+      <c r="H340" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C341" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B340" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C340" s="6" t="s">
+      <c r="D341" t="s">
+        <v>133</v>
+      </c>
+      <c r="E341" t="s">
+        <v>146</v>
+      </c>
+      <c r="H341" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A342" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C342" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D340" t="s">
-        <v>133</v>
-      </c>
-      <c r="E340" t="s">
-        <v>146</v>
-      </c>
-      <c r="H340" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A341" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B341" s="6" t="s">
+      <c r="D342" t="s">
+        <v>133</v>
+      </c>
+      <c r="E342" t="s">
+        <v>146</v>
+      </c>
+      <c r="H342" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D343" t="s">
+        <v>133</v>
+      </c>
+      <c r="E343" t="s">
+        <v>146</v>
+      </c>
+      <c r="H343" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B344" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C341" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="D341" t="s">
-        <v>133</v>
-      </c>
-      <c r="E341" t="s">
-        <v>146</v>
-      </c>
-      <c r="H341" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C342" s="6" t="s">
+      <c r="C344" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D344" t="s">
+        <v>133</v>
+      </c>
+      <c r="E344" t="s">
+        <v>146</v>
+      </c>
+      <c r="H344" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C345" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D342" t="s">
-        <v>133</v>
-      </c>
-      <c r="E342" t="s">
-        <v>146</v>
-      </c>
-      <c r="H342" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B343" s="6" t="s">
+      <c r="D345" t="s">
+        <v>133</v>
+      </c>
+      <c r="E345" t="s">
+        <v>146</v>
+      </c>
+      <c r="H345" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B346" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C343" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D343" t="s">
-        <v>133</v>
-      </c>
-      <c r="E343" t="s">
-        <v>146</v>
-      </c>
-      <c r="H343" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D344" t="s">
-        <v>133</v>
-      </c>
-      <c r="E344" t="s">
-        <v>146</v>
-      </c>
-      <c r="H344" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C345" s="6" t="s">
+      <c r="C346" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="D345" t="s">
-        <v>133</v>
-      </c>
-      <c r="E345" t="s">
-        <v>146</v>
-      </c>
-      <c r="H345" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="D346" t="s">
         <v>133</v>
@@ -9827,13 +9836,13 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D347" t="s">
         <v>133</v>
@@ -9847,13 +9856,13 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>587</v>
+        <v>286</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>534</v>
+        <v>287</v>
       </c>
       <c r="D348" t="s">
         <v>133</v>
@@ -9867,13 +9876,13 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D349" t="s">
         <v>133</v>
@@ -9887,13 +9896,13 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D350" t="s">
         <v>133</v>
@@ -9907,13 +9916,13 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D351" t="s">
         <v>133</v>
@@ -9927,13 +9936,13 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D352" t="s">
         <v>133</v>
@@ -9947,53 +9956,53 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D353" t="s">
+        <v>133</v>
+      </c>
+      <c r="E353" t="s">
+        <v>146</v>
+      </c>
+      <c r="H353" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B353" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C353" s="6" t="s">
+      <c r="B354" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C354" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="D353" t="s">
-        <v>133</v>
-      </c>
-      <c r="E353" t="s">
-        <v>146</v>
-      </c>
-      <c r="H353" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A354" s="6" t="s">
+      <c r="D354" t="s">
+        <v>133</v>
+      </c>
+      <c r="E354" t="s">
+        <v>146</v>
+      </c>
+      <c r="H354" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A355" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B354" s="6" t="s">
+      <c r="B355" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C354" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D354" t="s">
-        <v>133</v>
-      </c>
-      <c r="E354" t="s">
-        <v>146</v>
-      </c>
-      <c r="H354" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A355" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C355" s="6" t="s">
-        <v>29</v>
+        <v>587</v>
       </c>
       <c r="D355" t="s">
         <v>133</v>
@@ -10007,7 +10016,7 @@
     </row>
     <row r="356" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>134</v>
@@ -10025,9 +10034,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>134</v>
@@ -10047,7 +10056,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>134</v>
@@ -10067,7 +10076,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>134</v>
@@ -10087,7 +10096,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>134</v>
@@ -10105,9 +10114,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>545</v>
+        <v>128</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>134</v>
@@ -10125,35 +10134,35 @@
         <v>149</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D362" t="s">
+        <v>133</v>
+      </c>
+      <c r="E362" t="s">
+        <v>146</v>
+      </c>
+      <c r="H362" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A363" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B362" s="6" t="s">
+      <c r="B363" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C362" s="6" t="s">
+      <c r="C363" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="D362" t="s">
-        <v>133</v>
-      </c>
-      <c r="E362" t="s">
-        <v>146</v>
-      </c>
-      <c r="H362" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="D363" t="s">
         <v>133</v>
@@ -10167,73 +10176,73 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D364" t="s">
+        <v>133</v>
+      </c>
+      <c r="E364" t="s">
+        <v>146</v>
+      </c>
+      <c r="H364" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C365" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B364" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C364" s="6" t="s">
+      <c r="D365" t="s">
+        <v>133</v>
+      </c>
+      <c r="E365" t="s">
+        <v>146</v>
+      </c>
+      <c r="H365" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A366" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="D364" t="s">
-        <v>133</v>
-      </c>
-      <c r="E364" t="s">
-        <v>146</v>
-      </c>
-      <c r="H364" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A365" s="6" t="s">
+      <c r="B366" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C366" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B365" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C365" s="6" t="s">
+      <c r="D366" t="s">
+        <v>133</v>
+      </c>
+      <c r="E366" t="s">
+        <v>146</v>
+      </c>
+      <c r="H366" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A367" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="D365" t="s">
-        <v>133</v>
-      </c>
-      <c r="E365" t="s">
-        <v>146</v>
-      </c>
-      <c r="H365" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A366" s="6" t="s">
+      <c r="B367" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C367" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="D366" t="s">
-        <v>133</v>
-      </c>
-      <c r="E366" t="s">
-        <v>146</v>
-      </c>
-      <c r="H366" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A367" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="D367" t="s">
         <v>133</v>
@@ -10247,13 +10256,13 @@
     </row>
     <row r="368" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D368" t="s">
         <v>133</v>
@@ -10267,41 +10276,61 @@
     </row>
     <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D369" t="s">
+        <v>133</v>
+      </c>
+      <c r="E369" t="s">
+        <v>146</v>
+      </c>
+      <c r="H369" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A370" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="B369" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C369" s="6" t="s">
+      <c r="D370" t="s">
+        <v>133</v>
+      </c>
+      <c r="E370" t="s">
+        <v>146</v>
+      </c>
+      <c r="H370" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C371" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="D369" t="s">
-        <v>133</v>
-      </c>
-      <c r="E369" t="s">
-        <v>146</v>
-      </c>
-      <c r="H369" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B370" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C370" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="D370" t="s">
-        <v>133</v>
-      </c>
-      <c r="E370" t="s">
-        <v>146</v>
-      </c>
-      <c r="H370" t="s">
+      <c r="D371" t="s">
+        <v>133</v>
+      </c>
+      <c r="E371" t="s">
+        <v>146</v>
+      </c>
+      <c r="H371" t="s">
         <v>149</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206359C-0FEC-413D-9D99-9EF7B24FE2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276A3F1B-A8A9-4E92-A153-7EA6F3DA3450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$330</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="642">
   <si>
     <t>Field_Name</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Inventories</t>
   </si>
   <si>
-    <t>Other Receivables</t>
-  </si>
-  <si>
     <t>Lease liabilities</t>
   </si>
   <si>
@@ -1938,9 +1935,6 @@
     <t>Right-of-use assets</t>
   </si>
   <si>
-    <t>right_of_use+right_of_use_assets+Other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives+Right_Of_Use_Assets</t>
-  </si>
-  <si>
     <t>Long_term_receivable+trade_and_other_receivables+Others_receivables+Trade_receivables+Other_receivables</t>
   </si>
   <si>
@@ -1957,6 +1951,9 @@
   </si>
   <si>
     <t>current_tax_liabilities+current_tax_payable+tax_liabilities+current_income_tax_liabilities+provision_for_taxation+income_tax_payables+Tax_payable+Income_tax_payable</t>
+  </si>
+  <si>
+    <t>right_of_use+right_of_use_assets+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives+Right_Of_Use_Assets</t>
   </si>
 </sst>
 </file>
@@ -2402,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H371"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,13 +2434,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2462,7 +2459,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2488,7 +2485,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2507,7 +2504,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2519,7 +2516,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>134</v>
@@ -2529,10 +2526,10 @@
         <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2551,7 +2548,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>134</v>
@@ -2563,174 +2560,174 @@
         <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="D11" t="s">
         <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>632</v>
-      </c>
       <c r="D13" t="s">
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
         <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
         <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
         <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
         <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2741,19 +2738,19 @@
         <v>135</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,41 +2767,41 @@
         <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
         <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>134</v>
@@ -2816,59 +2813,59 @@
         <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="D22" t="s">
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2879,19 +2876,19 @@
         <v>135</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D24" t="s">
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2908,13 +2905,13 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2931,13 +2928,13 @@
         <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2954,59 +2951,59 @@
         <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>561</v>
-      </c>
       <c r="D28" t="s">
         <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>563</v>
-      </c>
       <c r="D29" t="s">
         <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3017,19 +3014,19 @@
         <v>135</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D30" t="s">
         <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3046,13 +3043,13 @@
         <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3069,13 +3066,13 @@
         <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3086,502 +3083,502 @@
         <v>134</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
         <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="D34" t="s">
         <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
         <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D36" t="s">
         <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D37" t="s">
         <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D39" t="s">
         <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="D40" t="s">
         <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="D41" t="s">
         <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="D42" t="s">
         <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="D43" t="s">
         <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="D44" t="s">
         <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="D45" t="s">
         <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="D46" t="s">
         <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="D47" t="s">
         <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
         <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="D49" t="s">
         <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="D51" t="s">
         <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="D52" t="s">
         <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="D53" t="s">
         <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D54" t="s">
         <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -3592,24 +3589,24 @@
         <v>135</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D55" t="s">
         <v>133</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>134</v>
@@ -3621,59 +3618,59 @@
         <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D57" t="s">
         <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
         <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3684,19 +3681,19 @@
         <v>135</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
         <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3713,18 +3710,18 @@
         <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>134</v>
@@ -3736,59 +3733,59 @@
         <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>566</v>
-      </c>
       <c r="D62" t="s">
         <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>568</v>
-      </c>
       <c r="D63" t="s">
         <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3799,111 +3796,111 @@
         <v>135</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D64" t="s">
         <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
         <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
         <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>635</v>
-      </c>
       <c r="D67" t="s">
         <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>590</v>
+        <v>182</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
         <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3920,41 +3917,41 @@
         <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="D70" t="s">
         <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>134</v>
@@ -3966,36 +3963,36 @@
         <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="D72" t="s">
         <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4006,142 +4003,142 @@
         <v>134</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D73" t="s">
         <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>330</v>
+        <v>547</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>330</v>
+        <v>547</v>
       </c>
       <c r="D74" t="s">
         <v>133</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>548</v>
+        <v>32</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>548</v>
+        <v>641</v>
       </c>
       <c r="D75" t="s">
         <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>636</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
         <v>133</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="D77" t="s">
         <v>133</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D78" t="s">
         <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>334</v>
@@ -4150,59 +4147,59 @@
         <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
         <v>133</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="D81" t="s">
         <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4219,21 +4216,21 @@
         <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>337</v>
+        <v>34</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>337</v>
@@ -4242,389 +4239,389 @@
         <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>338</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
         <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="D85" t="s">
         <v>133</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D86" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" t="s">
-        <v>143</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H86" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D87" t="s">
-        <v>133</v>
-      </c>
-      <c r="E87" t="s">
-        <v>143</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H87" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D88" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H88" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="B89" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>29</v>
+        <v>338</v>
       </c>
       <c r="D89" t="s">
         <v>133</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H89" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D90" t="s">
         <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D91" t="s">
         <v>133</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D92" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" t="s">
-        <v>143</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>588</v>
-      </c>
       <c r="B93" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>589</v>
+        <v>344</v>
       </c>
       <c r="D93" t="s">
         <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D94" t="s">
         <v>133</v>
       </c>
       <c r="E94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H94" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D95" t="s">
         <v>133</v>
       </c>
       <c r="E95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H95" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D96" t="s">
         <v>133</v>
       </c>
       <c r="E96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D97" t="s">
         <v>133</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H97" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>352</v>
+        <v>549</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>353</v>
+        <v>548</v>
       </c>
       <c r="D98" t="s">
         <v>133</v>
       </c>
       <c r="E98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="D99" t="s">
         <v>133</v>
       </c>
       <c r="E99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H99" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>618</v>
@@ -4633,41 +4630,41 @@
         <v>133</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>135</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>619</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
         <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>134</v>
@@ -4679,36 +4676,36 @@
         <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>356</v>
+        <v>625</v>
       </c>
       <c r="D103" t="s">
         <v>133</v>
       </c>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4719,142 +4716,142 @@
         <v>134</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>626</v>
+        <v>358</v>
       </c>
       <c r="D104" t="s">
         <v>133</v>
       </c>
       <c r="E104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D105" t="s">
         <v>133</v>
       </c>
       <c r="E105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H105" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D106" t="s">
         <v>133</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>363</v>
+        <v>31</v>
       </c>
       <c r="D107" t="s">
         <v>133</v>
       </c>
       <c r="E107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
       </c>
       <c r="E108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>164</v>
+        <v>363</v>
       </c>
       <c r="D109" t="s">
         <v>133</v>
       </c>
       <c r="E109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>364</v>
@@ -4863,41 +4860,41 @@
         <v>133</v>
       </c>
       <c r="E110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>365</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
         <v>133</v>
       </c>
       <c r="E111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>134</v>
@@ -4909,18 +4906,18 @@
         <v>133</v>
       </c>
       <c r="E112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>134</v>
@@ -4932,36 +4929,36 @@
         <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
         <v>133</v>
       </c>
       <c r="E114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4978,13 +4975,13 @@
         <v>133</v>
       </c>
       <c r="E115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -5001,90 +4998,90 @@
         <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>194</v>
+        <v>366</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>167</v>
+        <v>365</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
       </c>
       <c r="E117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="D118" t="s">
         <v>133</v>
       </c>
       <c r="E118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="D119" t="s">
         <v>133</v>
       </c>
       <c r="E119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H119" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>370</v>
@@ -5093,67 +5090,67 @@
         <v>133</v>
       </c>
       <c r="E120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
       </c>
       <c r="E121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>168</v>
+        <v>372</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
       </c>
       <c r="E122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>373</v>
@@ -5162,59 +5159,59 @@
         <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>374</v>
+        <v>169</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
       </c>
       <c r="E124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D125" t="s">
         <v>133</v>
       </c>
       <c r="E125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5231,258 +5228,256 @@
         <v>133</v>
       </c>
       <c r="E126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D127" t="s">
         <v>133</v>
       </c>
       <c r="E127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D128" t="s">
         <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>241</v>
+        <v>374</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D130" t="s">
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D131" t="s">
         <v>133</v>
       </c>
       <c r="E131" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>379</v>
+        <v>547</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="D132" t="s">
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="D133" t="s">
         <v>133</v>
       </c>
       <c r="E133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>620</v>
-      </c>
       <c r="D134" t="s">
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>622</v>
+        <v>47</v>
       </c>
       <c r="D135" t="s">
         <v>133</v>
       </c>
       <c r="E135" t="s">
-        <v>143</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>204</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="F135" s="5"/>
       <c r="H135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" t="s">
-        <v>133</v>
-      </c>
-      <c r="E136" t="s">
-        <v>143</v>
-      </c>
-      <c r="F136" s="5"/>
-      <c r="H136" t="s">
-        <v>150</v>
-      </c>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
+      <c r="A137" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="A138" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D138" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138" t="s">
+        <v>143</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="H138" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>134</v>
@@ -5494,79 +5489,79 @@
         <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F139" s="5"/>
       <c r="H139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D140" t="s">
         <v>133</v>
       </c>
       <c r="E140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F140" s="5"/>
       <c r="H140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="D141" t="s">
         <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F141" s="5"/>
       <c r="H141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>49</v>
+        <v>569</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>239</v>
+        <v>570</v>
       </c>
       <c r="D142" t="s">
         <v>133</v>
       </c>
       <c r="E142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F142" s="5"/>
       <c r="H142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>134</v>
@@ -5578,58 +5573,58 @@
         <v>133</v>
       </c>
       <c r="E143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F143" s="5"/>
       <c r="H143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>572</v>
-      </c>
       <c r="D144" t="s">
         <v>133</v>
       </c>
       <c r="E144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F144" s="5"/>
       <c r="H144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>574</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
         <v>133</v>
       </c>
       <c r="E145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F145" s="5"/>
       <c r="H145" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>134</v>
@@ -5641,16 +5636,16 @@
         <v>133</v>
       </c>
       <c r="E146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F146" s="5"/>
       <c r="H146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>134</v>
@@ -5662,16 +5657,16 @@
         <v>133</v>
       </c>
       <c r="E147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F147" s="5"/>
       <c r="H147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>134</v>
@@ -5683,16 +5678,16 @@
         <v>133</v>
       </c>
       <c r="E148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F148" s="5"/>
       <c r="H148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>134</v>
@@ -5704,750 +5699,752 @@
         <v>133</v>
       </c>
       <c r="E149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F149" s="5"/>
       <c r="H149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D150" t="s">
         <v>133</v>
       </c>
       <c r="E150" t="s">
-        <v>144</v>
-      </c>
-      <c r="F150" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="H150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>210</v>
+        <v>381</v>
       </c>
       <c r="D151" t="s">
         <v>133</v>
       </c>
       <c r="E151" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D152" t="s">
         <v>133</v>
       </c>
       <c r="E152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D153" t="s">
         <v>133</v>
       </c>
       <c r="E153" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>385</v>
+        <v>189</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>386</v>
+        <v>189</v>
       </c>
       <c r="D154" t="s">
         <v>133</v>
       </c>
       <c r="E154" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="D155" t="s">
         <v>133</v>
       </c>
       <c r="E155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>387</v>
+        <v>553</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="D156" t="s">
         <v>133</v>
       </c>
       <c r="E156" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H156" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>554</v>
+        <v>56</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D157" t="s">
         <v>133</v>
       </c>
       <c r="E157" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H157" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>556</v>
+        <v>211</v>
       </c>
       <c r="D158" t="s">
         <v>133</v>
       </c>
       <c r="E158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D159" t="s">
         <v>133</v>
       </c>
       <c r="E159" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>213</v>
+        <v>388</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>214</v>
+        <v>387</v>
       </c>
       <c r="D160" t="s">
         <v>133</v>
       </c>
       <c r="E160" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H160" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="D161" t="s">
         <v>133</v>
       </c>
       <c r="E161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>390</v>
+        <v>29</v>
       </c>
       <c r="D162" t="s">
         <v>133</v>
       </c>
       <c r="E162" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H162" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="D163" t="s">
         <v>133</v>
       </c>
       <c r="E163" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H163" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="D164" t="s">
         <v>133</v>
       </c>
       <c r="E164" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H164" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D165" t="s">
         <v>133</v>
       </c>
       <c r="E165" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D166" t="s">
         <v>133</v>
       </c>
       <c r="E166" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>217</v>
+        <v>390</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>218</v>
+        <v>391</v>
       </c>
       <c r="D167" t="s">
         <v>133</v>
       </c>
       <c r="E167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D168" t="s">
         <v>133</v>
       </c>
       <c r="E168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H168" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>393</v>
+        <v>547</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>394</v>
+        <v>547</v>
       </c>
       <c r="D169" t="s">
         <v>133</v>
       </c>
       <c r="E169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H169" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>548</v>
+        <v>59</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D170" t="s">
         <v>133</v>
       </c>
       <c r="E170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H170" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>551</v>
+        <v>219</v>
       </c>
       <c r="D171" t="s">
         <v>133</v>
       </c>
       <c r="E171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D172" t="s">
         <v>133</v>
       </c>
       <c r="E172" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>236</v>
       </c>
       <c r="H172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>191</v>
+        <v>384</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>210</v>
+        <v>385</v>
       </c>
       <c r="D173" t="s">
         <v>133</v>
       </c>
       <c r="E173" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H173" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D174" t="s">
         <v>133</v>
       </c>
       <c r="E174" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H174" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D175" t="s">
         <v>133</v>
       </c>
       <c r="E175" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H175" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>381</v>
+        <v>189</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>382</v>
+        <v>189</v>
       </c>
       <c r="D176" t="s">
         <v>133</v>
       </c>
       <c r="E176" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H176" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="D177" t="s">
         <v>133</v>
       </c>
       <c r="E177" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H177" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>387</v>
+        <v>553</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="D178" t="s">
         <v>133</v>
       </c>
       <c r="E178" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H178" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="D179" t="s">
         <v>133</v>
       </c>
       <c r="E179" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H179" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>555</v>
+        <v>221</v>
       </c>
       <c r="D180" t="s">
         <v>133</v>
       </c>
       <c r="E180" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H180" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D181" t="s">
         <v>133</v>
       </c>
       <c r="E181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H181" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>134</v>
@@ -6459,205 +6456,205 @@
         <v>133</v>
       </c>
       <c r="E182" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H182" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>225</v>
+        <v>396</v>
       </c>
       <c r="D183" t="s">
         <v>133</v>
       </c>
       <c r="E183" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H183" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>397</v>
-      </c>
       <c r="D184" t="s">
         <v>133</v>
       </c>
       <c r="E184" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H184" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>62</v>
+        <v>399</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D185" t="s">
         <v>133</v>
       </c>
       <c r="E185" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H185" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D186" t="s">
         <v>133</v>
       </c>
       <c r="E186" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H186" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D187" t="s">
         <v>133</v>
       </c>
       <c r="E187" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H187" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D188" t="s">
         <v>133</v>
       </c>
       <c r="E188" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H188" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D189" t="s">
         <v>133</v>
       </c>
       <c r="E189" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H189" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D190" t="s">
         <v>133</v>
       </c>
       <c r="E190" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H190" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>410</v>
+        <v>63</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>411</v>
@@ -6666,21 +6663,21 @@
         <v>133</v>
       </c>
       <c r="E191" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H191" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>412</v>
@@ -6689,18 +6686,18 @@
         <v>133</v>
       </c>
       <c r="E192" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H192" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>64</v>
+        <v>426</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>134</v>
@@ -6712,225 +6709,225 @@
         <v>133</v>
       </c>
       <c r="E193" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H193" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D194" t="s">
         <v>133</v>
       </c>
       <c r="E194" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H194" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D195" t="s">
         <v>133</v>
       </c>
       <c r="E195" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H195" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D196" t="s">
         <v>133</v>
       </c>
       <c r="E196" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H196" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D197" t="s">
         <v>133</v>
       </c>
       <c r="E197" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H197" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D198" t="s">
         <v>133</v>
       </c>
       <c r="E198" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H198" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D199" t="s">
         <v>133</v>
       </c>
       <c r="E199" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>425</v>
+        <v>549</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>426</v>
+        <v>548</v>
       </c>
       <c r="D200" t="s">
         <v>133</v>
       </c>
       <c r="E200" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H200" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D201" t="s">
         <v>133</v>
       </c>
       <c r="E201" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H201" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>552</v>
+        <v>29</v>
       </c>
       <c r="D202" t="s">
         <v>133</v>
       </c>
       <c r="E202" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H202" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>134</v>
@@ -6942,251 +6939,251 @@
         <v>133</v>
       </c>
       <c r="E203" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H203" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>29</v>
+        <v>427</v>
       </c>
       <c r="D204" t="s">
         <v>133</v>
       </c>
       <c r="E204" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H204" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="D205" t="s">
         <v>133</v>
       </c>
       <c r="E205" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H205" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="D206" t="s">
         <v>133</v>
       </c>
       <c r="E206" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H206" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D207" t="s">
         <v>133</v>
       </c>
       <c r="E207" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H207" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>228</v>
+        <v>428</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>229</v>
+        <v>429</v>
       </c>
       <c r="D208" t="s">
         <v>133</v>
       </c>
       <c r="E208" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H208" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D209" t="s">
         <v>133</v>
       </c>
       <c r="E209" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H209" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D210" t="s">
         <v>133</v>
       </c>
       <c r="E210" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H210" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D211" t="s">
         <v>133</v>
       </c>
       <c r="E211" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H211" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>435</v>
+        <v>575</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>436</v>
+        <v>574</v>
       </c>
       <c r="D212" t="s">
         <v>133</v>
       </c>
       <c r="E212" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H212" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="D213" t="s">
         <v>133</v>
       </c>
       <c r="E213" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H213" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>641</v>
+        <v>70</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>640</v>
@@ -7195,41 +7192,41 @@
         <v>133</v>
       </c>
       <c r="E214" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H214" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>642</v>
+        <v>29</v>
       </c>
       <c r="D215" t="s">
         <v>133</v>
       </c>
       <c r="E215" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H215" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>134</v>
@@ -7241,18 +7238,18 @@
         <v>133</v>
       </c>
       <c r="E216" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H216" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>134</v>
@@ -7264,93 +7261,93 @@
         <v>133</v>
       </c>
       <c r="E217" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H217" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="D218" t="s">
         <v>133</v>
       </c>
       <c r="E218" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="D219" t="s">
         <v>133</v>
       </c>
       <c r="E219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H219" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="D220" t="s">
         <v>133</v>
       </c>
       <c r="E220" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H220" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D221" t="s">
         <v>133</v>
@@ -7359,420 +7356,417 @@
         <v>144</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H221" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D222" t="s">
         <v>133</v>
       </c>
       <c r="E222" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H222" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>233</v>
+        <v>382</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="D223" t="s">
         <v>133</v>
       </c>
       <c r="E223" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H223" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="D224" t="s">
         <v>133</v>
       </c>
       <c r="E224" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H224" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D225" t="s">
         <v>133</v>
       </c>
       <c r="E225" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H225" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D226" t="s">
         <v>133</v>
       </c>
       <c r="E226" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H226" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D227" t="s">
         <v>133</v>
       </c>
       <c r="E227" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H227" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>443</v>
+        <v>547</v>
       </c>
       <c r="D228" t="s">
         <v>133</v>
       </c>
       <c r="E228" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H228" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>548</v>
+        <v>622</v>
       </c>
       <c r="D229" t="s">
         <v>133</v>
       </c>
       <c r="E229" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H229" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>623</v>
-      </c>
       <c r="D230" t="s">
         <v>133</v>
       </c>
       <c r="E230" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H230" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>625</v>
+        <v>219</v>
       </c>
       <c r="D231" t="s">
         <v>133</v>
       </c>
       <c r="E231" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H231" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>75</v>
+        <v>443</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>220</v>
+        <v>636</v>
       </c>
       <c r="D232" t="s">
         <v>133</v>
       </c>
       <c r="E232" t="s">
-        <v>144</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>237</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F232" s="5"/>
       <c r="H232" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D233" t="s">
         <v>133</v>
       </c>
       <c r="E233" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F233" s="5"/>
       <c r="H233" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B234" s="6" t="s">
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="D234" t="s">
-        <v>133</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="C236" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D236" t="s">
+        <v>133</v>
+      </c>
+      <c r="E236" t="s">
         <v>144</v>
       </c>
-      <c r="F234" s="5"/>
-      <c r="H234" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-    </row>
-    <row r="237" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="H236" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="D237" t="s">
         <v>133</v>
       </c>
       <c r="E237" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H237" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="D238" t="s">
         <v>133</v>
       </c>
       <c r="E238" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H238" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D239" t="s">
         <v>133</v>
       </c>
       <c r="E239" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H239" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
       <c r="D240" t="s">
         <v>133</v>
       </c>
-      <c r="E240" t="s">
-        <v>145</v>
-      </c>
-      <c r="H240" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B241" s="4"/>
       <c r="C241" s="2"/>
-      <c r="D241" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B243" s="4"/>
-      <c r="C243" s="2"/>
+      <c r="A243" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D243" t="s">
+        <v>133</v>
+      </c>
+      <c r="E243" t="s">
+        <v>145</v>
+      </c>
+      <c r="H243" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
@@ -7782,104 +7776,104 @@
         <v>134</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="D244" t="s">
         <v>133</v>
       </c>
       <c r="E244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H244" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>254</v>
+        <v>445</v>
       </c>
       <c r="D245" t="s">
         <v>133</v>
       </c>
       <c r="E245" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D246" t="s">
         <v>133</v>
       </c>
       <c r="E246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H246" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D247" t="s">
         <v>133</v>
       </c>
       <c r="E247" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H247" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D248" t="s">
         <v>133</v>
       </c>
       <c r="E248" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H248" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>451</v>
+        <v>84</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>452</v>
@@ -7888,158 +7882,158 @@
         <v>133</v>
       </c>
       <c r="E249" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H249" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C250" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D250" t="s">
+        <v>133</v>
+      </c>
+      <c r="E250" t="s">
+        <v>145</v>
+      </c>
+      <c r="H250" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D250" t="s">
-        <v>133</v>
-      </c>
-      <c r="E250" t="s">
-        <v>146</v>
-      </c>
-      <c r="H250" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="B251" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>256</v>
+        <v>454</v>
       </c>
       <c r="D251" t="s">
         <v>133</v>
       </c>
       <c r="E251" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H251" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D252" t="s">
         <v>133</v>
       </c>
       <c r="E252" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H252" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D253" t="s">
         <v>133</v>
       </c>
       <c r="E253" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H253" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>458</v>
+        <v>256</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>459</v>
+        <v>257</v>
       </c>
       <c r="D254" t="s">
         <v>133</v>
       </c>
       <c r="E254" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H254" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>257</v>
+        <v>459</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>258</v>
+        <v>460</v>
       </c>
       <c r="D255" t="s">
         <v>133</v>
       </c>
       <c r="E255" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H255" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D256" t="s">
         <v>133</v>
       </c>
       <c r="E256" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H256" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>462</v>
+        <v>86</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>463</v>
@@ -8048,35 +8042,35 @@
         <v>133</v>
       </c>
       <c r="E257" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H257" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>464</v>
+        <v>29</v>
       </c>
       <c r="D258" t="s">
         <v>133</v>
       </c>
       <c r="E258" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H258" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>134</v>
@@ -8088,58 +8082,58 @@
         <v>133</v>
       </c>
       <c r="E259" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H259" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>88</v>
+        <v>464</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>29</v>
+        <v>465</v>
       </c>
       <c r="D260" t="s">
         <v>133</v>
       </c>
       <c r="E260" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H260" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D261" t="s">
         <v>133</v>
       </c>
       <c r="E261" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H261" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>467</v>
+        <v>89</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>468</v>
@@ -8148,98 +8142,98 @@
         <v>133</v>
       </c>
       <c r="E262" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H262" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>469</v>
+        <v>259</v>
       </c>
       <c r="D263" t="s">
         <v>133</v>
       </c>
       <c r="E263" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H263" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D264" t="s">
         <v>133</v>
       </c>
       <c r="E264" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H264" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>261</v>
+        <v>469</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>262</v>
+        <v>470</v>
       </c>
       <c r="D265" t="s">
         <v>133</v>
       </c>
       <c r="E265" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H265" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D266" t="s">
         <v>133</v>
       </c>
       <c r="E266" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H266" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>472</v>
+        <v>90</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>473</v>
@@ -8248,70 +8242,70 @@
         <v>133</v>
       </c>
       <c r="E267" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H267" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>474</v>
+        <v>263</v>
       </c>
       <c r="D268" t="s">
         <v>133</v>
       </c>
       <c r="E268" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H268" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D269" t="s">
         <v>133</v>
       </c>
       <c r="E269" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H269" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>265</v>
+        <v>474</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>266</v>
+        <v>474</v>
       </c>
       <c r="D270" t="s">
         <v>133</v>
       </c>
       <c r="E270" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H270" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -8328,10 +8322,10 @@
         <v>133</v>
       </c>
       <c r="E271" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H271" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -8342,424 +8336,424 @@
         <v>134</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D272" t="s">
         <v>133</v>
       </c>
       <c r="E272" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H272" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
       </c>
       <c r="E273" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H273" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>479</v>
+        <v>628</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>480</v>
+        <v>627</v>
       </c>
       <c r="D274" t="s">
         <v>133</v>
       </c>
       <c r="E274" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H274" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>628</v>
-      </c>
       <c r="D275" t="s">
         <v>133</v>
       </c>
       <c r="E275" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H275" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>630</v>
+        <v>266</v>
       </c>
       <c r="D276" t="s">
         <v>133</v>
       </c>
       <c r="E276" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H276" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>92</v>
+        <v>558</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>267</v>
+        <v>94</v>
       </c>
       <c r="D277" t="s">
         <v>133</v>
       </c>
       <c r="E277" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H277" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>94</v>
+        <v>481</v>
       </c>
       <c r="D278" t="s">
         <v>133</v>
       </c>
       <c r="E278" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H278" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D279" t="s">
         <v>133</v>
       </c>
       <c r="E279" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H279" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D280" t="s">
         <v>133</v>
       </c>
       <c r="E280" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H280" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="D281" t="s">
         <v>133</v>
       </c>
       <c r="E281" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H281" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="D282" t="s">
         <v>133</v>
       </c>
       <c r="E282" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H282" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="D283" t="s">
         <v>133</v>
       </c>
       <c r="E283" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H283" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C284" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B284" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>591</v>
-      </c>
       <c r="D284" t="s">
         <v>133</v>
       </c>
       <c r="E284" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H284" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
-        <v>93</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>593</v>
+        <v>134</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>133</v>
       </c>
       <c r="E285" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H285" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>29</v>
+        <v>637</v>
       </c>
       <c r="D286" t="s">
         <v>133</v>
       </c>
       <c r="E286" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H286" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>639</v>
+        <v>29</v>
       </c>
       <c r="D287" t="s">
         <v>133</v>
       </c>
       <c r="E287" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H287" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="12" t="s">
-        <v>97</v>
+      <c r="A288" s="14" t="s">
+        <v>578</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C288" s="13" t="s">
-        <v>29</v>
+      <c r="C288" s="15" t="s">
+        <v>486</v>
       </c>
       <c r="D288" t="s">
         <v>133</v>
       </c>
       <c r="E288" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H288" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="B289" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" t="s">
+        <v>133</v>
+      </c>
+      <c r="E289" t="s">
+        <v>145</v>
+      </c>
+      <c r="H289" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D290" t="s">
+        <v>133</v>
+      </c>
+      <c r="E290" t="s">
+        <v>145</v>
+      </c>
+      <c r="H290" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D289" t="s">
-        <v>133</v>
-      </c>
-      <c r="E289" t="s">
-        <v>146</v>
-      </c>
-      <c r="H289" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C290" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="D290" t="s">
-        <v>133</v>
-      </c>
-      <c r="E290" t="s">
-        <v>146</v>
-      </c>
-      <c r="H290" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="B291" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>594</v>
+        <v>488</v>
       </c>
       <c r="D291" t="s">
         <v>133</v>
       </c>
       <c r="E291" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H291" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D292" t="s">
         <v>133</v>
       </c>
       <c r="E292" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H292" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>490</v>
+        <v>99</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>491</v>
@@ -8768,35 +8762,35 @@
         <v>133</v>
       </c>
       <c r="E293" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>492</v>
+        <v>29</v>
       </c>
       <c r="D294" t="s">
         <v>133</v>
       </c>
       <c r="E294" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H294" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>134</v>
@@ -8808,58 +8802,58 @@
         <v>133</v>
       </c>
       <c r="E295" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H295" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>101</v>
+        <v>492</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>29</v>
+        <v>493</v>
       </c>
       <c r="D296" t="s">
         <v>133</v>
       </c>
       <c r="E296" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H296" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D297" t="s">
         <v>133</v>
       </c>
       <c r="E297" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H297" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>495</v>
+        <v>102</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>496</v>
@@ -8868,18 +8862,18 @@
         <v>133</v>
       </c>
       <c r="E298" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H298" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>102</v>
+        <v>581</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>497</v>
@@ -8888,278 +8882,278 @@
         <v>133</v>
       </c>
       <c r="E299" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H299" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>582</v>
+        <v>498</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D300" t="s">
         <v>133</v>
       </c>
       <c r="E300" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H300" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D301" t="s">
         <v>133</v>
       </c>
       <c r="E301" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H301" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>501</v>
+        <v>267</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>502</v>
+        <v>268</v>
       </c>
       <c r="D302" t="s">
         <v>133</v>
       </c>
       <c r="E302" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H302" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>268</v>
+        <v>502</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>269</v>
+        <v>503</v>
       </c>
       <c r="D303" t="s">
         <v>133</v>
       </c>
       <c r="E303" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H303" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D304" t="s">
         <v>133</v>
       </c>
       <c r="E304" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H304" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D305" t="s">
         <v>133</v>
       </c>
       <c r="E305" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H305" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D306" t="s">
         <v>133</v>
       </c>
       <c r="E306" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H306" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C307" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D307" t="s">
+        <v>133</v>
+      </c>
+      <c r="E307" t="s">
+        <v>145</v>
+      </c>
+      <c r="H307" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A308" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D308" t="s">
+        <v>133</v>
+      </c>
+      <c r="E308" t="s">
+        <v>145</v>
+      </c>
+      <c r="H308" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D307" t="s">
-        <v>133</v>
-      </c>
-      <c r="E307" t="s">
-        <v>146</v>
-      </c>
-      <c r="H307" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="D308" t="s">
-        <v>133</v>
-      </c>
-      <c r="E308" t="s">
-        <v>146</v>
-      </c>
-      <c r="H308" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="B309" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
       <c r="D309" t="s">
         <v>133</v>
       </c>
       <c r="E309" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H309" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>511</v>
+        <v>269</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>512</v>
+        <v>270</v>
       </c>
       <c r="D310" t="s">
         <v>133</v>
       </c>
       <c r="E310" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H310" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>270</v>
+        <v>512</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>271</v>
+        <v>513</v>
       </c>
       <c r="D311" t="s">
         <v>133</v>
       </c>
       <c r="E311" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H311" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D312" t="s">
         <v>133</v>
       </c>
       <c r="E312" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H312" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>515</v>
+        <v>104</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>516</v>
@@ -9168,95 +9162,95 @@
         <v>133</v>
       </c>
       <c r="E313" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H313" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>517</v>
+        <v>272</v>
       </c>
       <c r="D314" t="s">
         <v>133</v>
       </c>
       <c r="E314" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H314" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D315" t="s">
         <v>133</v>
       </c>
       <c r="E315" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H315" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>275</v>
+        <v>517</v>
       </c>
       <c r="D316" t="s">
         <v>133</v>
       </c>
       <c r="E316" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H316" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>518</v>
+        <v>29</v>
       </c>
       <c r="D317" t="s">
         <v>133</v>
       </c>
       <c r="E317" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H317" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>134</v>
@@ -9268,15 +9262,15 @@
         <v>133</v>
       </c>
       <c r="E318" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H318" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>134</v>
@@ -9288,15 +9282,15 @@
         <v>133</v>
       </c>
       <c r="E319" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H319" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>134</v>
@@ -9308,15 +9302,15 @@
         <v>133</v>
       </c>
       <c r="E320" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H320" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>134</v>
@@ -9328,15 +9322,15 @@
         <v>133</v>
       </c>
       <c r="E321" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H321" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>134</v>
@@ -9348,95 +9342,95 @@
         <v>133</v>
       </c>
       <c r="E322" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H322" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="D323" t="s">
         <v>133</v>
       </c>
       <c r="E323" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H323" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>276</v>
+        <v>518</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>277</v>
+        <v>519</v>
       </c>
       <c r="D324" t="s">
         <v>133</v>
       </c>
       <c r="E324" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H324" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D325" t="s">
         <v>133</v>
       </c>
       <c r="E325" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H325" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D326" t="s">
         <v>133</v>
       </c>
       <c r="E326" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H326" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>523</v>
+        <v>112</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>134</v>
@@ -9448,75 +9442,75 @@
         <v>133</v>
       </c>
       <c r="E327" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H327" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D328" t="s">
+        <v>133</v>
+      </c>
+      <c r="E328" t="s">
+        <v>145</v>
+      </c>
+      <c r="H328" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A329" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B328" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C328" s="6" t="s">
+      <c r="B329" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D328" t="s">
-        <v>133</v>
-      </c>
-      <c r="E328" t="s">
-        <v>146</v>
-      </c>
-      <c r="H328" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="D329" t="s">
         <v>133</v>
       </c>
       <c r="E329" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H329" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>526</v>
+        <v>29</v>
       </c>
       <c r="D330" t="s">
         <v>133</v>
       </c>
       <c r="E330" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H330" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>134</v>
@@ -9528,15 +9522,15 @@
         <v>133</v>
       </c>
       <c r="E331" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H331" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>134</v>
@@ -9548,178 +9542,178 @@
         <v>133</v>
       </c>
       <c r="E332" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H332" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>29</v>
+        <v>526</v>
       </c>
       <c r="D333" t="s">
         <v>133</v>
       </c>
       <c r="E333" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H333" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C334" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D334" t="s">
+        <v>133</v>
+      </c>
+      <c r="E334" t="s">
+        <v>145</v>
+      </c>
+      <c r="H334" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="D334" t="s">
-        <v>133</v>
-      </c>
-      <c r="E334" t="s">
-        <v>146</v>
-      </c>
-      <c r="H334" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="B335" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>280</v>
+        <v>528</v>
       </c>
       <c r="D335" t="s">
         <v>133</v>
       </c>
       <c r="E335" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H335" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>528</v>
+        <v>281</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>529</v>
+        <v>147</v>
       </c>
       <c r="D336" t="s">
         <v>133</v>
       </c>
       <c r="E336" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H336" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="D337" t="s">
         <v>133</v>
       </c>
       <c r="E337" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H337" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>147</v>
+        <v>529</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>281</v>
+        <v>530</v>
       </c>
       <c r="D338" t="s">
         <v>133</v>
       </c>
       <c r="E338" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H338" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D339" t="s">
         <v>133</v>
       </c>
       <c r="E339" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H339" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="D340" t="s">
         <v>133</v>
       </c>
       <c r="E340" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H340" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>595</v>
+        <v>118</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>596</v>
@@ -9728,295 +9722,295 @@
         <v>133</v>
       </c>
       <c r="E341" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H341" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B342" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342" t="s">
+        <v>133</v>
+      </c>
+      <c r="E342" t="s">
+        <v>145</v>
+      </c>
+      <c r="H342" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B343" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C342" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="D342" t="s">
-        <v>133</v>
-      </c>
-      <c r="E342" t="s">
-        <v>146</v>
-      </c>
-      <c r="H342" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C343" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D343" t="s">
+        <v>133</v>
+      </c>
+      <c r="E343" t="s">
+        <v>145</v>
+      </c>
+      <c r="H343" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D343" t="s">
-        <v>133</v>
-      </c>
-      <c r="E343" t="s">
-        <v>146</v>
-      </c>
-      <c r="H343" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B344" s="6" t="s">
+      <c r="D344" t="s">
+        <v>133</v>
+      </c>
+      <c r="E344" t="s">
+        <v>145</v>
+      </c>
+      <c r="H344" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B345" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C344" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D344" t="s">
-        <v>133</v>
-      </c>
-      <c r="E344" t="s">
-        <v>146</v>
-      </c>
-      <c r="H344" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C345" s="6" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="D345" t="s">
         <v>133</v>
       </c>
       <c r="E345" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H345" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D346" t="s">
         <v>133</v>
       </c>
       <c r="E346" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H346" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D347" t="s">
         <v>133</v>
       </c>
       <c r="E347" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H347" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>286</v>
+        <v>585</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>287</v>
+        <v>533</v>
       </c>
       <c r="D348" t="s">
         <v>133</v>
       </c>
       <c r="E348" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H348" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D349" t="s">
         <v>133</v>
       </c>
       <c r="E349" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H349" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D350" t="s">
         <v>133</v>
       </c>
       <c r="E350" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H350" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D351" t="s">
         <v>133</v>
       </c>
       <c r="E351" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H351" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D352" t="s">
         <v>133</v>
       </c>
       <c r="E352" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H352" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D353" t="s">
         <v>133</v>
       </c>
       <c r="E353" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H353" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
-        <v>543</v>
+        <v>124</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="D354" t="s">
         <v>133</v>
       </c>
       <c r="E354" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H354" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>587</v>
+        <v>29</v>
       </c>
       <c r="D355" t="s">
         <v>133</v>
       </c>
       <c r="E355" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H355" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>134</v>
@@ -10028,15 +10022,15 @@
         <v>133</v>
       </c>
       <c r="E356" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H356" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>134</v>
@@ -10048,15 +10042,15 @@
         <v>133</v>
       </c>
       <c r="E357" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H357" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>134</v>
@@ -10068,15 +10062,15 @@
         <v>133</v>
       </c>
       <c r="E358" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H358" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>134</v>
@@ -10088,15 +10082,15 @@
         <v>133</v>
       </c>
       <c r="E359" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H359" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>134</v>
@@ -10108,15 +10102,15 @@
         <v>133</v>
       </c>
       <c r="E360" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H360" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>128</v>
+        <v>544</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>134</v>
@@ -10128,210 +10122,190 @@
         <v>133</v>
       </c>
       <c r="E361" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H361" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>545</v>
+        <v>131</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="D362" t="s">
         <v>133</v>
       </c>
       <c r="E362" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H362" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>131</v>
+        <v>597</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>288</v>
+        <v>598</v>
       </c>
       <c r="D363" t="s">
         <v>133</v>
       </c>
       <c r="E363" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H363" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D364" t="s">
         <v>133</v>
       </c>
       <c r="E364" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H364" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D365" t="s">
         <v>133</v>
       </c>
       <c r="E365" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H365" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D366" t="s">
         <v>133</v>
       </c>
       <c r="E366" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H366" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D367" t="s">
         <v>133</v>
       </c>
       <c r="E367" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H367" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D368" t="s">
         <v>133</v>
       </c>
       <c r="E368" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H368" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D369" t="s">
         <v>133</v>
       </c>
       <c r="E369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H369" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A370" s="6" t="s">
-        <v>610</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C370" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C370" s="11" t="s">
         <v>611</v>
       </c>
       <c r="D370" t="s">
         <v>133</v>
       </c>
       <c r="E370" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H370" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C371" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="D371" t="s">
-        <v>133</v>
-      </c>
-      <c r="E371" t="s">
-        <v>146</v>
-      </c>
-      <c r="H371" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276A3F1B-A8A9-4E92-A153-7EA6F3DA3450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E17670-51E6-42F8-B27B-88F7E3339A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="644">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1863,9 +1863,6 @@
     <t>Profit/(Loss) for the year, representing total comprehensive income for the year</t>
   </si>
   <si>
-    <t>profit_after_tax-profit_for_the_period-profit_for_the_year-profit_for_the_year_representing_total_comprehensive_income_for_the_year-profit_for_the_year_representing_total_comprehensive_income-loss_from_ordinary_activities_after_income_tax_and_total_comprehensive_loss_for_the_year-net_profit_representing_total_comprehensive_income_for_the_year-profit_loss_for_the_year_representing_total_comprehensive_income_for_the_year</t>
-  </si>
-  <si>
     <t>Others receivables</t>
   </si>
   <si>
@@ -1954,6 +1951,15 @@
   </si>
   <si>
     <t>right_of_use+right_of_use_assets+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives+Right_Of_Use_Assets</t>
+  </si>
+  <si>
+    <t>(loss)/profit for the year</t>
+  </si>
+  <si>
+    <t>loss_profit_for_the_year</t>
+  </si>
+  <si>
+    <t>profit_after_tax-profit_for_the_period-profit_for_the_year-profit_for_the_year_representing_total_comprehensive_income_for_the_year-profit_for_the_year_representing_total_comprehensive_income-loss_from_ordinary_activities_after_income_tax_and_total_comprehensive_loss_for_the_year-net_profit_representing_total_comprehensive_income_for_the_year-profit_loss_for_the_year_representing_total_comprehensive_income_for_the_year-loss_profit_for_the_year</t>
   </si>
 </sst>
 </file>
@@ -2399,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="E371" sqref="E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,13 +2623,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
@@ -2738,7 +2744,7 @@
         <v>135</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -3146,13 +3152,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D36" t="s">
         <v>133</v>
@@ -3175,7 +3181,7 @@
         <v>134</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D37" t="s">
         <v>133</v>
@@ -3221,7 +3227,7 @@
         <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D39" t="s">
         <v>133</v>
@@ -3560,13 +3566,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D54" t="s">
         <v>133</v>
@@ -3589,7 +3595,7 @@
         <v>135</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D55" t="s">
         <v>133</v>
@@ -3859,13 +3865,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="D67" t="s">
         <v>133</v>
@@ -4049,7 +4055,7 @@
         <v>135</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D75" t="s">
         <v>133</v>
@@ -4601,7 +4607,7 @@
         <v>134</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D99" t="s">
         <v>133</v>
@@ -4624,7 +4630,7 @@
         <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D100" t="s">
         <v>133</v>
@@ -4693,7 +4699,7 @@
         <v>134</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D103" t="s">
         <v>133</v>
@@ -5377,13 +5383,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D133" t="s">
         <v>133</v>
@@ -5406,7 +5412,7 @@
         <v>135</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -7157,13 +7163,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D213" t="s">
         <v>133</v>
@@ -7186,7 +7192,7 @@
         <v>135</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D214" t="s">
         <v>133</v>
@@ -7525,13 +7531,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D229" t="s">
         <v>133</v>
@@ -7554,7 +7560,7 @@
         <v>135</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D230" t="s">
         <v>133</v>
@@ -7600,7 +7606,7 @@
         <v>134</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D232" t="s">
         <v>133</v>
@@ -7621,7 +7627,7 @@
         <v>135</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D233" t="s">
         <v>133</v>
@@ -8370,13 +8376,13 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D274" t="s">
         <v>133</v>
@@ -8396,7 +8402,7 @@
         <v>135</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D275" t="s">
         <v>133</v>
@@ -8616,7 +8622,7 @@
         <v>134</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D286" t="s">
         <v>133</v>
@@ -10288,23 +10294,43 @@
         <v>148</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D370" t="s">
+        <v>133</v>
+      </c>
+      <c r="E370" t="s">
+        <v>145</v>
+      </c>
+      <c r="H370" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B370" s="6" t="s">
+      <c r="B371" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C370" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="D370" t="s">
-        <v>133</v>
-      </c>
-      <c r="E370" t="s">
-        <v>145</v>
-      </c>
-      <c r="H370" t="s">
+      <c r="C371" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="D371" t="s">
+        <v>133</v>
+      </c>
+      <c r="E371" t="s">
+        <v>145</v>
+      </c>
+      <c r="H371" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E17670-51E6-42F8-B27B-88F7E3339A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF977C-EB80-4E1A-91B6-D9724EF2779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1953,13 +1953,13 @@
     <t>right_of_use+right_of_use_assets+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Subsidiary_companies+Deposits+Derivatives+Right_Of_Use_Assets</t>
   </si>
   <si>
-    <t>(loss)/profit for the year</t>
-  </si>
-  <si>
     <t>loss_profit_for_the_year</t>
   </si>
   <si>
     <t>profit_after_tax-profit_for_the_period-profit_for_the_year-profit_for_the_year_representing_total_comprehensive_income_for_the_year-profit_for_the_year_representing_total_comprehensive_income-loss_from_ordinary_activities_after_income_tax_and_total_comprehensive_loss_for_the_year-net_profit_representing_total_comprehensive_income_for_the_year-profit_loss_for_the_year_representing_total_comprehensive_income_for_the_year-loss_profit_for_the_year</t>
+  </si>
+  <si>
+    <t>(Loss)/profit for the year</t>
   </si>
 </sst>
 </file>
@@ -2407,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="E371" sqref="E371"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10296,13 +10296,13 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D370" t="s">
         <v>133</v>
@@ -10322,7 +10322,7 @@
         <v>135</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D371" t="s">
         <v>133</v>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF977C-EB80-4E1A-91B6-D9724EF2779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597FA967-B08A-4A4A-B314-235E678CFBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="648">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1960,6 +1960,18 @@
   </si>
   <si>
     <t>(Loss)/profit for the year</t>
+  </si>
+  <si>
+    <t>Impairment_Loss_Reversal_on_financial_assets</t>
+  </si>
+  <si>
+    <t>(Impairment Loss) / gain or loss  of financial assets</t>
+  </si>
+  <si>
+    <t>Impairment_Loss_gain_or_loss_of_financial_assets</t>
+  </si>
+  <si>
+    <t>Impairment_Loss_Reversal_on_financial_assets+Impairment_Loss_gain_or_loss_of_financial_assets</t>
   </si>
 </sst>
 </file>
@@ -2405,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H371"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="B369" sqref="B369"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9322,7 +9334,7 @@
         <v>134</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="D321" t="s">
         <v>133</v>
@@ -9556,7 +9568,7 @@
     </row>
     <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>116</v>
+        <v>644</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>134</v>
@@ -9574,55 +9586,55 @@
         <v>148</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D334" t="s">
+        <v>133</v>
+      </c>
+      <c r="E334" t="s">
+        <v>145</v>
+      </c>
+      <c r="H334" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A335" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D335" t="s">
+        <v>133</v>
+      </c>
+      <c r="E335" t="s">
+        <v>145</v>
+      </c>
+      <c r="H335" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A336" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B334" s="6" t="s">
+      <c r="B336" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C336" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="D334" t="s">
-        <v>133</v>
-      </c>
-      <c r="E334" t="s">
-        <v>145</v>
-      </c>
-      <c r="H334" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D335" t="s">
-        <v>133</v>
-      </c>
-      <c r="E335" t="s">
-        <v>145</v>
-      </c>
-      <c r="H335" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="D336" t="s">
         <v>133</v>
@@ -9636,13 +9648,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>146</v>
+        <v>527</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>280</v>
+        <v>528</v>
       </c>
       <c r="D337" t="s">
         <v>133</v>
@@ -9656,13 +9668,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>529</v>
+        <v>281</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>530</v>
+        <v>147</v>
       </c>
       <c r="D338" t="s">
         <v>133</v>
@@ -9676,13 +9688,13 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>531</v>
+        <v>146</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>532</v>
+        <v>280</v>
       </c>
       <c r="D339" t="s">
         <v>133</v>
@@ -9696,13 +9708,13 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>595</v>
+        <v>530</v>
       </c>
       <c r="D340" t="s">
         <v>133</v>
@@ -9714,15 +9726,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>118</v>
+        <v>531</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>596</v>
+        <v>532</v>
       </c>
       <c r="D341" t="s">
         <v>133</v>
@@ -9736,13 +9748,13 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>119</v>
+        <v>594</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>29</v>
+        <v>595</v>
       </c>
       <c r="D342" t="s">
         <v>133</v>
@@ -9756,13 +9768,13 @@
     </row>
     <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B343" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>121</v>
+        <v>596</v>
       </c>
       <c r="D343" t="s">
         <v>133</v>
@@ -9776,7 +9788,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>134</v>
@@ -9796,13 +9808,13 @@
     </row>
     <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="D345" t="s">
         <v>133</v>
@@ -9816,13 +9828,13 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="D346" t="s">
         <v>133</v>
@@ -9834,15 +9846,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>285</v>
+        <v>123</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D347" t="s">
         <v>133</v>
@@ -9856,13 +9868,13 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>585</v>
+        <v>283</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>533</v>
+        <v>284</v>
       </c>
       <c r="D348" t="s">
         <v>133</v>
@@ -9876,13 +9888,13 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>534</v>
+        <v>285</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>535</v>
+        <v>286</v>
       </c>
       <c r="D349" t="s">
         <v>133</v>
@@ -9896,13 +9908,13 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D350" t="s">
         <v>133</v>
@@ -9916,13 +9928,13 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D351" t="s">
         <v>133</v>
@@ -9936,13 +9948,13 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D352" t="s">
         <v>133</v>
@@ -9956,87 +9968,87 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D353" t="s">
+        <v>133</v>
+      </c>
+      <c r="E353" t="s">
+        <v>145</v>
+      </c>
+      <c r="H353" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D354" t="s">
+        <v>133</v>
+      </c>
+      <c r="E354" t="s">
+        <v>145</v>
+      </c>
+      <c r="H354" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B353" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C353" s="6" t="s">
+      <c r="B355" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C355" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="D353" t="s">
-        <v>133</v>
-      </c>
-      <c r="E353" t="s">
-        <v>145</v>
-      </c>
-      <c r="H353" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A354" s="6" t="s">
+      <c r="D355" t="s">
+        <v>133</v>
+      </c>
+      <c r="E355" t="s">
+        <v>145</v>
+      </c>
+      <c r="H355" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A356" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B354" s="6" t="s">
+      <c r="B356" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C354" s="6" t="s">
+      <c r="C356" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="D354" t="s">
-        <v>133</v>
-      </c>
-      <c r="E354" t="s">
-        <v>145</v>
-      </c>
-      <c r="H354" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A355" s="6" t="s">
+      <c r="D356" t="s">
+        <v>133</v>
+      </c>
+      <c r="E356" t="s">
+        <v>145</v>
+      </c>
+      <c r="H356" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D355" t="s">
-        <v>133</v>
-      </c>
-      <c r="E355" t="s">
-        <v>145</v>
-      </c>
-      <c r="H355" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A356" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D356" t="s">
-        <v>133</v>
-      </c>
-      <c r="E356" t="s">
-        <v>145</v>
-      </c>
-      <c r="H356" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>134</v>
@@ -10054,9 +10066,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>134</v>
@@ -10076,7 +10088,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>134</v>
@@ -10096,7 +10108,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>134</v>
@@ -10114,9 +10126,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>544</v>
+        <v>127</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>134</v>
@@ -10134,95 +10146,95 @@
         <v>148</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D362" t="s">
+        <v>133</v>
+      </c>
+      <c r="E362" t="s">
+        <v>145</v>
+      </c>
+      <c r="H362" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A363" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D363" t="s">
+        <v>133</v>
+      </c>
+      <c r="E363" t="s">
+        <v>145</v>
+      </c>
+      <c r="H363" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A364" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B362" s="6" t="s">
+      <c r="B364" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C362" s="6" t="s">
+      <c r="C364" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D362" t="s">
-        <v>133</v>
-      </c>
-      <c r="E362" t="s">
-        <v>145</v>
-      </c>
-      <c r="H362" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="6" t="s">
+      <c r="D364" t="s">
+        <v>133</v>
+      </c>
+      <c r="E364" t="s">
+        <v>145</v>
+      </c>
+      <c r="H364" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B363" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C363" s="6" t="s">
+      <c r="B365" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C365" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D363" t="s">
-        <v>133</v>
-      </c>
-      <c r="E363" t="s">
-        <v>145</v>
-      </c>
-      <c r="H363" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="6" t="s">
+      <c r="D365" t="s">
+        <v>133</v>
+      </c>
+      <c r="E365" t="s">
+        <v>145</v>
+      </c>
+      <c r="H365" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B364" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C364" s="6" t="s">
+      <c r="B366" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C366" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="D364" t="s">
-        <v>133</v>
-      </c>
-      <c r="E364" t="s">
-        <v>145</v>
-      </c>
-      <c r="H364" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A365" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="D365" t="s">
-        <v>133</v>
-      </c>
-      <c r="E365" t="s">
-        <v>145</v>
-      </c>
-      <c r="H365" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A366" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="D366" t="s">
         <v>133</v>
@@ -10236,13 +10248,13 @@
     </row>
     <row r="367" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D367" t="s">
         <v>133</v>
@@ -10254,15 +10266,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D368" t="s">
         <v>133</v>
@@ -10276,61 +10288,101 @@
     </row>
     <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D369" t="s">
+        <v>133</v>
+      </c>
+      <c r="E369" t="s">
+        <v>145</v>
+      </c>
+      <c r="H369" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A370" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D370" t="s">
+        <v>133</v>
+      </c>
+      <c r="E370" t="s">
+        <v>145</v>
+      </c>
+      <c r="H370" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A371" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B369" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C369" s="6" t="s">
+      <c r="B371" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C371" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="D369" t="s">
-        <v>133</v>
-      </c>
-      <c r="E369" t="s">
-        <v>145</v>
-      </c>
-      <c r="H369" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="6" t="s">
+      <c r="D371" t="s">
+        <v>133</v>
+      </c>
+      <c r="E371" t="s">
+        <v>145</v>
+      </c>
+      <c r="H371" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="B370" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C370" s="6" t="s">
+      <c r="B372" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C372" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="D370" t="s">
-        <v>133</v>
-      </c>
-      <c r="E370" t="s">
-        <v>145</v>
-      </c>
-      <c r="H370" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="D372" t="s">
+        <v>133</v>
+      </c>
+      <c r="E372" t="s">
+        <v>145</v>
+      </c>
+      <c r="H372" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B371" s="6" t="s">
+      <c r="B373" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C371" s="11" t="s">
+      <c r="C373" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="D371" t="s">
-        <v>133</v>
-      </c>
-      <c r="E371" t="s">
-        <v>145</v>
-      </c>
-      <c r="H371" t="s">
+      <c r="D373" t="s">
+        <v>133</v>
+      </c>
+      <c r="E373" t="s">
+        <v>145</v>
+      </c>
+      <c r="H373" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD61CB-3323-4598-9026-2872449368D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB05CFB4-4C51-46F5-946C-839FBE4C1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$330</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$331</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="645">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1107,9 +1107,6 @@
     <t>cash_at_banks_and_on_hand+Cash_and_Bank_balances+cash_and_cash_equivalents+cash_and_short_term_deposits+cash_and_cash_equivalent</t>
   </si>
   <si>
-    <t>loans_and_advances+borrowings</t>
-  </si>
-  <si>
     <t>Advance payments to suppliers</t>
   </si>
   <si>
@@ -1957,6 +1954,15 @@
   </si>
   <si>
     <t>Impairment_Loss_Reversal_on_financial_assets+Impairment_Loss_gain_or_loss_of_financial_assets</t>
+  </si>
+  <si>
+    <t>Loan to Subsidiaries</t>
+  </si>
+  <si>
+    <t>Loan_to_Subsidiaries</t>
+  </si>
+  <si>
+    <t>loans_and_advances+borrowings+Loan_to_Subsidiaries</t>
   </si>
 </sst>
 </file>
@@ -2402,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="B374" sqref="B374"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,13 +2626,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="D13" t="s">
         <v>132</v>
@@ -2741,7 +2747,7 @@
         <v>134</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -2804,7 +2810,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>133</v>
@@ -2879,7 +2885,7 @@
         <v>134</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D24" t="s">
         <v>132</v>
@@ -2965,13 +2971,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="D28" t="s">
         <v>132</v>
@@ -2988,13 +2994,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="D29" t="s">
         <v>132</v>
@@ -3017,7 +3023,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D30" t="s">
         <v>132</v>
@@ -3149,13 +3155,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D36" t="s">
         <v>132</v>
@@ -3172,13 +3178,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D37" t="s">
         <v>132</v>
@@ -3224,7 +3230,7 @@
         <v>134</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D39" t="s">
         <v>132</v>
@@ -3563,13 +3569,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D54" t="s">
         <v>132</v>
@@ -3592,7 +3598,7 @@
         <v>134</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D55" t="s">
         <v>132</v>
@@ -3747,13 +3753,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="D62" t="s">
         <v>132</v>
@@ -3770,13 +3776,13 @@
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>563</v>
       </c>
       <c r="D63" t="s">
         <v>132</v>
@@ -3799,7 +3805,7 @@
         <v>134</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D64" t="s">
         <v>132</v>
@@ -3862,13 +3868,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="D67" t="s">
         <v>132</v>
@@ -4023,13 +4029,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D74" t="s">
         <v>132</v>
@@ -4052,7 +4058,7 @@
         <v>134</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D75" t="s">
         <v>132</v>
@@ -4437,13 +4443,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="D92" t="s">
         <v>132</v>
@@ -4575,13 +4581,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D98" t="s">
         <v>132</v>
@@ -4598,13 +4604,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D99" t="s">
         <v>132</v>
@@ -4627,7 +4633,7 @@
         <v>134</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D100" t="s">
         <v>132</v>
@@ -4696,7 +4702,7 @@
         <v>133</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D103" t="s">
         <v>132</v>
@@ -4828,13 +4834,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>39</v>
+        <v>643</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>359</v>
+        <v>642</v>
       </c>
       <c r="D109" t="s">
         <v>132</v>
@@ -4851,13 +4857,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>360</v>
+        <v>644</v>
       </c>
       <c r="D110" t="s">
         <v>132</v>
@@ -4874,13 +4880,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>29</v>
+        <v>359</v>
       </c>
       <c r="D111" t="s">
         <v>132</v>
@@ -4897,7 +4903,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>133</v>
@@ -4920,7 +4926,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>133</v>
@@ -4943,13 +4949,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
         <v>132</v>
@@ -4966,13 +4972,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D115" t="s">
         <v>132</v>
@@ -4989,13 +4995,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D116" t="s">
         <v>132</v>
@@ -5012,13 +5018,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="D117" t="s">
         <v>132</v>
@@ -5035,13 +5041,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D118" t="s">
         <v>132</v>
@@ -5056,15 +5062,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D119" t="s">
         <v>132</v>
@@ -5079,15 +5085,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D120" t="s">
         <v>132</v>
@@ -5104,13 +5110,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="D121" t="s">
         <v>132</v>
@@ -5127,13 +5133,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>368</v>
+        <v>166</v>
       </c>
       <c r="D122" t="s">
         <v>132</v>
@@ -5150,13 +5156,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D123" t="s">
         <v>132</v>
@@ -5173,13 +5179,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="D124" t="s">
         <v>132</v>
@@ -5196,13 +5202,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D125" t="s">
         <v>132</v>
@@ -5219,13 +5225,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D126" t="s">
         <v>132</v>
@@ -5242,13 +5248,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D127" t="s">
         <v>132</v>
@@ -5265,13 +5271,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D128" t="s">
         <v>132</v>
@@ -5288,13 +5294,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="D129" t="s">
         <v>132</v>
@@ -5309,15 +5315,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D130" t="s">
         <v>132</v>
@@ -5332,15 +5338,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D131" t="s">
         <v>132</v>
@@ -5357,13 +5363,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>543</v>
+        <v>373</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>543</v>
+        <v>374</v>
       </c>
       <c r="D132" t="s">
         <v>132</v>
@@ -5380,13 +5386,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>615</v>
+        <v>542</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>614</v>
+        <v>542</v>
       </c>
       <c r="D133" t="s">
         <v>132</v>
@@ -5401,15 +5407,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>45</v>
+        <v>614</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D134" t="s">
         <v>132</v>
@@ -5424,69 +5430,71 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D135" t="s">
+        <v>132</v>
+      </c>
+      <c r="E135" t="s">
+        <v>141</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H135" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C135" s="6" t="s">
+      <c r="B136" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D135" t="s">
-        <v>132</v>
-      </c>
-      <c r="E135" t="s">
-        <v>141</v>
-      </c>
-      <c r="F135" s="5"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="D136" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" t="s">
+        <v>141</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="H136" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D138" t="s">
-        <v>132</v>
-      </c>
-      <c r="E138" t="s">
-        <v>142</v>
-      </c>
-      <c r="F138" s="5"/>
-      <c r="H138" t="s">
-        <v>148</v>
-      </c>
+      <c r="A138" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D139" t="s">
         <v>132</v>
@@ -5501,13 +5509,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D140" t="s">
         <v>132</v>
@@ -5522,13 +5530,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D141" t="s">
         <v>132</v>
@@ -5543,13 +5551,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>565</v>
+        <v>49</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>566</v>
+        <v>237</v>
       </c>
       <c r="D142" t="s">
         <v>132</v>
@@ -5564,13 +5572,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D143" t="s">
         <v>132</v>
@@ -5585,13 +5593,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>50</v>
+        <v>567</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D144" t="s">
         <v>132</v>
@@ -5606,13 +5614,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>29</v>
+        <v>568</v>
       </c>
       <c r="D145" t="s">
         <v>132</v>
@@ -5625,9 +5633,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>133</v>
@@ -5648,7 +5656,7 @@
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>133</v>
@@ -5667,9 +5675,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>133</v>
@@ -5690,7 +5698,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>133</v>
@@ -5711,13 +5719,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
         <v>132</v>
@@ -5725,22 +5733,20 @@
       <c r="E150" t="s">
         <v>142</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="F150" s="5"/>
       <c r="H150" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>376</v>
+        <v>189</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>377</v>
+        <v>208</v>
       </c>
       <c r="D151" t="s">
         <v>132</v>
@@ -5757,13 +5763,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D152" t="s">
         <v>132</v>
@@ -5780,13 +5786,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D153" t="s">
         <v>132</v>
@@ -5803,13 +5809,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="D154" t="s">
         <v>132</v>
@@ -5826,13 +5832,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="D155" t="s">
         <v>132</v>
@@ -5849,13 +5855,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>548</v>
+        <v>381</v>
       </c>
       <c r="D156" t="s">
         <v>132</v>
@@ -5870,15 +5876,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>56</v>
+        <v>548</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D157" t="s">
         <v>132</v>
@@ -5893,15 +5899,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>210</v>
+        <v>550</v>
       </c>
       <c r="D158" t="s">
         <v>132</v>
@@ -5918,13 +5924,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D159" t="s">
         <v>132</v>
@@ -5941,13 +5947,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>384</v>
+        <v>211</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>383</v>
+        <v>212</v>
       </c>
       <c r="D160" t="s">
         <v>132</v>
@@ -5962,15 +5968,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>57</v>
+        <v>383</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D161" t="s">
         <v>132</v>
@@ -5987,13 +5993,13 @@
     </row>
     <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="D162" t="s">
         <v>132</v>
@@ -6008,15 +6014,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="D163" t="s">
         <v>132</v>
@@ -6033,13 +6039,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="D164" t="s">
         <v>132</v>
@@ -6056,13 +6062,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D165" t="s">
         <v>132</v>
@@ -6079,13 +6085,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D166" t="s">
         <v>132</v>
@@ -6102,13 +6108,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>386</v>
+        <v>215</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>387</v>
+        <v>216</v>
       </c>
       <c r="D167" t="s">
         <v>132</v>
@@ -6125,13 +6131,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D168" t="s">
         <v>132</v>
@@ -6148,13 +6154,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>543</v>
+        <v>387</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>543</v>
+        <v>388</v>
       </c>
       <c r="D169" t="s">
         <v>132</v>
@@ -6169,15 +6175,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>59</v>
+        <v>542</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D170" t="s">
         <v>132</v>
@@ -6192,15 +6198,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>218</v>
+        <v>545</v>
       </c>
       <c r="D171" t="s">
         <v>132</v>
@@ -6217,13 +6223,13 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D172" t="s">
         <v>132</v>
@@ -6232,7 +6238,7 @@
         <v>142</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H172" t="s">
         <v>148</v>
@@ -6240,13 +6246,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>380</v>
+        <v>189</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>381</v>
+        <v>208</v>
       </c>
       <c r="D173" t="s">
         <v>132</v>
@@ -6263,13 +6269,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D174" t="s">
         <v>132</v>
@@ -6286,13 +6292,13 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D175" t="s">
         <v>132</v>
@@ -6309,13 +6315,13 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="D176" t="s">
         <v>132</v>
@@ -6332,13 +6338,13 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="D177" t="s">
         <v>132</v>
@@ -6355,13 +6361,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>548</v>
+        <v>381</v>
       </c>
       <c r="D178" t="s">
         <v>132</v>
@@ -6376,15 +6382,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>61</v>
+        <v>548</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D179" t="s">
         <v>132</v>
@@ -6399,15 +6405,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>220</v>
+        <v>549</v>
       </c>
       <c r="D180" t="s">
         <v>132</v>
@@ -6424,13 +6430,13 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D181" t="s">
         <v>132</v>
@@ -6447,13 +6453,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D182" t="s">
         <v>132</v>
@@ -6470,13 +6476,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>393</v>
+        <v>238</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>392</v>
+        <v>223</v>
       </c>
       <c r="D183" t="s">
         <v>132</v>
@@ -6491,15 +6497,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D184" t="s">
         <v>132</v>
@@ -6516,13 +6522,13 @@
     </row>
     <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D185" t="s">
         <v>132</v>
@@ -6539,13 +6545,13 @@
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D186" t="s">
         <v>132</v>
@@ -6562,13 +6568,13 @@
     </row>
     <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D187" t="s">
         <v>132</v>
@@ -6585,13 +6591,13 @@
     </row>
     <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D188" t="s">
         <v>132</v>
@@ -6606,15 +6612,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D189" t="s">
         <v>132</v>
@@ -6629,15 +6635,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D190" t="s">
         <v>132</v>
@@ -6652,15 +6658,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>63</v>
+        <v>404</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D191" t="s">
         <v>132</v>
@@ -6675,15 +6681,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D192" t="s">
         <v>132</v>
@@ -6700,13 +6706,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>422</v>
+        <v>64</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D193" t="s">
         <v>132</v>
@@ -6723,13 +6729,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D194" t="s">
         <v>132</v>
@@ -6744,15 +6750,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D195" t="s">
         <v>132</v>
@@ -6767,15 +6773,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D196" t="s">
         <v>132</v>
@@ -6792,13 +6798,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D197" t="s">
         <v>132</v>
@@ -6813,15 +6819,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D198" t="s">
         <v>132</v>
@@ -6836,15 +6842,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D199" t="s">
         <v>132</v>
@@ -6861,13 +6867,13 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>545</v>
+        <v>419</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>544</v>
+        <v>420</v>
       </c>
       <c r="D200" t="s">
         <v>132</v>
@@ -6882,15 +6888,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>65</v>
+        <v>544</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D201" t="s">
         <v>132</v>
@@ -6905,15 +6911,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="D202" t="s">
         <v>132</v>
@@ -6930,7 +6936,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>133</v>
@@ -6953,13 +6959,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>423</v>
+        <v>29</v>
       </c>
       <c r="D204" t="s">
         <v>132</v>
@@ -6976,13 +6982,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="D205" t="s">
         <v>132</v>
@@ -6999,13 +7005,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="D206" t="s">
         <v>132</v>
@@ -7022,13 +7028,13 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D207" t="s">
         <v>132</v>
@@ -7045,13 +7051,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>424</v>
+        <v>226</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>425</v>
+        <v>227</v>
       </c>
       <c r="D208" t="s">
         <v>132</v>
@@ -7068,13 +7074,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D209" t="s">
         <v>132</v>
@@ -7091,13 +7097,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D210" t="s">
         <v>132</v>
@@ -7114,13 +7120,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D211" t="s">
         <v>132</v>
@@ -7137,13 +7143,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>571</v>
+        <v>429</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="D212" t="s">
         <v>132</v>
@@ -7160,13 +7166,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>634</v>
+        <v>570</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>633</v>
+        <v>569</v>
       </c>
       <c r="D213" t="s">
         <v>132</v>
@@ -7181,15 +7187,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>70</v>
+        <v>633</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D214" t="s">
         <v>132</v>
@@ -7204,15 +7210,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>29</v>
+        <v>634</v>
       </c>
       <c r="D215" t="s">
         <v>132</v>
@@ -7229,7 +7235,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>133</v>
@@ -7252,7 +7258,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>133</v>
@@ -7275,13 +7281,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="D218" t="s">
         <v>132</v>
@@ -7298,13 +7304,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D219" t="s">
         <v>132</v>
@@ -7321,13 +7327,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="D220" t="s">
         <v>132</v>
@@ -7344,19 +7350,19 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D221" t="s">
         <v>132</v>
       </c>
       <c r="E221" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>235</v>
@@ -7367,13 +7373,13 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D222" t="s">
         <v>132</v>
@@ -7390,19 +7396,19 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>378</v>
+        <v>231</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>379</v>
+        <v>232</v>
       </c>
       <c r="D223" t="s">
         <v>132</v>
       </c>
       <c r="E223" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>235</v>
@@ -7413,13 +7419,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="D224" t="s">
         <v>132</v>
@@ -7436,13 +7442,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D225" t="s">
         <v>132</v>
@@ -7459,13 +7465,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D226" t="s">
         <v>132</v>
@@ -7482,13 +7488,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D227" t="s">
         <v>132</v>
@@ -7505,13 +7511,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>543</v>
+        <v>436</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>543</v>
+        <v>437</v>
       </c>
       <c r="D228" t="s">
         <v>132</v>
@@ -7528,13 +7534,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>618</v>
+        <v>542</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
       <c r="D229" t="s">
         <v>132</v>
@@ -7549,15 +7555,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>74</v>
+        <v>617</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D230" t="s">
         <v>132</v>
@@ -7572,15 +7578,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>218</v>
+        <v>618</v>
       </c>
       <c r="D231" t="s">
         <v>132</v>
@@ -7597,13 +7603,13 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>439</v>
+        <v>75</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>631</v>
+        <v>218</v>
       </c>
       <c r="D232" t="s">
         <v>132</v>
@@ -7611,20 +7617,22 @@
       <c r="E232" t="s">
         <v>142</v>
       </c>
-      <c r="F232" s="5"/>
+      <c r="F232" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="H232" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D233" t="s">
         <v>132</v>
@@ -7638,46 +7646,47 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
+      <c r="A234" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D234" t="s">
+        <v>132</v>
+      </c>
+      <c r="E234" t="s">
+        <v>142</v>
+      </c>
+      <c r="F234" s="5"/>
+      <c r="H234" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-    </row>
-    <row r="236" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A236" s="8" t="s">
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D236" t="s">
-        <v>132</v>
-      </c>
-      <c r="E236" t="s">
-        <v>143</v>
-      </c>
-      <c r="H236" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="D237" t="s">
         <v>132</v>
@@ -7689,15 +7698,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="D238" t="s">
         <v>132</v>
@@ -7709,15 +7718,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="D239" t="s">
         <v>132</v>
@@ -7730,56 +7739,56 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
+      <c r="A240" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="D240" t="s">
         <v>132</v>
       </c>
+      <c r="E240" t="s">
+        <v>143</v>
+      </c>
+      <c r="H240" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B241" s="4"/>
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
       <c r="C241" s="2"/>
+      <c r="D241" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D243" t="s">
-        <v>132</v>
-      </c>
-      <c r="E243" t="s">
-        <v>144</v>
-      </c>
-      <c r="H243" t="s">
-        <v>147</v>
-      </c>
+      <c r="A243" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B243" s="4"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="D244" t="s">
         <v>132</v>
@@ -7793,13 +7802,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="D245" t="s">
         <v>132</v>
@@ -7813,13 +7822,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D246" t="s">
         <v>132</v>
@@ -7833,13 +7842,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D247" t="s">
         <v>132</v>
@@ -7853,73 +7862,73 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D248" t="s">
+        <v>132</v>
+      </c>
+      <c r="E248" t="s">
+        <v>144</v>
+      </c>
+      <c r="H248" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C248" s="6" t="s">
+      <c r="D249" t="s">
+        <v>132</v>
+      </c>
+      <c r="E249" t="s">
+        <v>144</v>
+      </c>
+      <c r="H249" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D248" t="s">
-        <v>132</v>
-      </c>
-      <c r="E248" t="s">
-        <v>144</v>
-      </c>
-      <c r="H248" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D249" t="s">
-        <v>132</v>
-      </c>
-      <c r="E249" t="s">
-        <v>144</v>
-      </c>
-      <c r="H249" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
+      <c r="D250" t="s">
+        <v>132</v>
+      </c>
+      <c r="E250" t="s">
+        <v>144</v>
+      </c>
+      <c r="H250" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C250" s="6" t="s">
+      <c r="B251" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="D250" t="s">
-        <v>132</v>
-      </c>
-      <c r="E250" t="s">
-        <v>144</v>
-      </c>
-      <c r="H250" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="D251" t="s">
         <v>132</v>
@@ -7933,33 +7942,33 @@
     </row>
     <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D252" t="s">
+        <v>132</v>
+      </c>
+      <c r="E252" t="s">
+        <v>144</v>
+      </c>
+      <c r="H252" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D252" t="s">
-        <v>132</v>
-      </c>
-      <c r="E252" t="s">
-        <v>144</v>
-      </c>
-      <c r="H252" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="D253" t="s">
         <v>132</v>
@@ -7973,13 +7982,13 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>255</v>
+        <v>452</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>256</v>
+        <v>453</v>
       </c>
       <c r="D254" t="s">
         <v>132</v>
@@ -7993,13 +8002,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>455</v>
+        <v>255</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>456</v>
+        <v>256</v>
       </c>
       <c r="D255" t="s">
         <v>132</v>
@@ -8013,67 +8022,67 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D256" t="s">
+        <v>132</v>
+      </c>
+      <c r="E256" t="s">
+        <v>144</v>
+      </c>
+      <c r="H256" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C256" s="6" t="s">
+      <c r="D257" t="s">
+        <v>132</v>
+      </c>
+      <c r="E257" t="s">
+        <v>144</v>
+      </c>
+      <c r="H257" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D256" t="s">
-        <v>132</v>
-      </c>
-      <c r="E256" t="s">
-        <v>144</v>
-      </c>
-      <c r="H256" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D257" t="s">
-        <v>132</v>
-      </c>
-      <c r="E257" t="s">
-        <v>144</v>
-      </c>
-      <c r="H257" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
+      <c r="D258" t="s">
+        <v>132</v>
+      </c>
+      <c r="E258" t="s">
+        <v>144</v>
+      </c>
+      <c r="H258" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D258" t="s">
-        <v>132</v>
-      </c>
-      <c r="E258" t="s">
-        <v>144</v>
-      </c>
-      <c r="H258" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>133</v>
@@ -8091,15 +8100,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>460</v>
+        <v>88</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="D260" t="s">
         <v>132</v>
@@ -8113,53 +8122,53 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D261" t="s">
+        <v>132</v>
+      </c>
+      <c r="E261" t="s">
+        <v>144</v>
+      </c>
+      <c r="H261" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C261" s="6" t="s">
+      <c r="D262" t="s">
+        <v>132</v>
+      </c>
+      <c r="E262" t="s">
+        <v>144</v>
+      </c>
+      <c r="H262" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="D261" t="s">
-        <v>132</v>
-      </c>
-      <c r="E261" t="s">
-        <v>144</v>
-      </c>
-      <c r="H261" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D262" t="s">
-        <v>132</v>
-      </c>
-      <c r="E262" t="s">
-        <v>144</v>
-      </c>
-      <c r="H262" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="D263" t="s">
         <v>132</v>
@@ -8173,13 +8182,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D264" t="s">
         <v>132</v>
@@ -8193,13 +8202,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>465</v>
+        <v>259</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>466</v>
+        <v>260</v>
       </c>
       <c r="D265" t="s">
         <v>132</v>
@@ -8213,53 +8222,53 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D266" t="s">
+        <v>132</v>
+      </c>
+      <c r="E266" t="s">
+        <v>144</v>
+      </c>
+      <c r="H266" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C266" s="6" t="s">
+      <c r="D267" t="s">
+        <v>132</v>
+      </c>
+      <c r="E267" t="s">
+        <v>144</v>
+      </c>
+      <c r="H267" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="D266" t="s">
-        <v>132</v>
-      </c>
-      <c r="E266" t="s">
-        <v>144</v>
-      </c>
-      <c r="H266" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D267" t="s">
-        <v>132</v>
-      </c>
-      <c r="E267" t="s">
-        <v>144</v>
-      </c>
-      <c r="H267" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="D268" t="s">
         <v>132</v>
@@ -8273,13 +8282,13 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D269" t="s">
         <v>132</v>
@@ -8293,13 +8302,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>470</v>
+        <v>263</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>470</v>
+        <v>264</v>
       </c>
       <c r="D270" t="s">
         <v>132</v>
@@ -8313,13 +8322,13 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D271" t="s">
         <v>132</v>
@@ -8333,13 +8342,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D272" t="s">
         <v>132</v>
@@ -8353,13 +8362,13 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D273" t="s">
         <v>132</v>
@@ -8373,53 +8382,53 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D274" t="s">
+        <v>132</v>
+      </c>
+      <c r="E274" t="s">
+        <v>144</v>
+      </c>
+      <c r="H274" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D275" t="s">
+        <v>132</v>
+      </c>
+      <c r="E275" t="s">
+        <v>144</v>
+      </c>
+      <c r="H275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="D274" t="s">
-        <v>132</v>
-      </c>
-      <c r="E274" t="s">
-        <v>144</v>
-      </c>
-      <c r="H274" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="D275" t="s">
-        <v>132</v>
-      </c>
-      <c r="E275" t="s">
-        <v>144</v>
-      </c>
-      <c r="H275" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D276" t="s">
         <v>132</v>
@@ -8433,13 +8442,13 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>554</v>
+        <v>92</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D277" t="s">
         <v>132</v>
@@ -8453,13 +8462,13 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>477</v>
+        <v>94</v>
       </c>
       <c r="D278" t="s">
         <v>132</v>
@@ -8473,13 +8482,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D279" t="s">
         <v>132</v>
@@ -8493,13 +8502,13 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D280" t="s">
         <v>132</v>
@@ -8513,93 +8522,93 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>553</v>
+        <v>479</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C281" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D281" t="s">
+        <v>132</v>
+      </c>
+      <c r="E281" t="s">
+        <v>144</v>
+      </c>
+      <c r="H281" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D281" t="s">
-        <v>132</v>
-      </c>
-      <c r="E281" t="s">
-        <v>144</v>
-      </c>
-      <c r="H281" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="6" t="s">
-        <v>573</v>
-      </c>
       <c r="B282" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C282" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D282" t="s">
+        <v>132</v>
+      </c>
+      <c r="E282" t="s">
+        <v>144</v>
+      </c>
+      <c r="H282" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D282" t="s">
-        <v>132</v>
-      </c>
-      <c r="E282" t="s">
-        <v>144</v>
-      </c>
-      <c r="H282" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
+      <c r="B283" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D283" t="s">
+        <v>132</v>
+      </c>
+      <c r="E283" t="s">
+        <v>144</v>
+      </c>
+      <c r="H283" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D284" t="s">
+        <v>132</v>
+      </c>
+      <c r="E284" t="s">
+        <v>144</v>
+      </c>
+      <c r="H284" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D283" t="s">
-        <v>132</v>
-      </c>
-      <c r="E283" t="s">
-        <v>144</v>
-      </c>
-      <c r="H283" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D284" t="s">
-        <v>132</v>
-      </c>
-      <c r="E284" t="s">
-        <v>144</v>
-      </c>
-      <c r="H284" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C285" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>132</v>
@@ -8613,13 +8622,13 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>632</v>
+        <v>29</v>
       </c>
       <c r="D286" t="s">
         <v>132</v>
@@ -8633,33 +8642,33 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D287" t="s">
+        <v>132</v>
+      </c>
+      <c r="E287" t="s">
+        <v>144</v>
+      </c>
+      <c r="H287" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C287" s="13" t="s">
+      <c r="B288" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C288" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D287" t="s">
-        <v>132</v>
-      </c>
-      <c r="E287" t="s">
-        <v>144</v>
-      </c>
-      <c r="H287" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C288" s="15" t="s">
-        <v>482</v>
       </c>
       <c r="D288" t="s">
         <v>132</v>
@@ -8673,53 +8682,53 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C289" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="D289" t="s">
+        <v>132</v>
+      </c>
+      <c r="E289" t="s">
+        <v>144</v>
+      </c>
+      <c r="H289" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="D289" t="s">
-        <v>132</v>
-      </c>
-      <c r="E289" t="s">
-        <v>144</v>
-      </c>
-      <c r="H289" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
+      <c r="B290" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="D290" t="s">
+        <v>132</v>
+      </c>
+      <c r="E290" t="s">
+        <v>144</v>
+      </c>
+      <c r="H290" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B291" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C290" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D290" t="s">
-        <v>132</v>
-      </c>
-      <c r="E290" t="s">
-        <v>144</v>
-      </c>
-      <c r="H290" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C291" s="6" t="s">
-        <v>484</v>
+        <v>588</v>
       </c>
       <c r="D291" t="s">
         <v>132</v>
@@ -8733,13 +8742,13 @@
     </row>
     <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D292" t="s">
         <v>132</v>
@@ -8753,13 +8762,13 @@
     </row>
     <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>99</v>
+        <v>484</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D293" t="s">
         <v>132</v>
@@ -8773,27 +8782,27 @@
     </row>
     <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D294" t="s">
+        <v>132</v>
+      </c>
+      <c r="E294" t="s">
+        <v>144</v>
+      </c>
+      <c r="H294" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D294" t="s">
-        <v>132</v>
-      </c>
-      <c r="E294" t="s">
-        <v>144</v>
-      </c>
-      <c r="H294" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>133</v>
@@ -8811,15 +8820,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>488</v>
+        <v>101</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>489</v>
+        <v>29</v>
       </c>
       <c r="D296" t="s">
         <v>132</v>
@@ -8833,53 +8842,53 @@
     </row>
     <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D297" t="s">
+        <v>132</v>
+      </c>
+      <c r="E297" t="s">
+        <v>144</v>
+      </c>
+      <c r="H297" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B297" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C297" s="6" t="s">
+      <c r="D298" t="s">
+        <v>132</v>
+      </c>
+      <c r="E298" t="s">
+        <v>144</v>
+      </c>
+      <c r="H298" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C299" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="D297" t="s">
-        <v>132</v>
-      </c>
-      <c r="E297" t="s">
-        <v>144</v>
-      </c>
-      <c r="H297" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D298" t="s">
-        <v>132</v>
-      </c>
-      <c r="E298" t="s">
-        <v>144</v>
-      </c>
-      <c r="H298" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="D299" t="s">
         <v>132</v>
@@ -8893,53 +8902,53 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D300" t="s">
+        <v>132</v>
+      </c>
+      <c r="E300" t="s">
+        <v>144</v>
+      </c>
+      <c r="H300" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C301" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C300" s="6" t="s">
+      <c r="D301" t="s">
+        <v>132</v>
+      </c>
+      <c r="E301" t="s">
+        <v>144</v>
+      </c>
+      <c r="H301" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D300" t="s">
-        <v>132</v>
-      </c>
-      <c r="E300" t="s">
-        <v>144</v>
-      </c>
-      <c r="H300" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
+      <c r="B302" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D301" t="s">
-        <v>132</v>
-      </c>
-      <c r="E301" t="s">
-        <v>144</v>
-      </c>
-      <c r="H301" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D302" t="s">
         <v>132</v>
@@ -8953,13 +8962,13 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>498</v>
+        <v>265</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>499</v>
+        <v>266</v>
       </c>
       <c r="D303" t="s">
         <v>132</v>
@@ -8973,13 +8982,13 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D304" t="s">
         <v>132</v>
@@ -8993,33 +9002,33 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D305" t="s">
+        <v>132</v>
+      </c>
+      <c r="E305" t="s">
+        <v>144</v>
+      </c>
+      <c r="H305" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C306" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D305" t="s">
-        <v>132</v>
-      </c>
-      <c r="E305" t="s">
-        <v>144</v>
-      </c>
-      <c r="H305" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="D306" t="s">
         <v>132</v>
@@ -9033,53 +9042,53 @@
     </row>
     <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D307" t="s">
+        <v>132</v>
+      </c>
+      <c r="E307" t="s">
+        <v>144</v>
+      </c>
+      <c r="H307" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D308" t="s">
+        <v>132</v>
+      </c>
+      <c r="E308" t="s">
+        <v>144</v>
+      </c>
+      <c r="H308" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A309" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C309" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D307" t="s">
-        <v>132</v>
-      </c>
-      <c r="E307" t="s">
-        <v>144</v>
-      </c>
-      <c r="H307" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="D308" t="s">
-        <v>132</v>
-      </c>
-      <c r="E308" t="s">
-        <v>144</v>
-      </c>
-      <c r="H308" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="D309" t="s">
         <v>132</v>
@@ -9093,13 +9102,13 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>267</v>
+        <v>505</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>268</v>
+        <v>506</v>
       </c>
       <c r="D310" t="s">
         <v>132</v>
@@ -9113,33 +9122,33 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D311" t="s">
+        <v>132</v>
+      </c>
+      <c r="E311" t="s">
+        <v>144</v>
+      </c>
+      <c r="H311" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C312" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D311" t="s">
-        <v>132</v>
-      </c>
-      <c r="E311" t="s">
-        <v>144</v>
-      </c>
-      <c r="H311" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>511</v>
       </c>
       <c r="D312" t="s">
         <v>132</v>
@@ -9153,33 +9162,33 @@
     </row>
     <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D313" t="s">
+        <v>132</v>
+      </c>
+      <c r="E313" t="s">
+        <v>144</v>
+      </c>
+      <c r="H313" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B314" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C313" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D313" t="s">
-        <v>132</v>
-      </c>
-      <c r="E313" t="s">
-        <v>144</v>
-      </c>
-      <c r="H313" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C314" s="6" t="s">
-        <v>270</v>
+        <v>511</v>
       </c>
       <c r="D314" t="s">
         <v>132</v>
@@ -9193,13 +9202,13 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D315" t="s">
         <v>132</v>
@@ -9213,13 +9222,13 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>513</v>
+        <v>272</v>
       </c>
       <c r="D316" t="s">
         <v>132</v>
@@ -9233,13 +9242,13 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>29</v>
+        <v>512</v>
       </c>
       <c r="D317" t="s">
         <v>132</v>
@@ -9253,7 +9262,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>133</v>
@@ -9273,7 +9282,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>133</v>
@@ -9293,7 +9302,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>133</v>
@@ -9313,13 +9322,13 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D321" t="s">
         <v>132</v>
@@ -9333,73 +9342,73 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D322" t="s">
+        <v>132</v>
+      </c>
+      <c r="E322" t="s">
+        <v>144</v>
+      </c>
+      <c r="H322" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B322" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C322" s="6" t="s">
+      <c r="B323" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C323" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D322" t="s">
-        <v>132</v>
-      </c>
-      <c r="E322" t="s">
-        <v>144</v>
-      </c>
-      <c r="H322" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="6" t="s">
+      <c r="D323" t="s">
+        <v>132</v>
+      </c>
+      <c r="E323" t="s">
+        <v>144</v>
+      </c>
+      <c r="H323" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C323" s="6" t="s">
+      <c r="B324" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D323" t="s">
-        <v>132</v>
-      </c>
-      <c r="E323" t="s">
-        <v>144</v>
-      </c>
-      <c r="H323" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
+      <c r="D324" t="s">
+        <v>132</v>
+      </c>
+      <c r="E324" t="s">
+        <v>144</v>
+      </c>
+      <c r="H324" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C325" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D324" t="s">
-        <v>132</v>
-      </c>
-      <c r="E324" t="s">
-        <v>144</v>
-      </c>
-      <c r="H324" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="D325" t="s">
         <v>132</v>
@@ -9413,93 +9422,93 @@
     </row>
     <row r="326" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D326" t="s">
+        <v>132</v>
+      </c>
+      <c r="E326" t="s">
+        <v>144</v>
+      </c>
+      <c r="H326" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C327" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B326" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C326" s="6" t="s">
+      <c r="D327" t="s">
+        <v>132</v>
+      </c>
+      <c r="E327" t="s">
+        <v>144</v>
+      </c>
+      <c r="H327" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C328" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D326" t="s">
-        <v>132</v>
-      </c>
-      <c r="E326" t="s">
-        <v>144</v>
-      </c>
-      <c r="H326" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="6" t="s">
+      <c r="D328" t="s">
+        <v>132</v>
+      </c>
+      <c r="E328" t="s">
+        <v>144</v>
+      </c>
+      <c r="H328" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D329" t="s">
+        <v>132</v>
+      </c>
+      <c r="E329" t="s">
+        <v>144</v>
+      </c>
+      <c r="H329" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B327" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C327" s="6" t="s">
+      <c r="B330" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="D327" t="s">
-        <v>132</v>
-      </c>
-      <c r="E327" t="s">
-        <v>144</v>
-      </c>
-      <c r="H327" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B328" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D328" t="s">
-        <v>132</v>
-      </c>
-      <c r="E328" t="s">
-        <v>144</v>
-      </c>
-      <c r="H328" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D329" t="s">
-        <v>132</v>
-      </c>
-      <c r="E329" t="s">
-        <v>144</v>
-      </c>
-      <c r="H329" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D330" t="s">
         <v>132</v>
@@ -9513,7 +9522,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>133</v>
@@ -9533,7 +9542,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>133</v>
@@ -9551,15 +9560,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>639</v>
+        <v>115</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>522</v>
+        <v>29</v>
       </c>
       <c r="D333" t="s">
         <v>132</v>
@@ -9573,13 +9582,13 @@
     </row>
     <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>640</v>
+        <v>521</v>
       </c>
       <c r="D334" t="s">
         <v>132</v>
@@ -9593,33 +9602,33 @@
     </row>
     <row r="335" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D335" t="s">
+        <v>132</v>
+      </c>
+      <c r="E335" t="s">
+        <v>144</v>
+      </c>
+      <c r="H335" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B335" s="6" t="s">
+      <c r="B336" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C335" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D335" t="s">
-        <v>132</v>
-      </c>
-      <c r="E335" t="s">
-        <v>144</v>
-      </c>
-      <c r="H335" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C336" s="6" t="s">
-        <v>29</v>
+        <v>641</v>
       </c>
       <c r="D336" t="s">
         <v>132</v>
@@ -9633,13 +9642,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>523</v>
+        <v>117</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>524</v>
+        <v>29</v>
       </c>
       <c r="D337" t="s">
         <v>132</v>
@@ -9653,13 +9662,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>278</v>
+        <v>522</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
       <c r="D338" t="s">
         <v>132</v>
@@ -9673,13 +9682,13 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="D339" t="s">
         <v>132</v>
@@ -9693,13 +9702,13 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>525</v>
+        <v>145</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>526</v>
+        <v>277</v>
       </c>
       <c r="D340" t="s">
         <v>132</v>
@@ -9713,13 +9722,13 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D341" t="s">
         <v>132</v>
@@ -9733,67 +9742,67 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D342" t="s">
+        <v>132</v>
+      </c>
+      <c r="E342" t="s">
+        <v>144</v>
+      </c>
+      <c r="H342" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C343" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B342" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C342" s="6" t="s">
+      <c r="D343" t="s">
+        <v>132</v>
+      </c>
+      <c r="E343" t="s">
+        <v>144</v>
+      </c>
+      <c r="H343" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="D342" t="s">
-        <v>132</v>
-      </c>
-      <c r="E342" t="s">
-        <v>144</v>
-      </c>
-      <c r="H342" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D343" t="s">
-        <v>132</v>
-      </c>
-      <c r="E343" t="s">
-        <v>144</v>
-      </c>
-      <c r="H343" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
+      <c r="D344" t="s">
+        <v>132</v>
+      </c>
+      <c r="E344" t="s">
+        <v>144</v>
+      </c>
+      <c r="H344" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D344" t="s">
-        <v>132</v>
-      </c>
-      <c r="E344" t="s">
-        <v>144</v>
-      </c>
-      <c r="H344" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>133</v>
@@ -9811,9 +9820,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>133</v>
@@ -9833,7 +9842,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>133</v>
@@ -9853,13 +9862,13 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>279</v>
+        <v>122</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="D348" t="s">
         <v>132</v>
@@ -9873,13 +9882,13 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D349" t="s">
         <v>132</v>
@@ -9893,13 +9902,13 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>581</v>
+        <v>281</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>529</v>
+        <v>282</v>
       </c>
       <c r="D350" t="s">
         <v>132</v>
@@ -9913,13 +9922,13 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D351" t="s">
         <v>132</v>
@@ -9933,13 +9942,13 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D352" t="s">
         <v>132</v>
@@ -9953,13 +9962,13 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D353" t="s">
         <v>132</v>
@@ -9973,13 +9982,13 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D354" t="s">
         <v>132</v>
@@ -9993,53 +10002,53 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D355" t="s">
+        <v>132</v>
+      </c>
+      <c r="E355" t="s">
+        <v>144</v>
+      </c>
+      <c r="H355" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C356" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B355" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D355" t="s">
-        <v>132</v>
-      </c>
-      <c r="E355" t="s">
-        <v>144</v>
-      </c>
-      <c r="H355" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A356" s="6" t="s">
+      <c r="D356" t="s">
+        <v>132</v>
+      </c>
+      <c r="E356" t="s">
+        <v>144</v>
+      </c>
+      <c r="H356" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B356" s="6" t="s">
+      <c r="B357" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C356" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D356" t="s">
-        <v>132</v>
-      </c>
-      <c r="E356" t="s">
-        <v>144</v>
-      </c>
-      <c r="H356" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A357" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C357" s="6" t="s">
-        <v>29</v>
+        <v>581</v>
       </c>
       <c r="D357" t="s">
         <v>132</v>
@@ -10053,7 +10062,7 @@
     </row>
     <row r="358" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>133</v>
@@ -10071,9 +10080,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>133</v>
@@ -10093,7 +10102,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>133</v>
@@ -10113,7 +10122,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>133</v>
@@ -10133,7 +10142,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>133</v>
@@ -10151,9 +10160,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>540</v>
+        <v>127</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>133</v>
@@ -10171,35 +10180,35 @@
         <v>147</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D364" t="s">
+        <v>132</v>
+      </c>
+      <c r="E364" t="s">
+        <v>144</v>
+      </c>
+      <c r="H364" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A365" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B364" s="6" t="s">
+      <c r="B365" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C364" s="6" t="s">
+      <c r="C365" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="D364" t="s">
-        <v>132</v>
-      </c>
-      <c r="E364" t="s">
-        <v>144</v>
-      </c>
-      <c r="H364" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="D365" t="s">
         <v>132</v>
@@ -10213,73 +10222,73 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D366" t="s">
+        <v>132</v>
+      </c>
+      <c r="E366" t="s">
+        <v>144</v>
+      </c>
+      <c r="H366" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C367" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B366" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C366" s="6" t="s">
+      <c r="D367" t="s">
+        <v>132</v>
+      </c>
+      <c r="E367" t="s">
+        <v>144</v>
+      </c>
+      <c r="H367" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A368" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="D366" t="s">
-        <v>132</v>
-      </c>
-      <c r="E366" t="s">
-        <v>144</v>
-      </c>
-      <c r="H366" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A367" s="6" t="s">
+      <c r="B368" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B367" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C367" s="6" t="s">
+      <c r="D368" t="s">
+        <v>132</v>
+      </c>
+      <c r="E368" t="s">
+        <v>144</v>
+      </c>
+      <c r="H368" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A369" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D367" t="s">
-        <v>132</v>
-      </c>
-      <c r="E367" t="s">
-        <v>144</v>
-      </c>
-      <c r="H367" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A368" s="6" t="s">
+      <c r="B369" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D368" t="s">
-        <v>132</v>
-      </c>
-      <c r="E368" t="s">
-        <v>144</v>
-      </c>
-      <c r="H368" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A369" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="D369" t="s">
         <v>132</v>
@@ -10293,13 +10302,13 @@
     </row>
     <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D370" t="s">
         <v>132</v>
@@ -10313,61 +10322,81 @@
     </row>
     <row r="371" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D371" t="s">
+        <v>132</v>
+      </c>
+      <c r="E371" t="s">
+        <v>144</v>
+      </c>
+      <c r="H371" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A372" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C372" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B371" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="D371" t="s">
-        <v>132</v>
-      </c>
-      <c r="E371" t="s">
-        <v>144</v>
-      </c>
-      <c r="H371" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="6" t="s">
+      <c r="D372" t="s">
+        <v>132</v>
+      </c>
+      <c r="E372" t="s">
+        <v>144</v>
+      </c>
+      <c r="H372" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C373" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B372" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="D372" t="s">
-        <v>132</v>
-      </c>
-      <c r="E372" t="s">
-        <v>144</v>
-      </c>
-      <c r="H372" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="D373" t="s">
+        <v>132</v>
+      </c>
+      <c r="E373" t="s">
+        <v>144</v>
+      </c>
+      <c r="H373" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B373" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C373" s="11" t="s">
+      <c r="B374" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C374" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D373" t="s">
-        <v>132</v>
-      </c>
-      <c r="E373" t="s">
-        <v>144</v>
-      </c>
-      <c r="H373" t="s">
+      <c r="D374" t="s">
+        <v>132</v>
+      </c>
+      <c r="E374" t="s">
+        <v>144</v>
+      </c>
+      <c r="H374" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB05CFB4-4C51-46F5-946C-839FBE4C1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFEA242-EA53-4830-BF29-BFFD97410BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$332</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="647">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1884,9 +1884,6 @@
     <t>Amount_due_to_directors</t>
   </si>
   <si>
-    <t>derivative_financial_instruments+lease_liabilities+Other_current_liabilities+other_liabilities+contract_liabilities+finance_lease_payables+finance_lease_liabilities+hire_purchase_creditor+lease_liabilities_current+margin_accounts_with_brokers+Derivatives+Amount_due_to_directors</t>
-  </si>
-  <si>
     <t>Cash and cash equivalents</t>
   </si>
   <si>
@@ -1963,6 +1960,15 @@
   </si>
   <si>
     <t>loans_and_advances+borrowings+Loan_to_Subsidiaries</t>
+  </si>
+  <si>
+    <t>Shareholder's current account</t>
+  </si>
+  <si>
+    <t>Shareholder_current_account</t>
+  </si>
+  <si>
+    <t>derivative_financial_instruments+lease_liabilities+Other_current_liabilities+other_liabilities+contract_liabilities+finance_lease_payables+finance_lease_liabilities+hire_purchase_creditor+lease_liabilities_current+margin_accounts_with_brokers+Derivatives+Amount_due_to_directors+Shareholder_current_account</t>
   </si>
 </sst>
 </file>
@@ -2408,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,13 +2632,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="D13" t="s">
         <v>132</v>
@@ -2747,7 +2753,7 @@
         <v>134</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -3230,7 +3236,7 @@
         <v>134</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D39" t="s">
         <v>132</v>
@@ -3868,13 +3874,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="D67" t="s">
         <v>132</v>
@@ -4058,7 +4064,7 @@
         <v>134</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D75" t="s">
         <v>132</v>
@@ -4702,7 +4708,7 @@
         <v>133</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D103" t="s">
         <v>132</v>
@@ -4834,13 +4840,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D109" t="s">
         <v>132</v>
@@ -4863,7 +4869,7 @@
         <v>134</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D110" t="s">
         <v>132</v>
@@ -7189,13 +7195,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D214" t="s">
         <v>132</v>
@@ -7218,7 +7224,7 @@
         <v>134</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D215" t="s">
         <v>132</v>
@@ -7578,15 +7584,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>74</v>
+        <v>645</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="D231" t="s">
         <v>132</v>
@@ -7601,15 +7607,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>218</v>
+        <v>646</v>
       </c>
       <c r="D232" t="s">
         <v>132</v>
@@ -7626,13 +7632,13 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>630</v>
+        <v>218</v>
       </c>
       <c r="D233" t="s">
         <v>132</v>
@@ -7640,20 +7646,22 @@
       <c r="E233" t="s">
         <v>142</v>
       </c>
-      <c r="F233" s="5"/>
+      <c r="F233" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="H233" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="D234" t="s">
         <v>132</v>
@@ -7667,46 +7675,47 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
+      <c r="A235" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D235" t="s">
+        <v>132</v>
+      </c>
+      <c r="E235" t="s">
+        <v>142</v>
+      </c>
+      <c r="F235" s="5"/>
+      <c r="H235" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="7" t="s">
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-    </row>
-    <row r="237" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A238" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D237" t="s">
-        <v>132</v>
-      </c>
-      <c r="E237" t="s">
-        <v>143</v>
-      </c>
-      <c r="H237" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="D238" t="s">
         <v>132</v>
@@ -7718,15 +7727,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="D239" t="s">
         <v>132</v>
@@ -7738,15 +7747,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="D240" t="s">
         <v>132</v>
@@ -7759,56 +7768,56 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
+      <c r="A241" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="D241" t="s">
         <v>132</v>
       </c>
+      <c r="E241" t="s">
+        <v>143</v>
+      </c>
+      <c r="H241" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B242" s="4"/>
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
       <c r="C242" s="2"/>
+      <c r="D242" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D244" t="s">
-        <v>132</v>
-      </c>
-      <c r="E244" t="s">
-        <v>144</v>
-      </c>
-      <c r="H244" t="s">
-        <v>147</v>
-      </c>
+      <c r="A244" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="D245" t="s">
         <v>132</v>
@@ -7822,13 +7831,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
       <c r="D246" t="s">
         <v>132</v>
@@ -7842,13 +7851,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D247" t="s">
         <v>132</v>
@@ -7862,13 +7871,13 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D248" t="s">
         <v>132</v>
@@ -7882,73 +7891,73 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D249" t="s">
+        <v>132</v>
+      </c>
+      <c r="E249" t="s">
+        <v>144</v>
+      </c>
+      <c r="H249" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C249" s="6" t="s">
+      <c r="B250" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D249" t="s">
-        <v>132</v>
-      </c>
-      <c r="E249" t="s">
-        <v>144</v>
-      </c>
-      <c r="H249" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
+      <c r="D250" t="s">
+        <v>132</v>
+      </c>
+      <c r="E250" t="s">
+        <v>144</v>
+      </c>
+      <c r="H250" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B251" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C250" s="6" t="s">
+      <c r="C251" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D250" t="s">
-        <v>132</v>
-      </c>
-      <c r="E250" t="s">
-        <v>144</v>
-      </c>
-      <c r="H250" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
+      <c r="D251" t="s">
+        <v>132</v>
+      </c>
+      <c r="E251" t="s">
+        <v>144</v>
+      </c>
+      <c r="H251" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B251" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C251" s="6" t="s">
+      <c r="B252" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="D251" t="s">
-        <v>132</v>
-      </c>
-      <c r="E251" t="s">
-        <v>144</v>
-      </c>
-      <c r="H251" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="D252" t="s">
         <v>132</v>
@@ -7962,33 +7971,33 @@
     </row>
     <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D253" t="s">
+        <v>132</v>
+      </c>
+      <c r="E253" t="s">
+        <v>144</v>
+      </c>
+      <c r="H253" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C253" s="6" t="s">
+      <c r="B254" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="D253" t="s">
-        <v>132</v>
-      </c>
-      <c r="E253" t="s">
-        <v>144</v>
-      </c>
-      <c r="H253" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="D254" t="s">
         <v>132</v>
@@ -8002,13 +8011,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>255</v>
+        <v>452</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>256</v>
+        <v>453</v>
       </c>
       <c r="D255" t="s">
         <v>132</v>
@@ -8022,13 +8031,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>454</v>
+        <v>255</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>455</v>
+        <v>256</v>
       </c>
       <c r="D256" t="s">
         <v>132</v>
@@ -8042,67 +8051,67 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D257" t="s">
+        <v>132</v>
+      </c>
+      <c r="E257" t="s">
+        <v>144</v>
+      </c>
+      <c r="H257" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B257" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C257" s="6" t="s">
+      <c r="B258" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D257" t="s">
-        <v>132</v>
-      </c>
-      <c r="E257" t="s">
-        <v>144</v>
-      </c>
-      <c r="H257" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
+      <c r="D258" t="s">
+        <v>132</v>
+      </c>
+      <c r="E258" t="s">
+        <v>144</v>
+      </c>
+      <c r="H258" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B259" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C259" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D258" t="s">
-        <v>132</v>
-      </c>
-      <c r="E258" t="s">
-        <v>144</v>
-      </c>
-      <c r="H258" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
+      <c r="D259" t="s">
+        <v>132</v>
+      </c>
+      <c r="E259" t="s">
+        <v>144</v>
+      </c>
+      <c r="H259" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D259" t="s">
-        <v>132</v>
-      </c>
-      <c r="E259" t="s">
-        <v>144</v>
-      </c>
-      <c r="H259" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>133</v>
@@ -8120,15 +8129,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>459</v>
+        <v>88</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>460</v>
+        <v>29</v>
       </c>
       <c r="D261" t="s">
         <v>132</v>
@@ -8142,53 +8151,53 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D262" t="s">
+        <v>132</v>
+      </c>
+      <c r="E262" t="s">
+        <v>144</v>
+      </c>
+      <c r="H262" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C262" s="6" t="s">
+      <c r="B263" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D262" t="s">
-        <v>132</v>
-      </c>
-      <c r="E262" t="s">
-        <v>144</v>
-      </c>
-      <c r="H262" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="6" t="s">
+      <c r="D263" t="s">
+        <v>132</v>
+      </c>
+      <c r="E263" t="s">
+        <v>144</v>
+      </c>
+      <c r="H263" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B264" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C264" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="D263" t="s">
-        <v>132</v>
-      </c>
-      <c r="E263" t="s">
-        <v>144</v>
-      </c>
-      <c r="H263" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="D264" t="s">
         <v>132</v>
@@ -8202,13 +8211,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D265" t="s">
         <v>132</v>
@@ -8222,13 +8231,13 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>464</v>
+        <v>259</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>465</v>
+        <v>260</v>
       </c>
       <c r="D266" t="s">
         <v>132</v>
@@ -8242,53 +8251,53 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D267" t="s">
+        <v>132</v>
+      </c>
+      <c r="E267" t="s">
+        <v>144</v>
+      </c>
+      <c r="H267" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C267" s="6" t="s">
+      <c r="B268" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D267" t="s">
-        <v>132</v>
-      </c>
-      <c r="E267" t="s">
-        <v>144</v>
-      </c>
-      <c r="H267" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
+      <c r="D268" t="s">
+        <v>132</v>
+      </c>
+      <c r="E268" t="s">
+        <v>144</v>
+      </c>
+      <c r="H268" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B269" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C269" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="D268" t="s">
-        <v>132</v>
-      </c>
-      <c r="E268" t="s">
-        <v>144</v>
-      </c>
-      <c r="H268" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="D269" t="s">
         <v>132</v>
@@ -8302,13 +8311,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D270" t="s">
         <v>132</v>
@@ -8322,13 +8331,13 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>469</v>
+        <v>263</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>469</v>
+        <v>264</v>
       </c>
       <c r="D271" t="s">
         <v>132</v>
@@ -8342,13 +8351,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D272" t="s">
         <v>132</v>
@@ -8362,13 +8371,13 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D273" t="s">
         <v>132</v>
@@ -8382,13 +8391,13 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D274" t="s">
         <v>132</v>
@@ -8402,53 +8411,53 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D275" t="s">
+        <v>132</v>
+      </c>
+      <c r="E275" t="s">
+        <v>144</v>
+      </c>
+      <c r="H275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D276" t="s">
+        <v>132</v>
+      </c>
+      <c r="E276" t="s">
+        <v>144</v>
+      </c>
+      <c r="H276" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="D275" t="s">
-        <v>132</v>
-      </c>
-      <c r="E275" t="s">
-        <v>144</v>
-      </c>
-      <c r="H275" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D276" t="s">
-        <v>132</v>
-      </c>
-      <c r="E276" t="s">
-        <v>144</v>
-      </c>
-      <c r="H276" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D277" t="s">
         <v>132</v>
@@ -8462,13 +8471,13 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>553</v>
+        <v>92</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D278" t="s">
         <v>132</v>
@@ -8482,13 +8491,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>476</v>
+        <v>94</v>
       </c>
       <c r="D279" t="s">
         <v>132</v>
@@ -8502,13 +8511,13 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D280" t="s">
         <v>132</v>
@@ -8522,13 +8531,13 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D281" t="s">
         <v>132</v>
@@ -8542,93 +8551,93 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D282" t="s">
+        <v>132</v>
+      </c>
+      <c r="E282" t="s">
+        <v>144</v>
+      </c>
+      <c r="H282" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B282" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C282" s="6" t="s">
+      <c r="B283" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="D282" t="s">
-        <v>132</v>
-      </c>
-      <c r="E282" t="s">
-        <v>144</v>
-      </c>
-      <c r="H282" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
+      <c r="D283" t="s">
+        <v>132</v>
+      </c>
+      <c r="E283" t="s">
+        <v>144</v>
+      </c>
+      <c r="H283" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C283" s="6" t="s">
+      <c r="B284" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D283" t="s">
-        <v>132</v>
-      </c>
-      <c r="E283" t="s">
-        <v>144</v>
-      </c>
-      <c r="H283" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
+      <c r="D284" t="s">
+        <v>132</v>
+      </c>
+      <c r="E284" t="s">
+        <v>144</v>
+      </c>
+      <c r="H284" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B284" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C284" s="6" t="s">
+      <c r="B285" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D284" t="s">
-        <v>132</v>
-      </c>
-      <c r="E284" t="s">
-        <v>144</v>
-      </c>
-      <c r="H284" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
+      <c r="D285" t="s">
+        <v>132</v>
+      </c>
+      <c r="E285" t="s">
+        <v>144</v>
+      </c>
+      <c r="H285" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A286" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B286" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C285" s="6" t="s">
+      <c r="C286" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="D285" t="s">
-        <v>132</v>
-      </c>
-      <c r="E285" t="s">
-        <v>144</v>
-      </c>
-      <c r="H285" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="D286" t="s">
         <v>132</v>
@@ -8642,13 +8651,13 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>631</v>
+        <v>29</v>
       </c>
       <c r="D287" t="s">
         <v>132</v>
@@ -8662,33 +8671,33 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C288" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="D288" t="s">
+        <v>132</v>
+      </c>
+      <c r="E288" t="s">
+        <v>144</v>
+      </c>
+      <c r="H288" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C288" s="13" t="s">
+      <c r="B289" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C289" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D288" t="s">
-        <v>132</v>
-      </c>
-      <c r="E288" t="s">
-        <v>144</v>
-      </c>
-      <c r="H288" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>481</v>
       </c>
       <c r="D289" t="s">
         <v>132</v>
@@ -8702,53 +8711,53 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="D290" t="s">
+        <v>132</v>
+      </c>
+      <c r="E290" t="s">
+        <v>144</v>
+      </c>
+      <c r="H290" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C290" s="15" t="s">
+      <c r="B291" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C291" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="D290" t="s">
-        <v>132</v>
-      </c>
-      <c r="E290" t="s">
-        <v>144</v>
-      </c>
-      <c r="H290" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
+      <c r="D291" t="s">
+        <v>132</v>
+      </c>
+      <c r="E291" t="s">
+        <v>144</v>
+      </c>
+      <c r="H291" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B292" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C292" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="D291" t="s">
-        <v>132</v>
-      </c>
-      <c r="E291" t="s">
-        <v>144</v>
-      </c>
-      <c r="H291" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="D292" t="s">
         <v>132</v>
@@ -8762,13 +8771,13 @@
     </row>
     <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D293" t="s">
         <v>132</v>
@@ -8782,13 +8791,13 @@
     </row>
     <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>99</v>
+        <v>484</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D294" t="s">
         <v>132</v>
@@ -8802,27 +8811,27 @@
     </row>
     <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D295" t="s">
+        <v>132</v>
+      </c>
+      <c r="E295" t="s">
+        <v>144</v>
+      </c>
+      <c r="H295" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D295" t="s">
-        <v>132</v>
-      </c>
-      <c r="E295" t="s">
-        <v>144</v>
-      </c>
-      <c r="H295" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>133</v>
@@ -8840,15 +8849,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>487</v>
+        <v>101</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>488</v>
+        <v>29</v>
       </c>
       <c r="D297" t="s">
         <v>132</v>
@@ -8862,53 +8871,53 @@
     </row>
     <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D298" t="s">
+        <v>132</v>
+      </c>
+      <c r="E298" t="s">
+        <v>144</v>
+      </c>
+      <c r="H298" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B298" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C298" s="6" t="s">
+      <c r="B299" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C299" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D298" t="s">
-        <v>132</v>
-      </c>
-      <c r="E298" t="s">
-        <v>144</v>
-      </c>
-      <c r="H298" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
+      <c r="D299" t="s">
+        <v>132</v>
+      </c>
+      <c r="E299" t="s">
+        <v>144</v>
+      </c>
+      <c r="H299" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A300" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B300" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C299" s="6" t="s">
+      <c r="C300" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="D299" t="s">
-        <v>132</v>
-      </c>
-      <c r="E299" t="s">
-        <v>144</v>
-      </c>
-      <c r="H299" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="D300" t="s">
         <v>132</v>
@@ -8922,53 +8931,53 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D301" t="s">
+        <v>132</v>
+      </c>
+      <c r="E301" t="s">
+        <v>144</v>
+      </c>
+      <c r="H301" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B301" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C301" s="6" t="s">
+      <c r="B302" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D301" t="s">
-        <v>132</v>
-      </c>
-      <c r="E301" t="s">
-        <v>144</v>
-      </c>
-      <c r="H301" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
+      <c r="D302" t="s">
+        <v>132</v>
+      </c>
+      <c r="E302" t="s">
+        <v>144</v>
+      </c>
+      <c r="H302" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B302" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C302" s="6" t="s">
+      <c r="B303" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C303" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="D302" t="s">
-        <v>132</v>
-      </c>
-      <c r="E302" t="s">
-        <v>144</v>
-      </c>
-      <c r="H302" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="D303" t="s">
         <v>132</v>
@@ -8982,13 +8991,13 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>497</v>
+        <v>265</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>498</v>
+        <v>266</v>
       </c>
       <c r="D304" t="s">
         <v>132</v>
@@ -9002,13 +9011,13 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D305" t="s">
         <v>132</v>
@@ -9022,33 +9031,33 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D306" t="s">
+        <v>132</v>
+      </c>
+      <c r="E306" t="s">
+        <v>144</v>
+      </c>
+      <c r="H306" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B306" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C306" s="6" t="s">
+      <c r="B307" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C307" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="D306" t="s">
-        <v>132</v>
-      </c>
-      <c r="E306" t="s">
-        <v>144</v>
-      </c>
-      <c r="H306" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="D307" t="s">
         <v>132</v>
@@ -9062,53 +9071,53 @@
     </row>
     <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D308" t="s">
+        <v>132</v>
+      </c>
+      <c r="E308" t="s">
+        <v>144</v>
+      </c>
+      <c r="H308" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B308" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C308" s="6" t="s">
+      <c r="B309" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C309" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D308" t="s">
-        <v>132</v>
-      </c>
-      <c r="E308" t="s">
-        <v>144</v>
-      </c>
-      <c r="H308" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
+      <c r="D309" t="s">
+        <v>132</v>
+      </c>
+      <c r="E309" t="s">
+        <v>144</v>
+      </c>
+      <c r="H309" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A310" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B310" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C309" s="6" t="s">
+      <c r="C310" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="D309" t="s">
-        <v>132</v>
-      </c>
-      <c r="E309" t="s">
-        <v>144</v>
-      </c>
-      <c r="H309" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="D310" t="s">
         <v>132</v>
@@ -9122,13 +9131,13 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>267</v>
+        <v>505</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>268</v>
+        <v>506</v>
       </c>
       <c r="D311" t="s">
         <v>132</v>
@@ -9142,33 +9151,33 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D312" t="s">
+        <v>132</v>
+      </c>
+      <c r="E312" t="s">
+        <v>144</v>
+      </c>
+      <c r="H312" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B312" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C312" s="6" t="s">
+      <c r="B313" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C313" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="D312" t="s">
-        <v>132</v>
-      </c>
-      <c r="E312" t="s">
-        <v>144</v>
-      </c>
-      <c r="H312" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="D313" t="s">
         <v>132</v>
@@ -9182,33 +9191,33 @@
     </row>
     <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D314" t="s">
+        <v>132</v>
+      </c>
+      <c r="E314" t="s">
+        <v>144</v>
+      </c>
+      <c r="H314" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B315" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C314" s="6" t="s">
+      <c r="C315" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="D314" t="s">
-        <v>132</v>
-      </c>
-      <c r="E314" t="s">
-        <v>144</v>
-      </c>
-      <c r="H314" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="D315" t="s">
         <v>132</v>
@@ -9222,13 +9231,13 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D316" t="s">
         <v>132</v>
@@ -9242,13 +9251,13 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>512</v>
+        <v>272</v>
       </c>
       <c r="D317" t="s">
         <v>132</v>
@@ -9262,13 +9271,13 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>29</v>
+        <v>512</v>
       </c>
       <c r="D318" t="s">
         <v>132</v>
@@ -9282,7 +9291,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>133</v>
@@ -9302,7 +9311,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>133</v>
@@ -9322,7 +9331,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>133</v>
@@ -9342,13 +9351,13 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D322" t="s">
         <v>132</v>
@@ -9362,73 +9371,73 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D323" t="s">
+        <v>132</v>
+      </c>
+      <c r="E323" t="s">
+        <v>144</v>
+      </c>
+      <c r="H323" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C323" s="6" t="s">
+      <c r="B324" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D323" t="s">
-        <v>132</v>
-      </c>
-      <c r="E323" t="s">
-        <v>144</v>
-      </c>
-      <c r="H323" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
+      <c r="D324" t="s">
+        <v>132</v>
+      </c>
+      <c r="E324" t="s">
+        <v>144</v>
+      </c>
+      <c r="H324" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B324" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C324" s="6" t="s">
+      <c r="B325" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C325" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D324" t="s">
-        <v>132</v>
-      </c>
-      <c r="E324" t="s">
-        <v>144</v>
-      </c>
-      <c r="H324" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
+      <c r="D325" t="s">
+        <v>132</v>
+      </c>
+      <c r="E325" t="s">
+        <v>144</v>
+      </c>
+      <c r="H325" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B325" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C325" s="6" t="s">
+      <c r="B326" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="D325" t="s">
-        <v>132</v>
-      </c>
-      <c r="E325" t="s">
-        <v>144</v>
-      </c>
-      <c r="H325" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A326" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="D326" t="s">
         <v>132</v>
@@ -9442,93 +9451,93 @@
     </row>
     <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D327" t="s">
+        <v>132</v>
+      </c>
+      <c r="E327" t="s">
+        <v>144</v>
+      </c>
+      <c r="H327" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B327" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C327" s="6" t="s">
+      <c r="B328" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C328" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D327" t="s">
-        <v>132</v>
-      </c>
-      <c r="E327" t="s">
-        <v>144</v>
-      </c>
-      <c r="H327" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
+      <c r="D328" t="s">
+        <v>132</v>
+      </c>
+      <c r="E328" t="s">
+        <v>144</v>
+      </c>
+      <c r="H328" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B328" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C328" s="6" t="s">
+      <c r="B329" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D328" t="s">
-        <v>132</v>
-      </c>
-      <c r="E328" t="s">
-        <v>144</v>
-      </c>
-      <c r="H328" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
+      <c r="D329" t="s">
+        <v>132</v>
+      </c>
+      <c r="E329" t="s">
+        <v>144</v>
+      </c>
+      <c r="H329" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B329" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C329" s="6" t="s">
+      <c r="B330" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D329" t="s">
-        <v>132</v>
-      </c>
-      <c r="E329" t="s">
-        <v>144</v>
-      </c>
-      <c r="H329" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
+      <c r="D330" t="s">
+        <v>132</v>
+      </c>
+      <c r="E330" t="s">
+        <v>144</v>
+      </c>
+      <c r="H330" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A331" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B331" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="C331" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="D330" t="s">
-        <v>132</v>
-      </c>
-      <c r="E330" t="s">
-        <v>144</v>
-      </c>
-      <c r="H330" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D331" t="s">
         <v>132</v>
@@ -9542,7 +9551,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>133</v>
@@ -9562,7 +9571,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>133</v>
@@ -9580,15 +9589,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>638</v>
+        <v>115</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>521</v>
+        <v>29</v>
       </c>
       <c r="D334" t="s">
         <v>132</v>
@@ -9602,13 +9611,13 @@
     </row>
     <row r="335" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>639</v>
+        <v>521</v>
       </c>
       <c r="D335" t="s">
         <v>132</v>
@@ -9622,33 +9631,33 @@
     </row>
     <row r="336" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D336" t="s">
+        <v>132</v>
+      </c>
+      <c r="E336" t="s">
+        <v>144</v>
+      </c>
+      <c r="H336" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B336" s="6" t="s">
+      <c r="B337" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C336" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="D336" t="s">
-        <v>132</v>
-      </c>
-      <c r="E336" t="s">
-        <v>144</v>
-      </c>
-      <c r="H336" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C337" s="6" t="s">
-        <v>29</v>
+        <v>640</v>
       </c>
       <c r="D337" t="s">
         <v>132</v>
@@ -9662,13 +9671,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>522</v>
+        <v>117</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>523</v>
+        <v>29</v>
       </c>
       <c r="D338" t="s">
         <v>132</v>
@@ -9682,13 +9691,13 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>278</v>
+        <v>522</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
       <c r="D339" t="s">
         <v>132</v>
@@ -9702,13 +9711,13 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="D340" t="s">
         <v>132</v>
@@ -9722,13 +9731,13 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>524</v>
+        <v>145</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>525</v>
+        <v>277</v>
       </c>
       <c r="D341" t="s">
         <v>132</v>
@@ -9742,13 +9751,13 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D342" t="s">
         <v>132</v>
@@ -9762,67 +9771,67 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D343" t="s">
+        <v>132</v>
+      </c>
+      <c r="E343" t="s">
+        <v>144</v>
+      </c>
+      <c r="H343" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B343" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C343" s="6" t="s">
+      <c r="B344" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="D343" t="s">
-        <v>132</v>
-      </c>
-      <c r="E343" t="s">
-        <v>144</v>
-      </c>
-      <c r="H343" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
+      <c r="D344" t="s">
+        <v>132</v>
+      </c>
+      <c r="E344" t="s">
+        <v>144</v>
+      </c>
+      <c r="H344" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B344" s="6" t="s">
+      <c r="B345" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C344" s="6" t="s">
+      <c r="C345" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="D344" t="s">
-        <v>132</v>
-      </c>
-      <c r="E344" t="s">
-        <v>144</v>
-      </c>
-      <c r="H344" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
+      <c r="D345" t="s">
+        <v>132</v>
+      </c>
+      <c r="E345" t="s">
+        <v>144</v>
+      </c>
+      <c r="H345" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D345" t="s">
-        <v>132</v>
-      </c>
-      <c r="E345" t="s">
-        <v>144</v>
-      </c>
-      <c r="H345" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>133</v>
@@ -9840,9 +9849,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>133</v>
@@ -9862,7 +9871,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>133</v>
@@ -9882,13 +9891,13 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>279</v>
+        <v>122</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="D349" t="s">
         <v>132</v>
@@ -9902,13 +9911,13 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D350" t="s">
         <v>132</v>
@@ -9922,13 +9931,13 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>580</v>
+        <v>281</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>528</v>
+        <v>282</v>
       </c>
       <c r="D351" t="s">
         <v>132</v>
@@ -9942,13 +9951,13 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D352" t="s">
         <v>132</v>
@@ -9962,13 +9971,13 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D353" t="s">
         <v>132</v>
@@ -9982,13 +9991,13 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D354" t="s">
         <v>132</v>
@@ -10002,13 +10011,13 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D355" t="s">
         <v>132</v>
@@ -10022,53 +10031,53 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D356" t="s">
+        <v>132</v>
+      </c>
+      <c r="E356" t="s">
+        <v>144</v>
+      </c>
+      <c r="H356" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B356" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C356" s="6" t="s">
+      <c r="B357" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C357" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D356" t="s">
-        <v>132</v>
-      </c>
-      <c r="E356" t="s">
-        <v>144</v>
-      </c>
-      <c r="H356" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A357" s="6" t="s">
+      <c r="D357" t="s">
+        <v>132</v>
+      </c>
+      <c r="E357" t="s">
+        <v>144</v>
+      </c>
+      <c r="H357" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A358" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B357" s="6" t="s">
+      <c r="B358" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C357" s="6" t="s">
+      <c r="C358" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="D357" t="s">
-        <v>132</v>
-      </c>
-      <c r="E357" t="s">
-        <v>144</v>
-      </c>
-      <c r="H357" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A358" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C358" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D358" t="s">
         <v>132</v>
@@ -10082,7 +10091,7 @@
     </row>
     <row r="359" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>133</v>
@@ -10100,9 +10109,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>133</v>
@@ -10122,7 +10131,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>133</v>
@@ -10142,7 +10151,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>133</v>
@@ -10162,7 +10171,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>133</v>
@@ -10180,9 +10189,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>539</v>
+        <v>127</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>133</v>
@@ -10200,35 +10209,35 @@
         <v>147</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D365" t="s">
+        <v>132</v>
+      </c>
+      <c r="E365" t="s">
+        <v>144</v>
+      </c>
+      <c r="H365" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A366" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B365" s="6" t="s">
+      <c r="B366" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C365" s="6" t="s">
+      <c r="C366" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="D365" t="s">
-        <v>132</v>
-      </c>
-      <c r="E365" t="s">
-        <v>144</v>
-      </c>
-      <c r="H365" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>593</v>
       </c>
       <c r="D366" t="s">
         <v>132</v>
@@ -10242,73 +10251,73 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D367" t="s">
+        <v>132</v>
+      </c>
+      <c r="E367" t="s">
+        <v>144</v>
+      </c>
+      <c r="H367" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B367" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C367" s="6" t="s">
+      <c r="B368" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="D367" t="s">
-        <v>132</v>
-      </c>
-      <c r="E367" t="s">
-        <v>144</v>
-      </c>
-      <c r="H367" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A368" s="6" t="s">
+      <c r="D368" t="s">
+        <v>132</v>
+      </c>
+      <c r="E368" t="s">
+        <v>144</v>
+      </c>
+      <c r="H368" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A369" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B368" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C368" s="6" t="s">
+      <c r="B369" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D368" t="s">
-        <v>132</v>
-      </c>
-      <c r="E368" t="s">
-        <v>144</v>
-      </c>
-      <c r="H368" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A369" s="6" t="s">
+      <c r="D369" t="s">
+        <v>132</v>
+      </c>
+      <c r="E369" t="s">
+        <v>144</v>
+      </c>
+      <c r="H369" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A370" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B369" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C369" s="6" t="s">
+      <c r="B370" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="D369" t="s">
-        <v>132</v>
-      </c>
-      <c r="E369" t="s">
-        <v>144</v>
-      </c>
-      <c r="H369" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A370" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="B370" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C370" s="6" t="s">
-        <v>601</v>
       </c>
       <c r="D370" t="s">
         <v>132</v>
@@ -10322,13 +10331,13 @@
     </row>
     <row r="371" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D371" t="s">
         <v>132</v>
@@ -10342,61 +10351,81 @@
     </row>
     <row r="372" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D372" t="s">
+        <v>132</v>
+      </c>
+      <c r="E372" t="s">
+        <v>144</v>
+      </c>
+      <c r="H372" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A373" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B372" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C372" s="6" t="s">
+      <c r="B373" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C373" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="D372" t="s">
-        <v>132</v>
-      </c>
-      <c r="E372" t="s">
-        <v>144</v>
-      </c>
-      <c r="H372" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="6" t="s">
+      <c r="D373" t="s">
+        <v>132</v>
+      </c>
+      <c r="E373" t="s">
+        <v>144</v>
+      </c>
+      <c r="H373" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C374" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="B373" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D373" t="s">
-        <v>132</v>
-      </c>
-      <c r="E373" t="s">
-        <v>144</v>
-      </c>
-      <c r="H373" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="D374" t="s">
+        <v>132</v>
+      </c>
+      <c r="E374" t="s">
+        <v>144</v>
+      </c>
+      <c r="H374" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B374" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C374" s="11" t="s">
+      <c r="B375" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C375" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D374" t="s">
-        <v>132</v>
-      </c>
-      <c r="E374" t="s">
-        <v>144</v>
-      </c>
-      <c r="H374" t="s">
+      <c r="D375" t="s">
+        <v>132</v>
+      </c>
+      <c r="E375" t="s">
+        <v>144</v>
+      </c>
+      <c r="H375" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Config/Singapore_Financial_Config.xlsx
+++ b/Config/Singapore_Financial_Config.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\GitHub\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFEA242-EA53-4830-BF29-BFFD97410BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C9CB3-524B-4EF3-BF58-C4AF9368D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$333</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="649">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1866,9 +1866,6 @@
     <t>Other receivables</t>
   </si>
   <si>
-    <t>amount_due_from_related_companies+amounts_due_by_a_related_party+amounts_due_from_director+amounts_due_from_subsidiary_companies+amount_owing_by_related_companies+amount_owing_by_a_director+other_receivables_and_prepaid_expenses+amount_owing_by_ultimate_holding_company+amount_due_from_brokers+amount_due_from_director+Other_receivables</t>
-  </si>
-  <si>
     <t>Other financial assets</t>
   </si>
   <si>
@@ -1969,6 +1966,15 @@
   </si>
   <si>
     <t>derivative_financial_instruments+lease_liabilities+Other_current_liabilities+other_liabilities+contract_liabilities+finance_lease_payables+finance_lease_liabilities+hire_purchase_creditor+lease_liabilities_current+margin_accounts_with_brokers+Derivatives+Amount_due_to_directors+Shareholder_current_account</t>
+  </si>
+  <si>
+    <t>Amount due from immediate holding companies</t>
+  </si>
+  <si>
+    <t>Amount_due_from_immediate_holding_companies</t>
+  </si>
+  <si>
+    <t>amount_due_from_related_companies+amounts_due_by_a_related_party+amounts_due_from_director+amounts_due_from_subsidiary_companies+amount_owing_by_related_companies+amount_owing_by_a_director+other_receivables_and_prepaid_expenses+amount_owing_by_ultimate_holding_company+amount_due_from_brokers+amount_due_from_director+Other_receivables+Amount_due_from_immediate_holding_companies</t>
   </si>
 </sst>
 </file>
@@ -2414,25 +2420,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H375"/>
+  <dimension ref="A1:H376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="68.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2477,14 +2483,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2522,14 +2528,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>248</v>
       </c>
@@ -2547,21 +2553,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>170</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>288</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>171</v>
       </c>
@@ -2630,15 +2636,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="D13" t="s">
         <v>132</v>
@@ -2653,7 +2659,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>172</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>291</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>290</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>293</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>134</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -2768,7 +2774,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>173</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>540</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>294</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>174</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>554</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>556</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>296</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>175</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>607</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>584</v>
       </c>
@@ -3205,7 +3211,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>198</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>286</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>134</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D39" t="s">
         <v>132</v>
@@ -3251,7 +3257,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>298</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>300</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>302</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>304</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>306</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>308</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>310</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>312</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>194</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>314</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>185</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>316</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>318</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>320</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>609</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>25</v>
       </c>
@@ -3619,7 +3625,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>176</v>
       </c>
@@ -3642,7 +3648,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>241</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>177</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>26</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>28</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>178</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>559</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>561</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>179</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>180</v>
       </c>
@@ -3872,15 +3878,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="D67" t="s">
         <v>132</v>
@@ -3895,7 +3901,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>181</v>
       </c>
@@ -3918,7 +3924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>182</v>
       </c>
@@ -3941,7 +3947,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>244</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>243</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>324</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>325</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>542</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>32</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>134</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D75" t="s">
         <v>132</v>
@@ -4079,7 +4085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>185</v>
       </c>
@@ -4102,7 +4108,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>326</v>
       </c>
@@ -4125,7 +4131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>328</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>33</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>135</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>331</v>
       </c>
@@ -4217,7 +4223,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>332</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>34</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>198</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>186</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>175</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>35</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>36</v>
       </c>
@@ -4378,7 +4384,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>187</v>
       </c>
@@ -4401,7 +4407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>335</v>
       </c>
@@ -4424,7 +4430,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>337</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>582</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>339</v>
       </c>
@@ -4493,7 +4499,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>341</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>343</v>
       </c>
@@ -4539,7 +4545,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>345</v>
       </c>
@@ -4562,7 +4568,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>347</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>544</v>
       </c>
@@ -4608,7 +4614,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>584</v>
       </c>
@@ -4631,15 +4637,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>612</v>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>647</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" t="s">
+        <v>646</v>
       </c>
       <c r="D100" t="s">
         <v>132</v>
@@ -4654,15 +4660,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>133</v>
+    <row r="101" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>350</v>
+        <v>648</v>
       </c>
       <c r="D101" t="s">
         <v>132</v>
@@ -4677,15 +4683,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D102" t="s">
         <v>132</v>
@@ -4700,15 +4706,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>618</v>
+        <v>351</v>
       </c>
       <c r="D103" t="s">
         <v>132</v>
@@ -4723,15 +4729,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>354</v>
+        <v>617</v>
       </c>
       <c r="D104" t="s">
         <v>132</v>
@@ -4746,15 +4752,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D105" t="s">
         <v>132</v>
@@ -4769,15 +4775,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D106" t="s">
         <v>132</v>
@@ -4792,15 +4798,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>31</v>
+        <v>358</v>
       </c>
       <c r="D107" t="s">
         <v>132</v>
@@ -4815,15 +4821,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
         <v>132</v>
@@ -4838,15 +4844,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>642</v>
+        <v>188</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>641</v>
+        <v>162</v>
       </c>
       <c r="D109" t="s">
         <v>132</v>
@@ -4861,15 +4867,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>39</v>
+        <v>641</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D110" t="s">
         <v>132</v>
@@ -4884,15 +4890,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>359</v>
+        <v>642</v>
       </c>
       <c r="D111" t="s">
         <v>132</v>
@@ -4907,15 +4913,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>29</v>
+        <v>359</v>
       </c>
       <c r="D112" t="s">
         <v>132</v>
@@ -4930,9 +4936,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>133</v>
@@ -4953,9 +4959,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>133</v>
@@ -4976,15 +4982,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
         <v>132</v>
@@ -4999,15 +5005,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D116" t="s">
         <v>132</v>
@@ -5022,15 +5028,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D117" t="s">
         <v>132</v>
@@ -5045,15 +5051,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>361</v>
+        <v>192</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="D118" t="s">
         <v>132</v>
@@ -5068,15 +5074,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D119" t="s">
         <v>132</v>
@@ -5091,15 +5097,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D120" t="s">
         <v>132</v>
@@ -5114,15 +5120,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D121" t="s">
         <v>132</v>
@@ -5137,15 +5143,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="D122" t="s">
         <v>132</v>
@@ -5160,15 +5166,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>366</v>
+        <v>193</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>367</v>
+        <v>166</v>
       </c>
       <c r="D123" t="s">
         <v>132</v>
@@ -5183,15 +5189,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D124" t="s">
         <v>132</v>
@@ -5206,15 +5212,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="D125" t="s">
         <v>132</v>
@@ -5229,15 +5235,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D126" t="s">
         <v>132</v>
@@ -5252,15 +5258,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D127" t="s">
         <v>132</v>
@@ -5275,15 +5281,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D128" t="s">
         <v>132</v>
@@ -5298,15 +5304,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D129" t="s">
         <v>132</v>
@@ -5321,15 +5327,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>370</v>
+        <v>167</v>
       </c>
       <c r="D130" t="s">
         <v>132</v>
@@ -5344,15 +5350,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D131" t="s">
         <v>132</v>
@@ -5367,15 +5373,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D132" t="s">
         <v>132</v>
@@ -5390,15 +5396,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>542</v>
+        <v>373</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>542</v>
+        <v>374</v>
       </c>
       <c r="D133" t="s">
         <v>132</v>
@@ -5413,15 +5419,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>614</v>
+        <v>542</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>613</v>
+        <v>542</v>
       </c>
       <c r="D134" t="s">
         <v>132</v>
@@ -5436,15 +5442,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>45</v>
+        <v>613</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D135" t="s">
         <v>132</v>
@@ -5459,69 +5465,71 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D136" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" t="s">
+        <v>141</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H136" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C136" s="6" t="s">
+      <c r="B137" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D136" t="s">
-        <v>132</v>
-      </c>
-      <c r="E136" t="s">
-        <v>141</v>
-      </c>
-      <c r="F136" s="5"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="D137" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137" t="s">
+        <v>141</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="H137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C139" s="6" t="s">
+      <c r="B140" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="D139" t="s">
-        <v>132</v>
-      </c>
-      <c r="E139" t="s">
-        <v>142</v>
-      </c>
-      <c r="F139" s="5"/>
-      <c r="H139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="D140" t="s">
         <v>132</v>
@@ -5534,15 +5542,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D141" t="s">
         <v>132</v>
@@ -5555,15 +5563,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D142" t="s">
         <v>132</v>
@@ -5576,15 +5584,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>564</v>
+        <v>49</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>565</v>
+        <v>237</v>
       </c>
       <c r="D143" t="s">
         <v>132</v>
@@ -5597,15 +5605,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D144" t="s">
         <v>132</v>
@@ -5618,15 +5626,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>50</v>
+        <v>567</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D145" t="s">
         <v>132</v>
@@ -5639,15 +5647,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>29</v>
+        <v>568</v>
       </c>
       <c r="D146" t="s">
         <v>132</v>
@@ -5660,9 +5668,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>133</v>
@@ -5681,9 +5689,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>133</v>
@@ -5702,9 +5710,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>133</v>
@@ -5723,9 +5731,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>133</v>
@@ -5744,15 +5752,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
         <v>132</v>
@@ -5760,22 +5768,20 @@
       <c r="E151" t="s">
         <v>142</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="F151" s="5"/>
       <c r="H151" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>376</v>
+        <v>208</v>
       </c>
       <c r="D152" t="s">
         <v>132</v>
@@ -5790,15 +5796,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D153" t="s">
         <v>132</v>
@@ -5813,15 +5819,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D154" t="s">
         <v>132</v>
@@ -5836,15 +5842,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="D155" t="s">
         <v>132</v>
@@ -5859,15 +5865,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>381</v>
+        <v>188</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>381</v>
+        <v>188</v>
       </c>
       <c r="D156" t="s">
         <v>132</v>
@@ -5882,15 +5888,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>548</v>
+        <v>381</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>547</v>
+        <v>381</v>
       </c>
       <c r="D157" t="s">
         <v>132</v>
@@ -5905,15 +5911,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>56</v>
+        <v>548</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D158" t="s">
         <v>132</v>
@@ -5928,15 +5934,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>210</v>
+        <v>550</v>
       </c>
       <c r="D159" t="s">
         <v>132</v>
@@ -5951,15 +5957,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D160" t="s">
         <v>132</v>
@@ -5974,15 +5980,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>383</v>
+        <v>211</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="D161" t="s">
         <v>132</v>
@@ -5997,15 +6003,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>57</v>
+        <v>383</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D162" t="s">
         <v>132</v>
@@ -6020,15 +6026,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="D163" t="s">
         <v>132</v>
@@ -6043,15 +6049,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="D164" t="s">
         <v>132</v>
@@ -6066,15 +6072,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="D165" t="s">
         <v>132</v>
@@ -6089,15 +6095,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D166" t="s">
         <v>132</v>
@@ -6112,15 +6118,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D167" t="s">
         <v>132</v>
@@ -6135,15 +6141,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>385</v>
+        <v>215</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>386</v>
+        <v>216</v>
       </c>
       <c r="D168" t="s">
         <v>132</v>
@@ -6158,15 +6164,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
         <v>132</v>
@@ -6181,15 +6187,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>542</v>
+        <v>387</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>542</v>
+        <v>388</v>
       </c>
       <c r="D170" t="s">
         <v>132</v>
@@ -6204,15 +6210,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>59</v>
+        <v>542</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D171" t="s">
         <v>132</v>
@@ -6227,15 +6233,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>218</v>
+        <v>545</v>
       </c>
       <c r="D172" t="s">
         <v>132</v>
@@ -6250,15 +6256,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D173" t="s">
         <v>132</v>
@@ -6267,21 +6273,21 @@
         <v>142</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H173" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>379</v>
+        <v>189</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>380</v>
+        <v>208</v>
       </c>
       <c r="D174" t="s">
         <v>132</v>
@@ -6296,15 +6302,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D175" t="s">
         <v>132</v>
@@ -6319,15 +6325,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D176" t="s">
         <v>132</v>
@@ -6342,15 +6348,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="D177" t="s">
         <v>132</v>
@@ -6365,15 +6371,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>381</v>
+        <v>188</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>381</v>
+        <v>188</v>
       </c>
       <c r="D178" t="s">
         <v>132</v>
@@ -6388,15 +6394,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>548</v>
+        <v>381</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>547</v>
+        <v>381</v>
       </c>
       <c r="D179" t="s">
         <v>132</v>
@@ -6411,15 +6417,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>61</v>
+        <v>548</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D180" t="s">
         <v>132</v>
@@ -6434,15 +6440,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>220</v>
+        <v>549</v>
       </c>
       <c r="D181" t="s">
         <v>132</v>
@@ -6457,15 +6463,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D182" t="s">
         <v>132</v>
@@ -6480,15 +6486,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D183" t="s">
         <v>132</v>
@@ -6503,15 +6509,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>392</v>
+        <v>238</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>391</v>
+        <v>223</v>
       </c>
       <c r="D184" t="s">
         <v>132</v>
@@ -6526,15 +6532,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D185" t="s">
         <v>132</v>
@@ -6549,15 +6555,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>394</v>
+        <v>62</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D186" t="s">
         <v>132</v>
@@ -6572,15 +6578,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D187" t="s">
         <v>132</v>
@@ -6595,15 +6601,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D188" t="s">
         <v>132</v>
@@ -6618,15 +6624,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D189" t="s">
         <v>132</v>
@@ -6641,15 +6647,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D190" t="s">
         <v>132</v>
@@ -6664,15 +6670,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D191" t="s">
         <v>132</v>
@@ -6687,15 +6693,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>63</v>
+        <v>404</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D192" t="s">
         <v>132</v>
@@ -6710,15 +6716,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D193" t="s">
         <v>132</v>
@@ -6733,15 +6739,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>421</v>
+        <v>64</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D194" t="s">
         <v>132</v>
@@ -6756,15 +6762,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D195" t="s">
         <v>132</v>
@@ -6779,15 +6785,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D196" t="s">
         <v>132</v>
@@ -6802,15 +6808,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D197" t="s">
         <v>132</v>
@@ -6825,15 +6831,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D198" t="s">
         <v>132</v>
@@ -6848,15 +6854,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D199" t="s">
         <v>132</v>
@@ -6871,15 +6877,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D200" t="s">
         <v>132</v>
@@ -6894,15 +6900,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>544</v>
+        <v>419</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>543</v>
+        <v>420</v>
       </c>
       <c r="D201" t="s">
         <v>132</v>
@@ -6917,15 +6923,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>65</v>
+        <v>544</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D202" t="s">
         <v>132</v>
@@ -6940,15 +6946,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="D203" t="s">
         <v>132</v>
@@ -6963,9 +6969,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>133</v>
@@ -6986,15 +6992,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>422</v>
+        <v>29</v>
       </c>
       <c r="D205" t="s">
         <v>132</v>
@@ -7009,15 +7015,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="D206" t="s">
         <v>132</v>
@@ -7032,15 +7038,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="D207" t="s">
         <v>132</v>
@@ -7055,15 +7061,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D208" t="s">
         <v>132</v>
@@ -7078,15 +7084,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>423</v>
+        <v>226</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="D209" t="s">
         <v>132</v>
@@ -7101,15 +7107,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D210" t="s">
         <v>132</v>
@@ -7124,15 +7130,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D211" t="s">
         <v>132</v>
@@ -7147,15 +7153,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D212" t="s">
         <v>132</v>
@@ -7170,15 +7176,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>570</v>
+        <v>429</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>569</v>
+        <v>430</v>
       </c>
       <c r="D213" t="s">
         <v>132</v>
@@ -7193,15 +7199,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="D214" t="s">
         <v>132</v>
@@ -7216,15 +7222,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>70</v>
+        <v>631</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D215" t="s">
         <v>132</v>
@@ -7239,15 +7245,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>29</v>
+        <v>632</v>
       </c>
       <c r="D216" t="s">
         <v>132</v>
@@ -7262,9 +7268,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>133</v>
@@ -7285,9 +7291,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>133</v>
@@ -7308,15 +7314,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="D219" t="s">
         <v>132</v>
@@ -7331,15 +7337,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D220" t="s">
         <v>132</v>
@@ -7354,15 +7360,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="D221" t="s">
         <v>132</v>
@@ -7377,21 +7383,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D222" t="s">
         <v>132</v>
       </c>
       <c r="E222" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>235</v>
@@ -7400,15 +7406,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D223" t="s">
         <v>132</v>
@@ -7423,21 +7429,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>377</v>
+        <v>231</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>378</v>
+        <v>232</v>
       </c>
       <c r="D224" t="s">
         <v>132</v>
       </c>
       <c r="E224" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>235</v>
@@ -7446,15 +7452,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="D225" t="s">
         <v>132</v>
@@ -7469,15 +7475,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D226" t="s">
         <v>132</v>
@@ -7492,15 +7498,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D227" t="s">
         <v>132</v>
@@ -7515,15 +7521,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D228" t="s">
         <v>132</v>
@@ -7538,15 +7544,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>542</v>
+        <v>436</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>542</v>
+        <v>437</v>
       </c>
       <c r="D229" t="s">
         <v>132</v>
@@ -7561,15 +7567,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>616</v>
+        <v>542</v>
       </c>
       <c r="D230" t="s">
         <v>132</v>
@@ -7584,15 +7590,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
       <c r="D231" t="s">
         <v>132</v>
@@ -7607,15 +7613,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>74</v>
+        <v>644</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D232" t="s">
         <v>132</v>
@@ -7630,15 +7636,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>218</v>
+        <v>645</v>
       </c>
       <c r="D233" t="s">
         <v>132</v>
@@ -7653,15 +7659,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>629</v>
+        <v>218</v>
       </c>
       <c r="D234" t="s">
         <v>132</v>
@@ -7669,20 +7675,22 @@
       <c r="E234" t="s">
         <v>142</v>
       </c>
-      <c r="F234" s="5"/>
+      <c r="F234" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="H234" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D235" t="s">
         <v>132</v>
@@ -7695,47 +7703,48 @@
         <v>148</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D236" t="s">
+        <v>132</v>
+      </c>
+      <c r="E236" t="s">
+        <v>142</v>
+      </c>
+      <c r="F236" s="5"/>
+      <c r="H236" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-    </row>
-    <row r="238" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A238" s="8" t="s">
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D238" t="s">
-        <v>132</v>
-      </c>
-      <c r="E238" t="s">
-        <v>143</v>
-      </c>
-      <c r="H238" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="D239" t="s">
         <v>132</v>
@@ -7747,15 +7756,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="D240" t="s">
         <v>132</v>
@@ -7767,15 +7776,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="D241" t="s">
         <v>132</v>
@@ -7787,351 +7796,351 @@
         <v>148</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="D242" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
+      <c r="E242" t="s">
+        <v>143</v>
+      </c>
+      <c r="H242" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B243" s="4"/>
-      <c r="C243" s="2"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B245" s="4"/>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C245" s="6" t="s">
+      <c r="B246" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D245" t="s">
-        <v>132</v>
-      </c>
-      <c r="E245" t="s">
-        <v>144</v>
-      </c>
-      <c r="H245" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="6" t="s">
+      <c r="D246" t="s">
+        <v>132</v>
+      </c>
+      <c r="E246" t="s">
+        <v>144</v>
+      </c>
+      <c r="H246" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C246" s="6" t="s">
+      <c r="B247" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D246" t="s">
-        <v>132</v>
-      </c>
-      <c r="E246" t="s">
-        <v>144</v>
-      </c>
-      <c r="H246" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="s">
+      <c r="D247" t="s">
+        <v>132</v>
+      </c>
+      <c r="E247" t="s">
+        <v>144</v>
+      </c>
+      <c r="H247" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C247" s="6" t="s">
+      <c r="B248" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D247" t="s">
-        <v>132</v>
-      </c>
-      <c r="E247" t="s">
-        <v>144</v>
-      </c>
-      <c r="H247" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
+      <c r="D248" t="s">
+        <v>132</v>
+      </c>
+      <c r="E248" t="s">
+        <v>144</v>
+      </c>
+      <c r="H248" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C248" s="6" t="s">
+      <c r="B249" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D248" t="s">
-        <v>132</v>
-      </c>
-      <c r="E248" t="s">
-        <v>144</v>
-      </c>
-      <c r="H248" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
+      <c r="D249" t="s">
+        <v>132</v>
+      </c>
+      <c r="E249" t="s">
+        <v>144</v>
+      </c>
+      <c r="H249" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C249" s="6" t="s">
+      <c r="B250" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D249" t="s">
-        <v>132</v>
-      </c>
-      <c r="E249" t="s">
-        <v>144</v>
-      </c>
-      <c r="H249" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
+      <c r="D250" t="s">
+        <v>132</v>
+      </c>
+      <c r="E250" t="s">
+        <v>144</v>
+      </c>
+      <c r="H250" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C250" s="6" t="s">
+      <c r="B251" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D250" t="s">
-        <v>132</v>
-      </c>
-      <c r="E250" t="s">
-        <v>144</v>
-      </c>
-      <c r="H250" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
+      <c r="D251" t="s">
+        <v>132</v>
+      </c>
+      <c r="E251" t="s">
+        <v>144</v>
+      </c>
+      <c r="H251" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A252" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B252" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C251" s="6" t="s">
+      <c r="C252" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D251" t="s">
-        <v>132</v>
-      </c>
-      <c r="E251" t="s">
-        <v>144</v>
-      </c>
-      <c r="H251" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
+      <c r="D252" t="s">
+        <v>132</v>
+      </c>
+      <c r="E252" t="s">
+        <v>144</v>
+      </c>
+      <c r="H252" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C252" s="6" t="s">
+      <c r="B253" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D252" t="s">
-        <v>132</v>
-      </c>
-      <c r="E252" t="s">
-        <v>144</v>
-      </c>
-      <c r="H252" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
+      <c r="D253" t="s">
+        <v>132</v>
+      </c>
+      <c r="E253" t="s">
+        <v>144</v>
+      </c>
+      <c r="H253" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A254" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C253" s="6" t="s">
+      <c r="B254" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D253" t="s">
-        <v>132</v>
-      </c>
-      <c r="E253" t="s">
-        <v>144</v>
-      </c>
-      <c r="H253" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
+      <c r="D254" t="s">
+        <v>132</v>
+      </c>
+      <c r="E254" t="s">
+        <v>144</v>
+      </c>
+      <c r="H254" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C254" s="6" t="s">
+      <c r="B255" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D254" t="s">
-        <v>132</v>
-      </c>
-      <c r="E254" t="s">
-        <v>144</v>
-      </c>
-      <c r="H254" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
+      <c r="D255" t="s">
+        <v>132</v>
+      </c>
+      <c r="E255" t="s">
+        <v>144</v>
+      </c>
+      <c r="H255" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C255" s="6" t="s">
+      <c r="B256" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D255" t="s">
-        <v>132</v>
-      </c>
-      <c r="E255" t="s">
-        <v>144</v>
-      </c>
-      <c r="H255" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="s">
+      <c r="D256" t="s">
+        <v>132</v>
+      </c>
+      <c r="E256" t="s">
+        <v>144</v>
+      </c>
+      <c r="H256" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C256" s="6" t="s">
+      <c r="B257" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D256" t="s">
-        <v>132</v>
-      </c>
-      <c r="E256" t="s">
-        <v>144</v>
-      </c>
-      <c r="H256" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
+      <c r="D257" t="s">
+        <v>132</v>
+      </c>
+      <c r="E257" t="s">
+        <v>144</v>
+      </c>
+      <c r="H257" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B257" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C257" s="6" t="s">
+      <c r="B258" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D257" t="s">
-        <v>132</v>
-      </c>
-      <c r="E257" t="s">
-        <v>144</v>
-      </c>
-      <c r="H257" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
+      <c r="D258" t="s">
+        <v>132</v>
+      </c>
+      <c r="E258" t="s">
+        <v>144</v>
+      </c>
+      <c r="H258" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B258" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C258" s="6" t="s">
+      <c r="B259" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D258" t="s">
-        <v>132</v>
-      </c>
-      <c r="E258" t="s">
-        <v>144</v>
-      </c>
-      <c r="H258" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
+      <c r="D259" t="s">
+        <v>132</v>
+      </c>
+      <c r="E259" t="s">
+        <v>144</v>
+      </c>
+      <c r="H259" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B260" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C260" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D259" t="s">
-        <v>132</v>
-      </c>
-      <c r="E259" t="s">
-        <v>144</v>
-      </c>
-      <c r="H259" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
+      <c r="D260" t="s">
+        <v>132</v>
+      </c>
+      <c r="E260" t="s">
+        <v>144</v>
+      </c>
+      <c r="H260" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D260" t="s">
-        <v>132</v>
-      </c>
-      <c r="E260" t="s">
-        <v>144</v>
-      </c>
-      <c r="H260" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>133</v>
@@ -8149,709 +8158,709 @@
         <v>147</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262" t="s">
+        <v>132</v>
+      </c>
+      <c r="E262" t="s">
+        <v>144</v>
+      </c>
+      <c r="H262" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C262" s="6" t="s">
+      <c r="B263" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D262" t="s">
-        <v>132</v>
-      </c>
-      <c r="E262" t="s">
-        <v>144</v>
-      </c>
-      <c r="H262" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="6" t="s">
+      <c r="D263" t="s">
+        <v>132</v>
+      </c>
+      <c r="E263" t="s">
+        <v>144</v>
+      </c>
+      <c r="H263" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B263" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C263" s="6" t="s">
+      <c r="B264" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D263" t="s">
-        <v>132</v>
-      </c>
-      <c r="E263" t="s">
-        <v>144</v>
-      </c>
-      <c r="H263" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="6" t="s">
+      <c r="D264" t="s">
+        <v>132</v>
+      </c>
+      <c r="E264" t="s">
+        <v>144</v>
+      </c>
+      <c r="H264" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A265" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B265" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C265" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D264" t="s">
-        <v>132</v>
-      </c>
-      <c r="E264" t="s">
-        <v>144</v>
-      </c>
-      <c r="H264" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="s">
+      <c r="D265" t="s">
+        <v>132</v>
+      </c>
+      <c r="E265" t="s">
+        <v>144</v>
+      </c>
+      <c r="H265" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B265" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C265" s="6" t="s">
+      <c r="B266" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C266" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D265" t="s">
-        <v>132</v>
-      </c>
-      <c r="E265" t="s">
-        <v>144</v>
-      </c>
-      <c r="H265" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="s">
+      <c r="D266" t="s">
+        <v>132</v>
+      </c>
+      <c r="E266" t="s">
+        <v>144</v>
+      </c>
+      <c r="H266" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C266" s="6" t="s">
+      <c r="B267" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D266" t="s">
-        <v>132</v>
-      </c>
-      <c r="E266" t="s">
-        <v>144</v>
-      </c>
-      <c r="H266" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
+      <c r="D267" t="s">
+        <v>132</v>
+      </c>
+      <c r="E267" t="s">
+        <v>144</v>
+      </c>
+      <c r="H267" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C267" s="6" t="s">
+      <c r="B268" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D267" t="s">
-        <v>132</v>
-      </c>
-      <c r="E267" t="s">
-        <v>144</v>
-      </c>
-      <c r="H267" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
+      <c r="D268" t="s">
+        <v>132</v>
+      </c>
+      <c r="E268" t="s">
+        <v>144</v>
+      </c>
+      <c r="H268" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B268" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C268" s="6" t="s">
+      <c r="B269" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C269" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D268" t="s">
-        <v>132</v>
-      </c>
-      <c r="E268" t="s">
-        <v>144</v>
-      </c>
-      <c r="H268" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="6" t="s">
+      <c r="D269" t="s">
+        <v>132</v>
+      </c>
+      <c r="E269" t="s">
+        <v>144</v>
+      </c>
+      <c r="H269" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B270" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C270" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D269" t="s">
-        <v>132</v>
-      </c>
-      <c r="E269" t="s">
-        <v>144</v>
-      </c>
-      <c r="H269" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="6" t="s">
+      <c r="D270" t="s">
+        <v>132</v>
+      </c>
+      <c r="E270" t="s">
+        <v>144</v>
+      </c>
+      <c r="H270" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B270" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C270" s="6" t="s">
+      <c r="B271" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C271" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D270" t="s">
-        <v>132</v>
-      </c>
-      <c r="E270" t="s">
-        <v>144</v>
-      </c>
-      <c r="H270" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="6" t="s">
+      <c r="D271" t="s">
+        <v>132</v>
+      </c>
+      <c r="E271" t="s">
+        <v>144</v>
+      </c>
+      <c r="H271" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C271" s="6" t="s">
+      <c r="B272" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C272" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D271" t="s">
-        <v>132</v>
-      </c>
-      <c r="E271" t="s">
-        <v>144</v>
-      </c>
-      <c r="H271" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="6" t="s">
+      <c r="D272" t="s">
+        <v>132</v>
+      </c>
+      <c r="E272" t="s">
+        <v>144</v>
+      </c>
+      <c r="H272" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B272" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C272" s="6" t="s">
+      <c r="B273" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C273" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D272" t="s">
-        <v>132</v>
-      </c>
-      <c r="E272" t="s">
-        <v>144</v>
-      </c>
-      <c r="H272" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="6" t="s">
+      <c r="D273" t="s">
+        <v>132</v>
+      </c>
+      <c r="E273" t="s">
+        <v>144</v>
+      </c>
+      <c r="H273" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B273" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C273" s="6" t="s">
+      <c r="B274" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C274" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="D273" t="s">
-        <v>132</v>
-      </c>
-      <c r="E273" t="s">
-        <v>144</v>
-      </c>
-      <c r="H273" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="6" t="s">
+      <c r="D274" t="s">
+        <v>132</v>
+      </c>
+      <c r="E274" t="s">
+        <v>144</v>
+      </c>
+      <c r="H274" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B274" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C274" s="6" t="s">
+      <c r="B275" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="D274" t="s">
-        <v>132</v>
-      </c>
-      <c r="E274" t="s">
-        <v>144</v>
-      </c>
-      <c r="H274" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
+      <c r="D275" t="s">
+        <v>132</v>
+      </c>
+      <c r="E275" t="s">
+        <v>144</v>
+      </c>
+      <c r="H275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C275" s="6" t="s">
+      <c r="B276" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D275" t="s">
-        <v>132</v>
-      </c>
-      <c r="E275" t="s">
-        <v>144</v>
-      </c>
-      <c r="H275" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
+      <c r="D276" t="s">
+        <v>132</v>
+      </c>
+      <c r="E276" t="s">
+        <v>144</v>
+      </c>
+      <c r="H276" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D277" t="s">
+        <v>132</v>
+      </c>
+      <c r="E277" t="s">
+        <v>144</v>
+      </c>
+      <c r="H277" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A278" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C278" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="D276" t="s">
-        <v>132</v>
-      </c>
-      <c r="E276" t="s">
-        <v>144</v>
-      </c>
-      <c r="H276" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B277" s="6" t="s">
+      <c r="D278" t="s">
+        <v>132</v>
+      </c>
+      <c r="E278" t="s">
+        <v>144</v>
+      </c>
+      <c r="H278" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D279" t="s">
+        <v>132</v>
+      </c>
+      <c r="E279" t="s">
+        <v>144</v>
+      </c>
+      <c r="H279" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D280" t="s">
+        <v>132</v>
+      </c>
+      <c r="E280" t="s">
+        <v>144</v>
+      </c>
+      <c r="H280" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D281" t="s">
+        <v>132</v>
+      </c>
+      <c r="E281" t="s">
+        <v>144</v>
+      </c>
+      <c r="H281" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D282" t="s">
+        <v>132</v>
+      </c>
+      <c r="E282" t="s">
+        <v>144</v>
+      </c>
+      <c r="H282" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D283" t="s">
+        <v>132</v>
+      </c>
+      <c r="E283" t="s">
+        <v>144</v>
+      </c>
+      <c r="H283" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D284" t="s">
+        <v>132</v>
+      </c>
+      <c r="E284" t="s">
+        <v>144</v>
+      </c>
+      <c r="H284" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A285" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D285" t="s">
+        <v>132</v>
+      </c>
+      <c r="E285" t="s">
+        <v>144</v>
+      </c>
+      <c r="H285" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D286" t="s">
+        <v>132</v>
+      </c>
+      <c r="E286" t="s">
+        <v>144</v>
+      </c>
+      <c r="H286" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A287" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="D277" t="s">
-        <v>132</v>
-      </c>
-      <c r="E277" t="s">
-        <v>144</v>
-      </c>
-      <c r="H277" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C278" s="6" t="s">
+      <c r="C287" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D287" t="s">
+        <v>132</v>
+      </c>
+      <c r="E287" t="s">
+        <v>144</v>
+      </c>
+      <c r="H287" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C288" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D278" t="s">
-        <v>132</v>
-      </c>
-      <c r="E278" t="s">
-        <v>144</v>
-      </c>
-      <c r="H278" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D279" t="s">
-        <v>132</v>
-      </c>
-      <c r="E279" t="s">
-        <v>144</v>
-      </c>
-      <c r="H279" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D280" t="s">
-        <v>132</v>
-      </c>
-      <c r="E280" t="s">
-        <v>144</v>
-      </c>
-      <c r="H280" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="D281" t="s">
-        <v>132</v>
-      </c>
-      <c r="E281" t="s">
-        <v>144</v>
-      </c>
-      <c r="H281" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="D282" t="s">
-        <v>132</v>
-      </c>
-      <c r="E282" t="s">
-        <v>144</v>
-      </c>
-      <c r="H282" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="D283" t="s">
-        <v>132</v>
-      </c>
-      <c r="E283" t="s">
-        <v>144</v>
-      </c>
-      <c r="H283" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="D284" t="s">
-        <v>132</v>
-      </c>
-      <c r="E284" t="s">
-        <v>144</v>
-      </c>
-      <c r="H284" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="D285" t="s">
-        <v>132</v>
-      </c>
-      <c r="E285" t="s">
-        <v>144</v>
-      </c>
-      <c r="H285" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A286" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B286" s="6" t="s">
+      <c r="D288" t="s">
+        <v>132</v>
+      </c>
+      <c r="E288" t="s">
+        <v>144</v>
+      </c>
+      <c r="H288" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D289" t="s">
+        <v>132</v>
+      </c>
+      <c r="E289" t="s">
+        <v>144</v>
+      </c>
+      <c r="H289" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D290" t="s">
+        <v>132</v>
+      </c>
+      <c r="E290" t="s">
+        <v>144</v>
+      </c>
+      <c r="H290" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C291" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="D291" t="s">
+        <v>132</v>
+      </c>
+      <c r="E291" t="s">
+        <v>144</v>
+      </c>
+      <c r="H291" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="D292" t="s">
+        <v>132</v>
+      </c>
+      <c r="E292" t="s">
+        <v>144</v>
+      </c>
+      <c r="H292" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C286" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="D286" t="s">
-        <v>132</v>
-      </c>
-      <c r="E286" t="s">
-        <v>144</v>
-      </c>
-      <c r="H286" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C287" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D287" t="s">
-        <v>132</v>
-      </c>
-      <c r="E287" t="s">
-        <v>144</v>
-      </c>
-      <c r="H287" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="D288" t="s">
-        <v>132</v>
-      </c>
-      <c r="E288" t="s">
-        <v>144</v>
-      </c>
-      <c r="H288" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C289" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D289" t="s">
-        <v>132</v>
-      </c>
-      <c r="E289" t="s">
-        <v>144</v>
-      </c>
-      <c r="H289" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C290" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="D290" t="s">
-        <v>132</v>
-      </c>
-      <c r="E290" t="s">
-        <v>144</v>
-      </c>
-      <c r="H290" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C291" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="D291" t="s">
-        <v>132</v>
-      </c>
-      <c r="E291" t="s">
-        <v>144</v>
-      </c>
-      <c r="H291" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B292" s="6" t="s">
+      <c r="C293" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D293" t="s">
+        <v>132</v>
+      </c>
+      <c r="E293" t="s">
+        <v>144</v>
+      </c>
+      <c r="H293" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A294" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D294" t="s">
+        <v>132</v>
+      </c>
+      <c r="E294" t="s">
+        <v>144</v>
+      </c>
+      <c r="H294" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A295" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D295" t="s">
+        <v>132</v>
+      </c>
+      <c r="E295" t="s">
+        <v>144</v>
+      </c>
+      <c r="H295" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A296" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D292" t="s">
-        <v>132</v>
-      </c>
-      <c r="E292" t="s">
-        <v>144</v>
-      </c>
-      <c r="H292" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="D293" t="s">
-        <v>132</v>
-      </c>
-      <c r="E293" t="s">
-        <v>144</v>
-      </c>
-      <c r="H293" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D294" t="s">
-        <v>132</v>
-      </c>
-      <c r="E294" t="s">
-        <v>144</v>
-      </c>
-      <c r="H294" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C295" s="6" t="s">
+      <c r="C296" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D295" t="s">
-        <v>132</v>
-      </c>
-      <c r="E295" t="s">
-        <v>144</v>
-      </c>
-      <c r="H295" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
+      <c r="D296" t="s">
+        <v>132</v>
+      </c>
+      <c r="E296" t="s">
+        <v>144</v>
+      </c>
+      <c r="H296" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A297" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D296" t="s">
-        <v>132</v>
-      </c>
-      <c r="E296" t="s">
-        <v>144</v>
-      </c>
-      <c r="H296" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>133</v>
@@ -8869,449 +8878,449 @@
         <v>147</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D298" t="s">
+        <v>132</v>
+      </c>
+      <c r="E298" t="s">
+        <v>144</v>
+      </c>
+      <c r="H298" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A299" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B298" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C298" s="6" t="s">
+      <c r="B299" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C299" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D298" t="s">
-        <v>132</v>
-      </c>
-      <c r="E298" t="s">
-        <v>144</v>
-      </c>
-      <c r="H298" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
+      <c r="D299" t="s">
+        <v>132</v>
+      </c>
+      <c r="E299" t="s">
+        <v>144</v>
+      </c>
+      <c r="H299" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B299" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C299" s="6" t="s">
+      <c r="B300" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C300" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D299" t="s">
-        <v>132</v>
-      </c>
-      <c r="E299" t="s">
-        <v>144</v>
-      </c>
-      <c r="H299" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="6" t="s">
+      <c r="D300" t="s">
+        <v>132</v>
+      </c>
+      <c r="E300" t="s">
+        <v>144</v>
+      </c>
+      <c r="H300" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A301" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B301" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C301" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D300" t="s">
-        <v>132</v>
-      </c>
-      <c r="E300" t="s">
-        <v>144</v>
-      </c>
-      <c r="H300" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
+      <c r="D301" t="s">
+        <v>132</v>
+      </c>
+      <c r="E301" t="s">
+        <v>144</v>
+      </c>
+      <c r="H301" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B301" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C301" s="6" t="s">
+      <c r="B302" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D301" t="s">
-        <v>132</v>
-      </c>
-      <c r="E301" t="s">
-        <v>144</v>
-      </c>
-      <c r="H301" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
+      <c r="D302" t="s">
+        <v>132</v>
+      </c>
+      <c r="E302" t="s">
+        <v>144</v>
+      </c>
+      <c r="H302" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B302" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C302" s="6" t="s">
+      <c r="B303" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C303" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D302" t="s">
-        <v>132</v>
-      </c>
-      <c r="E302" t="s">
-        <v>144</v>
-      </c>
-      <c r="H302" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="s">
+      <c r="D303" t="s">
+        <v>132</v>
+      </c>
+      <c r="E303" t="s">
+        <v>144</v>
+      </c>
+      <c r="H303" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B303" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C303" s="6" t="s">
+      <c r="B304" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C304" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D303" t="s">
-        <v>132</v>
-      </c>
-      <c r="E303" t="s">
-        <v>144</v>
-      </c>
-      <c r="H303" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="6" t="s">
+      <c r="D304" t="s">
+        <v>132</v>
+      </c>
+      <c r="E304" t="s">
+        <v>144</v>
+      </c>
+      <c r="H304" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B304" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C304" s="6" t="s">
+      <c r="B305" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C305" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D304" t="s">
-        <v>132</v>
-      </c>
-      <c r="E304" t="s">
-        <v>144</v>
-      </c>
-      <c r="H304" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="6" t="s">
+      <c r="D305" t="s">
+        <v>132</v>
+      </c>
+      <c r="E305" t="s">
+        <v>144</v>
+      </c>
+      <c r="H305" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B305" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C305" s="6" t="s">
+      <c r="B306" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C306" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D305" t="s">
-        <v>132</v>
-      </c>
-      <c r="E305" t="s">
-        <v>144</v>
-      </c>
-      <c r="H305" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="6" t="s">
+      <c r="D306" t="s">
+        <v>132</v>
+      </c>
+      <c r="E306" t="s">
+        <v>144</v>
+      </c>
+      <c r="H306" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B306" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C306" s="6" t="s">
+      <c r="B307" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C307" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D306" t="s">
-        <v>132</v>
-      </c>
-      <c r="E306" t="s">
-        <v>144</v>
-      </c>
-      <c r="H306" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="6" t="s">
+      <c r="D307" t="s">
+        <v>132</v>
+      </c>
+      <c r="E307" t="s">
+        <v>144</v>
+      </c>
+      <c r="H307" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B307" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C307" s="6" t="s">
+      <c r="B308" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C308" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D307" t="s">
-        <v>132</v>
-      </c>
-      <c r="E307" t="s">
-        <v>144</v>
-      </c>
-      <c r="H307" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
+      <c r="D308" t="s">
+        <v>132</v>
+      </c>
+      <c r="E308" t="s">
+        <v>144</v>
+      </c>
+      <c r="H308" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A309" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B308" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C308" s="6" t="s">
+      <c r="B309" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C309" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D308" t="s">
-        <v>132</v>
-      </c>
-      <c r="E308" t="s">
-        <v>144</v>
-      </c>
-      <c r="H308" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
+      <c r="D309" t="s">
+        <v>132</v>
+      </c>
+      <c r="E309" t="s">
+        <v>144</v>
+      </c>
+      <c r="H309" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A310" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C309" s="6" t="s">
+      <c r="B310" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C310" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D309" t="s">
-        <v>132</v>
-      </c>
-      <c r="E309" t="s">
-        <v>144</v>
-      </c>
-      <c r="H309" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
+      <c r="D310" t="s">
+        <v>132</v>
+      </c>
+      <c r="E310" t="s">
+        <v>144</v>
+      </c>
+      <c r="H310" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A311" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B311" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C311" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D310" t="s">
-        <v>132</v>
-      </c>
-      <c r="E310" t="s">
-        <v>144</v>
-      </c>
-      <c r="H310" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="6" t="s">
+      <c r="D311" t="s">
+        <v>132</v>
+      </c>
+      <c r="E311" t="s">
+        <v>144</v>
+      </c>
+      <c r="H311" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C311" s="6" t="s">
+      <c r="B312" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C312" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="D311" t="s">
-        <v>132</v>
-      </c>
-      <c r="E311" t="s">
-        <v>144</v>
-      </c>
-      <c r="H311" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
+      <c r="D312" t="s">
+        <v>132</v>
+      </c>
+      <c r="E312" t="s">
+        <v>144</v>
+      </c>
+      <c r="H312" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B312" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C312" s="6" t="s">
+      <c r="B313" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C313" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D312" t="s">
-        <v>132</v>
-      </c>
-      <c r="E312" t="s">
-        <v>144</v>
-      </c>
-      <c r="H312" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
+      <c r="D313" t="s">
+        <v>132</v>
+      </c>
+      <c r="E313" t="s">
+        <v>144</v>
+      </c>
+      <c r="H313" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B313" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C313" s="6" t="s">
+      <c r="B314" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C314" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="D313" t="s">
-        <v>132</v>
-      </c>
-      <c r="E313" t="s">
-        <v>144</v>
-      </c>
-      <c r="H313" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
+      <c r="D314" t="s">
+        <v>132</v>
+      </c>
+      <c r="E314" t="s">
+        <v>144</v>
+      </c>
+      <c r="H314" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A315" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B314" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C314" s="6" t="s">
+      <c r="B315" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C315" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D314" t="s">
-        <v>132</v>
-      </c>
-      <c r="E314" t="s">
-        <v>144</v>
-      </c>
-      <c r="H314" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="s">
+      <c r="D315" t="s">
+        <v>132</v>
+      </c>
+      <c r="E315" t="s">
+        <v>144</v>
+      </c>
+      <c r="H315" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A316" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B316" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C315" s="6" t="s">
+      <c r="C316" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D315" t="s">
-        <v>132</v>
-      </c>
-      <c r="E315" t="s">
-        <v>144</v>
-      </c>
-      <c r="H315" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="6" t="s">
+      <c r="D316" t="s">
+        <v>132</v>
+      </c>
+      <c r="E316" t="s">
+        <v>144</v>
+      </c>
+      <c r="H316" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B316" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C316" s="6" t="s">
+      <c r="B317" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C317" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D316" t="s">
-        <v>132</v>
-      </c>
-      <c r="E316" t="s">
-        <v>144</v>
-      </c>
-      <c r="H316" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
+      <c r="D317" t="s">
+        <v>132</v>
+      </c>
+      <c r="E317" t="s">
+        <v>144</v>
+      </c>
+      <c r="H317" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C317" s="6" t="s">
+      <c r="B318" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C318" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D317" t="s">
-        <v>132</v>
-      </c>
-      <c r="E317" t="s">
-        <v>144</v>
-      </c>
-      <c r="H317" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="s">
+      <c r="D318" t="s">
+        <v>132</v>
+      </c>
+      <c r="E318" t="s">
+        <v>144</v>
+      </c>
+      <c r="H318" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B319" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C319" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D318" t="s">
-        <v>132</v>
-      </c>
-      <c r="E318" t="s">
-        <v>144</v>
-      </c>
-      <c r="H318" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
+      <c r="D319" t="s">
+        <v>132</v>
+      </c>
+      <c r="E319" t="s">
+        <v>144</v>
+      </c>
+      <c r="H319" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D319" t="s">
-        <v>132</v>
-      </c>
-      <c r="E319" t="s">
-        <v>144</v>
-      </c>
-      <c r="H319" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>133</v>
@@ -9329,9 +9338,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>133</v>
@@ -9349,9 +9358,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>133</v>
@@ -9369,209 +9378,209 @@
         <v>147</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D323" t="s">
+        <v>132</v>
+      </c>
+      <c r="E323" t="s">
+        <v>144</v>
+      </c>
+      <c r="H323" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C323" s="6" t="s">
+      <c r="B324" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D323" t="s">
-        <v>132</v>
-      </c>
-      <c r="E323" t="s">
-        <v>144</v>
-      </c>
-      <c r="H323" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
+      <c r="D324" t="s">
+        <v>132</v>
+      </c>
+      <c r="E324" t="s">
+        <v>144</v>
+      </c>
+      <c r="H324" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B324" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C324" s="6" t="s">
+      <c r="B325" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C325" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D324" t="s">
-        <v>132</v>
-      </c>
-      <c r="E324" t="s">
-        <v>144</v>
-      </c>
-      <c r="H324" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
+      <c r="D325" t="s">
+        <v>132</v>
+      </c>
+      <c r="E325" t="s">
+        <v>144</v>
+      </c>
+      <c r="H325" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A326" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B325" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C325" s="6" t="s">
+      <c r="B326" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D325" t="s">
-        <v>132</v>
-      </c>
-      <c r="E325" t="s">
-        <v>144</v>
-      </c>
-      <c r="H325" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="6" t="s">
+      <c r="D326" t="s">
+        <v>132</v>
+      </c>
+      <c r="E326" t="s">
+        <v>144</v>
+      </c>
+      <c r="H326" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B326" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C326" s="6" t="s">
+      <c r="B327" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C327" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="D326" t="s">
-        <v>132</v>
-      </c>
-      <c r="E326" t="s">
-        <v>144</v>
-      </c>
-      <c r="H326" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A327" s="6" t="s">
+      <c r="D327" t="s">
+        <v>132</v>
+      </c>
+      <c r="E327" t="s">
+        <v>144</v>
+      </c>
+      <c r="H327" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A328" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B327" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C327" s="6" t="s">
+      <c r="B328" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C328" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D327" t="s">
-        <v>132</v>
-      </c>
-      <c r="E327" t="s">
-        <v>144</v>
-      </c>
-      <c r="H327" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
+      <c r="D328" t="s">
+        <v>132</v>
+      </c>
+      <c r="E328" t="s">
+        <v>144</v>
+      </c>
+      <c r="H328" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B328" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C328" s="6" t="s">
+      <c r="B329" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D328" t="s">
-        <v>132</v>
-      </c>
-      <c r="E328" t="s">
-        <v>144</v>
-      </c>
-      <c r="H328" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
+      <c r="D329" t="s">
+        <v>132</v>
+      </c>
+      <c r="E329" t="s">
+        <v>144</v>
+      </c>
+      <c r="H329" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B329" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C329" s="6" t="s">
+      <c r="B330" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D329" t="s">
-        <v>132</v>
-      </c>
-      <c r="E329" t="s">
-        <v>144</v>
-      </c>
-      <c r="H329" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
+      <c r="D330" t="s">
+        <v>132</v>
+      </c>
+      <c r="E330" t="s">
+        <v>144</v>
+      </c>
+      <c r="H330" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B330" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C330" s="6" t="s">
+      <c r="B331" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C331" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D330" t="s">
-        <v>132</v>
-      </c>
-      <c r="E330" t="s">
-        <v>144</v>
-      </c>
-      <c r="H330" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A331" s="6" t="s">
+      <c r="D331" t="s">
+        <v>132</v>
+      </c>
+      <c r="E331" t="s">
+        <v>144</v>
+      </c>
+      <c r="H331" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B332" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C332" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="D331" t="s">
-        <v>132</v>
-      </c>
-      <c r="E331" t="s">
-        <v>144</v>
-      </c>
-      <c r="H331" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="6" t="s">
+      <c r="D332" t="s">
+        <v>132</v>
+      </c>
+      <c r="E332" t="s">
+        <v>144</v>
+      </c>
+      <c r="H332" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D332" t="s">
-        <v>132</v>
-      </c>
-      <c r="E332" t="s">
-        <v>144</v>
-      </c>
-      <c r="H332" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>133</v>
@@ -9589,9 +9598,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>133</v>
@@ -9609,249 +9618,249 @@
         <v>147</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D335" t="s">
+        <v>132</v>
+      </c>
+      <c r="E335" t="s">
+        <v>144</v>
+      </c>
+      <c r="H335" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A336" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D336" t="s">
+        <v>132</v>
+      </c>
+      <c r="E336" t="s">
+        <v>144</v>
+      </c>
+      <c r="H336" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A337" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C337" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B335" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D335" t="s">
-        <v>132</v>
-      </c>
-      <c r="E335" t="s">
-        <v>144</v>
-      </c>
-      <c r="H335" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
+      <c r="D337" t="s">
+        <v>132</v>
+      </c>
+      <c r="E337" t="s">
+        <v>144</v>
+      </c>
+      <c r="H337" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A338" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C338" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B336" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="D336" t="s">
-        <v>132</v>
-      </c>
-      <c r="E336" t="s">
-        <v>144</v>
-      </c>
-      <c r="H336" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A337" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B337" s="6" t="s">
+      <c r="D338" t="s">
+        <v>132</v>
+      </c>
+      <c r="E338" t="s">
+        <v>144</v>
+      </c>
+      <c r="H338" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D339" t="s">
+        <v>132</v>
+      </c>
+      <c r="E339" t="s">
+        <v>144</v>
+      </c>
+      <c r="H339" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D340" t="s">
+        <v>132</v>
+      </c>
+      <c r="E340" t="s">
+        <v>144</v>
+      </c>
+      <c r="H340" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D341" t="s">
+        <v>132</v>
+      </c>
+      <c r="E341" t="s">
+        <v>144</v>
+      </c>
+      <c r="H341" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D342" t="s">
+        <v>132</v>
+      </c>
+      <c r="E342" t="s">
+        <v>144</v>
+      </c>
+      <c r="H342" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D343" t="s">
+        <v>132</v>
+      </c>
+      <c r="E343" t="s">
+        <v>144</v>
+      </c>
+      <c r="H343" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D344" t="s">
+        <v>132</v>
+      </c>
+      <c r="E344" t="s">
+        <v>144</v>
+      </c>
+      <c r="H344" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D345" t="s">
+        <v>132</v>
+      </c>
+      <c r="E345" t="s">
+        <v>144</v>
+      </c>
+      <c r="H345" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A346" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B346" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C337" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="D337" t="s">
-        <v>132</v>
-      </c>
-      <c r="E337" t="s">
-        <v>144</v>
-      </c>
-      <c r="H337" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D338" t="s">
-        <v>132</v>
-      </c>
-      <c r="E338" t="s">
-        <v>144</v>
-      </c>
-      <c r="H338" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="D339" t="s">
-        <v>132</v>
-      </c>
-      <c r="E339" t="s">
-        <v>144</v>
-      </c>
-      <c r="H339" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D340" t="s">
-        <v>132</v>
-      </c>
-      <c r="E340" t="s">
-        <v>144</v>
-      </c>
-      <c r="H340" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D341" t="s">
-        <v>132</v>
-      </c>
-      <c r="E341" t="s">
-        <v>144</v>
-      </c>
-      <c r="H341" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D342" t="s">
-        <v>132</v>
-      </c>
-      <c r="E342" t="s">
-        <v>144</v>
-      </c>
-      <c r="H342" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="D343" t="s">
-        <v>132</v>
-      </c>
-      <c r="E343" t="s">
-        <v>144</v>
-      </c>
-      <c r="H343" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D344" t="s">
-        <v>132</v>
-      </c>
-      <c r="E344" t="s">
-        <v>144</v>
-      </c>
-      <c r="H344" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C345" s="6" t="s">
+      <c r="C346" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="D345" t="s">
-        <v>132</v>
-      </c>
-      <c r="E345" t="s">
-        <v>144</v>
-      </c>
-      <c r="H345" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="6" t="s">
+      <c r="D346" t="s">
+        <v>132</v>
+      </c>
+      <c r="E346" t="s">
+        <v>144</v>
+      </c>
+      <c r="H346" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D346" t="s">
-        <v>132</v>
-      </c>
-      <c r="E346" t="s">
-        <v>144</v>
-      </c>
-      <c r="H346" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A347" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>133</v>
@@ -9869,9 +9878,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>133</v>
@@ -9889,9 +9898,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>133</v>
@@ -9909,209 +9918,209 @@
         <v>147</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D350" t="s">
+        <v>132</v>
+      </c>
+      <c r="E350" t="s">
+        <v>144</v>
+      </c>
+      <c r="H350" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B350" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C350" s="6" t="s">
+      <c r="B351" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C351" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D350" t="s">
-        <v>132</v>
-      </c>
-      <c r="E350" t="s">
-        <v>144</v>
-      </c>
-      <c r="H350" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" s="6" t="s">
+      <c r="D351" t="s">
+        <v>132</v>
+      </c>
+      <c r="E351" t="s">
+        <v>144</v>
+      </c>
+      <c r="H351" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B351" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C351" s="6" t="s">
+      <c r="B352" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C352" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D351" t="s">
-        <v>132</v>
-      </c>
-      <c r="E351" t="s">
-        <v>144</v>
-      </c>
-      <c r="H351" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" s="6" t="s">
+      <c r="D352" t="s">
+        <v>132</v>
+      </c>
+      <c r="E352" t="s">
+        <v>144</v>
+      </c>
+      <c r="H352" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B352" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C352" s="6" t="s">
+      <c r="B353" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C353" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="D352" t="s">
-        <v>132</v>
-      </c>
-      <c r="E352" t="s">
-        <v>144</v>
-      </c>
-      <c r="H352" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="6" t="s">
+      <c r="D353" t="s">
+        <v>132</v>
+      </c>
+      <c r="E353" t="s">
+        <v>144</v>
+      </c>
+      <c r="H353" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B353" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C353" s="6" t="s">
+      <c r="B354" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C354" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="D353" t="s">
-        <v>132</v>
-      </c>
-      <c r="E353" t="s">
-        <v>144</v>
-      </c>
-      <c r="H353" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="6" t="s">
+      <c r="D354" t="s">
+        <v>132</v>
+      </c>
+      <c r="E354" t="s">
+        <v>144</v>
+      </c>
+      <c r="H354" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B354" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C354" s="6" t="s">
+      <c r="B355" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C355" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D354" t="s">
-        <v>132</v>
-      </c>
-      <c r="E354" t="s">
-        <v>144</v>
-      </c>
-      <c r="H354" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="6" t="s">
+      <c r="D355" t="s">
+        <v>132</v>
+      </c>
+      <c r="E355" t="s">
+        <v>144</v>
+      </c>
+      <c r="H355" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B355" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C355" s="6" t="s">
+      <c r="B356" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C356" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="D355" t="s">
-        <v>132</v>
-      </c>
-      <c r="E355" t="s">
-        <v>144</v>
-      </c>
-      <c r="H355" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="6" t="s">
+      <c r="D356" t="s">
+        <v>132</v>
+      </c>
+      <c r="E356" t="s">
+        <v>144</v>
+      </c>
+      <c r="H356" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B356" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C356" s="6" t="s">
+      <c r="B357" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C357" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="D356" t="s">
-        <v>132</v>
-      </c>
-      <c r="E356" t="s">
-        <v>144</v>
-      </c>
-      <c r="H356" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="6" t="s">
+      <c r="D357" t="s">
+        <v>132</v>
+      </c>
+      <c r="E357" t="s">
+        <v>144</v>
+      </c>
+      <c r="H357" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B357" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C357" s="6" t="s">
+      <c r="B358" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C358" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D357" t="s">
-        <v>132</v>
-      </c>
-      <c r="E357" t="s">
-        <v>144</v>
-      </c>
-      <c r="H357" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A358" s="6" t="s">
+      <c r="D358" t="s">
+        <v>132</v>
+      </c>
+      <c r="E358" t="s">
+        <v>144</v>
+      </c>
+      <c r="H358" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A359" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B358" s="6" t="s">
+      <c r="B359" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C358" s="6" t="s">
+      <c r="C359" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D358" t="s">
-        <v>132</v>
-      </c>
-      <c r="E358" t="s">
-        <v>144</v>
-      </c>
-      <c r="H358" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A359" s="6" t="s">
+      <c r="D359" t="s">
+        <v>132</v>
+      </c>
+      <c r="E359" t="s">
+        <v>144</v>
+      </c>
+      <c r="H359" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A360" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D359" t="s">
-        <v>132</v>
-      </c>
-      <c r="E359" t="s">
-        <v>144</v>
-      </c>
-      <c r="H359" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A360" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>133</v>
@@ -10129,9 +10138,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>133</v>
@@ -10149,9 +10158,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>133</v>
@@ -10169,9 +10178,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>133</v>
@@ -10189,9 +10198,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>133</v>
@@ -10209,9 +10218,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>539</v>
+        <v>127</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>133</v>
@@ -10229,203 +10238,223 @@
         <v>147</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D366" t="s">
+        <v>132</v>
+      </c>
+      <c r="E366" t="s">
+        <v>144</v>
+      </c>
+      <c r="H366" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A367" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B366" s="6" t="s">
+      <c r="B367" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C366" s="6" t="s">
+      <c r="C367" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D366" t="s">
-        <v>132</v>
-      </c>
-      <c r="E366" t="s">
-        <v>144</v>
-      </c>
-      <c r="H366" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="6" t="s">
+      <c r="D367" t="s">
+        <v>132</v>
+      </c>
+      <c r="E367" t="s">
+        <v>144</v>
+      </c>
+      <c r="H367" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B367" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C367" s="6" t="s">
+      <c r="B368" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="D367" t="s">
-        <v>132</v>
-      </c>
-      <c r="E367" t="s">
-        <v>144</v>
-      </c>
-      <c r="H367" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="6" t="s">
+      <c r="D368" t="s">
+        <v>132</v>
+      </c>
+      <c r="E368" t="s">
+        <v>144</v>
+      </c>
+      <c r="H368" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B368" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C368" s="6" t="s">
+      <c r="B369" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="D368" t="s">
-        <v>132</v>
-      </c>
-      <c r="E368" t="s">
-        <v>144</v>
-      </c>
-      <c r="H368" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A369" s="6" t="s">
+      <c r="D369" t="s">
+        <v>132</v>
+      </c>
+      <c r="E369" t="s">
+        <v>144</v>
+      </c>
+      <c r="H369" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A370" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B369" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C369" s="6" t="s">
+      <c r="B370" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D369" t="s">
-        <v>132</v>
-      </c>
-      <c r="E369" t="s">
-        <v>144</v>
-      </c>
-      <c r="H369" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A370" s="6" t="s">
+      <c r="D370" t="s">
+        <v>132</v>
+      </c>
+      <c r="E370" t="s">
+        <v>144</v>
+      </c>
+      <c r="H370" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A371" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B370" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C370" s="6" t="s">
+      <c r="B371" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C371" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="D370" t="s">
-        <v>132</v>
-      </c>
-      <c r="E370" t="s">
-        <v>144</v>
-      </c>
-      <c r="H370" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A371" s="6" t="s">
+      <c r="D371" t="s">
+        <v>132</v>
+      </c>
+      <c r="E371" t="s">
+        <v>144</v>
+      </c>
+      <c r="H371" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A372" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B371" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C371" s="6" t="s">
+      <c r="B372" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C372" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D371" t="s">
-        <v>132</v>
-      </c>
-      <c r="E371" t="s">
-        <v>144</v>
-      </c>
-      <c r="H371" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A372" s="6" t="s">
+      <c r="D372" t="s">
+        <v>132</v>
+      </c>
+      <c r="E372" t="s">
+        <v>144</v>
+      </c>
+      <c r="H372" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A373" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B372" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C372" s="6" t="s">
+      <c r="B373" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C373" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="D372" t="s">
-        <v>132</v>
-      </c>
-      <c r="E372" t="s">
-        <v>144</v>
-      </c>
-      <c r="H372" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A373" s="6" t="s">
+      <c r="D373" t="s">
+        <v>132</v>
+      </c>
+      <c r="E373" t="s">
+        <v>144</v>
+      </c>
+      <c r="H373" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A374" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B373" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C373" s="6" t="s">
+      <c r="B374" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C374" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="D373" t="s">
-        <v>132</v>
-      </c>
-      <c r="E373" t="s">
-        <v>144</v>
-      </c>
-      <c r="H373" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="6" t="s">
+      <c r="D374" t="s">
+        <v>132</v>
+      </c>
+      <c r="E374" t="s">
+        <v>144</v>
+      </c>
+      <c r="H374" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C375" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B374" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D374" t="s">
-        <v>132</v>
-      </c>
-      <c r="E374" t="s">
-        <v>144</v>
-      </c>
-      <c r="H374" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="D375" t="s">
+        <v>132</v>
+      </c>
+      <c r="E375" t="s">
+        <v>144</v>
+      </c>
+      <c r="H375" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B375" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C375" s="11" t="s">
+      <c r="B376" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C376" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D375" t="s">
-        <v>132</v>
-      </c>
-      <c r="E375" t="s">
-        <v>144</v>
-      </c>
-      <c r="H375" t="s">
+      <c r="D376" t="s">
+        <v>132</v>
+      </c>
+      <c r="E376" t="s">
+        <v>144</v>
+      </c>
+      <c r="H376" t="s">
         <v>147</v>
       </c>
     </row>
